--- a/2 четверть_5_Тестеровщик_Введение в тестирование.xlsx
+++ b/2 четверть_5_Тестеровщик_Введение в тестирование.xlsx
@@ -5,36 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user0\Desktop\Homework-repo\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework-repo\GB_Developer_Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710AC202-C60B-4543-BF51-9E39A199721F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401C8163-47C6-467D-8550-6475E1E86904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13310" yWindow="1680" windowWidth="12290" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Введение в тестирование 1-6" sheetId="12" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -48,54 +39,6 @@
     <t>1 Международный совет по тестированию программного обеспечения;
 2 Цель — стандартизировать знания и умения тестировщиков.
 Требуется в основном исключительно заграницей и скорее human resource</t>
-  </si>
-  <si>
-    <t>Тестирование</t>
-  </si>
-  <si>
-    <t>Что это такое?</t>
-  </si>
-  <si>
-    <t>Это проверка чего угодно проведением тестов, то есть заранее подготовленного списка вопросов, проверок или испытаний.</t>
-  </si>
-  <si>
-    <t>Тестирование ПО</t>
-  </si>
-  <si>
-    <t>Проверка соответствия реального поведения программы ожидаемому.
-Задачи:
-1 определить, что они соответствуют описанным требованиям;
-2 показать, что они подходят для заявленных целей 
-3 найти дефекты.</t>
-  </si>
-  <si>
-    <t>Качество</t>
-  </si>
-  <si>
-    <t>Это степень, в которой какой-то компонент, система 
-или процесс отвечает требованиям и ожиданиям пользователя.</t>
-  </si>
-  <si>
-    <t>Цели тестирования
-последовательность строго от первого к пятому пункту</t>
-  </si>
-  <si>
-    <t>1 Соответствие принятым стандартам (стандарты безопасности итп)
-2 Соответствие ТЗ
-3 Найти ситуации, при которых возникает поломка
-4 Усовершенствование работы
-5 Соответствие внешним стандартам (которые определены законодательством)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Оценить рабочие продукты на соответствие 
-стандартам компании.
-2 Проверить, все ли требования выполняются.
-3 Обнаружить отказы и дефекты.
-4 Снизить уровень риска ненадлежащего качества программного обеспечения, например, пропущенные 
-сбои в работе.
-5 Обеспечить соблюдение договорных, правовых 
-или нормативных требований (стандартов).
-</t>
   </si>
   <si>
     <t>Обязанности инженера QA</t>
@@ -107,29 +50,3854 @@
 4 То есть работа/обязанность QA инженера по снижению ошибок или дефектов в будущем (обучение разработчиков правильно писать код)</t>
   </si>
   <si>
-    <t xml:space="preserve">1 Составление ТЗ на устранение найденных после тестирования недочетов;
-2 Мониторинг и отслеживание правок;
-3 Проведение повторных тестов на отсутствие 
-найденных ошибок;
-4 Анализ и оптимизация этапов разработки 
-для устранения причин ошибок и избежания 
-повторного их появления;
-5 Работа с тестовой документацией.
+    <t>Тестирование ПО: задачи</t>
+  </si>
+  <si>
+    <t>Тестирование ПО: определение</t>
+  </si>
+  <si>
+    <t>1 соответствие ПО описанным требованиям;
+2 выполнение ПО заявленных целей;
+3 поиск дефектов ПО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверка по заранее подготовленным вопросам, проверкам и испытаниям соответствия реального поведения программы ожидаемому.
 </t>
   </si>
   <si>
-    <t>6 Изучение и уточнение требований к программному обеспечению у заказчика ;
-7 Написание и последующая доработка сценариев тестирования;
-8 Проведение тестирования функционала ПО;
-9 Составление отчетов по обнаруженным недочетам в трекинговую систему;
-10 Анализ результатов и показателей проведенных тестов.</t>
+    <t>Тестирование по ISTQB</t>
+  </si>
+  <si>
+    <t>1 Поэтапный процесс
+2 Включает статические и динамические активности
+3 Выявляет соответствие требованиям и отклонение от них (дефекты)</t>
+  </si>
+  <si>
+    <t>2 статические и динамические активности</t>
+  </si>
+  <si>
+    <t>00 06 00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Статические активности (тестирование)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - тестирование до запуска кода, то есть вычитка требований, ревью кода, анализ макетов
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Динамические активности (тестирование)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - тестирование ПО на запущенном коде, то есть тестирование запущенного приложения или живой версии вебсайта</t>
+    </r>
+  </si>
+  <si>
+    <t>Критерии качества</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Тестирование отвечает на вопрос, какого качества ПО</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 
+Качество - Это степень, в которой какой-то компонент, система или процесс отвечает требованиям и ожиданиям пользователя</t>
+    </r>
+  </si>
+  <si>
+    <t>00 07 24</t>
+  </si>
+  <si>
+    <t>(Пример) Как быстро обрабатываются запросы пользователей с мобильного приложения сигнализации.</t>
+  </si>
+  <si>
+    <t>(Пример) Когда сел аккумулятор, вы его заменили и телеметрическое оборудование перезапустилось.</t>
+  </si>
+  <si>
+    <t>(Пример) Пользователь понимает куда он должен попасть, когда нажимает на ту или иную кнопку.</t>
+  </si>
+  <si>
+    <t>(Пример) Пользователь подключит дополнительные датчики, система их увидит? Все ли будет хорошо?</t>
+  </si>
+  <si>
+    <t>(Пример) пользователь захотел перенести сигнализацию на новый автомобиль.</t>
+  </si>
+  <si>
+    <t>(Пример) чтобы злоумышленник не смог перехватить запрос от вашего приложения и управлять вашим
+автомобилем – главная цель при разработке мобильного
+приложения.</t>
+  </si>
+  <si>
+    <t>(Пример) использование сигнализацией экрана бортового
+компьютера для отображения датчиков парктроника.</t>
+  </si>
+  <si>
+    <t>1 Функциональность I</t>
+  </si>
+  <si>
+    <t>4 Удобство использования I</t>
+  </si>
+  <si>
+    <t>2 Эффективность II</t>
+  </si>
+  <si>
+    <t>3 Надежность II</t>
+  </si>
+  <si>
+    <t>5 Поддерживаемость II</t>
+  </si>
+  <si>
+    <t>6 Переносимость III</t>
+  </si>
+  <si>
+    <t>8 Совместимость III</t>
+  </si>
+  <si>
+    <t>7 Безопасность IV</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Личное пояснение: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>для того, чтобы ПО было качественным достаточно выполнения не 8 критериев качества, всего IV (см ниже). Вкратце ПО должно: 
+I выполнять поставленные задачи, 
+II не ломаться, 
+III быть совместимым, 
+IV быть безопасным</t>
+    </r>
+  </si>
+  <si>
+    <t>00 09 00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Продукт выполняет задачи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, для которых создан:
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>функциональная полнота</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - ширина круга задач, которые может решить продукт;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>функциональная правильность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - насколько точно продукт будет выполнять задачи;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>функциональная целесообразность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень востребованности пользователями каждой задачи (из круга задач), которую может решить продукт.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Пример) Задачи сигнализации:
+● информировать пользователя;
+● взаимодействовать с автомобилем.
+(антипример) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>наличие функций ПО с низкой целесообразностью</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> может влечь ненужные расходы на производство или работу этих функций</t>
+    </r>
+  </si>
+  <si>
+    <t>00 10 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Производительность продукта </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">или системы:
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>поведение в зависимости от времени</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - насколько точно продукт будет выполнять задачи;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>использование ресурсов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - насколько экономично продукт использует ресурсы для своей работы;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>вместимость</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - каковы предельные показатели системы, которые система может успешно обработать (например максимальное количество пользователей)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 12 16</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Возможность продукты выполнять задачи в течение длительного периода времени, а также способность быстро восстанавливать работу при отказе</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> оборудования:
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>завершенность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - насколько хорошо продукт работает/выполняет задачи в нормальных условиях его эксплуатирования;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>доступность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степерь досутпности компонента системы при его использовании;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>отказоустойчивость</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - насколько стабильно работает ПО при аппаратных/программных сбоях;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>восстанавливаемость</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - насколько быстро ПО может восстановить свою работу в случае отказа.</t>
+    </r>
+  </si>
+  <si>
+    <t>00 14 11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Простота удовлетворения потребностей</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> пользователя:
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>узнаваемость</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - насколько пользователи распознают, что умеет делать ПО;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>обучаемость</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - насколько ПО дает пользователю быстро разобраться с функционалом;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>работоспособность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень в котором система имеет атрибуты, облегчающие управление программным обеспечением;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>защита пользователя от ошибок</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - насколько система защищает пользователя от ошибочных действий;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>эстетика пользовательского интерфейса</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень, в которой интерфейс позволяет приятно взаимодействовать с программным продуктом;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>доступность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - насколько широкий круг пользователей (сюда также относится и совместимость, переносимость) может использовать данное ПО.</t>
+    </r>
+  </si>
+  <si>
+    <t>00 17 00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Степень адаптируемости приложения к изменениям</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>модульность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - насколько система состоит из отдельных компонентов и насколько изменеие в отдельном компненте оказывает минимльное воздействие на всю систему;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>повторное</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>использование</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень, в которой компонент системы используется в более чем одной системе или при создании других компонентов;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>пригодность к анализу</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень эффективности и результативности, с которой оценивается влияние на продукт изменение одной или нескольких его частей;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>модифицируемость</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень, в которой продукт может быть модифицирован без внесения дефектов или ухудшения качества этого продукта;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>тестируемость</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень эффективности и результативности, с которой устанавливаются </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>критерии тестирования</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> для систем продукта или например компонента теста.</t>
+    </r>
+  </si>
+  <si>
+    <t>00 18 35</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Легкость переноса из одного программного или аппаратного окружения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в другое:
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>адаптивность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень, в которой продукт или система могут легко адаптироваться в новом окружении;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>простота и легкость установки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень эффективности или продуктивности, с которой продукт или система могут быть успешно установлены или удалены в конкретной системе;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>заменяемость</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень, в которой продукт может заменить другой программный продукт для идентичной цели или среды.</t>
+    </r>
+  </si>
+  <si>
+    <t>00 19 26</t>
+  </si>
+  <si>
+    <t>00 20 56</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Степень защиты информации и данных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>конфиденциальность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень, в которой продукт или система гарантирует, что данные получат только те, кто имеют доступ к данной системе;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>целостность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень, в которой продукт или компонент предотвращают несанкционированный доступ или модификацию компьютерных данных;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>невозможность отказаться</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень, в которой действия или события могут быть доказаны без возможность их скрыть или совершить подмену
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ответственность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень, в которой действия объекта однозначно прослеживаются, а также определяются ответственные лица;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>подлинность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень, в которой личность пользователя или ресурса доказывается как заявленой.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Степень, в которой продукт обменивается информацией с другими продуктами или системами:
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>сосуществование</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень, в которой продукт эффективно выполняет требуемые функции при совместном использовании общей среды и ресурсов с другими продуктами, без вредного воздействия на другой продукт;
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>совместимость</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - степень, в которой продукты обмениваются информацией и используют ей.</t>
+    </r>
+  </si>
+  <si>
+    <t>00 21 30</t>
+  </si>
+  <si>
+    <t>Цели тестирования</t>
+  </si>
+  <si>
+    <t>Для чего нужно тестирование?</t>
+  </si>
+  <si>
+    <t>00 24 21</t>
+  </si>
+  <si>
+    <t>1 Тестирование помогает оценить насколько продукт соответствует ожиданиям/требованиям пользователей, на имеющемся у них оборудовании
+2 Чем раньше будет обнаружен дефект, тем проще, быстрее и дешеле ее будет устранить
+3 Тестирование привносит взгляд клиента на процесс и на наш продукт, соответственно тестеровщик сможет находить новые требования, которые не были предусмотрены в изначальных, но которые будут необходимы нашему конечному пользователю</t>
+  </si>
+  <si>
+    <t>● Оценить рабочие продукты на соответствие стандартам компании (требования, пользовательские истории, проектирование и код)
+● Проверить, все ли требования выполняются.
+● Обнаружить отказы и дефекты.
+● Обеспечить соблюдение договорных, правовых или нормативных требований (стандартов).</t>
+  </si>
+  <si>
+    <t>00 25 00</t>
+  </si>
+  <si>
+    <t>1 Изучение и уточнение требований к ПО у заказчика
+2 Работа с тестовой документацией
+3 Тестирование функционала ПО
+4 Составление ТЗ на устранение найденных после тестирования недочетов/Составление отчетов по обнаруженным недочетам в трекинговую систему;
+5 Мониторинг и отслеживание правок
+6 Анализ результатов и показателей проведенных тестов
+7 Проведение повторных тестов на отсутствие найденных ошибок
+8 Написание и последующая доработка сценариев тестирования
+9 Анализ и оптимизация этапов разработки для устранения причин ошибок и избежания 
+повторного их появления</t>
+  </si>
+  <si>
+    <t>00 26 50</t>
+  </si>
+  <si>
+    <t>Принципы тестирования
+"как определить, что во время тестирования мы придерживаемся правильной стратегии?"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Принципы тестирования регламентирует стандарт ISTQB. Принципы регламентируют количество и качество работа в области QA</t>
+    </r>
+  </si>
+  <si>
+    <t>Тестировщик обязан придерживаться некоторых правил/принципов тестирования
+1 Тестирование демонстрирует наличие дефектов
+2 Исчерпывающее тестирование недостижимо.
+3 Раннее тестирование.
+4 Скопление дефектов.
+5 Парадокс пестицида.
+6 Тестирование зависит от контекста.
+7 Заблуждение об отсутствии ошибок.</t>
+  </si>
+  <si>
+    <t>1 Тестирование демонстрирует наличие дефектов</t>
+  </si>
+  <si>
+    <t>2 Исчерпывающее тестирование недостижимо.</t>
+  </si>
+  <si>
+    <t>3 Раннее тестирование.</t>
+  </si>
+  <si>
+    <t>4 Скопление дефектов.</t>
+  </si>
+  <si>
+    <t>5 Парадокс пестицида.</t>
+  </si>
+  <si>
+    <t>6 Тестирование зависит от контекста.</t>
+  </si>
+  <si>
+    <t>7 Заблуждение об отсутствии ошибок.</t>
+  </si>
+  <si>
+    <t>00 27 54</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Тестирование показывает, что дефекты есть, но тестирование не может доказать, что дефектов нет. То есть тестирование не показывает отсутствие дефектов.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Тестирование снижает вероятность дефектов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, которые находятся в ПО, но даже если дефекты не обнаружились это не доказывает корректность работы нашего ПО</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Полное тестирование с использованием всех комбинаций данных и условий физически невозможно за исключением тривиальных случаев. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Вместо исчерпывающего тестирования </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>используется анализ рисков и расстановка приоритетов, чтобы более точно сфокусировать усилия команды тестирования.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Основной случай:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> вычитка требований заказчика и нахождения несоответсвий в этих требований для последующего уточнения</t>
+    </r>
+  </si>
+  <si>
+    <t>00 28 45</t>
+  </si>
+  <si>
+    <t>00 29 07</t>
+  </si>
+  <si>
+    <t>00 29 41</t>
+  </si>
+  <si>
+    <t>Тестовая среда</t>
+  </si>
+  <si>
+    <r>
+      <t>Обнаружение и устранение дефектов нам не поможет,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> если созданная нами система не удовлетворяет потребностям пользователя</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и не подходит пользователю в целом.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Тестирование выполняется по-разному в зависимости от той системы, которую мы тестируем. Например, если мы тестируем </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>систему, в которой критически важна безопасность, то подход к тестированию (выбор кейсов для проверки)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> будет отличаться от проверок для веб-магазина</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Если одни и те же тесты выполняются много раз, то в конечном счете этот набор тестов перестает выявлять дефекты. Чтобы </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>преодолеть этот парадокс тестовым сценариям требуется регулярная доработка, изменение, переработка</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. При этом новые тесты должны быть разносторонними, чтобы охватить все компоненты ПО или системы и найти как можно больше дефектов.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Усилия тестирования сосредотачиваются пропорционально ожидаемой, а позже реальной плотности дефектов по модулям. Как правило большая часть дефектов обнаруживаенных при тестировании или повлекших за собой </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>большое количество сбоев системы, содержатся лишь в некоторых модуля</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>х, при этом в других модулях плотность дефектов будет намного меньше (или их совсем может не быть).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Чтобы найти дефекты как можно раньше, активности тестирования в жизненном цикле разработки нужно начинать как можно раньше и фокусировать их на конкретных целях. Например мы можем одновременно с написанием кода начать </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>вычитывать требования и находить дефекты и несоответствия в них</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>00 31 00</t>
+  </si>
+  <si>
+    <t>"Полигон для испытаний", который настраивается в соответствии с требованиями к этому приложению</t>
+  </si>
+  <si>
+    <t>1 Локальное окружение
+2 Тестовое окружение
+3 Staging-окружение
+4 Боевое окружение</t>
+  </si>
+  <si>
+    <t>1 Локальное окружение</t>
+  </si>
+  <si>
+    <t>2 Тестовое окружение</t>
+  </si>
+  <si>
+    <t>3 Staging-окружение</t>
+  </si>
+  <si>
+    <t>4 Боевое окружение</t>
+  </si>
+  <si>
+    <t>Это одна машина, на которой разрабатывают и тестируют приложение, то есть тестеровщик или разработчик может развернуть проект локально на своем компьютере.</t>
+  </si>
+  <si>
+    <t>Виртуалка, в которой недоступны какие-то сложные сервисы - например оплата</t>
+  </si>
+  <si>
+    <t>Среда, наполненная тестовыми данными, которые могут отражать редко возникающие случаи.</t>
+  </si>
+  <si>
+    <t>Среда для тестирования, которая в точности похожа на production окружение, которая стремится как можно точно отразить реальное production окружение. Может подключаться к другим production сервисам (например к базам данных)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Production окружение - реальная сеть машин, там где работают реальные пользователи. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Тестирование в данном окружении не продвится, кроме проверок каких-либо базовых/важных функций</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Тестовые данные</t>
+  </si>
+  <si>
+    <t>00 34 35</t>
+  </si>
+  <si>
+    <t>Набор входных значений, требуемых для выполнения тестов.
+Тестировщики создают тестовые данные вручную или с применением инструментов генерации:
+● таблицы Excel;
+● онлайн-утилиты;
+● скрипты для выполнения в командной строке;
+● сложные программы, созданные самими тестировщиками.</t>
+  </si>
+  <si>
+    <t>QA -&gt; QC -&gt; Тестирование</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">● </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — Обеспечение качества продукта — изучение возможностей по изменению и улучшению процесса разработки, улучшению коммуникаций в команде, где тестирование является только одним из аспектов обеспечения качества.
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">QC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— Контроль качества продукта — анализ результатов тестирования и качества новых версий выпускаемого продукта.
+● </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Тестирование</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — это уже непосредственно процесс проверки результатов работы на соответствие установленным требованиям.</t>
+    </r>
+  </si>
+  <si>
+    <t>00 35 50</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Своими словами: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>без наличия культуры QA невозможно корректное существование QC и тестирования. То есть если иные службы (кроме тестирования) в свеой работе не будут преследовать принцип качественной разработки, то компания даже с наличием тестировщиков не сможет гарантировать системное качество своей продукции для пользователей</t>
+    </r>
+  </si>
+  <si>
+    <t>Урок 2 часть 1</t>
+  </si>
+  <si>
+    <t>Чек-лист</t>
+  </si>
+  <si>
+    <t>Это список проверок для тестирования ПО.</t>
+  </si>
+  <si>
+    <t>Составление чек-листов</t>
+  </si>
+  <si>
+    <t>Последовательность действий</t>
+  </si>
+  <si>
+    <t>Принципы составления чек-листа</t>
+  </si>
+  <si>
+    <t>Оформление чек-листов</t>
+  </si>
+  <si>
+    <t>Чек-лист с тестовыми данными</t>
+  </si>
+  <si>
+    <t>Чек-лист с комментарием</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Чек-лист с детализацией</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> по окружениям</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Чек-лист с детализацией </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>по версиям</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Чек-лист с детализацией </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>по тестовым данными</t>
+    </r>
+  </si>
+  <si>
+    <t>Виды чек-листов</t>
+  </si>
+  <si>
+    <t>Специальные</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Специальные</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 для конкретного продукта;
+2 специфические проверки.</t>
+    </r>
+  </si>
+  <si>
+    <t>Универсальные</t>
+  </si>
+  <si>
+    <t>Типы чек-листов</t>
+  </si>
+  <si>
+    <t>Связанный чеклист</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Несвязанный чеклист</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+● порядок упрощает прохождение, но не влияет на результат.</t>
+    </r>
+  </si>
+  <si>
+    <t>Несвязанный чеклист</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пример:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;&lt;1. Новое окно открывается при двойном клике на ярлык.
+2. Окно сворачивается в панель задач при нажатии кнопки «Свернуть».
+3. Окно разворачивается из панели задач при нажатии на ярлык в панели задач.
+4. Окно закрывается при нажатии кнопки «Закрыть».&gt;&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пример:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;&lt;1. Пользователь может создать публикацию.
+2. Пользователь видит публикации открытых аккаунтов, независимо от наличия подписки.
+3. Пользователь видит публикации закрытых аккаунтов, на которые он подписан.
+4. Пользователь не видит публикации закрытых аккаунтов, на которые он не подписан.
+5. Пользователь может удалить публикацию.&gt;&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Правила выполнения чек-листов</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Мой комментарий:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> такое чувство, что каждый из типов чек-листов нужен для конкретных задач. Подробный для визуальной оценки верстки, орфографии, доступности всех кнопок и ссылок. Связанный для проверки работы кнопок и ссылок. Несвязанный для проверки наличия всей должной информации на экране пользователя.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Не пропускать проверки.
+2. Если указаны тестовые данные, то использовать именно их.
+3. Указывать результат.
+4. При возникновении ошибки указывать ссылку на дефект в комментарии.</t>
+  </si>
+  <si>
+    <t>Резолюции</t>
+  </si>
+  <si>
+    <t>Урок 2 часть 2</t>
+  </si>
+  <si>
+    <t>Преимущества и недостатки чек-листов</t>
+  </si>
+  <si>
+    <t>Преимущества</t>
+  </si>
+  <si>
+    <t>Недостатки</t>
+  </si>
+  <si>
+    <t>Распространенные ошибки</t>
+  </si>
+  <si>
+    <t>Верно:
+● авторизация по номеру телефона
+● переход в профиль пользователя
+● редактирование имени пользователя
+● редактирование номера телефона пользователя
+● редактирование почты пользователя</t>
+  </si>
+  <si>
+    <t>Некорректная форма глагола</t>
+  </si>
+  <si>
+    <t>Неатомарные проверки</t>
+  </si>
+  <si>
+    <t>Нет разделения по модулям</t>
+  </si>
+  <si>
+    <t>Не верно:
+● авторизация по номеру телефона
+● редактирование номера телефона
+● редактирование имени пользователя</t>
+  </si>
+  <si>
+    <t>Урок 2 часть 3</t>
+  </si>
+  <si>
+    <t>Программы для составления и хранения чек-листов</t>
+  </si>
+  <si>
+    <t>Плюсы</t>
+  </si>
+  <si>
+    <t>Минусы</t>
+  </si>
+  <si>
+    <t>1 Google-таблицы могут быть запрещены политикой безопасности
+2 Документы Excel неудобно модифицировать</t>
+  </si>
+  <si>
+    <t>1 Действия и результаты распределены по ячейкам</t>
+  </si>
+  <si>
+    <t>TMS – Test Management System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Чек-листы хранятся в специально предусмотренном для них месте
+</t>
+  </si>
+  <si>
+    <t>1 Дополнительный инструмент в команде, который может требовать определенной
+настройки. Большинство TMS – платные</t>
+  </si>
+  <si>
+    <t>1 Чек-листы защищены
+2 Всем доступна актуальная версия</t>
+  </si>
+  <si>
+    <t>Пример</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> В каких программах составляется: Excel, Checkvist, TestRail, TestIT, Qase.io…
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Насколько детальным будет чек-лист зависит от требований</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, уровня знания продукта сотрудниками и сложности продукта.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Однако чек-лист не может быть настолько детализирован</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, чтобы по нему мог пройтись любой человек с любым уровнем знаний о продукте.</t>
+    </r>
+  </si>
+  <si>
+    <t>Техническое задание (ТЗ)</t>
+  </si>
+  <si>
+    <t>Это набор документов, который определяет свойства, методы того проекта, который мы собираемся тестировать</t>
+  </si>
+  <si>
+    <t>00 05 00</t>
+  </si>
+  <si>
+    <t>00 07 30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ЭЛЕМЕНТЫ ИНТЕРФЕЙСА САЙТА https://borodaboroda.com/blog/elementy-interfejsa-sajta/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Один пункт – одна операция </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(в одном пункте - авторизация, в другом пункте - редактирование профиля пользователя)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Пункты всегда начинаются с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>существительного</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> или </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>глагола неопределенной формы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Соблюдать структуру</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (то есть логику/правила дедукции, а именно соблюдать последовательность проверок в соответствии с логикой работы программы)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. Опираться на ТЗ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5. Давать названия пунктам чек-листа понятные для всех членов команды </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(https://borodaboroda.com/blog/elementy-interfejsa-sajta/)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 11 00</t>
+  </si>
+  <si>
+    <t>00 14 00</t>
+  </si>
+  <si>
+    <t>00 14 45</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Задача: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">проверить всю работу приложения во всех доступных окружениях
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Задача:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> вести историю проверок всех версий нашего приложения
+</t>
+    </r>
+  </si>
+  <si>
+    <t>00 15 10</t>
+  </si>
+  <si>
+    <t>00 16 17</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Мой комментарий: Специальные чек-листы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> используются в тех случаях, когда мы проверяем графическую и логическую составляющую тестируемого продукта. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Универсальные чек-листы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> исопользуются, когда проверка не привязывается к графическим элементам или к конкретной логике конрктеного сервиса, а проверяется возможность пользователя выполнить то или иное действие или в общем наличие того или иного элемента без привязки к его конкретному отображению.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Универсальные</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 для однотипных продуктов;
+2 универсальные проверки.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В универсальном чек-листе составляется абстрактный список проверок.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Им можно проверить отдельные/конкретные проекта, но такой чек-лист будет общим для всех проектов, то есть в нем будет общий список проверок, которые не будут затрагивать какие-то конкретные детали.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пример:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Чек-лист для проверки сайта
+1. Переход в профиль пользователя (должен быть в любом маркет плейсе)
+2. Отображается аватарка пользователя (должен быть в любом маркет плейсе)
+3. Отображается имя пользователя (должен быть в любом маркет плейсе)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 18 00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пример:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Чек-лист для страницы «Профиль»
+1. Профиль пользователя открывается в отдельной вкладке (конкретная проверка см для сравнения с универсальным ниже)
+2. Название страницы «Профиль пользователя» (конкретная проверка)
+3. Отображается аватарка пользователя (конкретная проверка)
+4. Присутствует обводка вокруг аватарки (конкретная проверка)</t>
+    </r>
+  </si>
+  <si>
+    <t>Подробный перечень (laundery list - список белья, отданный в стирку. Чтобы сохранить цвет переданных вещей, их необходимо сгруппировать в группы по цвету)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Подробный перечень</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>● группировка по категориям</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+верно подобранные категории - это главная ценность подробного списка. По ним происходит группировка. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Группировка должна быть реализована таким образом, чтобы отдельные группы могли протестировать отдельные люди
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>● порядок не влияет на точность данных.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Цель подробного чек-листа:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Упрощение восприятия и понимания информации
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Группировка должна быть реализована таким образом, чтобы отдельные группы могли протестировать отдельные люди. Таким образом проверки можно распаллелить на всю команду тестировщиков (1 человек - верстка, 2 человек - содержимое, 3 человек - функциональность)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пример Подробный перечень:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;&lt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Верстка</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+a. Верстка не «едет» во всех оговоренных браузерах.
+b. Работают динамические элементы, и нет явных ошибок отображения.
+…
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Содержимое.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a. Нет орфографических и грамматических ошибок.
+b. Удалены рыбные тексты.
+…
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Функциональность.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a. Нет битых ссылок.
+b. Все страницы сайта доступны из главной навигации.
+&gt;&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>00 19 55</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Связанный чеклист</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+● порядок выполнения влияет на результат.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ключевой этап работы над связанным чек-листом</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Распределение функционала (то есть функционал становится доступен только в том случае, если соблюдена правильная последовательность проверки). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пример:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Разработка чек-листа авиакомпанией для предполетной оценки самолета. В ней важна строгая последовательность, которая характерна для каждого типа самолета</t>
+    </r>
+  </si>
+  <si>
+    <t>00 20 57</t>
+  </si>
+  <si>
+    <t>00 22 00</t>
+  </si>
+  <si>
+    <t>00 22 46</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. passed – кейс прошел проверку </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+работа системы соответствует требованиям
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. failed – кейс не прошел проверку </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+работа системы не соответствует требованиям
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. skipped – пропуск проверки
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">пропуск проверки. 
+- либо у нас не хватает времени, чтобы проверить тот или иной функционал или его часть. 
+- либо изменилась логика работы функционала и чек-лист еще не успели актуализировать
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4. blocked – нет возможности проверить
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Проверка заблокирована поломанным функционалом. Например, чтобы проверить проверку отправки сообщений в чате, необходимо авторизоваться. В это же время авторизация невозможна (например у нее статус failed).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5. untested – еще не брали в работу
+</t>
+    </r>
+  </si>
+  <si>
+    <t>00 24 30</t>
+  </si>
+  <si>
+    <t>Вопросы: непонятна последовательность и случаи приложения каждого из типов чек-листов. Написал свое предоплолжение в Мой комментарий</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">● Начинающие тестировщики </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>не всегда эффективно проводят тесты без достаточно подробной документации</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+● Заказчику или руководству может быть </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>недостаточно того уровня детализации, который предлагают чек-листы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+● Неопределенность тестового набора: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>каждый тестировщик выполняет пункт чек-листа по-своему</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>-Структурированнее работа тестировщика
+-Легко собирать статистику о готовности ПО и проделанной работе тестировщиками</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`-Недостаточный уровень детализации чек-листов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(путаются начинающие и руководство; тестировщики выполняют чек-листы по-своему)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">● Чек-листы затрагивают большее количество кейсов, так как при прохождении их можно по-разному выполнять. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(бред, так как без детализации никто не поймет что именно было проверено)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+● Сокращают затраты на содержание и поддержку тестов.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>● Обеспечивают высокую скорость тестирования: не нужно отмечать результат каждого шага тестировщика, достаточно общего результата проверки.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+● Позволяют проходить и комбинировать тесты по-разному, в зависимости от предпочтений сотрудников.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>● Показывают статистику: кто, когда и что проходил — с детализацией по сборке продукта и окружению, на котором проводилось тестирование.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+● Улучшают представление о системе в целом, показывают статус ее готовности.
+● Показывают объем проделанной и предстоящей работы по тестированию.</t>
+    </r>
+  </si>
+  <si>
+    <t>00 26 00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Не верно:
+● авторизоваться в профиле пользователя </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>И</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> изменить имя пользователя
+● редактирование номера телефона </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>И</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> почты
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Не верно:
+● авторизо</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>вался</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в профиле пользователя
+● отредакти</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ровал </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">номер телефона
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Верно:
+● автори</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>зация</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> по номеру телефона
+● редактиро</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>вание</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> номера телефона
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Верно:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">● </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Авторизация </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+авторизация по номеру телефона
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">● Профиль </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+пользователя редактирование номера телефона редактирование имени пользователя</t>
+    </r>
+  </si>
+  <si>
+    <t>00 29 00</t>
+  </si>
+  <si>
+    <t>Таблицы ...и прочие RMS (requirements management system)</t>
+  </si>
+  <si>
+    <t>Confluence - 
+RMS (requirements management system)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RMS (requirements management system)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Средства поддержки и автоматизации процесса работы с требованиями на протяжении всего жизненного цикла разработки продукта
+1 Требуется настройка, установка, раздача доступов</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Составление чек-листов - последовательность действий</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Сначала изучить ТЗ/требования и определить необходимые проверки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> любой чек-лист </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>должен составляться не по рабочей версии   продукта/ПО</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>а только по требованиям ТЗ!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Сгруппировать </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>проверки</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>разделы</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>это функциональные блоки нашей фичи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. Определить </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>тестовые данные</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4. Определить, какие </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>колонки</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> будут в чек-листе </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  см ниже - версии, тестовые данные, комментарии
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5. Приступить к составлению </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>тестовой документации</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>чек-лист это часть тестовой документации</t>
+    </r>
+  </si>
+  <si>
+    <t>https://miro.com/app/board/uXjVP42tgDQ=/</t>
+  </si>
+  <si>
+    <t>Семинар 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,13 +3930,178 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,8 +4120,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -196,11 +4159,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -211,33 +4329,220 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -251,6 +4556,363 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25564</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3434115</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1200727</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDCAB961-A8B4-4EB7-AD37-86EFB733EB37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2542473" y="41964429"/>
+          <a:ext cx="3408551" cy="1146298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>54426</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3474357</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1328498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52FBC730-C1F5-4F0D-8C98-274495BD824D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6095997" y="40259000"/>
+          <a:ext cx="3419931" cy="1292212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>36287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3474820</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1406071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F56E74-8B0B-45E3-9075-407D736A92F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="41728573"/>
+          <a:ext cx="3420391" cy="1369784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3492500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1205837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE504130-FDAF-47D3-B6D9-BA0700D7E685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6104247" y="44947279"/>
+          <a:ext cx="3438071" cy="1124194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>63501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3492500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>999913</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1054D073-60DF-4DB1-83E8-ADA54887EA2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105072" y="44531644"/>
+          <a:ext cx="3428999" cy="936412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3508451</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>961572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2653F07-EA37-41A8-8D51-22F058AE0DA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105072" y="45629286"/>
+          <a:ext cx="3444950" cy="907143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>72572</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1407973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E061839-E42C-451B-9FA0-3FD486A9BE23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18732501" y="40268072"/>
+          <a:ext cx="1641928" cy="1380758"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>99786</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2821216</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1420757</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{531B3DEC-AC95-49F4-A5E2-CFD635D7EE75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22606000" y="40313428"/>
+          <a:ext cx="2721430" cy="1348186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,17 +5181,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V20"/>
+  <dimension ref="A2:V81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="74.7265625" style="4" customWidth="1"/>
     <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.26953125" style="7" customWidth="1"/>
     <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
@@ -584,87 +5246,887 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="9"/>
+      <c r="P4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18" s="10"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C20" s="10"/>
+      <c r="C21" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A25" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A26" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="31"/>
+    </row>
+    <row r="30" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="27"/>
+    </row>
+    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="27"/>
+    </row>
+    <row r="33" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="27"/>
+    </row>
+    <row r="34" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="31"/>
+    </row>
+    <row r="35" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="U38" s="5"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="P39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="2"/>
+    </row>
+    <row r="40" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A41" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="35"/>
+    </row>
+    <row r="42" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="D42" s="65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A43" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="55"/>
+    </row>
+    <row r="44" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A45" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="35"/>
+      <c r="F45" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="18"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="35"/>
+    </row>
+    <row r="46" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="44"/>
+      <c r="D46" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="31"/>
+    </row>
+    <row r="47" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A47" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="44"/>
+      <c r="D47" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="44"/>
+      <c r="D48" s="27"/>
+    </row>
+    <row r="49" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A49" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="44"/>
+      <c r="D49" s="27"/>
+    </row>
+    <row r="50" spans="1:22" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="49"/>
+      <c r="D50" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="71"/>
+      <c r="C51" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="73"/>
+    </row>
+    <row r="52" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="71"/>
+      <c r="C54" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="F54" s="59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="27"/>
+    </row>
+    <row r="56" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="A56" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A58" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="35"/>
+    </row>
+    <row r="59" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A59" s="38"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A60" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="43"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="27"/>
+    </row>
+    <row r="61" spans="1:22" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="39"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A63" s="3"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="U63" s="5"/>
+    </row>
+    <row r="64" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="P64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="2"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A65" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="35"/>
+    </row>
+    <row r="66" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="A66" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" s="31"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A68" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="71"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="73"/>
+    </row>
+    <row r="69" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A69" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A70" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="27"/>
+    </row>
+    <row r="71" spans="1:22" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="31"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A73" s="3"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="U73" s="5"/>
+    </row>
+    <row r="74" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="P74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="2"/>
+    </row>
+    <row r="75" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A75" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="35"/>
+    </row>
+    <row r="76" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A76" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D77" s="27"/>
+    </row>
+    <row r="78" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" s="31"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="62" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A81" r:id="rId1" xr:uid="{6A249A6A-F3CD-4844-A86C-4629577D6DE8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/2 четверть_5_Тестеровщик_Введение в тестирование.xlsx
+++ b/2 четверть_5_Тестеровщик_Введение в тестирование.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework-repo\GB_Developer_Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401C8163-47C6-467D-8550-6475E1E86904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EF18BA-8C94-4ADB-AD99-B8B8E177DD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="2470" windowWidth="15980" windowHeight="7600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Введение в тестирование 1-6" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="329">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -3892,17 +3892,1004 @@
   <si>
     <t>Семинар 2</t>
   </si>
+  <si>
+    <t>Урок 3 часть 1</t>
+  </si>
+  <si>
+    <t>Тест-кейс</t>
+  </si>
+  <si>
+    <t>это совокупность шагов, конкретных условий и параметров, требуемых для проверки реализации тестируемой функции или ее части.</t>
+  </si>
+  <si>
+    <t>Атрибуты тест-кейса</t>
+  </si>
+  <si>
+    <t>ID тест-кейса</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Шаги</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат</t>
+  </si>
+  <si>
+    <t>Приоритет тест-кейса</t>
+  </si>
+  <si>
+    <t>Предусловия</t>
+  </si>
+  <si>
+    <t>Фактический результат</t>
+  </si>
+  <si>
+    <t>Статус тест-кейса</t>
+  </si>
+  <si>
+    <t>Priority в тест-кейсе</t>
+  </si>
+  <si>
+    <t>Приоритет показывает важность тест-кейса - то есть тестирощвик по приоритету может отсортировать тест-кейсы н выполнение</t>
+  </si>
+  <si>
+    <t>Крайне высокий</t>
+  </si>
+  <si>
+    <t>Высокий</t>
+  </si>
+  <si>
+    <t>Средний</t>
+  </si>
+  <si>
+    <t>Низкий</t>
+  </si>
+  <si>
+    <t>Крайне низкий</t>
+  </si>
+  <si>
+    <t>Алгоритм составления тест-кейсов</t>
+  </si>
+  <si>
+    <t>2 Сформировать названия для тест-кейсов</t>
+  </si>
+  <si>
+    <t>1 Продумать сценарии</t>
+  </si>
+  <si>
+    <t>3 Определить для каждого сценария необходимые предусловия</t>
+  </si>
+  <si>
+    <t>В соответствии с требованиями описываем ожидаемый результат</t>
+  </si>
+  <si>
+    <t>При необходимости заполняем остальные атрибуты этого этапа</t>
+  </si>
+  <si>
+    <t>4 В соответствии с требованиями описываем шаги</t>
+  </si>
+  <si>
+    <t>5 В соответствии с требованиями описываем ожидаемый результат</t>
+  </si>
+  <si>
+    <t>6 При необходимости заполняем остальные атрибуты этого этапа</t>
+  </si>
+  <si>
+    <t>Правила работы с тест-кейсами</t>
+  </si>
+  <si>
+    <t>Точные названия для элементов приложения: кнопок, чекбоксов, элементов меню</t>
+  </si>
+  <si>
+    <t>Заголовок точно описывает суть тест-кейса</t>
+  </si>
+  <si>
+    <t>Один тест-кейс — одна проверка или один сценарий</t>
+  </si>
+  <si>
+    <t>Простой технический стиль без объяснений базовых понятий работы ПО</t>
+  </si>
+  <si>
+    <t>Нет пропущенных шагов: каждое действие вытекает из предыдущего</t>
+  </si>
+  <si>
+    <t>Нет описания очевидных действий</t>
+  </si>
+  <si>
+    <t>10. Гибкость для модификации</t>
+  </si>
+  <si>
+    <t>Нет зависимостей от других тест-кейсов</t>
+  </si>
+  <si>
+    <t>Нет дублей с другими тест-кейсами</t>
+  </si>
+  <si>
+    <t>Обнаруженная ошибка становится очевидной</t>
+  </si>
+  <si>
+    <t>Ошибки в тест-кейсах</t>
+  </si>
+  <si>
+    <t>Ссылки ведут на разные или недействительные требования</t>
+  </si>
+  <si>
+    <t>Используются личные формы глаголов:</t>
+  </si>
+  <si>
+    <t>1 Заголовок тест-кейса отсутствует или сформулирован некорректно</t>
+  </si>
+  <si>
+    <t>2 Ссылки ведут на разные или недействительные требования</t>
+  </si>
+  <si>
+    <t>3 Используются личные формы глаголов: "нажми", "перейдите", "укажи"</t>
+  </si>
+  <si>
+    <t>4 Пунктуационные, орфографические, синтаксические ошибки</t>
+  </si>
+  <si>
+    <t>5 Выдумывание особенностей поведения приложения без отсылки к требованиям</t>
+  </si>
+  <si>
+    <t>6 Не описывается приготовление к выполнению тест-кейса</t>
+  </si>
+  <si>
+    <t>Урок 3 часть 2</t>
+  </si>
+  <si>
+    <t>Составление тест-кейсов</t>
+  </si>
+  <si>
+    <t>Заголовок формы “Начни бесплатно”. Шрифт Sans Serif, размер текста 40px. Имеется три поля: “Имя и фамилия”, “Email”, “Номер телефона”.</t>
+  </si>
+  <si>
+    <t>1. Поле “Имя и фамилия” принимает на вход текст русский и английский.
+Когда пользователь начинает заполнять поле, то плейсхолдер “Имя и фамилия” скрывается.</t>
+  </si>
+  <si>
+    <t>3 Также имеется поле ввода номера телефона, где пользователь может выбрать страну и ввести в поле “Номер телефона” свой номер телефона.</t>
+  </si>
+  <si>
+    <t>2 Поле “Email” принимает на вход email в формате email@mail.ru. Когда пользователь начинает заполнять поле, то плейсхолдер “Email” скрывается.</t>
+  </si>
+  <si>
+    <t>Техническое задание</t>
+  </si>
+  <si>
+    <t>4. При вводе номера будет автоматически добавлен код страны в соответствии с выбранной. Вводимый номер будет разделяться пробелами.</t>
+  </si>
+  <si>
+    <t>5. Для отправки формы имеется кнопка “Начать”, которая становится активной (на нее можно нажать) в том случае, если заполнены все поля.</t>
+  </si>
+  <si>
+    <t>6. На форме имеются два чекбокса: “Я подтверждаю согласие на обработку персональных данных в соответствии с условиями Политики конфиденциальности, ознакомился и согласен с условиями Пользовательского соглашения” и “Я согласен получать уведомления о новых продуктах и предложениях GeekBrains и его партнеров”.</t>
+  </si>
+  <si>
+    <t>7 Если поле “Имя и фамилия” не заполнено, то отображается ошибка “Заполните поле Имя и фамилия”.</t>
+  </si>
+  <si>
+    <t>8 Если поле “Email” не заполнено, то отображается ошибка “Заполните поле Email”.</t>
+  </si>
+  <si>
+    <t>9 Если поле “Номер телефона” не заполнено, то отображается ошибка “Заполните поле Номер телефона”. Размер текста ошибки 12px, Sans Serif, цвет: #f2363b</t>
+  </si>
+  <si>
+    <t>Тест-кейс #1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Название:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Отображение заголовка формы регистрации</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Предусловие:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Открыта форма регистрации</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Шаг 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Проверить отображение и наличие заголовка формы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ожидаемый результат 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Заголовок формы “Начни бесплатно” отображается. Шрифт Sans Serif, размер текста 40px.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Тест-кейс #2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Название:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Отображение поля “Имя и фамилия”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаг 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Проверить наличие поля “Имя и фамилия” </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ожидаемый результат 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Поле “Имя и фамилия” отображается в соответствии с макетом</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаг 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Проверить наличие плейсхолдера в поле “Имя и фамилия” </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ожидаемый результат 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Плейсхолдер “Имя и фамилия” отображается в поле, размер шрифта 14px</t>
+    </r>
+  </si>
+  <si>
+    <t>Тест-кейс #3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Название:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Заполнение поля “Имя и фамилия”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаг 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Клик в поле “Имя и фамилия” </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ожидаемый результат 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> В поле отображается курсор</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаг 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ввести в поле Иван Иванов </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ожидаемый результат 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Плейсхолдер скрывается, введенный текст отображается</t>
+    </r>
+  </si>
+  <si>
+    <t>Тест-кейс #4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Название:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Отображение ошибки “Заполните поле Имя и фамилия”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ожидаемый результат 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Отображение ошибки “Заполните это поле Имя и фамилия”. Размер текста 12px, Sans Serif, цвет: #f2363b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаг 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Клик на кнопку “Начать”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+  </si>
+  <si>
+    <t>Преимущества и недостатки тест-кейсов</t>
+  </si>
+  <si>
+    <t>Урок 3 часть 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Достаточно подробное описание бизнес-логики.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> При неидеальной организации хранения требований, уточнение некоторых моментов проще будет найти в тест-кейсах.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>За счет полной детализации шагов тест-кейсы может проходить новичок</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, а также по тест-кейсам довольно удобно знакомиться с продуктом.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сложно поддерживать.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> При изменении бизнес-логики, переименовании разделов и прочих изменениях, затрагивающих пользовательский интерфейс и сценарии использования системы, нужно актуализировать все тест-кейсы, затрагивающие измененную часть.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В сравнении с чек-листами требуют много времени</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> на написание.</t>
+    </r>
+  </si>
+  <si>
+    <t>Инструменты для работы с тест-кейсами</t>
+  </si>
+  <si>
+    <t>TMS</t>
+  </si>
+  <si>
+    <t>Системы для работы с тест-кейсами (test-case management system, сокращенно TMS) — автоматизированные приложения, которые позволяют управлять тест-кейсами.</t>
+  </si>
+  <si>
+    <t>Jira+Zephyr</t>
+  </si>
+  <si>
+    <t>TestRail</t>
+  </si>
+  <si>
+    <t>Allure</t>
+  </si>
+  <si>
+    <t>Test IT</t>
+  </si>
+  <si>
+    <t>TastLink</t>
+  </si>
+  <si>
+    <t>Qaseio</t>
+  </si>
+  <si>
+    <t>Основные функции TMS</t>
+  </si>
+  <si>
+    <t>1 Создание тест-кейсов.</t>
+  </si>
+  <si>
+    <t>2 Выполнение тест-кейсов и запись результатов.</t>
+  </si>
+  <si>
+    <t>3 Отслеживание дефектов.</t>
+  </si>
+  <si>
+    <t>4 Отслеживание требований и других проектных документов.</t>
+  </si>
+  <si>
+    <t>5 Защита тест-кейсов.</t>
+  </si>
+  <si>
+    <t>Тест-кейсы и чек-листы</t>
+  </si>
+  <si>
+    <t>Детализация</t>
+  </si>
+  <si>
+    <t>Связность</t>
+  </si>
+  <si>
+    <t>Понятность</t>
+  </si>
+  <si>
+    <t>Эффект пестицида</t>
+  </si>
+  <si>
+    <t>Проверки детализированы, расписаны по шагам</t>
+  </si>
+  <si>
+    <t>Тест-кейсы не зависят друг от друга и выполняются в произвольном порядке.</t>
+  </si>
+  <si>
+    <t>Понятен любому человеку</t>
+  </si>
+  <si>
+    <t>Есть риск возникновения, т.к. каждый раз воспроизводятся одни и те же шаги.</t>
+  </si>
+  <si>
+    <t>Проверки формулируются в общем виде. Пункт чек-листа = заголовок тест-кейса.</t>
+  </si>
+  <si>
+    <t>Проверки могут быть связаны друг с другом, предполагается их последовательное выполнение</t>
+  </si>
+  <si>
+    <t>Понятен человеку, который знаком с продуктом</t>
+  </si>
+  <si>
+    <t>Риск снижается, т.к. каждый выполняет проверку по-своему</t>
+  </si>
+  <si>
+    <t>Ценность тест-кейсов и чек-листов</t>
+  </si>
+  <si>
+    <t>Структурируют и систематизирую подход к тестированию.</t>
+  </si>
+  <si>
+    <t>Основа для метрик тестового покрытия.</t>
+  </si>
+  <si>
+    <t>Основа для увеличения тестового покрытия.</t>
+  </si>
+  <si>
+    <t>Показатель соответствия ситуации плану.</t>
+  </si>
+  <si>
+    <t>Поддерживают взаимопонимание между заказчиком, разработчиками и тестировщиком.</t>
+  </si>
+  <si>
+    <t>Хранят информацию для длительного использования и обмена опытом между сотрудниками и командами.</t>
+  </si>
+  <si>
+    <t>Основа регрессионного тестирования.</t>
+  </si>
+  <si>
+    <t>Наборы тест-кейсов test case, test suite, test plan, test run</t>
+  </si>
+  <si>
+    <t>Test case — атомарный элемент тест-плана.
+Test suite — список кейсов, объединенных общим фактором
+Test plan — список test suite-ов, выбранных для теста
+Test run — выполнение test plan-а</t>
+  </si>
+  <si>
+    <t>Регрессионное тестирование</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">это </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>тестирование уже проверенной функциональности</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> после внесения изменений в код приложения для уверенности, что эти изменения не внесли или не активизировали ошибки в областях, которые не подвергались изменениям.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4100,6 +5087,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -4151,7 +5158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -4313,12 +5320,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4329,216 +5381,274 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5181,10 +6291,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V81"/>
+  <dimension ref="A2:V211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5307,7 +6417,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="62" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="32" t="s">
@@ -5316,7 +6426,7 @@
       <c r="C10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5330,7 +6440,7 @@
       <c r="C11" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="64" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5344,7 +6454,7 @@
       <c r="C12" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="65" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5358,7 +6468,7 @@
       <c r="C13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="61" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5372,7 +6482,7 @@
       <c r="C14" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="61" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5386,7 +6496,7 @@
       <c r="C15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="61" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5400,7 +6510,7 @@
       <c r="C16" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="61" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5414,7 +6524,7 @@
       <c r="C17" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="61" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5428,7 +6538,7 @@
       <c r="C18" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="66" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5445,7 +6555,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="14"/>
@@ -5680,41 +6790,41 @@
         <v>105</v>
       </c>
       <c r="B41" s="18"/>
-      <c r="C41" s="46"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="35"/>
     </row>
     <row r="42" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="64" t="s">
+      <c r="A42" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="D42" s="65" t="s">
+      <c r="D42" s="61" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54" t="s">
+      <c r="B43" s="51"/>
+      <c r="C43" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="D43" s="55"/>
+      <c r="D43" s="52"/>
     </row>
     <row r="44" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="44" t="s">
         <v>157</v>
       </c>
       <c r="D44" s="31" t="s">
@@ -5726,93 +6836,89 @@
         <v>108</v>
       </c>
       <c r="B45" s="18"/>
-      <c r="C45" s="46"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="35"/>
       <c r="F45" s="23" t="s">
         <v>150</v>
       </c>
       <c r="G45" s="18"/>
-      <c r="H45" s="50"/>
+      <c r="H45" s="47"/>
       <c r="I45" s="35"/>
     </row>
     <row r="46" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="44"/>
       <c r="D46" s="27" t="s">
         <v>158</v>
       </c>
       <c r="F46" s="39"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="51"/>
+      <c r="H46" s="48"/>
       <c r="I46" s="31"/>
     </row>
     <row r="47" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A47" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="43" t="s">
+      <c r="B47" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="44"/>
       <c r="D47" s="27" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="44"/>
       <c r="D48" s="27"/>
     </row>
     <row r="49" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A49" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="C49" s="44"/>
       <c r="D49" s="27"/>
     </row>
     <row r="50" spans="1:22" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="C50" s="49"/>
+      <c r="C50" s="46"/>
       <c r="D50" s="31" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="71"/>
-      <c r="C51" s="72" t="s">
+      <c r="B51" s="67"/>
+      <c r="C51" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="D51" s="73"/>
+      <c r="D51" s="69"/>
     </row>
     <row r="52" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A52" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="41" t="s">
         <v>118</v>
       </c>
       <c r="D52" s="27" t="s">
@@ -5823,10 +6929,10 @@
       <c r="A53" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B53" s="47" t="s">
+      <c r="B53" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="44" t="s">
         <v>166</v>
       </c>
       <c r="D53" s="31" t="s">
@@ -5834,40 +6940,40 @@
       </c>
     </row>
     <row r="54" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="66" t="s">
+      <c r="A54" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="71"/>
-      <c r="C54" s="72" t="s">
+      <c r="B54" s="67"/>
+      <c r="C54" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="D54" s="73" t="s">
+      <c r="D54" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="F54" s="59" t="s">
+      <c r="F54" s="56" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="57" t="s">
+      <c r="A55" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="41" t="s">
         <v>171</v>
       </c>
       <c r="D55" s="27"/>
     </row>
     <row r="56" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="C56" s="45" t="s">
+      <c r="C56" s="41" t="s">
         <v>174</v>
       </c>
       <c r="D56" s="27" t="s">
@@ -5875,13 +6981,13 @@
       </c>
     </row>
     <row r="57" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="58" t="s">
+      <c r="A57" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="47" t="s">
+      <c r="B57" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C57" s="47" t="s">
+      <c r="C57" s="44" t="s">
         <v>122</v>
       </c>
       <c r="D57" s="31" t="s">
@@ -5893,13 +6999,12 @@
         <v>126</v>
       </c>
       <c r="B58" s="18"/>
-      <c r="C58" s="46"/>
+      <c r="C58" s="43"/>
       <c r="D58" s="35"/>
     </row>
     <row r="59" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="38"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="45" t="s">
+      <c r="C59" s="41" t="s">
         <v>128</v>
       </c>
       <c r="D59" s="27" t="s">
@@ -5907,17 +7012,15 @@
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A60" s="52" t="s">
+      <c r="A60" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="44"/>
       <c r="D60" s="27"/>
     </row>
     <row r="61" spans="1:22" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="39"/>
       <c r="B61" s="14"/>
-      <c r="C61" s="47" t="s">
+      <c r="C61" s="44" t="s">
         <v>178</v>
       </c>
       <c r="D61" s="31" t="s">
@@ -5957,17 +7060,17 @@
         <v>131</v>
       </c>
       <c r="B65" s="18"/>
-      <c r="C65" s="46"/>
+      <c r="C65" s="43"/>
       <c r="D65" s="35"/>
     </row>
     <row r="66" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A66" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="60" t="s">
+      <c r="B66" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="C66" s="45" t="s">
+      <c r="C66" s="41" t="s">
         <v>184</v>
       </c>
       <c r="D66" s="27" t="s">
@@ -5978,30 +7081,30 @@
       <c r="A67" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="C67" s="47" t="s">
+      <c r="C67" s="44" t="s">
         <v>181</v>
       </c>
       <c r="D67" s="31"/>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A68" s="66" t="s">
+      <c r="A68" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="71"/>
-      <c r="C68" s="74"/>
-      <c r="D68" s="73"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="69"/>
     </row>
     <row r="69" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A69" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="43" t="s">
+      <c r="B69" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C69" s="45" t="s">
+      <c r="C69" s="41" t="s">
         <v>135</v>
       </c>
       <c r="D69" s="27" t="s">
@@ -6012,10 +7115,10 @@
       <c r="A70" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="41" t="s">
         <v>188</v>
       </c>
       <c r="D70" s="27"/>
@@ -6027,7 +7130,7 @@
       <c r="B71" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="47" t="s">
+      <c r="C71" s="44" t="s">
         <v>189</v>
       </c>
       <c r="D71" s="31"/>
@@ -6061,25 +7164,25 @@
       <c r="V74" s="2"/>
     </row>
     <row r="75" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A75" s="61" t="s">
+      <c r="A75" s="58" t="s">
         <v>141</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C75" s="56" t="s">
+      <c r="C75" s="53" t="s">
         <v>143</v>
       </c>
       <c r="D75" s="35"/>
     </row>
     <row r="76" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C76" s="41" t="s">
         <v>144</v>
       </c>
       <c r="D76" s="27" t="s">
@@ -6090,22 +7193,22 @@
       <c r="A77" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="43" t="s">
+      <c r="B77" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="45" t="s">
+      <c r="C77" s="41" t="s">
         <v>148</v>
       </c>
       <c r="D77" s="27"/>
     </row>
     <row r="78" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="58" t="s">
+      <c r="A78" s="55" t="s">
         <v>192</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="47" t="s">
+      <c r="C78" s="44" t="s">
         <v>193</v>
       </c>
       <c r="D78" s="31"/>
@@ -6115,13 +7218,926 @@
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="62" t="s">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A81" s="59" t="s">
         <v>195</v>
       </c>
     </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A83" s="3"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="U83" s="5"/>
+    </row>
+    <row r="84" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="P84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="2"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A85" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" s="18"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="35"/>
+    </row>
+    <row r="86" spans="1:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="39"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86" s="31"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A87" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B87" s="18"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="35"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A88" s="73"/>
+      <c r="B88" s="74"/>
+      <c r="C88" s="75" t="s">
+        <v>201</v>
+      </c>
+      <c r="D88" s="27"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A89" s="73"/>
+      <c r="B89" s="74"/>
+      <c r="C89" s="75" t="s">
+        <v>202</v>
+      </c>
+      <c r="D89" s="27"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A90" s="73"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" s="27"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A91" s="73"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="D91" s="27"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A92" s="73"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="75" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" s="27"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A93" s="73"/>
+      <c r="B93" s="74"/>
+      <c r="C93" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="27"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A94" s="73"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="D94" s="27"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A95" s="76"/>
+      <c r="B95" s="74"/>
+      <c r="C95" s="75" t="s">
+        <v>207</v>
+      </c>
+      <c r="D95" s="27"/>
+    </row>
+    <row r="96" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="77"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="78" t="s">
+        <v>208</v>
+      </c>
+      <c r="D96" s="31"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" s="18"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="35"/>
+    </row>
+    <row r="98" spans="1:4" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="39"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B99" s="18"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="35"/>
+    </row>
+    <row r="100" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="38"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="79" t="s">
+        <v>210</v>
+      </c>
+      <c r="D100" s="27"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="38"/>
+      <c r="B101" s="74"/>
+      <c r="C101" s="79" t="s">
+        <v>211</v>
+      </c>
+      <c r="D101" s="27"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="38"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102" s="27"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="38"/>
+      <c r="B103" s="74"/>
+      <c r="C103" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="D103" s="27"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="38"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" s="27"/>
+    </row>
+    <row r="105" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="39"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="72" t="s">
+        <v>215</v>
+      </c>
+      <c r="D105" s="31"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B106" s="18"/>
+      <c r="C106" s="43"/>
+      <c r="D106" s="35"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="38"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="79" t="s">
+        <v>218</v>
+      </c>
+      <c r="D107" s="27"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="38"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="79" t="s">
+        <v>217</v>
+      </c>
+      <c r="D108" s="27"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="38"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="D109" s="27"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="38"/>
+      <c r="B110" s="74"/>
+      <c r="C110" s="79" t="s">
+        <v>222</v>
+      </c>
+      <c r="D110" s="80"/>
+    </row>
+    <row r="111" spans="1:4" ht="22" x14ac:dyDescent="0.35">
+      <c r="A111" s="38"/>
+      <c r="B111" s="74"/>
+      <c r="C111" s="79" t="s">
+        <v>223</v>
+      </c>
+      <c r="D111" s="81" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="22.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="39"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="D112" s="82" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="42" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C114" s="83" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C115" s="83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C116" s="83" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C117" s="83" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C118" s="83" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C119" s="83" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C120" s="83" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C121" s="83" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C122" s="83" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C123" s="71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="B124" s="18"/>
+      <c r="C124" s="43"/>
+      <c r="D124" s="35"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="38"/>
+      <c r="B125" s="74"/>
+      <c r="C125" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="D125" s="80"/>
+    </row>
+    <row r="126" spans="1:4" ht="22" x14ac:dyDescent="0.35">
+      <c r="A126" s="38"/>
+      <c r="B126" s="74"/>
+      <c r="C126" s="83" t="s">
+        <v>240</v>
+      </c>
+      <c r="D126" s="84" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="22" x14ac:dyDescent="0.35">
+      <c r="A127" s="38"/>
+      <c r="B127" s="74"/>
+      <c r="C127" s="83" t="s">
+        <v>241</v>
+      </c>
+      <c r="D127" s="85" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="38"/>
+      <c r="B128" s="74"/>
+      <c r="C128" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="D128" s="80"/>
+    </row>
+    <row r="129" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A129" s="38"/>
+      <c r="B129" s="74"/>
+      <c r="C129" s="79" t="s">
+        <v>243</v>
+      </c>
+      <c r="D129" s="27"/>
+    </row>
+    <row r="130" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="39"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="D130" s="31"/>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A132" s="3"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="P132" s="5"/>
+      <c r="Q132" s="5"/>
+      <c r="R132" s="5"/>
+      <c r="S132" s="5"/>
+      <c r="U132" s="5"/>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="P133" s="1"/>
+      <c r="U133" s="1"/>
+      <c r="V133" s="2"/>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A135" s="42" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C136" s="71" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C137" s="71" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C138" s="71" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C139" s="71" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C140" s="71" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C141" s="71" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C142" s="71" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C143" s="71" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C144" s="71" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C145" s="71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C147" s="71" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C148" s="71" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C149" s="71" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C150" s="71" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C151" s="71" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C153" s="71" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C154" s="71" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C155" s="71" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C156" s="71" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C157" s="71" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C158" s="71" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C159" s="71" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C161" s="71" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C162" s="71" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C163" s="71" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C164" s="71" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C165" s="71" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C166" s="71" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C167" s="71" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C169" s="71" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C170" s="71" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C171" s="71" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C172" s="71" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C173" s="71" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A175" s="3"/>
+      <c r="B175" s="5"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="K175" s="3"/>
+      <c r="L175" s="3"/>
+      <c r="M175" s="3"/>
+      <c r="N175" s="3"/>
+      <c r="P175" s="5"/>
+      <c r="Q175" s="5"/>
+      <c r="R175" s="5"/>
+      <c r="S175" s="5"/>
+      <c r="U175" s="5"/>
+    </row>
+    <row r="176" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A176" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C176" s="9"/>
+      <c r="P176" s="1"/>
+      <c r="U176" s="1"/>
+      <c r="V176" s="2"/>
+    </row>
+    <row r="177" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A177" s="87" t="s">
+        <v>283</v>
+      </c>
+      <c r="B177" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C177" s="88" t="s">
+        <v>133</v>
+      </c>
+      <c r="D177" s="35"/>
+    </row>
+    <row r="178" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A178" s="38"/>
+      <c r="B178" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="C178" s="79" t="s">
+        <v>288</v>
+      </c>
+      <c r="D178" s="27"/>
+    </row>
+    <row r="179" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="39"/>
+      <c r="B179" s="90" t="s">
+        <v>285</v>
+      </c>
+      <c r="C179" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="D179" s="31"/>
+    </row>
+    <row r="180" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A180" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="B180" s="18"/>
+      <c r="C180" s="43"/>
+      <c r="D180" s="35"/>
+    </row>
+    <row r="181" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A181" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="B181" s="74"/>
+      <c r="C181" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="D181" s="27"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" s="38"/>
+      <c r="B182" s="74"/>
+      <c r="C182" s="79" t="s">
+        <v>292</v>
+      </c>
+      <c r="D182" s="27"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="38"/>
+      <c r="B183" s="74"/>
+      <c r="C183" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="D183" s="27"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="38"/>
+      <c r="B184" s="74"/>
+      <c r="C184" s="79" t="s">
+        <v>294</v>
+      </c>
+      <c r="D184" s="27"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="38"/>
+      <c r="B185" s="74"/>
+      <c r="C185" s="79" t="s">
+        <v>295</v>
+      </c>
+      <c r="D185" s="27"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="38"/>
+      <c r="B186" s="74"/>
+      <c r="C186" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="D186" s="27"/>
+    </row>
+    <row r="187" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A187" s="39"/>
+      <c r="B187" s="14"/>
+      <c r="C187" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="D187" s="31"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="B188" s="18"/>
+      <c r="C188" s="43"/>
+      <c r="D188" s="35"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="38"/>
+      <c r="B189" s="74"/>
+      <c r="C189" s="83" t="s">
+        <v>299</v>
+      </c>
+      <c r="D189" s="27"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="38"/>
+      <c r="B190" s="74"/>
+      <c r="C190" s="83" t="s">
+        <v>300</v>
+      </c>
+      <c r="D190" s="27"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="38"/>
+      <c r="B191" s="74"/>
+      <c r="C191" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="D191" s="27"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="38"/>
+      <c r="B192" s="74"/>
+      <c r="C192" s="83" t="s">
+        <v>302</v>
+      </c>
+      <c r="D192" s="27"/>
+    </row>
+    <row r="193" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A193" s="39"/>
+      <c r="B193" s="14"/>
+      <c r="C193" s="86" t="s">
+        <v>303</v>
+      </c>
+      <c r="D193" s="31"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B194" s="18"/>
+      <c r="C194" s="43"/>
+      <c r="D194" s="35"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="38"/>
+      <c r="B195" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="C195" s="92" t="s">
+        <v>103</v>
+      </c>
+      <c r="D195" s="27"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="93" t="s">
+        <v>305</v>
+      </c>
+      <c r="B196" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="C196" s="79" t="s">
+        <v>313</v>
+      </c>
+      <c r="D196" s="27"/>
+    </row>
+    <row r="197" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A197" s="93" t="s">
+        <v>306</v>
+      </c>
+      <c r="B197" s="74" t="s">
+        <v>310</v>
+      </c>
+      <c r="C197" s="79" t="s">
+        <v>314</v>
+      </c>
+      <c r="D197" s="27"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="93" t="s">
+        <v>307</v>
+      </c>
+      <c r="B198" s="74" t="s">
+        <v>311</v>
+      </c>
+      <c r="C198" s="79" t="s">
+        <v>315</v>
+      </c>
+      <c r="D198" s="27"/>
+    </row>
+    <row r="199" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A199" s="94" t="s">
+        <v>308</v>
+      </c>
+      <c r="B199" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="C199" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="D199" s="31"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C201" s="83" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C202" s="83" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C203" s="83" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C204" s="83" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C205" s="83" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C206" s="83" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C207" s="83" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A208" s="87" t="s">
+        <v>325</v>
+      </c>
+      <c r="B208" s="18"/>
+      <c r="C208" s="43"/>
+      <c r="D208" s="35"/>
+    </row>
+    <row r="209" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A209" s="39"/>
+      <c r="B209" s="14"/>
+      <c r="C209" s="72" t="s">
+        <v>326</v>
+      </c>
+      <c r="D209" s="31"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B210" s="18"/>
+      <c r="C210" s="43"/>
+      <c r="D210" s="35"/>
+    </row>
+    <row r="211" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A211" s="39"/>
+      <c r="B211" s="14"/>
+      <c r="C211" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="D211" s="31"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A81" r:id="rId1" xr:uid="{6A249A6A-F3CD-4844-A86C-4629577D6DE8}"/>
   </hyperlinks>

--- a/2 четверть_5_Тестеровщик_Введение в тестирование.xlsx
+++ b/2 четверть_5_Тестеровщик_Введение в тестирование.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework-repo\GB_Developer_Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EF18BA-8C94-4ADB-AD99-B8B8E177DD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DDFFAA-00C8-42AD-BA65-08A962820FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2470" windowWidth="15980" windowHeight="7600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="15980" windowHeight="7600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Введение в тестирование 1-6" sheetId="12" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="13" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="488">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -3899,142 +3900,31 @@
     <t>Тест-кейс</t>
   </si>
   <si>
-    <t>это совокупность шагов, конкретных условий и параметров, требуемых для проверки реализации тестируемой функции или ее части.</t>
-  </si>
-  <si>
     <t>Атрибуты тест-кейса</t>
   </si>
   <si>
     <t>ID тест-кейса</t>
   </si>
   <si>
-    <t>Название</t>
-  </si>
-  <si>
-    <t>Шаги</t>
-  </si>
-  <si>
-    <t>Ожидаемый результат</t>
-  </si>
-  <si>
-    <t>Приоритет тест-кейса</t>
-  </si>
-  <si>
-    <t>Предусловия</t>
-  </si>
-  <si>
-    <t>Фактический результат</t>
-  </si>
-  <si>
-    <t>Статус тест-кейса</t>
-  </si>
-  <si>
     <t>Priority в тест-кейсе</t>
   </si>
   <si>
-    <t>Приоритет показывает важность тест-кейса - то есть тестирощвик по приоритету может отсортировать тест-кейсы н выполнение</t>
-  </si>
-  <si>
-    <t>Крайне высокий</t>
-  </si>
-  <si>
-    <t>Высокий</t>
-  </si>
-  <si>
     <t>Средний</t>
   </si>
   <si>
-    <t>Низкий</t>
-  </si>
-  <si>
-    <t>Крайне низкий</t>
-  </si>
-  <si>
     <t>Алгоритм составления тест-кейсов</t>
   </si>
   <si>
-    <t>2 Сформировать названия для тест-кейсов</t>
-  </si>
-  <si>
-    <t>1 Продумать сценарии</t>
-  </si>
-  <si>
-    <t>3 Определить для каждого сценария необходимые предусловия</t>
-  </si>
-  <si>
-    <t>В соответствии с требованиями описываем ожидаемый результат</t>
-  </si>
-  <si>
-    <t>При необходимости заполняем остальные атрибуты этого этапа</t>
-  </si>
-  <si>
-    <t>4 В соответствии с требованиями описываем шаги</t>
-  </si>
-  <si>
-    <t>5 В соответствии с требованиями описываем ожидаемый результат</t>
-  </si>
-  <si>
     <t>6 При необходимости заполняем остальные атрибуты этого этапа</t>
   </si>
   <si>
     <t>Правила работы с тест-кейсами</t>
   </si>
   <si>
-    <t>Точные названия для элементов приложения: кнопок, чекбоксов, элементов меню</t>
-  </si>
-  <si>
-    <t>Заголовок точно описывает суть тест-кейса</t>
-  </si>
-  <si>
-    <t>Один тест-кейс — одна проверка или один сценарий</t>
-  </si>
-  <si>
-    <t>Простой технический стиль без объяснений базовых понятий работы ПО</t>
-  </si>
-  <si>
-    <t>Нет пропущенных шагов: каждое действие вытекает из предыдущего</t>
-  </si>
-  <si>
-    <t>Нет описания очевидных действий</t>
-  </si>
-  <si>
-    <t>10. Гибкость для модификации</t>
-  </si>
-  <si>
-    <t>Нет зависимостей от других тест-кейсов</t>
-  </si>
-  <si>
-    <t>Нет дублей с другими тест-кейсами</t>
-  </si>
-  <si>
-    <t>Обнаруженная ошибка становится очевидной</t>
-  </si>
-  <si>
     <t>Ошибки в тест-кейсах</t>
   </si>
   <si>
-    <t>Ссылки ведут на разные или недействительные требования</t>
-  </si>
-  <si>
-    <t>Используются личные формы глаголов:</t>
-  </si>
-  <si>
-    <t>1 Заголовок тест-кейса отсутствует или сформулирован некорректно</t>
-  </si>
-  <si>
     <t>2 Ссылки ведут на разные или недействительные требования</t>
-  </si>
-  <si>
-    <t>3 Используются личные формы глаголов: "нажми", "перейдите", "укажи"</t>
-  </si>
-  <si>
-    <t>4 Пунктуационные, орфографические, синтаксические ошибки</t>
-  </si>
-  <si>
-    <t>5 Выдумывание особенностей поведения приложения без отсылки к требованиям</t>
-  </si>
-  <si>
-    <t>6 Не описывается приготовление к выполнению тест-кейса</t>
   </si>
   <si>
     <t>Урок 3 часть 2</t>
@@ -4293,6 +4183,134 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Шаг 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Проверить наличие плейсхолдера в поле “Имя и фамилия” </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ожидаемый результат 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Плейсхолдер “Имя и фамилия” отображается в поле, размер шрифта 14px</t>
+    </r>
+  </si>
+  <si>
+    <t>Тест-кейс #3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Название:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Заполнение поля “Имя и фамилия”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаг 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Клик в поле “Имя и фамилия” </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Ожидаемый результат 1:</t>
     </r>
     <r>
@@ -4304,7 +4322,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Поле “Имя и фамилия” отображается в соответствии с макетом</t>
+      <t xml:space="preserve"> В поле отображается курсор</t>
     </r>
   </si>
   <si>
@@ -4329,7 +4347,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Проверить наличие плейсхолдера в поле “Имя и фамилия” </t>
+      <t xml:space="preserve"> Ввести в поле Иван Иванов </t>
     </r>
   </si>
   <si>
@@ -4354,11 +4372,86 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Плейсхолдер “Имя и фамилия” отображается в поле, размер шрифта 14px</t>
-    </r>
-  </si>
-  <si>
-    <t>Тест-кейс #3</t>
+      <t xml:space="preserve"> Плейсхолдер скрывается, введенный текст отображается</t>
+    </r>
+  </si>
+  <si>
+    <t>Тест-кейс #4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Название:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Отображение ошибки “Заполните поле Имя и фамилия”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ожидаемый результат 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Отображение ошибки “Заполните это поле Имя и фамилия”. Размер текста 12px, Sans Serif, цвет: #f2363b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаг 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Клик на кнопку “Начать”</t>
+    </r>
   </si>
   <si>
     <r>
@@ -4382,234 +4475,6 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Название:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Заполнение поля “Имя и фамилия”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Шаг 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Клик в поле “Имя и фамилия” </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ожидаемый результат 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> В поле отображается курсор</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Шаг 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Ввести в поле Иван Иванов </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ожидаемый результат 2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Плейсхолдер скрывается, введенный текст отображается</t>
-    </r>
-  </si>
-  <si>
-    <t>Тест-кейс #4</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Название:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Отображение ошибки “Заполните поле Имя и фамилия”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ожидаемый результат 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Отображение ошибки “Заполните это поле Имя и фамилия”. Размер текста 12px, Sans Serif, цвет: #f2363b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Шаг 1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Клик на кнопку “Начать”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> 4</t>
     </r>
   </si>
@@ -4754,21 +4619,6 @@
     <t>Основные функции TMS</t>
   </si>
   <si>
-    <t>1 Создание тест-кейсов.</t>
-  </si>
-  <si>
-    <t>2 Выполнение тест-кейсов и запись результатов.</t>
-  </si>
-  <si>
-    <t>3 Отслеживание дефектов.</t>
-  </si>
-  <si>
-    <t>4 Отслеживание требований и других проектных документов.</t>
-  </si>
-  <si>
-    <t>5 Защита тест-кейсов.</t>
-  </si>
-  <si>
     <t>Тест-кейсы и чек-листы</t>
   </si>
   <si>
@@ -4796,15 +4646,9 @@
     <t>Есть риск возникновения, т.к. каждый раз воспроизводятся одни и те же шаги.</t>
   </si>
   <si>
-    <t>Проверки формулируются в общем виде. Пункт чек-листа = заголовок тест-кейса.</t>
-  </si>
-  <si>
     <t>Проверки могут быть связаны друг с другом, предполагается их последовательное выполнение</t>
   </si>
   <si>
-    <t>Понятен человеку, который знаком с продуктом</t>
-  </si>
-  <si>
     <t>Риск снижается, т.к. каждый выполняет проверку по-своему</t>
   </si>
   <si>
@@ -4817,16 +4661,7 @@
     <t>Основа для метрик тестового покрытия.</t>
   </si>
   <si>
-    <t>Основа для увеличения тестового покрытия.</t>
-  </si>
-  <si>
     <t>Показатель соответствия ситуации плану.</t>
-  </si>
-  <si>
-    <t>Поддерживают взаимопонимание между заказчиком, разработчиками и тестировщиком.</t>
-  </si>
-  <si>
-    <t>Хранят информацию для длительного использования и обмена опытом между сотрудниками и командами.</t>
   </si>
   <si>
     <t>Основа регрессионного тестирования.</t>
@@ -4870,18 +4705,3062 @@
       </rPr>
       <t xml:space="preserve"> после внесения изменений в код приложения для уверенности, что эти изменения не внесли или не активизировали ошибки в областях, которые не подвергались изменениям.</t>
     </r>
+  </si>
+  <si>
+    <t>00 01 20</t>
+  </si>
+  <si>
+    <t>1 это небольшая инструкция по проверке работы функции. В этой инструкции описываются, какие шаги нужно выполнить (какие кнопки нажать, какие чек-боксы выбрать, как данные ввести), чтобы проверить работу участка системы, а также описывается ожидаемый результат, который должен быть получен в результате этих шагов.
+2 это совокупность шагов, конкретных условий и параметров, требуемых для проверки реализации тестируемой функции или ее части.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Если сравнивать визуальную разницу между </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>чек-листом и тест-кейсом</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, то разница будет лишь в том, что в тест-кейсе есть более подробная детализация каждого действия и того результата, который мы должны получить в конце этого действия </t>
+    </r>
+  </si>
+  <si>
+    <t>00 02 33</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Шаги </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- действие, которое необходимо выполнить, чтобы проверить функционал.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ожидаемый результат </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- это атрибут, в котором описывается как должна выглядеть или работать система. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Заполняется исходя из технического задания!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Приоритет тест-кейса </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- зависит от приоритета функции и сценариев, которые проверяет данный тест-кейс. Определяет очередность выполнения тест-кейса во время тестирования. (приоритет может быть высоким и может идти в начале на проверку, или низким и такой тест-кейс будет выполняться в самом конце)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Тестовые данные</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - это данные, которые используются для проведения тестирования. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Указываются либо в ЩАГАХ, либо вынесены в отдельный файл с указанием ссылок на них. Тестовые данные составляются исходя из ТЗ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Предусловия </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- это условие, которое необходимо выполнить прежде, чем приступить к выполнению тест-кейса. Например подготовить систему для проведения тестирования. Например если мы проверяем отправку письма от пользователя, то предусловием является авторизация пользователя в системе.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Постусловия </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- необходимы для того, чтобы вернуть систему в исходное состояние. Например мы проверяли, что у пользователя есть бесплатные товары - в админке меняли стоимость товаров, однако после проверки необходимо вернуть систему (стоимость товаров) в исходное состояние</t>
+    </r>
+  </si>
+  <si>
+    <t>Заполняется в момент проверки</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Фактический результат </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- указываем то, что получаем в результате тест-кейса, либо одного шага.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Статус тест-кейса/резолюция</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - результат тест-кейса, либо причину по которой тест-кейс выполнить не получается.</t>
+    </r>
+  </si>
+  <si>
+    <t>Заполняется в момент проверки. Необязательный атрибут.</t>
+  </si>
+  <si>
+    <t>00 07 06</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. passed – кейс прошел проверку </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+работа системы соответствует требованиям
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. failed – кейс не прошел проверку </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>фактический результат</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> не соответствует </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ожидаемому результату</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - то есть работа системы не соответствует требованиям
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. skipped – пропуск проверки
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">пропуск проверки. 
+- либо у нас не хватает времени, чтобы проверить тот или иной функционал или его часть. 
+- либо изменилась логика работы функционала и чек-лист еще не успели актуализировать
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4. blocked – нет возможности проверить
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Проверка заблокирована поломанным функционалом. Например, чтобы проверить проверку отправки сообщений в чате, необходимо авторизоваться. В это же время авторизация невозможна (например у нее статус failed). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Например в тех случаях, когда невозожно выполнить предусловия тест-кейса - поломана авторизация для проверки отправки сообщений</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5. untested – еще не брали в работу
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Приоритет показывает важность тест-кейса - то есть тестирощвик по приоритету может отсортировать тест-кейсы на выполнение</t>
+  </si>
+  <si>
+    <t>Можно также обозначать цифрами или буквами латинского алфавита</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Крайне низкий</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - данный кейс проверяет совсем минорные функции в продукте</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Низкий</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - данный кейс можно пропустить, тк он проверяет незначительный функционал, который пользователь может даже и не заметит с первого раза</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Высокий</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - важный, но не критический функционал продукта</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Крайне высокий </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- критиечкски важный функционал продукта</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Приоритетность основывается на важности требований, а также важности функционала для пользователя</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Как написать тест-кейсы по требованиям?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Все зависит от проекта, команды, в которой работает тестировщик. Тест-кейсы могут быть в виде текстового описания, в виде различных схем, mind card и могут быть в виде use case diagram</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Тестирование получает требования для ознакомления
+2 Ознакамливается
+3 Уточняет детали у разработчиков, продакт менеджеров или иных лиц ответственных за составление данного ТЗ</t>
+  </si>
+  <si>
+    <t>00 12 00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 Продумать сценарии</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - подумать какие новые возможности и сценарии появятся за счет добавления новой фичи, а также определить с какими из существующих функциональностей новая фича как-то будет пересекаться/взаимодействовать</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 Сформировать названия для тест-кейсов </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- определяем названия сценариев, которые выделели в предыдущем шаге</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 Определить для каждого сценария необходимые предусловия</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - определяем действия, которые необходимо выполнить до непосредственных шагов в тест-кейсе</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 В соответствии с требованиями описываем</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>шаги</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5 В соответствии с требованиями описываем</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ожидаемый результат</t>
+    </r>
+  </si>
+  <si>
+    <t>Обязательно</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 Один тест-кейс — одна проверка или один сценарий.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Не должно быть такого, что один тест-кейс проверяет множество шагов</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 Заголовок точно описывает суть тест-кейса. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Отправка сообщения пользователю" "Регистрация в системе по номеру телефона". Не должно быть "Сообщение" "Отправка" - не показывают суть проверки</t>
+    </r>
+  </si>
+  <si>
+    <t>3 Точные названия для элементов приложения: кнопок, чекбоксов, элементов меню, свитч, радио-батн</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 Простой технический стиль без объяснений базовых понятий работы ПО.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Все должно быть написано просто и коротко, иначе время потраченное на проверку данного тест-кейса будет сильно увеличено</t>
+    </r>
+  </si>
+  <si>
+    <t>5 Нет пропущенных шагов: каждое действие вытекает из предыдущего</t>
+  </si>
+  <si>
+    <t>8 Нет дублей с другими тест-кейсами</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6 Нет описания очевидных действий.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Разблокировать девайс", "Взять в руки ноутбук", "Установить приложение" - такого быть не должно, тк это и так понятные действия, которые нужно выполнить</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7 Нет зависимостей от других тест-кейсов.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Нет ссылок на другие тест-кейсы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9 Обнаруженная ошибка становится очевидной</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Шаги и ожидаемые результаты тест-кейса описываются таким образом, чтобы отклонение от них явно свидетельствовало о наличии дефекта</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10. Гибкость для модификации. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Тест-кейсы составляются таким образом, чтобы их потом возможно было доработать, усовершенствовать</t>
+    </r>
+  </si>
+  <si>
+    <t>00 19 45</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 Заголовок тест-кейса отсутствует или сформулирован некорректно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Не должно быть заголовков "Кнопка сохранить", "Чат с поддержкой" - из такого заголовка непонятно, что мы должны делать с чатом поддержки. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Заголовок тест-кейса должен полностью описывать суть проверки, но при этом не должен содержать в себе ожидаемого результата</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 Используются личные формы глаголов: "нажми", "перейдите", "укажи".</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Правильно было бы указывать неопрделенную форму глагола "нажать", "перейти", "указать"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 Пунктуационные, орфографические, синтаксические ошибки.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Такие ошибки усложняют чтение тест-кейсов</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5 Выдумывание особенностей поведения приложения</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> без отсылки к требованиям</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6 Не описывается приготовление к выполнению тест-кейса. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Если система должна быть в определенном состоянии перед проверкой, то нам нужно указать это состояние, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>чтобы во время проверки нам не нужно было додумывать и вспоминать это состояние для осуществления проверки</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ожидаемый результат 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Поле “Имя и фамилия” отображается в соответствии с макетом </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(лучше если будет указана ссылка на ТЗ)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 30 30</t>
+  </si>
+  <si>
+    <t>00 33 30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 Создание тест-кейсов.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> В TMS обычно имеются заготовки/шаблоны тест-кейсов</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 Выполнение тест-кейсов и запись результатов. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Результаты записываются в систему. По итогу может быть выведен отчет</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 Отслеживание дефектов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. ТМС системы хранят историю баг-репортов. Тем самым мы будем понимать насколько высока вероятность багов в проверяемой системе, а также насколько новый баг Вы смогли найти</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4 Отслеживание требований и других проектных документов. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Возможность ссылаться на ТЗ/требования</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5 Защита тест-кейсов. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Защита от неавторизованных изменений тест-кейсов</t>
+    </r>
+  </si>
+  <si>
+    <t>00 37 30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Тест-кейс+чек-лист = тестовая документация</t>
+    </r>
+  </si>
+  <si>
+    <t>Проверки формулируются в общем виде (недетализированные). Пункт чек-листа = заголовок тест-кейса.</t>
+  </si>
+  <si>
+    <t>Понятен человеку, который знаком с продуктом (так как чек-лист недетализированный)</t>
+  </si>
+  <si>
+    <t>00 38 50</t>
+  </si>
+  <si>
+    <t>Основа для увеличения тестового покрытия. Если текущих проверок недостаточно.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Поддерживают взаимопонимание между заказчиком, разработчиками и тестировщиком.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Тестировщик всегда может обратиться к заказчику или разработчику, чтобы что-то уточнить по требованиям к системе</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Хранят информацию для длительного использования и обмена опытом между сотрудниками и командами. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>На основе тест-кейсов тестировщики могут обмениваться информацией о требованиях и опыте работы над определенным проектом.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Обязательно. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Примечание:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Обычно начинается с глагола "Нажать" "Указать" итд</t>
+    </r>
+  </si>
+  <si>
+    <t>Название - заголовок тест-кейса. Описывается в одном предложении суть тест-кейса.</t>
+  </si>
+  <si>
+    <t>№ п.п. / Название</t>
+  </si>
+  <si>
+    <t>Предусловие</t>
+  </si>
+  <si>
+    <t>Шаги</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат</t>
+  </si>
+  <si>
+    <t>1. Отображение блока "Контакты"</t>
+  </si>
+  <si>
+    <t>открыта страница https://limelab.tech/foodbuzz/index.html</t>
+  </si>
+  <si>
+    <t>1. Проскроллить страницу до футера</t>
+  </si>
+  <si>
+    <t>Слева в футере отображается блок "Контакты".
+Блок “Контакты” содержит адрес, номер телефона, email, контакт (skype) поддержки. Язык отображения совпадает с языком всего сайта. Возле каждого из контактов отображается иконка - у адреса домик, у телефона трубка, у сайта глобус и у поддержки наушники.</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>1 Адрес указан некорректно: 
+-должен быть указан полный адрес на русском языке;
+2 Телефон указан некорректно:
+-указано два телефона вместо одного; 
+-телефон должен иметь формат либо 8 800, либо +7 код #######
+3 email указан некорректно
+email должен иметь формат имя_пользователя@имя_домена (somebody@example.com)
+4 Контакт (skype) указан некорректно
+skype должен иметь формат имя_пользователя (somebody)</t>
+  </si>
+  <si>
+    <t>2. Отображение блока "Часы работы"</t>
+  </si>
+  <si>
+    <t>В центре в футере отображается блок "Часы работы". "Часы работы" отображаются правее блока "Контакты"
+Блок “Часы работы” содержит часы работы в формате: 00:00 am - 00:00 pm для дней недели: Суббота, Воскресенье, Понедельник и Вторник.</t>
+  </si>
+  <si>
+    <t>1 Дни недели указаны некорректно:
+-должны быть указаны на русском</t>
+  </si>
+  <si>
+    <t>3. Отображение блока "Подписка на рассылку"</t>
+  </si>
+  <si>
+    <t>Справа в футере отображается блок “Подписка на рассылку”.
+Блок “Подписка на рассылку” состоит из заголовка "Подпишитесь на рассылку", текста “Укажите email и получите 15% скидки”, поля “Введите email” с соответствующим плейсхолдером и кнопки "Подписаться".</t>
+  </si>
+  <si>
+    <t>1 Название заголовка блока “Подпишитесь на рассылку” указано некорректно
+-"Подпишитесь На Рассылку" должно быть исправлено на “Подпишитесь на рассылку” 
+2 Текст “Укажите email и получите 15% скидки” указан некорректно
+-"Подпишитесь на нашу рассылку! Обещаем, что спама не будет." должно быть исправлено на “Укажите email и получите 15% скидки”
+3 Поле “Введите email” указано некорректно
+-Плейсхолдер "Your Email" должен быть исправлен на “Введите email”
+-Кнопка "Subscribe" должна быть исправлена на "Подписаться"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вопрос: всегда ли тест-кейсах обязательно указывать раздел комментариев </t>
+  </si>
+  <si>
+    <t>Урок 4 часть 1</t>
+  </si>
+  <si>
+    <t>Техники тест-дизайна</t>
+  </si>
+  <si>
+    <t>Тест-дизайн</t>
+  </si>
+  <si>
+    <t>Цели тест-дизайна</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(покрытие)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> максимально покрыть функциональность тестами;
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(приоритизация тест-кейсов)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> обнаружить самые серьезные баги;
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(приоритизация тест-кейсов)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> сократить количество тестов за счет исключения непродуктивных тест-кейсов;
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(приоритизация тест-кейсов)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> не пропустить важные тесты.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Техники тест-дизайна</t>
+  </si>
+  <si>
+    <t>● классы эквивалентности (эквивалентное разделение);
+● граничные значения (анализ граничных значений, метод граничных значений);
+● попарное тестирование (тестовая комбинаторика);
+● тестирование состояний и переходов;
+● таблицы принятия решений;
+● исследовательское тестирование.</t>
+  </si>
+  <si>
+    <t>Урок 4 часть 2</t>
+  </si>
+  <si>
+    <t>Классы эквивалентности</t>
+  </si>
+  <si>
+    <t>Класс эквивалентности</t>
+  </si>
+  <si>
+    <r>
+      <t>Тестирование на основе классов эквивалентности (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Эквивалентное разбиение</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Equivalence partitioning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — техника тест-дизайна </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>на основе метода черного ящика</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
++ Помогает разрабатывать и выполнять меньше тест-кейсов, при этом сохраняя достаточное тестовое покрытие.</t>
+    </r>
+  </si>
+  <si>
+    <t>Признаки эквивалентных классов</t>
+  </si>
+  <si>
+    <t>1 если один тест выявит ошибку — остальные, скорее всего, тоже это сделают;
+2 если один из тестов не выявит ошибку — остальные, скорее всего, тоже этого не сделают.</t>
+  </si>
+  <si>
+    <t>Классы эквивалентности. Пример</t>
+  </si>
+  <si>
+    <t>0–15 Не нанимать
+16–17 Наем, только сокращенный рабочий день (part time) 
+18–64 Наем на полный рабочий день (full time)
+65–99 Не нанимать</t>
+  </si>
+  <si>
+    <t>Что можно разбить на классы эквивалентности</t>
+  </si>
+  <si>
+    <t>1. числа;
+2. символы;
+3. длину строки;
+4. размер файла;
+5. объем памяти;
+6. разрешение экрана;
+7. версии операционных систем, библиотек;
+8. объем передаваемых данных.</t>
+  </si>
+  <si>
+    <t>Граничные значения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Техника анализа граничных значений </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">это проверка поведения продукта на крайних (граничных) значениях входных данных.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Граничные значения обязательно следует применять при написании тестов, так как именно в этом месте чаще всего и обнаруживаются ошибки.</t>
+    </r>
+  </si>
+  <si>
+    <t>Алгоритм техники анализа граничных значений</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 Выделить КЛАССЫ ЭКВИВАЛЕНТНОСТИ.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2 Определить граничные значения этих классов.
+3 Определить, к какому классу будет относиться каждая граница.
+4 Для каждой границы провести тесты по проверке значения до границы, на ней и сразу после нее.</t>
+    </r>
+  </si>
+  <si>
+    <t>Граничные значения. Пример</t>
+  </si>
+  <si>
+    <t>Урок 4 часть 3</t>
+  </si>
+  <si>
+    <t>Урок 4 часть 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Попарное тестирование (pairwise testing) </t>
+  </si>
+  <si>
+    <t>Попарное тестирование</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>это техника формирования наборов тестовых данных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, при которой каждое тестируемое значение каждого из проверяемых параметров хотя бы раз сочетается с каждым из тестируемых значений всех остальных проверяемых параметров.</t>
+    </r>
+  </si>
+  <si>
+    <t>Суть проблемы</t>
+  </si>
+  <si>
+    <t>1 Если мы попытаемся проверить все сочетания всех значений всех параметров для сложного случая тестирования, мы получим количество тест-кейсов, превышающее все разумные пределы.
+2 Большинство дефектов возникает при комбинации двух параметров.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Суть: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Сокращение тестов в сложных взаимосвязанных системах</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Полный перебор
+1 чекбокс = 2 значения ON|OFF
+2 чекбокса = 4
+3 чекбокса = 8
+4 чекбокса = 16
+5 чекбоксов = 32
+10 чекбоксов = 1024
+15 чекбоксов = 32 768
+20 чекбоксов = 1 048 576
+</t>
+  </si>
+  <si>
+    <t>Пример:</t>
+  </si>
+  <si>
+    <t>Результат использования Pairwise
+В результате применения техники попарного тестирования
+– 10 тестов вместо 1 048 576</t>
+  </si>
+  <si>
+    <t>Важно!
++ хорошо масштабируется при увеличении параметров
+– плохо масштабируется при увеличении количества значений</t>
+  </si>
+  <si>
+    <t>Программы для Pairwise</t>
+  </si>
+  <si>
+    <t>● Pairwise Online Tool
+● PICT
+● Allpairs
+● VPTag</t>
+  </si>
+  <si>
+    <t>Урок 4 часть 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестирование на основе состояний и переходов </t>
+  </si>
+  <si>
+    <t>Тестирование на основе состояний и переходов (State-Transition Testing)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">применяется </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1) для фиксирования требований и описания дизайна приложения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, а также</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2) помогают выбрать необходимые для проверки кейсы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Описываются конкретные состояния приложения и то, как они могут меняться.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Точка входа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — черная точка на диаграмме.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Переход (transition) (стрелка) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— представляет переход из одного состояния в другое, происходящий по событию.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Состояние (state) (круг)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — состояние приложения, в котором оно ожидает одного или нескольких событий.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Событие (event) (надпись над стрелкой)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — то, что сделал пользователь.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Действие (action)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — реакция приложения на событие.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Точка выхода</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — показана на диаграмме как мишень.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Условия перехода (transition conditions)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — условия, в соответствии с которыми
+система будет выполнять то или иное действие.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Роли пользователей (actors)</t>
+    </r>
+  </si>
+  <si>
+    <t>Плюсы диаграмм состояний и переходов</t>
+  </si>
+  <si>
+    <t>+ позволяют визуализировать состояния продукта;
++ демонстрируют варианты переходов, которые можно пропустить;
++ помогают отследить дефект, сужая его локацию до конкретного перехода;
++ показывают внутреннюю механику продукта.</t>
+  </si>
+  <si>
+    <t>Минусы диаграмм состояний и переходов</t>
+  </si>
+  <si>
+    <t>– можно пропустить неочевидные переходы;
+– при слишком сложной структуре продукта диаграммы могут стать громоздкими и запутанными;
+– являются только основой к применению других методов;
+– бесполезны при плохом знании продукта.</t>
+  </si>
+  <si>
+    <t>Урок 4 часть 6</t>
+  </si>
+  <si>
+    <t>Таблицы принятия решений</t>
+  </si>
+  <si>
+    <t>Таблицы принятия решений (decision table)</t>
+  </si>
+  <si>
+    <t>Сущности, из которых состоят таблицы</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Условия (conditions)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — короткое описание входных условий (данных), сформулированное в виде вопроса.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Действия (actions) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— четкое описание ожидаемого результата, действия системы.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Значения (values)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — значения, допустимые для входных данных, указанных в условии.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Правила (rules)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — комбинации входных данных, которые отражены в таблице.</t>
+    </r>
+  </si>
+  <si>
+    <t>Цель применения</t>
+  </si>
+  <si>
+    <t>● упорядочить и задокументировать сложную логику приложения;
+● протестировать все комбинации условий и состояний.</t>
+  </si>
+  <si>
+    <t>Пример. Рассылка писем</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Требование:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> для поддержания системы лояльности провести информационную рассылку постоянным клиентам.
+Содержание писем зависит от следующих условий:
+● Клиенты типа А, В получают стандартное письмо.
+● Клиенты типа С получают специальное письмо.
+● Клиентам, совершившим пять и более покупок или купившим на сумму более 500 долларов, в письме сообщается о дополнительной скидке 20% на следующий заказ.</t>
+    </r>
+  </si>
+  <si>
+    <t>План действий</t>
+  </si>
+  <si>
+    <t>1. Разбить требование на условия.
+2. Посчитать количество возможных правил (комбинаций).
+3. Составить таблицу принятия решений.
+4. Исключить лишние комбинации, если они есть.
+5. Создать тесты.</t>
+  </si>
+  <si>
+    <t>Количество возможных комбинаций</t>
+  </si>
+  <si>
+    <t>X = Y1*Y2*...*Yn, где
+Х — вычисляемое количество комбинаций; Y1...Yn — количество вариантов каждого условия; N — количество условий.
+● Y1 = 4 (четыре значения для условия «Тип клиента»
+— «A, B, C, D»);
+● Y2 = 2 и Y3 = 2 (по два значения для условий
+«Пять и более покупок» и «Сумма больше 500 долларов» — «YES/NO»);
+● N = 3 (требование содержит три условия);
+● X = 4 * 2 * 2;
+● Х = 16 правил (комбинаций условий).</t>
+  </si>
+  <si>
+    <t>Результат - таблица</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Плюсы таблиц принятия решений</t>
+  </si>
+  <si>
+    <t>+ помогают быстро составлять тестовые сценарии;
++ позволяют выявить неполноту требований;
++ их можно использовать при отсутствии требований;
++ можно быстро проверить покрытие требований тест-кейсами;
++ позволяют предугадывать возможные ошибки.</t>
+  </si>
+  <si>
+    <t>Минусы таблиц принятия решений</t>
+  </si>
+  <si>
+    <t>– при большом количестве условий таблицы могут быть громоздкими — их сложно составлять и использовать;
+– сложность в корректном определении условий, действий и значений при первоначальном проектировании.</t>
+  </si>
+  <si>
+    <t>Урок 4 часть 7</t>
+  </si>
+  <si>
+    <t>Исследовательское тестирование</t>
+  </si>
+  <si>
+    <t>Исследовательское тестирование (exploratory testing)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>это неформальный метод проектирования тестов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, при котором тестировщик активно контролирует проектирование тестов во время выполнения.
+Полученную при тестировании информацию использует для проектирования новых и улучшенных тестов.
+Исследовательское тестирование (exploratory testing) — также одновременное изучение программного продукта, проектирование тестов и их исполнение.</t>
+    </r>
+  </si>
+  <si>
+    <t>Применение исследовательского тестирования</t>
+  </si>
+  <si>
+    <t>● быстрая обратная связь о качестве новой функциональности;
+● быстрое изучение тестируемого продукта;
+● контроль работы других тестировщиков;
+● недостаток времени для составления тестовых сценариев;
+● отсутствие требований;
+● небольшой проект, для которого не требуется структурированный подход к тестированию;
+● внезапные изменения в проекте;
+● дополнительные проверки.</t>
+  </si>
+  <si>
+    <t>Плюсы исследовательского тестирования</t>
+  </si>
+  <si>
+    <t>Минусы исследовательского тестирования</t>
+  </si>
+  <si>
+    <t>+ не нужно тратить время на предварительное описание всех сценариев;
++ не нужна поддержка тестовых сценариев;
++ не происходит привыкание к тестовым сценариям, и их прохождение не происходит «не глядя»;
++ не теряется цельное видение продукта;
++ критические дефекты находятся быстрее;
++ повышается скорость тестирования;
++ можно сразу начинать тестировать продукт, даже если требований нет вообще;
++ исследовательское тестирование интереснее и креативнее (тесты ограничиваются только фантазией и глубиной знаний о продукте).</t>
+  </si>
+  <si>
+    <t>– сложно планировать время на проведение тестирования без задокументированных заранее сценариев;
+– вероятность пропустить ключевые проверки, так как отсутствует ранжирование сценариев по степени важности;
+– сложность оценки полноты покрытия требований тестами;
+– требуется высокая квалификация тестировщиков и хорошее знание тестируемого приложения;
+– сложно использовать для регрессионного тестирования;
+– невозможно автоматизировать такое тестирование.</t>
+  </si>
+  <si>
+    <t>00 02 00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">этап </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>проектирования и создания тестовых случаев</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (тест-кейсы) в соответствии с определенными</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ранее критериями качества и целями тестирования</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Очень Важно! 
+1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Процесс тестирования начинается </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с анализа требований</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2 Мы определяем насколько они </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>полные, конкретные, тестируемые</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3 Когда требования </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>проверены, проанализированы и приоритезированы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,
+4 Начинается этап </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>написания тест-кейсов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Все это является тест-дизайном</t>
+    </r>
+  </si>
+  <si>
+    <t>00 03 20</t>
+  </si>
+  <si>
+    <t>00 04 40</t>
+  </si>
+  <si>
+    <t>If (applicantAge &gt;= 0 &amp;&amp; applicantAge &lt;16) hireStatus="NO";
+If (applicantAge &gt;= 16 &amp;&amp; applicantAge &lt;18) hireStatus="PART";
+If (applicantAge &gt;= 18 &amp;&amp; applicantAge &lt;65) hireStatus="FULL";
+If (applicantAge &gt;= 65 &amp;&amp; applicantAge &lt;=99) hireStatus="NO";</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Главный смысл:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Если есть группа данных, использование которых приводит к одному результату, то нет необходимости проверять абсолютно каждое значение из этой группы данных по-отдельности</t>
+    </r>
+  </si>
+  <si>
+    <t>00 08 33</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно - метод черного ящика:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ситуация, когда у тестировщика нет доступа к коду</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Главный смысл: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Выбирая лишь несколько значений из каждого класса эквивалентности, можно существенно повысить эффективность и скорость тестирования</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Значения нелинейный классов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> нельзя расположить на числовой прямой, поэтому у них нет граничных значений</t>
+    </r>
+  </si>
+  <si>
+    <t>00 19 00</t>
+  </si>
+  <si>
+    <t>00 19 30</t>
+  </si>
+  <si>
+    <t>00 20 00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Граничные значения
+{-1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 1}, 
+{15, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 17}, 
+{17, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 19}, 
+{64, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 66}, и 
+{98, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 100}
+{ -36, 1001, FRED, %$#@}
+</t>
+    </r>
+  </si>
+  <si>
+    <t>00 24 00</t>
+  </si>
+  <si>
+    <t>00 26 30</t>
+  </si>
+  <si>
+    <t>00 31 50</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>техника тестирования черного ящика</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, применяется для систем со сложной логикой. Помогает быстрее разобраться в бизнес-логике приложения, упорядочить ее, а также протестировать все возможные комбинации условий.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Техника применима,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> в случае если имеется много проверок ЕСЛИ…ТО</t>
+    </r>
+  </si>
+  <si>
+    <t>00 35 40</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Документирование багов/проверок происходит прямо в момент тестирования в виде тест-кейсов. Тест-кейсы создаются как для успешных проверок, так и для багов</t>
+    </r>
+  </si>
+  <si>
+    <t>Самоизучение - книги
+Тестирование дот ком
+Силабис ISTQB</t>
+  </si>
+  <si>
+    <t>Пример выделения классов эквивалентности для создания тест-кейсов</t>
+  </si>
+  <si>
+    <t>Таким образом мы можем видеть все тестовые значения, которые мы должны проверить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/17ThPghS_-knfr9W7ypERB_EX_7-IalwKcHf7A5vpZ9w/edit?usp=sharing
+</t>
+  </si>
+  <si>
+    <t>`https://pairwise.teremokgames.com/4s8/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Техника применима</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">для нелинейных классов </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>эквивалентности - чаще всего применяется для проверки работы фильтров на вебсервисах</t>
+    </r>
+  </si>
+  <si>
+    <t>Тип данных</t>
+  </si>
+  <si>
+    <t>буквы</t>
+  </si>
+  <si>
+    <t>буквы + тире</t>
+  </si>
+  <si>
+    <t>буквы + пробел</t>
+  </si>
+  <si>
+    <t>язык</t>
+  </si>
+  <si>
+    <t>русский</t>
+  </si>
+  <si>
+    <t>английский</t>
+  </si>
+  <si>
+    <t>способ ввода</t>
+  </si>
+  <si>
+    <t>ручной</t>
+  </si>
+  <si>
+    <t>голосовой</t>
+  </si>
+  <si>
+    <t>копипаст</t>
+  </si>
+  <si>
+    <t>Первым столбцом всегда идет самый вариативный</t>
+  </si>
+  <si>
+    <t>На данном этапе мы проверили все пары "тип данных" "способ ввода"</t>
+  </si>
+  <si>
+    <t>На данном этапе мы проверили все пары "способ ввода" "язык"</t>
+  </si>
+  <si>
+    <t>Попарная проверка позволяет значительно сократить количество проверок с минимальным ухудшением качества проверки в сравнении с полной проверкой</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>это входные (а иногда и выходные) данные</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, которые обрабатываются одинаковым образом и приводят к одному результату.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Пример из жизни</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: выбор ягоды на рынке. Попробовав одну ягодку у одного продавца, мы делаем вывод о всех остальных ягодах этого продавца</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Тестно переплетается с техникой классов эквивалентности и применяется для линейных (определенных) классов, в которых возможно выбрать граничные значения</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Как я понимаю - очень важно!:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Классы эквивалетности - это одна из техник тест-дизайна. Тест-дизайн - это этап проектирования тест-кейсов, на котором мы проверяем требования на конкретику, тестируемость, полноту. В связи с этим сложилось впечатление, что классы эквивалентности - это больше про предварительную подготовку к написанию тест-кейсов, которая включает в себя линейные и нелинейные параметры, вариативность которых мы себе отмечаем. А вот "отображается" или "не отображается" - это "банальщина", которая указывается уже непосредственно в момент составления тест-кейсов</t>
+    </r>
+  </si>
+  <si>
+    <t>Проектирование тест-кейсов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5107,8 +7986,39 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5157,8 +8067,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -5365,12 +8305,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5381,56 +8403,56 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5442,7 +8464,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5463,10 +8485,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5475,7 +8497,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5490,22 +8512,22 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5520,13 +8542,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5535,16 +8557,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5571,14 +8593,177 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5586,68 +8771,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -6022,6 +9152,446 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>173181</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>92363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3362390</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>348323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784067E8-3B92-4B77-B89C-4EBAE0C64DA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11441545" y="78012636"/>
+          <a:ext cx="3189209" cy="255960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>115454</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>150092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>646546</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>652020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C3CEB8E-2EB0-45E7-B5DC-08704D046CE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2632363" y="120719274"/>
+          <a:ext cx="531092" cy="501928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>34635</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>57727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5137726</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>1162128</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754D42E4-3984-489A-B823-F4AE0FBDA38B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6084453" y="129320636"/>
+          <a:ext cx="5103091" cy="1104401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>103911</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4595092</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>1221240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9664E98-07A0-4CAE-A5E6-FD2B5BFFA3F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153729" y="130590637"/>
+          <a:ext cx="4491181" cy="1186603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>588818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5133468</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>1801091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EE4A606-6631-4462-A5DA-E1D4DAC8BF63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6153727" y="143717818"/>
+          <a:ext cx="5029559" cy="1212273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>785088</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>23090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2505363</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>1869983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FE6EE6-38FA-4408-87E0-C131FE59D431}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3301997" y="144987817"/>
+          <a:ext cx="1720275" cy="1846893"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>80818</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4130527</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>1385455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Рисунок 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77DB17EC-5CA2-4DB2-9A67-5B4DB215A232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6130636" y="149848455"/>
+          <a:ext cx="4049709" cy="1293091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>46184</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>34635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4918364</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>1960946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Рисунок 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8047379-5457-496C-85A9-2D60FED138B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096002" y="159754453"/>
+          <a:ext cx="4872180" cy="1926311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57728</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>46181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4925860</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>1905000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Рисунок 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE763B2-975E-4E3B-B277-1798C442075D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6107546" y="161786454"/>
+          <a:ext cx="4868132" cy="1858819"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>178704</xdr:colOff>
+      <xdr:row>227</xdr:row>
+      <xdr:rowOff>34638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3405910</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>46754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95707C7-AA07-479D-A26F-CEF1DEFDDEE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18859249" y="127831274"/>
+          <a:ext cx="3227206" cy="2044116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6291,10 +9861,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V211"/>
+  <dimension ref="A2:V332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C205" sqref="C205"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A218" sqref="A218:D218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7259,890 +10829,2139 @@
       <c r="C85" s="53"/>
       <c r="D85" s="35"/>
     </row>
-    <row r="86" spans="1:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="39"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="72" t="s">
-        <v>199</v>
-      </c>
-      <c r="D86" s="31"/>
+      <c r="B86" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C86" s="90" t="s">
+        <v>282</v>
+      </c>
+      <c r="D86" s="31" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B87" s="18"/>
       <c r="C87" s="43"/>
-      <c r="D87" s="35"/>
+      <c r="D87" s="35" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A88" s="73"/>
-      <c r="B88" s="74"/>
-      <c r="C88" s="75" t="s">
+      <c r="A88" s="71" t="s">
+        <v>228</v>
+      </c>
+      <c r="C88" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="D88" s="27"/>
+    </row>
+    <row r="89" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C89" s="95" t="s">
+        <v>346</v>
+      </c>
+      <c r="D89" s="27"/>
+      <c r="F89" s="106" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A90" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C90" s="57" t="s">
+        <v>285</v>
+      </c>
+      <c r="D90" s="27"/>
+    </row>
+    <row r="91" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C91" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="D91" s="27"/>
+    </row>
+    <row r="92" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A92" s="91" t="s">
+        <v>329</v>
+      </c>
+      <c r="C92" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="D92" s="27"/>
+    </row>
+    <row r="93" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="71" t="s">
+        <v>231</v>
+      </c>
+      <c r="C93" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="D93" s="27"/>
+    </row>
+    <row r="94" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A94" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C94" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="D94" s="27"/>
+    </row>
+    <row r="95" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A95" s="73"/>
+      <c r="C95" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="D95" s="27"/>
+    </row>
+    <row r="96" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="74"/>
+      <c r="B96" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C96" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="D96" s="27"/>
+    </row>
+    <row r="97" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="75"/>
+      <c r="B97" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C97" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="D97" s="31"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B98" s="18"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="276" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="39"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="90" t="s">
+        <v>296</v>
+      </c>
+      <c r="D99" s="31"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="D88" s="27"/>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A89" s="73"/>
-      <c r="B89" s="74"/>
-      <c r="C89" s="75" t="s">
-        <v>202</v>
-      </c>
-      <c r="D89" s="27"/>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A90" s="73"/>
-      <c r="B90" s="74"/>
-      <c r="C90" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="D90" s="27"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A91" s="73"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="75" t="s">
-        <v>204</v>
-      </c>
-      <c r="D91" s="27"/>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A92" s="73"/>
-      <c r="B92" s="74"/>
-      <c r="C92" s="75" t="s">
-        <v>205</v>
-      </c>
-      <c r="D92" s="27"/>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A93" s="73"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="D93" s="27"/>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A94" s="73"/>
-      <c r="B94" s="74"/>
-      <c r="C94" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="D94" s="27"/>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A95" s="76"/>
-      <c r="B95" s="74"/>
-      <c r="C95" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="D95" s="27"/>
-    </row>
-    <row r="96" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="77"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="78" t="s">
-        <v>208</v>
-      </c>
-      <c r="D96" s="31"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B97" s="18"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="35"/>
-    </row>
-    <row r="98" spans="1:4" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="39"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="D98" s="31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="35"/>
-    </row>
-    <row r="100" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A100" s="38"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="79" t="s">
-        <v>210</v>
-      </c>
-      <c r="D100" s="27"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B100" s="18"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="38"/>
-      <c r="B101" s="74"/>
-      <c r="C101" s="79" t="s">
-        <v>211</v>
+      <c r="B101" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C101" s="91" t="s">
+        <v>297</v>
       </c>
       <c r="D101" s="27"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="38"/>
-      <c r="B102" s="74"/>
-      <c r="C102" s="79" t="s">
-        <v>212</v>
+      <c r="B102" s="91" t="s">
+        <v>303</v>
+      </c>
+      <c r="C102" s="91" t="s">
+        <v>302</v>
       </c>
       <c r="D102" s="27"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="38"/>
-      <c r="B103" s="74"/>
-      <c r="C103" s="79" t="s">
-        <v>213</v>
+      <c r="C103" s="91" t="s">
+        <v>301</v>
       </c>
       <c r="D103" s="27"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="38"/>
-      <c r="B104" s="74"/>
-      <c r="C104" s="79" t="s">
+      <c r="C104" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" s="27"/>
+    </row>
+    <row r="105" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="38"/>
+      <c r="C105" s="91" t="s">
+        <v>300</v>
+      </c>
+      <c r="D105" s="27"/>
+    </row>
+    <row r="106" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="38"/>
+      <c r="C106" s="91" t="s">
+        <v>299</v>
+      </c>
+      <c r="D106" s="27"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="B107" s="67"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="54"/>
+      <c r="B108" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C108" s="91" t="s">
+        <v>304</v>
+      </c>
+      <c r="D108" s="27"/>
+    </row>
+    <row r="109" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="54"/>
+      <c r="B109" s="91"/>
+      <c r="C109" s="91" t="s">
+        <v>307</v>
+      </c>
+      <c r="D109" s="27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A110" s="38"/>
+      <c r="C110" s="91" t="s">
+        <v>308</v>
+      </c>
+      <c r="D110" s="27"/>
+    </row>
+    <row r="111" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="38"/>
+      <c r="C111" s="91" t="s">
+        <v>309</v>
+      </c>
+      <c r="D111" s="27"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="38"/>
+      <c r="C112" s="91" t="s">
+        <v>310</v>
+      </c>
+      <c r="D112" s="77"/>
+    </row>
+    <row r="113" spans="1:4" ht="22" x14ac:dyDescent="0.35">
+      <c r="A113" s="38"/>
+      <c r="C113" s="91" t="s">
+        <v>311</v>
+      </c>
+      <c r="D113" s="78"/>
+    </row>
+    <row r="114" spans="1:4" ht="22.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="39"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="D114" s="79"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="D115" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A116" s="38"/>
+      <c r="C116" s="80" t="s">
+        <v>313</v>
+      </c>
+      <c r="D116" s="27"/>
+    </row>
+    <row r="117" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="38"/>
+      <c r="C117" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="D117" s="27"/>
+    </row>
+    <row r="118" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A118" s="38"/>
+      <c r="C118" s="92" t="s">
+        <v>315</v>
+      </c>
+      <c r="D118" s="27"/>
+    </row>
+    <row r="119" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="38"/>
+      <c r="C119" s="80" t="s">
+        <v>316</v>
+      </c>
+      <c r="D119" s="27"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="38"/>
+      <c r="C120" s="92" t="s">
+        <v>317</v>
+      </c>
+      <c r="D120" s="27"/>
+    </row>
+    <row r="121" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="38"/>
+      <c r="C121" s="80" t="s">
+        <v>319</v>
+      </c>
+      <c r="D121" s="27"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="38"/>
+      <c r="C122" s="80" t="s">
+        <v>320</v>
+      </c>
+      <c r="D122" s="27"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="38"/>
+      <c r="C123" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="D123" s="27"/>
+    </row>
+    <row r="124" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="38"/>
+      <c r="C124" s="80" t="s">
+        <v>321</v>
+      </c>
+      <c r="D124" s="27"/>
+    </row>
+    <row r="125" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="39"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="90" t="s">
+        <v>322</v>
+      </c>
+      <c r="D125" s="31"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B126" s="18"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="35" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="38"/>
+      <c r="C127" s="80" t="s">
+        <v>324</v>
+      </c>
+      <c r="D127" s="77"/>
+    </row>
+    <row r="128" spans="1:4" ht="22" x14ac:dyDescent="0.35">
+      <c r="A128" s="38"/>
+      <c r="C128" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="D128" s="81"/>
+    </row>
+    <row r="129" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A129" s="38"/>
+      <c r="C129" s="80" t="s">
+        <v>325</v>
+      </c>
+      <c r="D129" s="82"/>
+    </row>
+    <row r="130" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A130" s="38"/>
+      <c r="C130" s="80" t="s">
+        <v>326</v>
+      </c>
+      <c r="D130" s="77"/>
+    </row>
+    <row r="131" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A131" s="38"/>
+      <c r="C131" s="57" t="s">
+        <v>327</v>
+      </c>
+      <c r="D131" s="27"/>
+    </row>
+    <row r="132" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="39"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="76" t="s">
+        <v>328</v>
+      </c>
+      <c r="D132" s="31"/>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A134" s="3"/>
+      <c r="B134" s="5"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="P134" s="5"/>
+      <c r="Q134" s="5"/>
+      <c r="R134" s="5"/>
+      <c r="S134" s="5"/>
+      <c r="U134" s="5"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P135" s="1"/>
+      <c r="U135" s="1"/>
+      <c r="V135" s="2"/>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A137" s="42" t="s">
         <v>214</v>
-      </c>
-      <c r="D104" s="27"/>
-    </row>
-    <row r="105" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="39"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="72" t="s">
-        <v>215</v>
-      </c>
-      <c r="D105" s="31"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="35"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="38"/>
-      <c r="B107" s="74"/>
-      <c r="C107" s="79" t="s">
-        <v>218</v>
-      </c>
-      <c r="D107" s="27"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="38"/>
-      <c r="B108" s="74"/>
-      <c r="C108" s="79" t="s">
-        <v>217</v>
-      </c>
-      <c r="D108" s="27"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="38"/>
-      <c r="B109" s="74"/>
-      <c r="C109" s="79" t="s">
-        <v>219</v>
-      </c>
-      <c r="D109" s="27"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="38"/>
-      <c r="B110" s="74"/>
-      <c r="C110" s="79" t="s">
-        <v>222</v>
-      </c>
-      <c r="D110" s="80"/>
-    </row>
-    <row r="111" spans="1:4" ht="22" x14ac:dyDescent="0.35">
-      <c r="A111" s="38"/>
-      <c r="B111" s="74"/>
-      <c r="C111" s="79" t="s">
-        <v>223</v>
-      </c>
-      <c r="D111" s="81" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="22.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="39"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="D112" s="82" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="42" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C114" s="83" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C115" s="83" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C116" s="83" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C117" s="83" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C118" s="83" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C119" s="83" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C120" s="83" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C121" s="83" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C122" s="83" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C123" s="71" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="B124" s="18"/>
-      <c r="C124" s="43"/>
-      <c r="D124" s="35"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="38"/>
-      <c r="B125" s="74"/>
-      <c r="C125" s="83" t="s">
-        <v>239</v>
-      </c>
-      <c r="D125" s="80"/>
-    </row>
-    <row r="126" spans="1:4" ht="22" x14ac:dyDescent="0.35">
-      <c r="A126" s="38"/>
-      <c r="B126" s="74"/>
-      <c r="C126" s="83" t="s">
-        <v>240</v>
-      </c>
-      <c r="D126" s="84" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="22" x14ac:dyDescent="0.35">
-      <c r="A127" s="38"/>
-      <c r="B127" s="74"/>
-      <c r="C127" s="83" t="s">
-        <v>241</v>
-      </c>
-      <c r="D127" s="85" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="38"/>
-      <c r="B128" s="74"/>
-      <c r="C128" s="83" t="s">
-        <v>242</v>
-      </c>
-      <c r="D128" s="80"/>
-    </row>
-    <row r="129" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A129" s="38"/>
-      <c r="B129" s="74"/>
-      <c r="C129" s="79" t="s">
-        <v>243</v>
-      </c>
-      <c r="D129" s="27"/>
-    </row>
-    <row r="130" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="39"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="72" t="s">
-        <v>244</v>
-      </c>
-      <c r="D130" s="31"/>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A132" s="3"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="5"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="K132" s="3"/>
-      <c r="L132" s="3"/>
-      <c r="M132" s="3"/>
-      <c r="N132" s="3"/>
-      <c r="P132" s="5"/>
-      <c r="Q132" s="5"/>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
-      <c r="U132" s="5"/>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A133" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C133" s="9"/>
-      <c r="P133" s="1"/>
-      <c r="U133" s="1"/>
-      <c r="V133" s="2"/>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A134" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A135" s="42" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C136" s="71" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C137" s="71" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="138" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C138" s="71" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C139" s="71" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C140" s="71" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
     </row>
     <row r="141" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C141" s="71" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C142" s="71" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
     </row>
     <row r="143" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C143" s="71" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="144" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C144" s="71" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C145" s="71" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C146" s="71" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C147" s="71" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C148" s="71" t="s">
-        <v>259</v>
+      <c r="A148" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C149" s="71" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C150" s="71" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C151" s="71" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C152" s="71" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C153" s="71" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C154" s="71" t="s">
-        <v>266</v>
+      <c r="A154" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C155" s="71" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C156" s="71" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C157" s="71" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C158" s="71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C159" s="91" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C160" s="71" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C161" s="71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C163" s="71" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C164" s="71" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C165" s="71" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C166" s="71" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C167" s="71" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C168" s="71" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C169" s="71" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C171" s="71" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C172" s="71" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C173" s="71" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C174" s="71" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C175" s="71" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A177" s="3"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+      <c r="K177" s="3"/>
+      <c r="L177" s="3"/>
+      <c r="M177" s="3"/>
+      <c r="N177" s="3"/>
+      <c r="P177" s="5"/>
+      <c r="Q177" s="5"/>
+      <c r="R177" s="5"/>
+      <c r="S177" s="5"/>
+      <c r="U177" s="5"/>
+    </row>
+    <row r="178" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A178" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C178" s="9"/>
+      <c r="P178" s="1"/>
+      <c r="U178" s="1"/>
+      <c r="V178" s="2"/>
+    </row>
+    <row r="179" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A179" s="84" t="s">
+        <v>245</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C179" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="D179" s="35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A180" s="38"/>
+      <c r="B180" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C180" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="D180" s="27"/>
+    </row>
+    <row r="181" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="39"/>
+      <c r="B181" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="C181" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="D181" s="31"/>
+    </row>
+    <row r="182" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A182" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B182" s="18"/>
+      <c r="C182" s="43"/>
+      <c r="D182" s="35"/>
+    </row>
+    <row r="183" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A183" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C183" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="D183" s="27"/>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A184" s="38"/>
+      <c r="C184" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="D184" s="27"/>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A185" s="38"/>
+      <c r="C185" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="D185" s="27"/>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A186" s="38"/>
+      <c r="C186" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D186" s="27"/>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A187" s="38"/>
+      <c r="C187" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="D187" s="27"/>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A188" s="38"/>
+      <c r="C188" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="D188" s="27"/>
+    </row>
+    <row r="189" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A189" s="39"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="D189" s="31"/>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A190" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B190" s="18"/>
+      <c r="C190" s="43"/>
+      <c r="D190" s="35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A191" s="38"/>
+      <c r="C191" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="D191" s="27"/>
+    </row>
+    <row r="192" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A192" s="38"/>
+      <c r="C192" s="80" t="s">
+        <v>333</v>
+      </c>
+      <c r="D192" s="27"/>
+    </row>
+    <row r="193" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A193" s="38"/>
+      <c r="C193" s="80" t="s">
+        <v>334</v>
+      </c>
+      <c r="D193" s="27"/>
+    </row>
+    <row r="194" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A194" s="38"/>
+      <c r="C194" s="80" t="s">
+        <v>335</v>
+      </c>
+      <c r="D194" s="27"/>
+    </row>
+    <row r="195" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A195" s="39"/>
+      <c r="B195" s="14"/>
+      <c r="C195" s="83" t="s">
+        <v>336</v>
+      </c>
+      <c r="D195" s="31"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B196" s="94" t="s">
+        <v>338</v>
+      </c>
+      <c r="C196" s="43"/>
+      <c r="D196" s="35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="38"/>
+      <c r="B197" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="C197" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="D197" s="27"/>
+    </row>
+    <row r="198" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A198" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C198" s="93" t="s">
+        <v>339</v>
+      </c>
+      <c r="D198" s="27"/>
+    </row>
+    <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A199" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C199" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="D199" s="27"/>
+    </row>
+    <row r="200" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A200" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C200" s="93" t="s">
+        <v>340</v>
+      </c>
+      <c r="D200" s="27"/>
+    </row>
+    <row r="201" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="B201" s="14" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="C159" s="71" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="1" t="s">
+      <c r="C201" s="72" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C161" s="71" t="s">
+      <c r="D201" s="31"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A202" s="42" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C162" s="71" t="s">
+      <c r="D202" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C203" s="80" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C163" s="71" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C164" s="71" t="s">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C204" s="80" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C165" s="71" t="s">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C205" s="80" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C206" s="80" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C166" s="71" t="s">
+    <row r="207" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C207" s="80" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="C208" s="80" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C209" s="80" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C167" s="71" t="s">
+    <row r="210" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A210" s="84" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A168" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C169" s="71" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C170" s="71" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C171" s="71" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C172" s="71" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="173" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C173" s="71" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A175" s="3"/>
-      <c r="B175" s="5"/>
-      <c r="C175" s="6"/>
-      <c r="D175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-      <c r="K175" s="3"/>
-      <c r="L175" s="3"/>
-      <c r="M175" s="3"/>
-      <c r="N175" s="3"/>
-      <c r="P175" s="5"/>
-      <c r="Q175" s="5"/>
-      <c r="R175" s="5"/>
-      <c r="S175" s="5"/>
-      <c r="U175" s="5"/>
-    </row>
-    <row r="176" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C176" s="9"/>
-      <c r="P176" s="1"/>
-      <c r="U176" s="1"/>
-      <c r="V176" s="2"/>
-    </row>
-    <row r="177" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A177" s="87" t="s">
-        <v>283</v>
-      </c>
-      <c r="B177" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C177" s="88" t="s">
-        <v>133</v>
-      </c>
-      <c r="D177" s="35"/>
-    </row>
-    <row r="178" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A178" s="38"/>
-      <c r="B178" s="89" t="s">
-        <v>286</v>
-      </c>
-      <c r="C178" s="79" t="s">
-        <v>288</v>
-      </c>
-      <c r="D178" s="27"/>
-    </row>
-    <row r="179" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="39"/>
-      <c r="B179" s="90" t="s">
-        <v>285</v>
-      </c>
-      <c r="C179" s="72" t="s">
-        <v>287</v>
-      </c>
-      <c r="D179" s="31"/>
-    </row>
-    <row r="180" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A180" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="B180" s="18"/>
-      <c r="C180" s="43"/>
-      <c r="D180" s="35"/>
-    </row>
-    <row r="181" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A181" s="38" t="s">
-        <v>290</v>
-      </c>
-      <c r="B181" s="74"/>
-      <c r="C181" s="79" t="s">
-        <v>291</v>
-      </c>
-      <c r="D181" s="27"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="38"/>
-      <c r="B182" s="74"/>
-      <c r="C182" s="79" t="s">
-        <v>292</v>
-      </c>
-      <c r="D182" s="27"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" s="38"/>
-      <c r="B183" s="74"/>
-      <c r="C183" s="79" t="s">
-        <v>293</v>
-      </c>
-      <c r="D183" s="27"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="38"/>
-      <c r="B184" s="74"/>
-      <c r="C184" s="79" t="s">
-        <v>294</v>
-      </c>
-      <c r="D184" s="27"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" s="38"/>
-      <c r="B185" s="74"/>
-      <c r="C185" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="D185" s="27"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" s="38"/>
-      <c r="B186" s="74"/>
-      <c r="C186" s="79" t="s">
-        <v>296</v>
-      </c>
-      <c r="D186" s="27"/>
-    </row>
-    <row r="187" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="39"/>
-      <c r="B187" s="14"/>
-      <c r="C187" s="72" t="s">
-        <v>297</v>
-      </c>
-      <c r="D187" s="31"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="B188" s="18"/>
-      <c r="C188" s="43"/>
-      <c r="D188" s="35"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" s="38"/>
-      <c r="B189" s="74"/>
-      <c r="C189" s="83" t="s">
-        <v>299</v>
-      </c>
-      <c r="D189" s="27"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="38"/>
-      <c r="B190" s="74"/>
-      <c r="C190" s="83" t="s">
-        <v>300</v>
-      </c>
-      <c r="D190" s="27"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="38"/>
-      <c r="B191" s="74"/>
-      <c r="C191" s="83" t="s">
-        <v>301</v>
-      </c>
-      <c r="D191" s="27"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" s="38"/>
-      <c r="B192" s="74"/>
-      <c r="C192" s="83" t="s">
-        <v>302</v>
-      </c>
-      <c r="D192" s="27"/>
-    </row>
-    <row r="193" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A193" s="39"/>
-      <c r="B193" s="14"/>
-      <c r="C193" s="86" t="s">
-        <v>303</v>
-      </c>
-      <c r="D193" s="31"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="B194" s="18"/>
-      <c r="C194" s="43"/>
-      <c r="D194" s="35"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" s="38"/>
-      <c r="B195" s="91" t="s">
-        <v>198</v>
-      </c>
-      <c r="C195" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="D195" s="27"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="93" t="s">
-        <v>305</v>
-      </c>
-      <c r="B196" s="74" t="s">
-        <v>309</v>
-      </c>
-      <c r="C196" s="79" t="s">
-        <v>313</v>
-      </c>
-      <c r="D196" s="27"/>
-    </row>
-    <row r="197" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A197" s="93" t="s">
-        <v>306</v>
-      </c>
-      <c r="B197" s="74" t="s">
-        <v>310</v>
-      </c>
-      <c r="C197" s="79" t="s">
-        <v>314</v>
-      </c>
-      <c r="D197" s="27"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A198" s="93" t="s">
-        <v>307</v>
-      </c>
-      <c r="B198" s="74" t="s">
-        <v>311</v>
-      </c>
-      <c r="C198" s="79" t="s">
-        <v>315</v>
-      </c>
-      <c r="D198" s="27"/>
-    </row>
-    <row r="199" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="94" t="s">
-        <v>308</v>
-      </c>
-      <c r="B199" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="C199" s="72" t="s">
-        <v>316</v>
-      </c>
-      <c r="D199" s="31"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="42" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C201" s="83" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C202" s="83" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C203" s="83" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C204" s="83" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C205" s="83" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C206" s="83" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C207" s="83" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A208" s="87" t="s">
-        <v>325</v>
-      </c>
-      <c r="B208" s="18"/>
-      <c r="C208" s="43"/>
-      <c r="D208" s="35"/>
-    </row>
-    <row r="209" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="39"/>
-      <c r="B209" s="14"/>
-      <c r="C209" s="72" t="s">
-        <v>326</v>
-      </c>
-      <c r="D209" s="31"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A210" s="23" t="s">
-        <v>327</v>
       </c>
       <c r="B210" s="18"/>
       <c r="C210" s="43"/>
       <c r="D210" s="35"/>
     </row>
-    <row r="211" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="39"/>
       <c r="B211" s="14"/>
       <c r="C211" s="72" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="D211" s="31"/>
     </row>
+    <row r="212" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A212" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="B212" s="18"/>
+      <c r="C212" s="43"/>
+      <c r="D212" s="35"/>
+    </row>
+    <row r="213" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A213" s="39"/>
+      <c r="B213" s="14"/>
+      <c r="C213" s="72" t="s">
+        <v>280</v>
+      </c>
+      <c r="D213" s="31"/>
+    </row>
+    <row r="215" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A215" s="3"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="3"/>
+      <c r="I215" s="3"/>
+      <c r="K215" s="3"/>
+      <c r="L215" s="3"/>
+      <c r="M215" s="3"/>
+      <c r="N215" s="3"/>
+      <c r="P215" s="5"/>
+      <c r="Q215" s="5"/>
+      <c r="R215" s="5"/>
+      <c r="S215" s="5"/>
+      <c r="U215" s="5"/>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A216" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C216" s="9"/>
+      <c r="P216" s="1"/>
+      <c r="U216" s="1"/>
+      <c r="V216" s="2"/>
+    </row>
+    <row r="217" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A217" s="107" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="218" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A218" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="B218" s="128"/>
+      <c r="C218" s="129" t="s">
+        <v>487</v>
+      </c>
+      <c r="D218" s="130"/>
+    </row>
+    <row r="219" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A219" s="39"/>
+      <c r="B219" s="127" t="s">
+        <v>486</v>
+      </c>
+      <c r="C219" s="127" t="s">
+        <v>443</v>
+      </c>
+      <c r="D219" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="F219" s="118" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A220" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="B220" s="18"/>
+      <c r="C220" s="109"/>
+      <c r="D220" s="35" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="221" spans="1:22" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A221" s="39"/>
+      <c r="B221" s="14"/>
+      <c r="C221" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="D221" s="31"/>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A222" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="B222" s="18"/>
+      <c r="C222" s="43"/>
+      <c r="D222" s="35" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="223" spans="1:22" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A223" s="39"/>
+      <c r="B223" s="14"/>
+      <c r="C223" s="110" t="s">
+        <v>372</v>
+      </c>
+      <c r="D223" s="31"/>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A225" s="3"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="3"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+      <c r="K225" s="3"/>
+      <c r="L225" s="3"/>
+      <c r="M225" s="3"/>
+      <c r="N225" s="3"/>
+      <c r="P225" s="5"/>
+      <c r="Q225" s="5"/>
+      <c r="R225" s="5"/>
+      <c r="S225" s="5"/>
+      <c r="U225" s="5"/>
+    </row>
+    <row r="226" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A226" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C226" s="9"/>
+      <c r="P226" s="1"/>
+      <c r="U226" s="1"/>
+      <c r="V226" s="2"/>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A227" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="B227" s="18"/>
+      <c r="C227" s="43"/>
+      <c r="D227" s="35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A228" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="B228" s="108" t="s">
+        <v>447</v>
+      </c>
+      <c r="C228" s="126" t="s">
+        <v>484</v>
+      </c>
+      <c r="D228" s="27"/>
+      <c r="F228" s="111" t="s">
+        <v>464</v>
+      </c>
+      <c r="H228" s="119" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A229" s="113" t="s">
+        <v>376</v>
+      </c>
+      <c r="B229" s="108" t="s">
+        <v>449</v>
+      </c>
+      <c r="C229" s="108" t="s">
+        <v>377</v>
+      </c>
+      <c r="D229" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="F229" s="108" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A230" s="114" t="s">
+        <v>378</v>
+      </c>
+      <c r="B230" s="115" t="s">
+        <v>450</v>
+      </c>
+      <c r="C230" s="115" t="s">
+        <v>379</v>
+      </c>
+      <c r="D230" s="66"/>
+    </row>
+    <row r="231" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A231" s="112" t="s">
+        <v>380</v>
+      </c>
+      <c r="B231" s="18"/>
+      <c r="C231" s="43"/>
+      <c r="D231" s="35"/>
+    </row>
+    <row r="232" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A232" s="108"/>
+      <c r="B232" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="C232" s="108" t="s">
+        <v>446</v>
+      </c>
+      <c r="D232" s="27"/>
+    </row>
+    <row r="233" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A233" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D233" s="27"/>
+    </row>
+    <row r="234" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A234" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B234" s="110" t="s">
+        <v>451</v>
+      </c>
+      <c r="C234" s="46"/>
+      <c r="D234" s="31"/>
+    </row>
+    <row r="235" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A235" s="112" t="s">
+        <v>382</v>
+      </c>
+      <c r="B235" s="18"/>
+      <c r="C235" s="43"/>
+      <c r="D235" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A236" s="39"/>
+      <c r="B236" s="14"/>
+      <c r="C236" s="110" t="s">
+        <v>383</v>
+      </c>
+      <c r="D236" s="31"/>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A238" s="3"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+      <c r="K238" s="3"/>
+      <c r="L238" s="3"/>
+      <c r="M238" s="3"/>
+      <c r="N238" s="3"/>
+      <c r="P238" s="5"/>
+      <c r="Q238" s="5"/>
+      <c r="R238" s="5"/>
+      <c r="S238" s="5"/>
+      <c r="U238" s="5"/>
+    </row>
+    <row r="239" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A239" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C239" s="9"/>
+      <c r="P239" s="1"/>
+      <c r="U239" s="1"/>
+      <c r="V239" s="2"/>
+    </row>
+    <row r="240" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A240" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="B240" s="126" t="s">
+        <v>485</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="241" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A241" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C241" s="108" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="242" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A242" s="111" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C243" s="108" t="s">
+        <v>388</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="244" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A244" s="42" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="245" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A245" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B245" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="C245" s="108" t="s">
+        <v>446</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A247" s="3"/>
+      <c r="B247" s="5"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="3"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="5"/>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+      <c r="K247" s="3"/>
+      <c r="L247" s="3"/>
+      <c r="M247" s="3"/>
+      <c r="N247" s="3"/>
+      <c r="P247" s="5"/>
+      <c r="Q247" s="5"/>
+      <c r="R247" s="5"/>
+      <c r="S247" s="5"/>
+      <c r="U247" s="5"/>
+    </row>
+    <row r="248" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C248" s="9"/>
+      <c r="P248" s="1"/>
+      <c r="U248" s="1"/>
+      <c r="V248" s="2"/>
+    </row>
+    <row r="249" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A249" s="111" t="s">
+        <v>393</v>
+      </c>
+      <c r="B249" s="108" t="s">
+        <v>468</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A250" s="108" t="s">
+        <v>392</v>
+      </c>
+      <c r="B250" s="108"/>
+      <c r="C250" s="108" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A251" s="42" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="B252" s="108" t="s">
+        <v>397</v>
+      </c>
+      <c r="C252" s="108" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A253" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A254" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C254" s="108" t="s">
+        <v>400</v>
+      </c>
+      <c r="D254" s="120" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A255" s="42" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C256" s="108" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" s="42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258" s="121" t="s">
+        <v>469</v>
+      </c>
+      <c r="B258" s="86" t="s">
+        <v>473</v>
+      </c>
+      <c r="C258" s="122" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" s="121" t="s">
+        <v>470</v>
+      </c>
+      <c r="B259" s="86" t="s">
+        <v>474</v>
+      </c>
+      <c r="C259" s="122" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A260" s="121" t="s">
+        <v>471</v>
+      </c>
+      <c r="B260" s="86" t="s">
+        <v>475</v>
+      </c>
+      <c r="C260" s="122" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A261" s="121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B261" s="86"/>
+      <c r="C261" s="122" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A262" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A264" s="121" t="s">
+        <v>469</v>
+      </c>
+      <c r="B264" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="C264" s="86" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A265" s="121" t="s">
+        <v>470</v>
+      </c>
+      <c r="B265" s="122" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A266" s="121" t="s">
+        <v>470</v>
+      </c>
+      <c r="B266" s="122" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A267" s="121" t="s">
+        <v>470</v>
+      </c>
+      <c r="B267" s="122" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A268" s="121" t="s">
+        <v>471</v>
+      </c>
+      <c r="B268" s="122" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A269" s="121" t="s">
+        <v>471</v>
+      </c>
+      <c r="B269" s="122" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A270" s="121" t="s">
+        <v>471</v>
+      </c>
+      <c r="B270" s="122" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A271" s="121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B271" s="122" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A272" s="121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B272" s="122" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A273" s="121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B273" s="122" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A274" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A276" s="121" t="s">
+        <v>469</v>
+      </c>
+      <c r="B276" s="122" t="s">
+        <v>476</v>
+      </c>
+      <c r="C276" s="86" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A277" s="121" t="s">
+        <v>470</v>
+      </c>
+      <c r="B277" s="122" t="s">
+        <v>477</v>
+      </c>
+      <c r="C277" s="122" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278" s="121" t="s">
+        <v>470</v>
+      </c>
+      <c r="B278" s="122" t="s">
+        <v>478</v>
+      </c>
+      <c r="C278" s="122" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A279" s="121" t="s">
+        <v>470</v>
+      </c>
+      <c r="B279" s="122" t="s">
+        <v>479</v>
+      </c>
+      <c r="C279" s="122" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A280" s="121" t="s">
+        <v>471</v>
+      </c>
+      <c r="B280" s="122" t="s">
+        <v>477</v>
+      </c>
+      <c r="C280" s="122" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A281" s="121" t="s">
+        <v>471</v>
+      </c>
+      <c r="B281" s="122" t="s">
+        <v>478</v>
+      </c>
+      <c r="C281" s="122" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A282" s="121" t="s">
+        <v>471</v>
+      </c>
+      <c r="B282" s="122" t="s">
+        <v>479</v>
+      </c>
+      <c r="C282" s="122" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A283" s="121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B283" s="122" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A284" s="121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B284" s="122" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A285" s="121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B285" s="122" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A286" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A287" s="108" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A289" s="3"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="3"/>
+      <c r="F289" s="3"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="3"/>
+      <c r="I289" s="3"/>
+      <c r="K289" s="3"/>
+      <c r="L289" s="3"/>
+      <c r="M289" s="3"/>
+      <c r="N289" s="3"/>
+      <c r="P289" s="5"/>
+      <c r="Q289" s="5"/>
+      <c r="R289" s="5"/>
+      <c r="S289" s="5"/>
+      <c r="U289" s="5"/>
+    </row>
+    <row r="290" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A290" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C290" s="9"/>
+      <c r="P290" s="1"/>
+      <c r="U290" s="1"/>
+      <c r="V290" s="2"/>
+    </row>
+    <row r="291" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A291" s="111" t="s">
+        <v>405</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="292" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A292" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C292" s="108" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="293" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C293" s="108" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A294" s="42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="295" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A295" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A296" s="116" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="297" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C297" s="108" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="298" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A298" s="117" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C299" s="108" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="301" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A301" s="3"/>
+      <c r="B301" s="5"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="3"/>
+      <c r="F301" s="3"/>
+      <c r="G301" s="5"/>
+      <c r="H301" s="3"/>
+      <c r="I301" s="3"/>
+      <c r="K301" s="3"/>
+      <c r="L301" s="3"/>
+      <c r="M301" s="3"/>
+      <c r="N301" s="3"/>
+      <c r="P301" s="5"/>
+      <c r="Q301" s="5"/>
+      <c r="R301" s="5"/>
+      <c r="S301" s="5"/>
+      <c r="U301" s="5"/>
+    </row>
+    <row r="302" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A302" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C302" s="9"/>
+      <c r="P302" s="1"/>
+      <c r="U302" s="1"/>
+      <c r="V302" s="2"/>
+    </row>
+    <row r="303" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A303" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="304" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A304" s="108" t="s">
+        <v>415</v>
+      </c>
+      <c r="B304" s="108" t="s">
+        <v>449</v>
+      </c>
+      <c r="C304" s="108" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A305" s="42" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="B306" s="108" t="s">
+        <v>460</v>
+      </c>
+      <c r="C306" s="108" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A307" s="42" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C308" s="108" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A309" s="42" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C310" s="108" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A311" s="42" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C312" s="108" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A313" s="42" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C314" s="108" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A315" s="42" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A316" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A317" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A318" s="116" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C319" s="108" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A320" s="117" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="321" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C321" s="108" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="323" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A323" s="3"/>
+      <c r="B323" s="5"/>
+      <c r="C323" s="6"/>
+      <c r="D323" s="3"/>
+      <c r="F323" s="3"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="3"/>
+      <c r="I323" s="3"/>
+      <c r="K323" s="3"/>
+      <c r="L323" s="3"/>
+      <c r="M323" s="3"/>
+      <c r="N323" s="3"/>
+      <c r="P323" s="5"/>
+      <c r="Q323" s="5"/>
+      <c r="R323" s="5"/>
+      <c r="S323" s="5"/>
+      <c r="U323" s="5"/>
+    </row>
+    <row r="324" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A324" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C324" s="9"/>
+      <c r="P324" s="1"/>
+      <c r="U324" s="1"/>
+      <c r="V324" s="2"/>
+    </row>
+    <row r="325" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A325" s="42" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="326" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A326" s="108" t="s">
+        <v>434</v>
+      </c>
+      <c r="C326" s="108" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="327" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A327" s="111" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="328" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B328" s="108" t="s">
+        <v>462</v>
+      </c>
+      <c r="C328" s="108" t="s">
+        <v>437</v>
+      </c>
+      <c r="D328" s="2"/>
+    </row>
+    <row r="329" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A329" s="116" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="330" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="C330" s="108" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="331" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A331" s="117" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="332" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C332" s="108" t="s">
+        <v>441</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A81" r:id="rId1" xr:uid="{6A249A6A-F3CD-4844-A86C-4629577D6DE8}"/>
+    <hyperlink ref="H228" r:id="rId2" xr:uid="{2175C210-320A-4A9E-AC94-5F2484173428}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47C9201-531A-431F-9481-350C818765C6}">
+  <dimension ref="A12:E30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="74.26953125" customWidth="1"/>
+    <col min="5" max="5" width="50.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="96" t="s">
+        <v>347</v>
+      </c>
+      <c r="B13" s="97" t="s">
+        <v>348</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="99" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" s="123" t="s">
+        <v>352</v>
+      </c>
+      <c r="C14" s="100" t="s">
+        <v>353</v>
+      </c>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="101" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" s="124"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="102"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16" s="124"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="102"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="104" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" s="124"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="102"/>
+    </row>
+    <row r="18" spans="1:5" ht="126.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="103" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" s="125"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+    </row>
+    <row r="19" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="96" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" s="105" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" s="96" t="s">
+        <v>349</v>
+      </c>
+      <c r="D19" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="96" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="99" t="s">
+        <v>359</v>
+      </c>
+      <c r="B20" s="123" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>353</v>
+      </c>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="101" t="s">
+        <v>355</v>
+      </c>
+      <c r="B21" s="124"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="102"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" s="124"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="102"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="104" t="s">
+        <v>357</v>
+      </c>
+      <c r="B23" s="124"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="102"/>
+    </row>
+    <row r="24" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="103" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" s="125"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+    </row>
+    <row r="25" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="96" t="s">
+        <v>347</v>
+      </c>
+      <c r="B25" s="105" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" s="96" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="96" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="89" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="99" t="s">
+        <v>362</v>
+      </c>
+      <c r="B26" s="123" t="s">
+        <v>352</v>
+      </c>
+      <c r="C26" s="100" t="s">
+        <v>353</v>
+      </c>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="101" t="s">
+        <v>355</v>
+      </c>
+      <c r="B27" s="124"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="102"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="B28" s="124"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="102"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="104" t="s">
+        <v>357</v>
+      </c>
+      <c r="B29" s="124"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="102"/>
+    </row>
+    <row r="30" spans="1:5" ht="114" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="103" t="s">
+        <v>364</v>
+      </c>
+      <c r="B30" s="125"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B26:B30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B14" r:id="rId1" display="https://limelab.tech/foodbuzz/index.html" xr:uid="{6690FC4F-3347-4B06-9D0C-86C536B48E75}"/>
+    <hyperlink ref="B20" r:id="rId2" display="https://limelab.tech/foodbuzz/index.html" xr:uid="{34EBBEFD-03D3-472D-9A98-85D85C5D9558}"/>
+    <hyperlink ref="B26" r:id="rId3" display="https://limelab.tech/foodbuzz/index.html" xr:uid="{CF277C14-7189-443D-A040-CD48B58B5B11}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2 четверть_5_Тестеровщик_Введение в тестирование.xlsx
+++ b/2 четверть_5_Тестеровщик_Введение в тестирование.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework-repo\GB_Developer_Workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DDFFAA-00C8-42AD-BA65-08A962820FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31891442-584B-4BB4-A3B2-DE1591340EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="15980" windowHeight="7600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="330" windowWidth="15980" windowHeight="7600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Введение в тестирование 1-6" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="666">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -7710,17 +7710,3065 @@
   <si>
     <t>Проектирование тест-кейсов</t>
   </si>
+  <si>
+    <r>
+      <t>Email
+Тип данных</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Кириллица, Латиница итп
+Кириллица - 1 класс "эквивалентности"
+Латиница - 2 класс "эквивалентности"
+Эти классы полноценно проверяются не проверяя все возможные вариации слов на кириллице и латинице, а лишь выбрав по одному из представителей каждого класса</t>
+    </r>
+  </si>
+  <si>
+    <t>Продолжение:
+Классы эквивалентности можно разделить на "допустимые" в рамках задачи и "недопустимые"; а также "линейные" и "нелинейные"
+Классы эквивалентности применяются во всех случаях, когда по смыслу мы можем сгруппировать проверки в отдельные классы, чтобы не проверять всех представителей этих классов (это касается как выше приведенного примера, так и чисел, весов и даже в определенных случаях логике приложений - если приложение модульное, то достаточно один модуль проверить один раз, нежели проверять все варианты его подключения в конечной версии приложении)</t>
+  </si>
+  <si>
+    <t>Урок 5 часть 1</t>
+  </si>
+  <si>
+    <t>Виды тестирования</t>
+  </si>
+  <si>
+    <t>Виды функционального тестирования.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>1 Метод черного ящика
+2 Метод белого ящика
+3 Метод серого ящика</t>
+  </si>
+  <si>
+    <t>1 По доступу к внутренней структуре ПО</t>
+  </si>
+  <si>
+    <t>Тестирование черного ящика</t>
+  </si>
+  <si>
+    <t>Тестирование белого ящика</t>
+  </si>
+  <si>
+    <t>Недостатки
+– требуются знания языка программирования</t>
+  </si>
+  <si>
+    <t>Тестирование серого ящика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Связанные с изменениями в коде
+</t>
+  </si>
+  <si>
+    <t>3 По запуску кода на исполнение</t>
+  </si>
+  <si>
+    <t>4 По характеру сценария</t>
+  </si>
+  <si>
+    <t>5 По исполнителю</t>
+  </si>
+  <si>
+    <t>6 По наличию тест-кейсов</t>
+  </si>
+  <si>
+    <t>Нефункциональные виды тестирования</t>
+  </si>
+  <si>
+    <t>Тестирование производительности</t>
+  </si>
+  <si>
+    <t>1 Нагрузочное тестирование
+2 Тестирование масштабируемости
+3 Объемное тестирование
+4 Стрессовое тестирование</t>
+  </si>
+  <si>
+    <t>Проводится с целью оценки поведения системы при возрастающей нагрузке, а также для определения нагрузки, которую способны выдержать компонент или система.
+● измерение времени выполнения операций при определенной интенсивности;
+● определение количества пользователей, одновременно работающих с приложением;
+● определение границ приемлемой производительности при увеличении нагрузки.</t>
+  </si>
+  <si>
+    <r>
+      <t>Измерение возможностей масштабирования, с точки зрения любой нефункциональной возможности: 
+-увеличение количества пользователей приложения, 
+-рост числа транзакций, 
+-увеличение объема данных.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вертикальное масштабирование</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — это увеличение производительности каждого компонента системы с целью повышения общей производительности.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Горизонтальное масштабирование </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— это разбиение системы на структурные компоненты и разнесение их по отдельным физическим машинам, а также увеличение количества серверов, параллельно выполняющих одну и ту же функцию.</t>
+    </r>
+  </si>
+  <si>
+    <t>Система испытывается на больших объемах данных.
+Пример:
+Поведение приложения при попытке загрузить
+в его базу данных несколько файлов очень большого размера.</t>
+  </si>
+  <si>
+    <t>Оценка системы на граничных значениях рабочих нагрузок или за их пределами, либо в состоянии ограниченных ресурсов — памяти или доступа к серверу.
+Пример:
+Стандартная нагрузка на сервер приложения —
+1000 запросов в секунду. При стрессовом тестировании требуется проверить поведение системы при увеличении нагрузки до 10 000 запросов в секунду.</t>
+  </si>
+  <si>
+    <t>Тестирование установки</t>
+  </si>
+  <si>
+    <t>Тестирование интерфейса</t>
+  </si>
+  <si>
+    <t>UX тестирование</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">проверка того, насколько легко пользователь понимает и осваивает программу, включая не только </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>функциональную составляющую</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (саму систему), но и ее </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>документацию</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — пользовательские инструкции.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">это процесс проверки того, соответствует ли </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>пользовательский интерфейс программного обеспечения требованиям</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, и </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>удобно ли пользователям работать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> с программным продуктом.</t>
+    </r>
+  </si>
+  <si>
+    <t>Тестирование безопасности</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">это стратегия тестирования, используемая для </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>проверки безопасности системы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, а также для </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>анализа рисков</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, связанных с обеспечением целостного подхода к защите приложения от:
+1 атак хакеров, 
+2 вирусов, 
+3 несанкционированного доступа к конфиденциальным данным.</t>
+    </r>
+  </si>
+  <si>
+    <t>Тестирование надежности</t>
+  </si>
+  <si>
+    <t>это тип тестирования программного обеспечения, который проверяет, может ли программное обеспечение выполнять безотказную работу в течение определенного периода времени в конкретной среде.</t>
+  </si>
+  <si>
+    <t>00 03 00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"Черным ящиком" называют такие системы, внутреннее устройство которых достаточно сложное/неизвестное/не очень важное в рамках решения задачи тестирования. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>У этого черного ящика есть только "вход в систему" и "выход из этой системы" - что находится внутри этой системы мы не знаем</t>
+    </r>
+  </si>
+  <si>
+    <t>"Тестировщик смотрит на то, что делает программа, а не то как она это делает"</t>
+  </si>
+  <si>
+    <t>00 05 35</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Преимущества
++ обнаруживает неточности и противоречия в поведении ПО;
++ не требует знания языков программирования;
++ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> тестирование проводится независимыми специалистами;
++ ранняя готовность тест-кейсов.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Недостатки
+– </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ограниченное количество сценариев</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, так как мы не знаем как система работает под капотом (то есть мы не можем проверить все функции данного приложения);
+– </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>тесты зависят от того насколько у нас точная и подробная спецификации</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. (без спецификации мы можем пропустить необходимые проверки)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 06 50</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> В основном такой вид тестирования используется </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>разработчиками</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, так как здесь нужно хорошее понимание внутренней структуры приложения и знания ЯП</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Основывается на анализе внутренней структуры системы и на знании и понимании исходного кода, к которому тестировщик имеет полный доступ.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> После того как разработчиком написан код приложения, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>разработчики пишут для него модульные или юнит-тесты</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Таким образом разработчики отрбирают входные значения для создаваемых тестов на основе кода, который будет эти значения обрабатывать </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Преимущества
++ раннее начало тестирования: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>пользовательский интерфейс не требуется</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;
++ тестирование более тщательное, с покрытием
+путей выполнения программы: условий и операторов.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>"Тестирование кода без интерфейса"</t>
+  </si>
+  <si>
+    <t>00 08 40</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Тестирование не на уровне кода или интефейса, а на уровне между, например проверка записи в базу данных (опять же не требуется пользовательский интерфейс)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Тестирование в условиях, когда часть внутренней структуры программы известна.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Самые распространенным тестированием серого ящика</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> является тестирование веб-приложений с помощь </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Интсрументов разработчика в Google Chrome браузер и Chrome dev tools</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (скорее всего это черный ящик!!!)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+● запись в базу данных;
+● лог-файлы;
+● коды ответа от сервера.</t>
+    </r>
+  </si>
+  <si>
+    <t>00 10 00</t>
+  </si>
+  <si>
+    <t>00 11 28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 Повторное (подтверждающее) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">— проверка исправления ошибок. Запускаются тестовые сценарии, которые ранее выявили дефекты продукта для подтверждения успешности, что данные дефекты были устранены.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 Регрессионное</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — проверка, что старые функции работают после внедрения новых</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Статическое </t>
+  </si>
+  <si>
+    <t>Начинается на самом раннем этапе тестирования ПО и продолжается на протяжении всей разработки ПО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Динамическое </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>без запуска приложения.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Это тестирование системы на уровне спецификации или реализации без исполнения программного кода продукта (тестирование и вычитка документации, требований, схем баз данных, тестирование кода приложения без его запуска)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Тестирование кода приложения без его запуска (аудит кода/code review)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - специалист, который не участвовал в разработке приложения, проверяет и анализирует качество кода
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Тестирование макетов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - рисует дизайнер. проверка на противоречия, наложение элементов друг на друга, нет других ошибок</t>
+    </r>
+  </si>
+  <si>
+    <t>00 13 09</t>
+  </si>
+  <si>
+    <t>Для проведения динамического тестирования требоуется, чтобы код программы смог запуститься</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>с запуском приложения.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Это тестирование, которое проводится во время исполнения приложения/компонента или системы (проверка проводится на рабочей версии приложения)
+Тестируется поведение программы, поведение ее отдельных компонентов. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Все виды функционального тестирования мы можем считать динамическими</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Проводится в первую очередь, чтобы убедиться что система функционирует и это делает правильно.</t>
+  </si>
+  <si>
+    <t>2 Негативное</t>
+  </si>
+  <si>
+    <t>1 Позитивное</t>
+  </si>
+  <si>
+    <t>валидные данные, проверка работы системы на правильность работы функций - в соответствии со спецификацией.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">невалидные данные, правильная реакция системы на некорректные действия. </t>
+  </si>
+  <si>
+    <t>Тестирование направленное не на то, чтобы сломать систему, а для того чтобы проверить правильную реакцию системы, если пользователь будет вводить неправильные данные</t>
+  </si>
+  <si>
+    <t>00 17 09</t>
+  </si>
+  <si>
+    <t>1 Альфа-тестирование</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Проводится после того, как были проведены </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>модульное тестирование, интеграционное тестирование</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и продукт уже находится на стадии частичной готовноти к выпуску на рынок.</t>
+    </r>
+  </si>
+  <si>
+    <t>силами компании- разработчика с возможным частичным привлечением пользователей.
+Чаще всего проводится в тестовой среде, на тестовых стендах компании, которые недоступны обычным пользователям</t>
+  </si>
+  <si>
+    <t>00 18 30</t>
+  </si>
+  <si>
+    <t>2 Бета-тестирование (внешнее/публичное тестирование)</t>
+  </si>
+  <si>
+    <t>Для передачи в бета-тестирование продукт должен работать стабильно, но не лишенным каких-то недостатков, в том числе критичных</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">силами ограниченного круга пользователей
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Чтобы минимизировать наличие критичных недостатков на большой аудитории пользовтелей </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>доступ сначала открывают для небольших групп лояльных пользователей, которые понимают, что взаимодействуют с незавершенной версией продукта (делается для того, чтобы проверить работоспособность продукта и собрать обратную связь по нему)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 22 30</t>
+  </si>
+  <si>
+    <t>Лучше всего подходит, когда мало документации или сильно сжаты сроки
+Лучше проводить после проведения тестирования тест-кейсами. То есть сначала пройти проверку тест-кейсами, а затем придумать сценарии, по которым провести исследовательское тестирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>1 На основе тест-кейсов</t>
+  </si>
+  <si>
+    <t>проверка производится на основе выбранного сценария, которые далее дорабатывается для более полной проверки. Проводится небольшими временными сессиями нацеленные, на конкретные задачи.
+Требуется протестировать "ВСЕ поля ввода на странице" - во время сессии ведется протокол, а тестировщик фиксирует результат.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 Исследовательское тестирование
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">adhoc - интуитивное тестирование </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(тестировщик не опирается на тест-кейсы или сценарии, не составляются протоколы, а дефекты, которые были найдены заводятся и передаются в разработку</t>
+    </r>
+  </si>
+  <si>
+    <t>00 25 30</t>
+  </si>
+  <si>
+    <t>00 26 13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Главная задача тестирования: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Обработать требуемое количество данных за установленное время. В случае повышения запланированных объемов, система восстанавливается после отказа без потери данных</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Нагрузочное тестирование</t>
+  </si>
+  <si>
+    <t>2 Тестирование масштабируемости</t>
+  </si>
+  <si>
+    <t>3 Объемное тестирование</t>
+  </si>
+  <si>
+    <t>4 Стрессовое тестирование</t>
+  </si>
+  <si>
+    <t>00 29 39</t>
+  </si>
+  <si>
+    <t>00 30 09</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Показатели производительности
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Время задержки (Latency)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - временной интервал между запросом и ответом
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Время ответа (Response time)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - время которое требуется серверу на ответ пользователю
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. Пропускная способность (Throughput) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> кол-во запросов, которое система может обработать за определенное время
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. Ширина пропускания канала (Bandwidth)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> максимальное число запросов, обрабатываемых системой. Используется для измерения максимального объема, который может обрабаотать система
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5. Процент ошибок </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>процент невалидных ответов к валидным за опрделенный промежуток времени</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Тестирование установки направлено на проверку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>успешной инсталляции и настройки</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, а также </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">обновления или удаления программного обеспечения.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Кейсы при тестировании (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>! тестирование поведения приложения после каждого из ниже приведенных этапов):
+● первая установка;
+● обновление;
+● удаление.</t>
+    </r>
+  </si>
+  <si>
+    <t>00 33 25</t>
+  </si>
+  <si>
+    <t>00 33 37</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Цель тестирования</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: поиск того, что можно улучшить на сайте, чтобы увеличить кол-во пользователей, конверсию пользователей
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Обычно проводят не тестировщики, а UX исследователи</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, которые прделагают пользователям пройти определнные сценарии. Исследователи следят за тем, как пользователи выполняют задачи сценариев, спрашивая обратную связь и что можно улучшить</t>
+    </r>
+  </si>
+  <si>
+    <t>Тестирование локализации</t>
+  </si>
+  <si>
+    <t>Тестирование языка и региональных особенностей</t>
+  </si>
+  <si>
+    <t>00 36 00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Цель тестирования:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> отсутствие утечки памяти, проследить чтобы скорость обработки запросов не падало, время отклика системы не увеличивалось</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Основывается на анализе спецификации системы без знания внутренней структуры.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Другими словами: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>это тестирование, когда мы проверяем системы без понимания что внутри этой системы/что у нее под "капотом". Мы взаимодействуем с системой очень близко к тому, как с ней взаимодействует самый обычный пользователь
+Находит ошибки:
+1. Функции неправильно реализованы или отсутствуют.
+2. Интерфейс отличается от макетов.
+3  Данные не записываются в базы или записываются неверно.
+4. Недостаточная производительность системы.</t>
+    </r>
+  </si>
+  <si>
+    <t>Функциональное тестирование — это тестирование ПО в целях проверки реализуемости функциональных требований. Функциональные требования определяют, что именно делает Программное обеспечение, какие задачи оно решает. Функциональные требования включают в себя:
+Функциональную пригодность (англ. suitability).
+Точность (англ. accuracy).
+Способность к взаимодействию (англ. interoperability).
+Соответствие стандартам и правилам (англ. compliance).
+Защищённость (англ. security).</t>
+  </si>
+  <si>
+    <t>План работы над тест дизайном</t>
+  </si>
+  <si>
+    <t>1 анализ имеющихся проектных артефактов: документация (спецификации, требования, планы), модели, исполняемый код и т.д.
+2 написание спецификации по тест дизайну (Test Design Specification)
+3 проектирование и создание тестовых случаев (Test Cases)</t>
+  </si>
+  <si>
+    <t>Роли, ответственные за тест дизайн</t>
+  </si>
+  <si>
+    <t>Тест аналитик - определяет "ЧТО тестировать?"
+Тест дизайнер - определяет "КАК тестировать?"</t>
+  </si>
+  <si>
+    <t>`http://www.protesting.ru/testing/testdesign.html</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Попросту говоря, задача </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>тест аналитиков и дизайнеров сводится к тому, чтобы используя различные стратегии и техники тест дизайна, создать набор тестовых случаев, обеспечивающий оптимальное тестовое покрытие тестируемого приложения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Однако, на большинстве проектов эти роли не выделяется, а доверяется обычным тестировщикам, что не всегда положительно сказывается на качестве тестов, тестировании и, как из этого следует, на качестве программного обеспечения (конечного продукта).</t>
+    </r>
+  </si>
+  <si>
+    <t>Нефункциональное тестирование включает в себя тестирование качественных характеристик компонента или системы, которые могут быть измерены различными величинами, не относящимися к конкретной функции или действию пользователя. Данный вид тестирования позволяет определить работоспособность системы при различных условиях</t>
+  </si>
+  <si>
+    <t>Масштабируемость определяет способность системы обрабатывать большие объемы нагрузки, и может относиться к различным параметрам системы: количество дополнительного трафика, с которым она может справиться, насколько легко нарастить ёмкость запоминающего устройства, или насколько больше других транзакций может быть обработано.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Задача</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: проверка системы на то, что она выдерживает то количество запросов, которое указано в требованиях</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Задача: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>проверка системы на то, что она выдерживает количество запросов большее, чем то которое указано в требованиях</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Задача:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> проверка системы на то, что она выдержит дополнительный трафик (а также насколько легко увеличить ресурсы данного приложения), в случае прихода дополнительных пользователей/запросов</t>
+    </r>
+  </si>
+  <si>
+    <t>Тут оценивается визуалка интерфейса</t>
+  </si>
+  <si>
+    <t>Тут не оценивается визуалка интерфейса
+Тут оценивается логика сайта (функции)</t>
+  </si>
+  <si>
+    <t>Урок 6 часть 1</t>
+  </si>
+  <si>
+    <t>1 Соответствует требованиям—спецификации.
+2 Удовлетворяет потребность пользователя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дефект (баг) </t>
+  </si>
+  <si>
+    <t>На что опираемся при заведении дефекта</t>
+  </si>
+  <si>
+    <t>Причины появления дефектов</t>
+  </si>
+  <si>
+    <t>Жизненный цикл дефекта</t>
+  </si>
+  <si>
+    <t>1 Создание баг-репортов. 
+2 Баг-трекинговые системы.
+3 Отчеты о тестировании</t>
+  </si>
+  <si>
+    <t>Качественное ПО обладает 2 характеристиками:</t>
+  </si>
+  <si>
+    <t>Отчет о дефекте</t>
+  </si>
+  <si>
+    <t>Атрибуты отчета о дефекте</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Заголовок:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Пропадают заголовки на главной странице при скролле</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Предусловие:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Открыть главную страницу и отключить интернет</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаги воспроизведения:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 Проскроллить главную страницу</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Окружение</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+macOS Big Sur, Chrome 99.0.4844.84</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Фактический результат:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Пропадают заголовки на главной странице при скролле</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2930</t>
+    </r>
+  </si>
+  <si>
+    <t>Правила хорошего баг-репорта</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Приоритет</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - как быстро надо починить?</t>
+    </r>
+  </si>
+  <si>
+    <t>Градации серьезности бага</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Блокирующий (Blocker)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> —функция не работает.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Критический (Critical)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> —функция работает, но с ограничениями.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Значительный (Major)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> —функция работает, нонеправильно.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Незначительный (Minor)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> —функция работает, но неудобно.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Тривиальный (Trivial)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> —грамматические ошибки в
+пользовательской документации.</t>
+    </r>
+  </si>
+  <si>
+    <t>Градации приоритета</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Высокий (1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> —устранить немедленно.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Средний (2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — устранитьв ближайшее время.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Низкий (3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>— устранить,когда будет время.</t>
+    </r>
+  </si>
+  <si>
+    <t>Багтрекинговая система</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Система отслеживания ошибок</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(от англ.bug tracking system)—прикладная программа, созданная:
+● для учета и контроля ошибок и неполадок;
+● пожеланий пользователей;
+● отслеживания устранения ошибок.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Создание баг-репортов. </t>
+  </si>
+  <si>
+    <t>Урок 6 часть 2</t>
+  </si>
+  <si>
+    <t>Урок 6 часть 3</t>
+  </si>
+  <si>
+    <t>2 Баг-трекинговые системы.</t>
+  </si>
+  <si>
+    <t>Практика с Jira</t>
+  </si>
+  <si>
+    <t>Урок 6 часть 4</t>
+  </si>
+  <si>
+    <t>3 Отчеты о тестировании</t>
+  </si>
+  <si>
+    <t>Содержание отчета о тестировании</t>
+  </si>
+  <si>
+    <t>00 02 09</t>
+  </si>
+  <si>
+    <t>00 02 30</t>
+  </si>
+  <si>
+    <t>Вопрос: а зачем тогда нам нужны тест-кейсы?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">это отклонение фактического результата от ожидаемого.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Любые отклонения от нормального поведения необходимо документировать. Документирование позволяет нам вести учет найденных дефектов, иметь представление о качестве продукта и передавать разработчикам обнаруженные дефекты</t>
+    </r>
+  </si>
+  <si>
+    <t>00 04 30</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Опираемся на техническое задание!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. требования
+2. спецификации
+3. на предыдущий опыт </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(валидно, когда отсутствуют требования и спецификации)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. на критерии качества (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>валидно, когда отсутствуют требования и спецификации</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+5. на логику и здравый смысл (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>валидно, когда отсутствуют требования и спецификации</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 05 07</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 Проблемы в коммуникациях между членами команды
+2 Сложность программного обеспечения
+3 Изменение требований</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 Ошибки программистов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>программисты должны писать и документировать код по заранее установленным правилам, однако часто бывает так что времени на все не хватает и программистом приходится торопиться. Поэтому срабатывает фактор невнимательности и забывчивости, что приводит к возникновению дефектов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5 Ошибки тестировщиков</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>из-за отсутствия опыта в тестируемом продукте, а также невозможности исчерпывающего тестирования</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 07 43</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Отчеты о дефектах - это инструменты сбора статистики на проектах. Они помогают определить, в каких областях приложения и при каких условиях концентрируются дефекты</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">это документ, который описывает 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>шаги воспроизведения дефекта, 
+2 фактический и ожидаемый результат, 
+3 серьезность дефекта
+4 приоритет устранения, 
+5 а также может давать некоторые рекомендации по исправлению этой проблемы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Отчет о дефекте = баг-репорт = баг</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ожидаемый результат: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(берем из технического задания)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Заголовки не пропадают на главной странице при скролле</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Вложения</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Скриншоты, запись видео воспроизведения дефекта, логи или другая информация, которая подтверждает найденный дефект, а также вспомогательная информация по его устранению</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> new
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Priority</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> medium
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Severity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Critical</t>
+    </r>
+  </si>
+  <si>
+    <t>вопросы: какие дефекты набилоее часто встречающиеся? Нужно ли заводить малозначимые дефекты по полной форме?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Assign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ivan Ivanov (в некоторых командах lead распределяет отладку дефекта, в других автоматически первому освободившемуся)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 17 45</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Заголовок - это первое, что все (продакт, разраб итд) видят при первом знакомстве с баг-репортом
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Примеры (неправильный заголовок):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Возникает ошибка при загрузке большого файла"
+-Какая ошибка возникает?
+-Насколько большой файл мы загружаем?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Название</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1 «Что?Где?Когда?» - важно ответить на ВСЕ эти вопросы в названии,
+2 до 10 слов, или до 80 символов
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3 не называем одним словом "некорректно", "неправильно","ошибка" - важно указать в чем заключается ошибка
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пример (правильный заголовок):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Код ошибки DB1000 при загрузке файла 100 мегабайт"</t>
+    </r>
+  </si>
+  <si>
+    <t>00 20 48</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаги</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+точная инструкция по воспроизведению бага. [Оптимальное кол-во шагов 2-8]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаг 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> указание по какой ссылке перейти, какое окно открыть
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаг 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Всегда отвечает на вопрос: Что сделать. Нажать на кнопку найти, ввести валдные логин и пароль
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Последний шаг</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Например мы находим незначительный баг в верстке и нам требуется обратить на него внимание, тогда пишем: "Обратите внимание на указанный блок" или "Обратите внимание такой-то элемент"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> После написания шагов необходимо пройтись по этим шагам самостоятельно и убедиться в том, что они действительно описывают воспроизведение бага</t>
+    </r>
+  </si>
+  <si>
+    <t>00 23 00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Фактический и ожидаемый результат</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Один баг—одна пара ОР и ФР
+Один фактический результат. Один ожидаемый результат. Если же мы видим большее количество одного или другого, то данный багг следует разбить на несколько.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ожидаемом результате</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> следует ссылаться на требования, а не просто описывать своими словами как должна работать система (то есть подтверждать свои слова спецификацией)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 23 54</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Серьёзность</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Серьезность: насколько баг мешает пользователю?</t>
+    </r>
+  </si>
+  <si>
+    <t>00 30 40</t>
+  </si>
+  <si>
+    <t>1 Следовать правилу «Что?Где?Когда?».
+2. Одна ошибка—один отчет о дефекте.
+3. Краткость—сестра баг-репорта.
+4. Писать техническим языком.
+5. Прикреплять дополнительные файлы:логи, скриншоты,видео.
+6. Прикреплять ссылки к требованиям.
+7. Избегать дубликатов дефектов.
+8. Указывать окружение,на котором обнаружился дефект.
+9. Воспроизводить дефект,следуя собственным шагам.</t>
+  </si>
+  <si>
+    <t>00 32 30</t>
+  </si>
+  <si>
+    <t>00 38 30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">На любом проекте есть план в соответствии с которым мы должны выпускать новую функциональность в определенный срок.
+В этом плане, в плановой документации, фиксируются различные метрики и критерии, на которые мы ориентируемся при выпуске новой функциональности.
+В процессе выполнения или при завершении тестирования мы должны оценить эффективность проделанной работы, а также соответствие метрикам плана (насколько мы укладываемся или уложились в план, если оценка происходит после завершения работ)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Для этого испольуются различные виды тестовой отчетностей </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Отчет о результатах тестирования </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- это документ, который </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>обощает результаты работ по тестировнию</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> и содержит информацию достаточную </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>для соотнесения текущей ситуации с тест-планом</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> для принятия необходимых управленческих решений
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Периодичность формирования отчета</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: может публиковаться с различной периодичностью. Команда может определить периодичность самостоятельно в зависимости от того, как это предусмотрено в конкретном проекте.( раз в день, неделю, итерации итд)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Форматы</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: текстовый , табличный, графический (или комбинация форматов)</t>
+    </r>
+  </si>
+  <si>
+    <t>00 40 11</t>
+  </si>
+  <si>
+    <t>● Краткое описание - общая оценка итогов тестирования
+● Команда тестировщиков- список участников проектной команды (с должностями и конкретным функционалом распределенным для тестирования между членами команды)
+● Описание процесса тестирования описывается вся выполненная тестировщиками работа (какое количество дефектов заведено, какие тест-кейсы были составлены)
+● Расписание - каледнарные сроки выполнения работ
+● Статус активностей тестирования и прогресс сравнению с планом. - график запланированных к выполненных задачам
+● Факторы ,препятствующие прогрессу - изменились правла в требованиях или какие-то функции заблокированы
+● Статистика по новым дефектам. - сколько дефектов было обнаружено за день и тд
+● Список новых дефектов - список дефектов которые были обнаружены в отчетный период 
+● Статистика по всем дефектам - график, на котором отображается общее количество дефектов за весь период проекта
+● Качество объекта тестирования.- специалист по тестированию может давать экспертное заключение насколько качественно ПО. 
+● Рекомендации. - давать рекомендации по улучшению ПО
+● Приложения - заведенные тест-кейсы и баг-репорты, графикы и другая важная информация</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8012,6 +11060,16 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -8390,9 +11448,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -8403,56 +11461,56 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -8464,7 +11522,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8485,10 +11543,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -8497,7 +11555,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8512,22 +11570,22 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -8542,13 +11600,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -8557,16 +11615,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8593,62 +11651,62 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -8657,13 +11715,58 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -8672,79 +11775,34 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8753,32 +11811,113 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9244,13 +12383,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>34635</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5137726</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>235</xdr:row>
       <xdr:rowOff>1162128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9288,13 +12427,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>103911</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>34637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4595092</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>1221240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9332,13 +12471,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>103909</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>588818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5133468</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>1801091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9376,13 +12515,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>785088</xdr:colOff>
-      <xdr:row>292</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>23090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2505363</xdr:colOff>
-      <xdr:row>292</xdr:row>
+      <xdr:row>295</xdr:row>
       <xdr:rowOff>1869983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9420,13 +12559,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>80818</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>92364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4130527</xdr:colOff>
-      <xdr:row>294</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>1385455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9464,13 +12603,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>46184</xdr:colOff>
-      <xdr:row>315</xdr:row>
+      <xdr:row>318</xdr:row>
       <xdr:rowOff>34635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4918364</xdr:colOff>
-      <xdr:row>315</xdr:row>
+      <xdr:row>318</xdr:row>
       <xdr:rowOff>1960946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9508,13 +12647,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57728</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>46181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4925860</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>319</xdr:row>
       <xdr:rowOff>1905000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9551,15 +12690,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>178704</xdr:colOff>
-      <xdr:row>227</xdr:row>
-      <xdr:rowOff>34638</xdr:rowOff>
+      <xdr:colOff>147593</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>3405910</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>46754</xdr:rowOff>
+      <xdr:colOff>3371272</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>44518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9582,8 +12721,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18859249" y="127831274"/>
-          <a:ext cx="3227206" cy="2044116"/>
+          <a:off x="18828138" y="130232727"/>
+          <a:ext cx="3223679" cy="2041882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>173181</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>76375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4637101</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>2061062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Рисунок 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5771D0F-1EC6-474C-A45B-DDCA135849EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6222999" y="186928011"/>
+          <a:ext cx="4463920" cy="1984687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>198267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3740728</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>581953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Рисунок 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{698ABEDC-15A6-4EF7-9A67-A31B2EF25993}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18819090" y="132613085"/>
+          <a:ext cx="3602183" cy="383686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>23091</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>57730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3556000</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>1409347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Рисунок 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B12D5F7-6E05-4620-85AB-21A386C24AA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6072909" y="233264366"/>
+          <a:ext cx="3532909" cy="1351617"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9861,17 +13132,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V332"/>
+  <dimension ref="A2:V433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218:D218"/>
+    <sheetView tabSelected="1" topLeftCell="A423" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B433" sqref="B433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="74.7265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="76.453125" style="4" customWidth="1"/>
     <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.26953125" style="7" customWidth="1"/>
     <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
@@ -11811,494 +15082,502 @@
       <c r="A218" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="B218" s="128"/>
-      <c r="C218" s="129" t="s">
+      <c r="B218" s="125"/>
+      <c r="C218" s="126" t="s">
         <v>487</v>
       </c>
-      <c r="D218" s="130"/>
-    </row>
-    <row r="219" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="39"/>
-      <c r="B219" s="127" t="s">
+      <c r="D218" s="127"/>
+    </row>
+    <row r="219" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A219" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C219" s="129" t="s">
+        <v>587</v>
+      </c>
+      <c r="D219" s="27"/>
+    </row>
+    <row r="220" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A220" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="C220" s="129" t="s">
+        <v>589</v>
+      </c>
+      <c r="D220" s="27"/>
+    </row>
+    <row r="221" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A221" s="38"/>
+      <c r="C221" s="129" t="s">
+        <v>591</v>
+      </c>
+      <c r="D221" s="27"/>
+    </row>
+    <row r="222" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A222" s="39"/>
+      <c r="B222" s="128" t="s">
         <v>486</v>
       </c>
-      <c r="C219" s="127" t="s">
+      <c r="C222" s="124" t="s">
         <v>443</v>
       </c>
-      <c r="D219" s="31" t="s">
+      <c r="D222" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="F219" s="118" t="s">
+      <c r="F222" s="118" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A220" s="23" t="s">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A223" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="B220" s="18"/>
-      <c r="C220" s="109"/>
-      <c r="D220" s="35" t="s">
+      <c r="B223" s="18"/>
+      <c r="C223" s="109"/>
+      <c r="D223" s="35" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="221" spans="1:22" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A221" s="39"/>
-      <c r="B221" s="14"/>
-      <c r="C221" s="110" t="s">
+    <row r="224" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A224" s="39"/>
+      <c r="B224" s="128" t="s">
+        <v>488</v>
+      </c>
+      <c r="C224" s="110" t="s">
         <v>370</v>
       </c>
-      <c r="D221" s="31"/>
-    </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A222" s="23" t="s">
+      <c r="D224" s="31"/>
+    </row>
+    <row r="225" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A225" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="B222" s="18"/>
-      <c r="C222" s="43"/>
-      <c r="D222" s="35" t="s">
+      <c r="B225" s="18"/>
+      <c r="C225" s="43"/>
+      <c r="D225" s="35" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="223" spans="1:22" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="39"/>
-      <c r="B223" s="14"/>
-      <c r="C223" s="110" t="s">
+    <row r="226" spans="1:22" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A226" s="39"/>
+      <c r="B226" s="128" t="s">
+        <v>489</v>
+      </c>
+      <c r="C226" s="110" t="s">
         <v>372</v>
       </c>
-      <c r="D223" s="31"/>
-    </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A225" s="3"/>
-      <c r="B225" s="5"/>
-      <c r="C225" s="6"/>
-      <c r="D225" s="3"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="5"/>
-      <c r="H225" s="3"/>
-      <c r="I225" s="3"/>
-      <c r="K225" s="3"/>
-      <c r="L225" s="3"/>
-      <c r="M225" s="3"/>
-      <c r="N225" s="3"/>
-      <c r="P225" s="5"/>
-      <c r="Q225" s="5"/>
-      <c r="R225" s="5"/>
-      <c r="S225" s="5"/>
-      <c r="U225" s="5"/>
-    </row>
-    <row r="226" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A226" s="1" t="s">
+      <c r="D226" s="31"/>
+    </row>
+    <row r="228" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A228" s="3"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="K228" s="3"/>
+      <c r="L228" s="3"/>
+      <c r="M228" s="3"/>
+      <c r="N228" s="3"/>
+      <c r="P228" s="5"/>
+      <c r="Q228" s="5"/>
+      <c r="R228" s="5"/>
+      <c r="S228" s="5"/>
+      <c r="U228" s="5"/>
+    </row>
+    <row r="229" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A229" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C226" s="9"/>
-      <c r="P226" s="1"/>
-      <c r="U226" s="1"/>
-      <c r="V226" s="2"/>
-    </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A227" s="23" t="s">
+      <c r="C229" s="9"/>
+      <c r="P229" s="1"/>
+      <c r="U229" s="1"/>
+      <c r="V229" s="2"/>
+    </row>
+    <row r="230" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A230" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="B227" s="18"/>
-      <c r="C227" s="43"/>
-      <c r="D227" s="35" t="s">
+      <c r="B230" s="18"/>
+      <c r="C230" s="43"/>
+      <c r="D230" s="35" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="228" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A228" s="38" t="s">
+    <row r="231" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A231" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="B228" s="108" t="s">
+      <c r="B231" s="108" t="s">
         <v>447</v>
       </c>
-      <c r="C228" s="126" t="s">
+      <c r="C231" s="123" t="s">
         <v>484</v>
       </c>
-      <c r="D228" s="27"/>
-      <c r="F228" s="111" t="s">
+      <c r="D231" s="27"/>
+      <c r="F231" s="111" t="s">
         <v>464</v>
       </c>
-      <c r="H228" s="119" t="s">
+      <c r="H231" s="119" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="229" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A229" s="113" t="s">
+    <row r="232" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A232" s="113" t="s">
         <v>376</v>
       </c>
-      <c r="B229" s="108" t="s">
+      <c r="B232" s="108" t="s">
         <v>449</v>
       </c>
-      <c r="C229" s="108" t="s">
+      <c r="C232" s="108" t="s">
         <v>377</v>
       </c>
-      <c r="D229" s="27" t="s">
+      <c r="D232" s="27" t="s">
         <v>448</v>
       </c>
-      <c r="F229" s="108" t="s">
+      <c r="F232" s="108" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="230" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A230" s="114" t="s">
+    <row r="233" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A233" s="114" t="s">
         <v>378</v>
       </c>
-      <c r="B230" s="115" t="s">
+      <c r="B233" s="115" t="s">
         <v>450</v>
       </c>
-      <c r="C230" s="115" t="s">
+      <c r="C233" s="115" t="s">
         <v>379</v>
       </c>
-      <c r="D230" s="66"/>
-    </row>
-    <row r="231" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A231" s="112" t="s">
+      <c r="D233" s="66"/>
+    </row>
+    <row r="234" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A234" s="112" t="s">
         <v>380</v>
       </c>
-      <c r="B231" s="18"/>
-      <c r="C231" s="43"/>
-      <c r="D231" s="35"/>
-    </row>
-    <row r="232" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A232" s="108"/>
-      <c r="B232" s="108" t="s">
+      <c r="B234" s="18"/>
+      <c r="C234" s="43"/>
+      <c r="D234" s="35"/>
+    </row>
+    <row r="235" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A235" s="108"/>
+      <c r="B235" s="108" t="s">
         <v>381</v>
       </c>
-      <c r="C232" s="108" t="s">
+      <c r="C235" s="108" t="s">
         <v>446</v>
       </c>
-      <c r="D232" s="27"/>
-    </row>
-    <row r="233" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A233" s="54" t="s">
+      <c r="D235" s="27"/>
+    </row>
+    <row r="236" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A236" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="D233" s="27"/>
-    </row>
-    <row r="234" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A234" s="55" t="s">
+      <c r="D236" s="27"/>
+    </row>
+    <row r="237" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A237" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="B234" s="110" t="s">
+      <c r="B237" s="110" t="s">
         <v>451</v>
       </c>
-      <c r="C234" s="46"/>
-      <c r="D234" s="31"/>
-    </row>
-    <row r="235" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A235" s="112" t="s">
+      <c r="C237" s="46"/>
+      <c r="D237" s="31"/>
+    </row>
+    <row r="238" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A238" s="112" t="s">
         <v>382</v>
       </c>
-      <c r="B235" s="18"/>
-      <c r="C235" s="43"/>
-      <c r="D235" s="35" t="s">
+      <c r="B238" s="18"/>
+      <c r="C238" s="43"/>
+      <c r="D238" s="35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="236" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A236" s="39"/>
-      <c r="B236" s="14"/>
-      <c r="C236" s="110" t="s">
+    <row r="239" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A239" s="39"/>
+      <c r="B239" s="14"/>
+      <c r="C239" s="110" t="s">
         <v>383</v>
       </c>
-      <c r="D236" s="31"/>
-    </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A238" s="3"/>
-      <c r="B238" s="5"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="3"/>
-      <c r="F238" s="3"/>
-      <c r="G238" s="5"/>
-      <c r="H238" s="3"/>
-      <c r="I238" s="3"/>
-      <c r="K238" s="3"/>
-      <c r="L238" s="3"/>
-      <c r="M238" s="3"/>
-      <c r="N238" s="3"/>
-      <c r="P238" s="5"/>
-      <c r="Q238" s="5"/>
-      <c r="R238" s="5"/>
-      <c r="S238" s="5"/>
-      <c r="U238" s="5"/>
-    </row>
-    <row r="239" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A239" s="1" t="s">
+      <c r="D239" s="31"/>
+    </row>
+    <row r="241" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A241" s="3"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="3"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="K241" s="3"/>
+      <c r="L241" s="3"/>
+      <c r="M241" s="3"/>
+      <c r="N241" s="3"/>
+      <c r="P241" s="5"/>
+      <c r="Q241" s="5"/>
+      <c r="R241" s="5"/>
+      <c r="S241" s="5"/>
+      <c r="U241" s="5"/>
+    </row>
+    <row r="242" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C239" s="9"/>
-      <c r="P239" s="1"/>
-      <c r="U239" s="1"/>
-      <c r="V239" s="2"/>
-    </row>
-    <row r="240" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A240" s="42" t="s">
+      <c r="C242" s="9"/>
+      <c r="P242" s="1"/>
+      <c r="U242" s="1"/>
+      <c r="V242" s="2"/>
+    </row>
+    <row r="243" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A243" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="B240" s="126" t="s">
+      <c r="B243" s="123" t="s">
         <v>485</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D243" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="241" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A241" s="1" t="s">
+    <row r="244" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C241" s="108" t="s">
+      <c r="C244" s="108" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="242" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A242" s="111" t="s">
+    <row r="245" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A245" s="111" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="243" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C243" s="108" t="s">
+    <row r="246" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C246" s="108" t="s">
         <v>388</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D246" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A244" s="42" t="s">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A247" s="42" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="245" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A245" s="2" t="s">
+    <row r="248" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A248" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B245" s="108" t="s">
+      <c r="B248" s="108" t="s">
         <v>381</v>
       </c>
-      <c r="C245" s="108" t="s">
+      <c r="C248" s="108" t="s">
         <v>446</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A247" s="3"/>
-      <c r="B247" s="5"/>
-      <c r="C247" s="6"/>
-      <c r="D247" s="3"/>
-      <c r="F247" s="3"/>
-      <c r="G247" s="5"/>
-      <c r="H247" s="3"/>
-      <c r="I247" s="3"/>
-      <c r="K247" s="3"/>
-      <c r="L247" s="3"/>
-      <c r="M247" s="3"/>
-      <c r="N247" s="3"/>
-      <c r="P247" s="5"/>
-      <c r="Q247" s="5"/>
-      <c r="R247" s="5"/>
-      <c r="S247" s="5"/>
-      <c r="U247" s="5"/>
-    </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A248" s="1" t="s">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A250" s="3"/>
+      <c r="B250" s="5"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3"/>
+      <c r="K250" s="3"/>
+      <c r="L250" s="3"/>
+      <c r="M250" s="3"/>
+      <c r="N250" s="3"/>
+      <c r="P250" s="5"/>
+      <c r="Q250" s="5"/>
+      <c r="R250" s="5"/>
+      <c r="S250" s="5"/>
+      <c r="U250" s="5"/>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C248" s="9"/>
-      <c r="P248" s="1"/>
-      <c r="U248" s="1"/>
-      <c r="V248" s="2"/>
-    </row>
-    <row r="249" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A249" s="111" t="s">
+      <c r="C251" s="9"/>
+      <c r="P251" s="1"/>
+      <c r="U251" s="1"/>
+      <c r="V251" s="2"/>
+    </row>
+    <row r="252" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A252" s="111" t="s">
         <v>393</v>
       </c>
-      <c r="B249" s="108" t="s">
+      <c r="B252" s="108" t="s">
         <v>468</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="D252" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="250" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A250" s="108" t="s">
+    <row r="253" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A253" s="108" t="s">
         <v>392</v>
       </c>
-      <c r="B250" s="108"/>
-      <c r="C250" s="108" t="s">
+      <c r="B253" s="108"/>
+      <c r="C253" s="108" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A251" s="42" t="s">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A254" s="42" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="252" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="B252" s="108" t="s">
+    <row r="255" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="B255" s="108" t="s">
         <v>397</v>
       </c>
-      <c r="C252" s="108" t="s">
+      <c r="C255" s="108" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A253" s="42" t="s">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A256" s="42" t="s">
         <v>399</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="D256" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="254" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A254" s="2" t="s">
+    <row r="257" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A257" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B257" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C254" s="108" t="s">
+      <c r="C257" s="108" t="s">
         <v>400</v>
       </c>
-      <c r="D254" s="120" t="s">
+      <c r="D257" s="120" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A255" s="42" t="s">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258" s="42" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="256" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="C256" s="108" t="s">
+    <row r="259" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="C259" s="108" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A257" s="42" t="s">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260" s="42" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A258" s="121" t="s">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A261" s="121" t="s">
         <v>469</v>
       </c>
-      <c r="B258" s="86" t="s">
+      <c r="B261" s="86" t="s">
         <v>473</v>
       </c>
-      <c r="C258" s="122" t="s">
+      <c r="C261" s="122" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A259" s="121" t="s">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262" s="121" t="s">
         <v>470</v>
       </c>
-      <c r="B259" s="86" t="s">
+      <c r="B262" s="86" t="s">
         <v>474</v>
       </c>
-      <c r="C259" s="122" t="s">
+      <c r="C262" s="122" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A260" s="121" t="s">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A263" s="121" t="s">
         <v>471</v>
       </c>
-      <c r="B260" s="86" t="s">
+      <c r="B263" s="86" t="s">
         <v>475</v>
       </c>
-      <c r="C260" s="122" t="s">
+      <c r="C263" s="122" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A261" s="121" t="s">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264" s="121" t="s">
         <v>472</v>
       </c>
-      <c r="B261" s="86"/>
-      <c r="C261" s="122" t="s">
+      <c r="B264" s="86"/>
+      <c r="C264" s="122" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A262" s="1" t="s">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265" s="1" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A264" s="121" t="s">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A267" s="121" t="s">
         <v>469</v>
       </c>
-      <c r="B264" s="122" t="s">
+      <c r="B267" s="122" t="s">
         <v>476</v>
       </c>
-      <c r="C264" s="86" t="s">
+      <c r="C267" s="86" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A265" s="121" t="s">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A268" s="121" t="s">
         <v>470</v>
-      </c>
-      <c r="B265" s="122" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A266" s="121" t="s">
-        <v>470</v>
-      </c>
-      <c r="B266" s="122" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A267" s="121" t="s">
-        <v>470</v>
-      </c>
-      <c r="B267" s="122" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A268" s="121" t="s">
-        <v>471</v>
       </c>
       <c r="B268" s="122" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="121" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B269" s="122" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="121" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B270" s="122" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="121" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B271" s="122" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="121" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B272" s="122" t="s">
         <v>478</v>
@@ -12306,425 +15585,1385 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="121" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B273" s="122" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A274" s="1" t="s">
-        <v>481</v>
+      <c r="A274" s="121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B274" s="122" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A275" s="121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B275" s="122" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="121" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B276" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="C276" s="86" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A277" s="121" t="s">
-        <v>470</v>
-      </c>
-      <c r="B277" s="122" t="s">
-        <v>477</v>
-      </c>
-      <c r="C277" s="122" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A278" s="121" t="s">
-        <v>470</v>
-      </c>
-      <c r="B278" s="122" t="s">
-        <v>478</v>
-      </c>
-      <c r="C278" s="122" t="s">
-        <v>474</v>
+      <c r="A277" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="121" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B279" s="122" t="s">
-        <v>479</v>
-      </c>
-      <c r="C279" s="122" t="s">
-        <v>474</v>
+        <v>476</v>
+      </c>
+      <c r="C279" s="86" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="121" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B280" s="122" t="s">
         <v>477</v>
       </c>
       <c r="C280" s="122" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="121" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B281" s="122" t="s">
         <v>478</v>
       </c>
       <c r="C281" s="122" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="121" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B282" s="122" t="s">
         <v>479</v>
       </c>
       <c r="C282" s="122" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="121" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B283" s="122" t="s">
         <v>477</v>
       </c>
+      <c r="C283" s="122" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="121" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B284" s="122" t="s">
         <v>478</v>
       </c>
+      <c r="C284" s="122" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="121" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B285" s="122" t="s">
         <v>479</v>
       </c>
+      <c r="C285" s="122" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B286" s="122" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A287" s="121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B287" s="122" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A288" s="121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B288" s="122" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="289" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A289" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A287" s="108" t="s">
+    <row r="290" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A290" s="108" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="289" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A289" s="3"/>
-      <c r="B289" s="5"/>
-      <c r="C289" s="6"/>
-      <c r="D289" s="3"/>
-      <c r="F289" s="3"/>
-      <c r="G289" s="5"/>
-      <c r="H289" s="3"/>
-      <c r="I289" s="3"/>
-      <c r="K289" s="3"/>
-      <c r="L289" s="3"/>
-      <c r="M289" s="3"/>
-      <c r="N289" s="3"/>
-      <c r="P289" s="5"/>
-      <c r="Q289" s="5"/>
-      <c r="R289" s="5"/>
-      <c r="S289" s="5"/>
-      <c r="U289" s="5"/>
-    </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A290" s="1" t="s">
+    <row r="292" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A292" s="3"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="3"/>
+      <c r="F292" s="3"/>
+      <c r="G292" s="5"/>
+      <c r="H292" s="3"/>
+      <c r="I292" s="3"/>
+      <c r="K292" s="3"/>
+      <c r="L292" s="3"/>
+      <c r="M292" s="3"/>
+      <c r="N292" s="3"/>
+      <c r="P292" s="5"/>
+      <c r="Q292" s="5"/>
+      <c r="R292" s="5"/>
+      <c r="S292" s="5"/>
+      <c r="U292" s="5"/>
+    </row>
+    <row r="293" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A293" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C290" s="9"/>
-      <c r="P290" s="1"/>
-      <c r="U290" s="1"/>
-      <c r="V290" s="2"/>
-    </row>
-    <row r="291" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A291" s="111" t="s">
+      <c r="C293" s="9"/>
+      <c r="P293" s="1"/>
+      <c r="U293" s="1"/>
+      <c r="V293" s="2"/>
+    </row>
+    <row r="294" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A294" s="111" t="s">
         <v>405</v>
       </c>
-      <c r="D291" s="1" t="s">
+      <c r="D294" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="292" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A292" s="2" t="s">
+    <row r="295" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A295" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C292" s="108" t="s">
+      <c r="C295" s="108" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="293" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="C293" s="108" t="s">
+    <row r="296" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C296" s="108" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="294" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A294" s="42" t="s">
+    <row r="297" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A297" s="42" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="295" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A295" s="2" t="s">
+    <row r="298" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A298" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="296" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A296" s="116" t="s">
+    <row r="299" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A299" s="116" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="297" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="C297" s="108" t="s">
+    <row r="300" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C300" s="108" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="298" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A298" s="117" t="s">
+    <row r="301" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A301" s="117" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="299" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C299" s="108" t="s">
+    <row r="302" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C302" s="108" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A301" s="3"/>
-      <c r="B301" s="5"/>
-      <c r="C301" s="6"/>
-      <c r="D301" s="3"/>
-      <c r="F301" s="3"/>
-      <c r="G301" s="5"/>
-      <c r="H301" s="3"/>
-      <c r="I301" s="3"/>
-      <c r="K301" s="3"/>
-      <c r="L301" s="3"/>
-      <c r="M301" s="3"/>
-      <c r="N301" s="3"/>
-      <c r="P301" s="5"/>
-      <c r="Q301" s="5"/>
-      <c r="R301" s="5"/>
-      <c r="S301" s="5"/>
-      <c r="U301" s="5"/>
-    </row>
-    <row r="302" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A302" s="1" t="s">
+    <row r="304" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A304" s="3"/>
+      <c r="B304" s="5"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="3"/>
+      <c r="F304" s="3"/>
+      <c r="G304" s="5"/>
+      <c r="H304" s="3"/>
+      <c r="I304" s="3"/>
+      <c r="K304" s="3"/>
+      <c r="L304" s="3"/>
+      <c r="M304" s="3"/>
+      <c r="N304" s="3"/>
+      <c r="P304" s="5"/>
+      <c r="Q304" s="5"/>
+      <c r="R304" s="5"/>
+      <c r="S304" s="5"/>
+      <c r="U304" s="5"/>
+    </row>
+    <row r="305" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A305" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C302" s="9"/>
-      <c r="P302" s="1"/>
-      <c r="U302" s="1"/>
-      <c r="V302" s="2"/>
-    </row>
-    <row r="303" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A303" s="42" t="s">
+      <c r="C305" s="9"/>
+      <c r="P305" s="1"/>
+      <c r="U305" s="1"/>
+      <c r="V305" s="2"/>
+    </row>
+    <row r="306" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A306" s="42" t="s">
         <v>414</v>
       </c>
-      <c r="D303" s="1" t="s">
+      <c r="D306" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="304" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A304" s="108" t="s">
+    <row r="307" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A307" s="108" t="s">
         <v>415</v>
       </c>
-      <c r="B304" s="108" t="s">
+      <c r="B307" s="108" t="s">
         <v>449</v>
       </c>
-      <c r="C304" s="108" t="s">
+      <c r="C307" s="108" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A305" s="42" t="s">
+    <row r="308" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A308" s="42" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="B306" s="108" t="s">
+    <row r="309" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="B309" s="108" t="s">
         <v>460</v>
       </c>
-      <c r="C306" s="108" t="s">
+      <c r="C309" s="108" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A307" s="42" t="s">
+    <row r="310" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A310" s="42" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="C308" s="108" t="s">
+    <row r="311" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C311" s="108" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A309" s="42" t="s">
+    <row r="312" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A312" s="42" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="C310" s="108" t="s">
+    <row r="313" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C313" s="108" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A311" s="42" t="s">
+    <row r="314" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A314" s="42" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C312" s="108" t="s">
+    <row r="315" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C315" s="108" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A313" s="42" t="s">
+    <row r="316" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A316" s="42" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="C314" s="108" t="s">
+    <row r="317" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C317" s="108" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A315" s="42" t="s">
+    <row r="318" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A318" s="42" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A316" s="2" t="s">
+    <row r="319" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A319" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D316" s="1" t="s">
+      <c r="D319" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A317" s="2" t="s">
+    <row r="320" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A320" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A318" s="116" t="s">
+    <row r="321" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A321" s="116" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C319" s="108" t="s">
+    <row r="322" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C322" s="108" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A320" s="117" t="s">
+    <row r="323" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A323" s="117" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="321" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="C321" s="108" t="s">
+    <row r="324" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C324" s="108" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="323" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A323" s="3"/>
-      <c r="B323" s="5"/>
-      <c r="C323" s="6"/>
-      <c r="D323" s="3"/>
-      <c r="F323" s="3"/>
-      <c r="G323" s="5"/>
-      <c r="H323" s="3"/>
-      <c r="I323" s="3"/>
-      <c r="K323" s="3"/>
-      <c r="L323" s="3"/>
-      <c r="M323" s="3"/>
-      <c r="N323" s="3"/>
-      <c r="P323" s="5"/>
-      <c r="Q323" s="5"/>
-      <c r="R323" s="5"/>
-      <c r="S323" s="5"/>
-      <c r="U323" s="5"/>
-    </row>
-    <row r="324" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A324" s="1" t="s">
+    <row r="326" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A326" s="3"/>
+      <c r="B326" s="5"/>
+      <c r="C326" s="6"/>
+      <c r="D326" s="3"/>
+      <c r="F326" s="3"/>
+      <c r="G326" s="5"/>
+      <c r="H326" s="3"/>
+      <c r="I326" s="3"/>
+      <c r="K326" s="3"/>
+      <c r="L326" s="3"/>
+      <c r="M326" s="3"/>
+      <c r="N326" s="3"/>
+      <c r="P326" s="5"/>
+      <c r="Q326" s="5"/>
+      <c r="R326" s="5"/>
+      <c r="S326" s="5"/>
+      <c r="U326" s="5"/>
+    </row>
+    <row r="327" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A327" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C324" s="9"/>
-      <c r="P324" s="1"/>
-      <c r="U324" s="1"/>
-      <c r="V324" s="2"/>
-    </row>
-    <row r="325" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A325" s="42" t="s">
+      <c r="C327" s="9"/>
+      <c r="P327" s="1"/>
+      <c r="U327" s="1"/>
+      <c r="V327" s="2"/>
+    </row>
+    <row r="328" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A328" s="42" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="326" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A326" s="108" t="s">
+    <row r="329" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A329" s="108" t="s">
         <v>434</v>
       </c>
-      <c r="C326" s="108" t="s">
+      <c r="C329" s="108" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="327" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A327" s="111" t="s">
+    <row r="330" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A330" s="111" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="328" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B328" s="108" t="s">
+    <row r="331" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B331" s="108" t="s">
         <v>462</v>
       </c>
-      <c r="C328" s="108" t="s">
+      <c r="C331" s="108" t="s">
         <v>437</v>
       </c>
-      <c r="D328" s="2"/>
-    </row>
-    <row r="329" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A329" s="116" t="s">
+      <c r="D331" s="2"/>
+    </row>
+    <row r="332" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A332" s="116" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="330" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="C330" s="108" t="s">
+    <row r="333" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="C333" s="108" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="331" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A331" s="117" t="s">
+    <row r="334" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A334" s="117" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="332" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="C332" s="108" t="s">
+    <row r="335" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C335" s="108" t="s">
         <v>441</v>
       </c>
     </row>
+    <row r="337" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A337" s="3"/>
+      <c r="B337" s="5"/>
+      <c r="C337" s="6"/>
+      <c r="D337" s="3"/>
+      <c r="F337" s="3"/>
+      <c r="G337" s="5"/>
+      <c r="H337" s="3"/>
+      <c r="I337" s="3"/>
+      <c r="K337" s="3"/>
+      <c r="L337" s="3"/>
+      <c r="M337" s="3"/>
+      <c r="N337" s="3"/>
+      <c r="P337" s="5"/>
+      <c r="Q337" s="5"/>
+      <c r="R337" s="5"/>
+      <c r="S337" s="5"/>
+      <c r="U337" s="5"/>
+    </row>
+    <row r="338" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A338" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C338" s="9"/>
+      <c r="P338" s="1"/>
+      <c r="U338" s="1"/>
+      <c r="V338" s="2"/>
+    </row>
+    <row r="339" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A339" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="B339" s="18"/>
+      <c r="C339" s="43"/>
+      <c r="D339" s="35"/>
+    </row>
+    <row r="340" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A340" s="55" t="s">
+        <v>493</v>
+      </c>
+      <c r="B340" s="14"/>
+      <c r="C340" s="46"/>
+      <c r="D340" s="31"/>
+    </row>
+    <row r="341" spans="1:22" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A341" s="136" t="s">
+        <v>492</v>
+      </c>
+      <c r="B341" s="137" t="s">
+        <v>598</v>
+      </c>
+      <c r="C341" s="141" t="s">
+        <v>585</v>
+      </c>
+      <c r="D341" s="138"/>
+    </row>
+    <row r="342" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A342" s="130" t="s">
+        <v>495</v>
+      </c>
+      <c r="B342" s="131"/>
+      <c r="C342" s="132" t="s">
+        <v>494</v>
+      </c>
+      <c r="D342" s="133"/>
+    </row>
+    <row r="343" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A343" s="49" t="s">
+        <v>496</v>
+      </c>
+      <c r="D343" s="27" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="344" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="A344" s="54" t="s">
+        <v>524</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C344" s="129" t="s">
+        <v>584</v>
+      </c>
+      <c r="D344" s="27"/>
+    </row>
+    <row r="345" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A345" s="38"/>
+      <c r="B345" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D345" s="27" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="346" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A346" s="49" t="s">
+        <v>497</v>
+      </c>
+      <c r="D346" s="27" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="347" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A347" s="129" t="s">
+        <v>532</v>
+      </c>
+      <c r="B347" s="129" t="s">
+        <v>529</v>
+      </c>
+      <c r="C347" s="129" t="s">
+        <v>530</v>
+      </c>
+      <c r="D347" s="27"/>
+    </row>
+    <row r="348" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A348" s="38"/>
+      <c r="B348" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C348" s="129" t="s">
+        <v>498</v>
+      </c>
+      <c r="D348" s="27"/>
+    </row>
+    <row r="349" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A349" s="49" t="s">
+        <v>499</v>
+      </c>
+      <c r="D349" s="27" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="350" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A350" s="128"/>
+      <c r="B350" s="128" t="s">
+        <v>534</v>
+      </c>
+      <c r="C350" s="128" t="s">
+        <v>535</v>
+      </c>
+      <c r="D350" s="31"/>
+    </row>
+    <row r="351" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A351" s="130" t="s">
+        <v>500</v>
+      </c>
+      <c r="B351" s="131"/>
+      <c r="C351" s="132" t="s">
+        <v>538</v>
+      </c>
+      <c r="D351" s="133" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="352" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A352" s="130" t="s">
+        <v>501</v>
+      </c>
+      <c r="B352" s="131"/>
+      <c r="C352" s="131"/>
+      <c r="D352" s="134" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A353" s="49" t="s">
+        <v>539</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C353" s="129" t="s">
+        <v>542</v>
+      </c>
+      <c r="D353" s="27"/>
+    </row>
+    <row r="354" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A354" s="135" t="s">
+        <v>541</v>
+      </c>
+      <c r="B354" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="C354" s="128" t="s">
+        <v>545</v>
+      </c>
+      <c r="D354" s="31" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A355" s="139" t="s">
+        <v>502</v>
+      </c>
+      <c r="B355" s="131"/>
+      <c r="C355" s="132"/>
+      <c r="D355" s="133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A356" s="49" t="s">
+        <v>548</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C356" s="129" t="s">
+        <v>549</v>
+      </c>
+      <c r="D356" s="27"/>
+    </row>
+    <row r="357" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A357" s="135" t="s">
+        <v>547</v>
+      </c>
+      <c r="B357" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="C357" s="128" t="s">
+        <v>550</v>
+      </c>
+      <c r="D357" s="31"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A358" s="139" t="s">
+        <v>503</v>
+      </c>
+      <c r="B358" s="131"/>
+      <c r="C358" s="132"/>
+      <c r="D358" s="133" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A359" s="49" t="s">
+        <v>553</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C359" s="129" t="s">
+        <v>555</v>
+      </c>
+      <c r="D359" s="27"/>
+    </row>
+    <row r="360" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A360" s="140" t="s">
+        <v>557</v>
+      </c>
+      <c r="B360" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="C360" s="128" t="s">
+        <v>559</v>
+      </c>
+      <c r="D360" s="31" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A361" s="139" t="s">
+        <v>504</v>
+      </c>
+      <c r="B361" s="131"/>
+      <c r="C361" s="132" t="s">
+        <v>562</v>
+      </c>
+      <c r="D361" s="133" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A362" s="49" t="s">
+        <v>563</v>
+      </c>
+      <c r="C362" s="129"/>
+      <c r="D362" s="27"/>
+    </row>
+    <row r="363" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A363" s="150" t="s">
+        <v>565</v>
+      </c>
+      <c r="B363" s="146" t="s">
+        <v>561</v>
+      </c>
+      <c r="C363" s="148" t="s">
+        <v>564</v>
+      </c>
+      <c r="D363" s="27"/>
+    </row>
+    <row r="364" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A364" s="62" t="s">
+        <v>505</v>
+      </c>
+      <c r="B364" s="67" t="s">
+        <v>597</v>
+      </c>
+      <c r="C364" s="142" t="s">
+        <v>592</v>
+      </c>
+      <c r="D364" s="69" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A365" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="B365" s="148" t="s">
+        <v>568</v>
+      </c>
+      <c r="C365" s="148" t="s">
+        <v>507</v>
+      </c>
+      <c r="D365" s="27" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A366" s="49" t="s">
+        <v>569</v>
+      </c>
+      <c r="B366" s="146"/>
+      <c r="C366" s="147"/>
+      <c r="D366" s="27"/>
+    </row>
+    <row r="367" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A367" s="38"/>
+      <c r="B367" s="148" t="s">
+        <v>594</v>
+      </c>
+      <c r="C367" s="148" t="s">
+        <v>508</v>
+      </c>
+      <c r="D367" s="27"/>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A368" s="49" t="s">
+        <v>570</v>
+      </c>
+      <c r="B368" s="146"/>
+      <c r="C368" s="147"/>
+      <c r="D368" s="27"/>
+    </row>
+    <row r="369" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A369" s="38"/>
+      <c r="B369" s="148" t="s">
+        <v>596</v>
+      </c>
+      <c r="C369" s="148" t="s">
+        <v>509</v>
+      </c>
+      <c r="D369" s="27"/>
+    </row>
+    <row r="370" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A370" s="38"/>
+      <c r="B370" s="146" t="s">
+        <v>593</v>
+      </c>
+      <c r="C370" s="148" t="s">
+        <v>510</v>
+      </c>
+      <c r="D370" s="27"/>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A371" s="49" t="s">
+        <v>571</v>
+      </c>
+      <c r="B371" s="146"/>
+      <c r="C371" s="147"/>
+      <c r="D371" s="27" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A372" s="38"/>
+      <c r="B372" s="146"/>
+      <c r="C372" s="148" t="s">
+        <v>511</v>
+      </c>
+      <c r="D372" s="27"/>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A373" s="49" t="s">
+        <v>572</v>
+      </c>
+      <c r="B373" s="146"/>
+      <c r="C373" s="147"/>
+      <c r="D373" s="27" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A374" s="38"/>
+      <c r="B374" s="148" t="s">
+        <v>595</v>
+      </c>
+      <c r="C374" s="148" t="s">
+        <v>512</v>
+      </c>
+      <c r="D374" s="27"/>
+    </row>
+    <row r="375" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A375" s="38"/>
+      <c r="B375" s="146"/>
+      <c r="C375" s="148" t="s">
+        <v>575</v>
+      </c>
+      <c r="D375" s="27"/>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A376" s="49" t="s">
+        <v>513</v>
+      </c>
+      <c r="B376" s="146"/>
+      <c r="C376" s="147"/>
+      <c r="D376" s="27"/>
+    </row>
+    <row r="377" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A377" s="38"/>
+      <c r="B377" s="146"/>
+      <c r="C377" s="148" t="s">
+        <v>576</v>
+      </c>
+      <c r="D377" s="27"/>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A378" s="49" t="s">
+        <v>514</v>
+      </c>
+      <c r="B378" s="146"/>
+      <c r="C378" s="147"/>
+      <c r="D378" s="27" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A379" s="38"/>
+      <c r="B379" s="146"/>
+      <c r="C379" s="148" t="s">
+        <v>517</v>
+      </c>
+      <c r="D379" s="27"/>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A380" s="149" t="s">
+        <v>515</v>
+      </c>
+      <c r="B380" s="146"/>
+      <c r="C380" s="147"/>
+      <c r="D380" s="27" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A381" s="38"/>
+      <c r="B381" s="148" t="s">
+        <v>579</v>
+      </c>
+      <c r="C381" s="148" t="s">
+        <v>516</v>
+      </c>
+      <c r="D381" s="27"/>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A382" s="49" t="s">
+        <v>580</v>
+      </c>
+      <c r="B382" s="146"/>
+      <c r="C382" s="148" t="s">
+        <v>581</v>
+      </c>
+      <c r="D382" s="27"/>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A383" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="B383" s="146"/>
+      <c r="C383" s="147"/>
+      <c r="D383" s="27"/>
+    </row>
+    <row r="384" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+      <c r="A384" s="38"/>
+      <c r="B384" s="146"/>
+      <c r="C384" s="148" t="s">
+        <v>519</v>
+      </c>
+      <c r="D384" s="27"/>
+    </row>
+    <row r="385" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A385" s="49" t="s">
+        <v>520</v>
+      </c>
+      <c r="B385" s="146"/>
+      <c r="C385" s="147"/>
+      <c r="D385" s="27" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="386" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A386" s="39"/>
+      <c r="B386" s="128" t="s">
+        <v>583</v>
+      </c>
+      <c r="C386" s="128" t="s">
+        <v>521</v>
+      </c>
+      <c r="D386" s="31"/>
+    </row>
+    <row r="388" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A388" s="3"/>
+      <c r="B388" s="5"/>
+      <c r="C388" s="6"/>
+      <c r="D388" s="3"/>
+      <c r="F388" s="3"/>
+      <c r="G388" s="5"/>
+      <c r="H388" s="3"/>
+      <c r="I388" s="3"/>
+      <c r="K388" s="3"/>
+      <c r="L388" s="3"/>
+      <c r="M388" s="3"/>
+      <c r="N388" s="3"/>
+      <c r="P388" s="5"/>
+      <c r="Q388" s="5"/>
+      <c r="R388" s="5"/>
+      <c r="S388" s="5"/>
+      <c r="U388" s="5"/>
+    </row>
+    <row r="389" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A389" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C389" s="151" t="s">
+        <v>605</v>
+      </c>
+      <c r="P389" s="1"/>
+      <c r="U389" s="1"/>
+      <c r="V389" s="2"/>
+    </row>
+    <row r="390" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A390" s="107" t="s">
+        <v>606</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="391" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C391" s="151" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="392" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A392" s="42" t="s">
+        <v>601</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="393" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A393" s="152" t="s">
+        <v>633</v>
+      </c>
+      <c r="B393" s="151"/>
+      <c r="C393" s="151" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="394" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A394" s="107" t="s">
+        <v>602</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="395" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C395" s="151" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="396" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A396" s="42" t="s">
+        <v>603</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="397" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="C397" s="151" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="398" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A398" s="42" t="s">
+        <v>604</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="399" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A399" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="401" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A401" s="3"/>
+      <c r="B401" s="5"/>
+      <c r="C401" s="6"/>
+      <c r="D401" s="3"/>
+      <c r="F401" s="3"/>
+      <c r="G401" s="5"/>
+      <c r="H401" s="3"/>
+      <c r="I401" s="3"/>
+      <c r="K401" s="3"/>
+      <c r="L401" s="3"/>
+      <c r="M401" s="3"/>
+      <c r="N401" s="3"/>
+      <c r="P401" s="5"/>
+      <c r="Q401" s="5"/>
+      <c r="R401" s="5"/>
+      <c r="S401" s="5"/>
+      <c r="U401" s="5"/>
+    </row>
+    <row r="402" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A402" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C402" s="151" t="s">
+        <v>623</v>
+      </c>
+      <c r="P402" s="1"/>
+      <c r="U402" s="1"/>
+      <c r="V402" s="2"/>
+    </row>
+    <row r="403" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A403" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="B403" s="18"/>
+      <c r="C403" s="47"/>
+      <c r="D403" s="35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="404" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A404" s="39"/>
+      <c r="B404" s="154" t="s">
+        <v>640</v>
+      </c>
+      <c r="C404" s="154" t="s">
+        <v>641</v>
+      </c>
+      <c r="D404" s="31"/>
+    </row>
+    <row r="405" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A405" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="B405" s="18"/>
+      <c r="C405" s="43"/>
+      <c r="D405" s="35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="406" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A406" s="38"/>
+      <c r="B406" s="146"/>
+      <c r="C406" s="153" t="s">
+        <v>609</v>
+      </c>
+      <c r="D406" s="155" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="407" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A407" s="38"/>
+      <c r="B407" s="146"/>
+      <c r="C407" s="153" t="s">
+        <v>610</v>
+      </c>
+      <c r="D407" s="156" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="408" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A408" s="38"/>
+      <c r="B408" s="146"/>
+      <c r="C408" s="153" t="s">
+        <v>611</v>
+      </c>
+      <c r="D408" s="156" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="409" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A409" s="38"/>
+      <c r="B409" s="146"/>
+      <c r="C409" s="153" t="s">
+        <v>613</v>
+      </c>
+      <c r="D409" s="27"/>
+    </row>
+    <row r="410" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A410" s="38"/>
+      <c r="B410" s="146"/>
+      <c r="C410" s="153" t="s">
+        <v>642</v>
+      </c>
+      <c r="D410" s="27"/>
+    </row>
+    <row r="411" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A411" s="38"/>
+      <c r="B411" s="146"/>
+      <c r="C411" s="153" t="s">
+        <v>612</v>
+      </c>
+      <c r="D411" s="27"/>
+    </row>
+    <row r="412" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A412" s="39"/>
+      <c r="B412" s="157" t="s">
+        <v>645</v>
+      </c>
+      <c r="C412" s="154" t="s">
+        <v>643</v>
+      </c>
+      <c r="D412" s="31"/>
+    </row>
+    <row r="413" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A413" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="B413" s="18"/>
+      <c r="C413" s="43"/>
+      <c r="D413" s="35" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="414" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A414" s="38"/>
+      <c r="B414" s="153" t="s">
+        <v>648</v>
+      </c>
+      <c r="C414" s="153" t="s">
+        <v>649</v>
+      </c>
+      <c r="D414" s="27"/>
+    </row>
+    <row r="415" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A415" s="38"/>
+      <c r="B415" s="153" t="s">
+        <v>652</v>
+      </c>
+      <c r="C415" s="153" t="s">
+        <v>651</v>
+      </c>
+      <c r="D415" s="27" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="416" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A416" s="38"/>
+      <c r="B416" s="153" t="s">
+        <v>655</v>
+      </c>
+      <c r="C416" s="153" t="s">
+        <v>654</v>
+      </c>
+      <c r="D416" s="27" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="417" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A417" s="38" t="s">
+        <v>617</v>
+      </c>
+      <c r="B417" s="153" t="s">
+        <v>618</v>
+      </c>
+      <c r="C417" s="153" t="s">
+        <v>657</v>
+      </c>
+      <c r="D417" s="27" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="418" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A418" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="B418" s="154" t="s">
+        <v>620</v>
+      </c>
+      <c r="C418" s="154" t="s">
+        <v>616</v>
+      </c>
+      <c r="D418" s="31"/>
+    </row>
+    <row r="419" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A419" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="B419" s="18"/>
+      <c r="C419" s="43"/>
+      <c r="D419" s="35" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="420" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A420" s="39"/>
+      <c r="B420" s="14"/>
+      <c r="C420" s="154" t="s">
+        <v>659</v>
+      </c>
+      <c r="D420" s="31"/>
+    </row>
+    <row r="421" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A421" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="B421" s="18"/>
+      <c r="C421" s="43"/>
+      <c r="D421" s="35" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="422" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A422" s="39"/>
+      <c r="B422" s="14"/>
+      <c r="C422" s="154" t="s">
+        <v>622</v>
+      </c>
+      <c r="D422" s="31"/>
+    </row>
+    <row r="424" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A424" s="3"/>
+      <c r="B424" s="5"/>
+      <c r="C424" s="6"/>
+      <c r="D424" s="3"/>
+      <c r="F424" s="3"/>
+      <c r="G424" s="5"/>
+      <c r="H424" s="3"/>
+      <c r="I424" s="3"/>
+      <c r="K424" s="3"/>
+      <c r="L424" s="3"/>
+      <c r="M424" s="3"/>
+      <c r="N424" s="3"/>
+      <c r="P424" s="5"/>
+      <c r="Q424" s="5"/>
+      <c r="R424" s="5"/>
+      <c r="S424" s="5"/>
+      <c r="U424" s="5"/>
+    </row>
+    <row r="425" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A425" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C425" s="151" t="s">
+        <v>626</v>
+      </c>
+      <c r="P425" s="1"/>
+      <c r="U425" s="1"/>
+      <c r="V425" s="2"/>
+    </row>
+    <row r="427" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A427" s="42" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="429" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A429" s="3"/>
+      <c r="B429" s="5"/>
+      <c r="C429" s="6"/>
+      <c r="D429" s="3"/>
+      <c r="F429" s="3"/>
+      <c r="G429" s="5"/>
+      <c r="H429" s="3"/>
+      <c r="I429" s="3"/>
+      <c r="K429" s="3"/>
+      <c r="L429" s="3"/>
+      <c r="M429" s="3"/>
+      <c r="N429" s="3"/>
+      <c r="P429" s="5"/>
+      <c r="Q429" s="5"/>
+      <c r="R429" s="5"/>
+      <c r="S429" s="5"/>
+      <c r="U429" s="5"/>
+    </row>
+    <row r="430" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A430" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C430" s="151" t="s">
+        <v>629</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="P430" s="1"/>
+      <c r="U430" s="1"/>
+      <c r="V430" s="2"/>
+    </row>
+    <row r="431" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="B431" s="151" t="s">
+        <v>663</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="P431" s="1"/>
+      <c r="U431" s="1"/>
+      <c r="V431" s="2"/>
+    </row>
+    <row r="432" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A432" s="107" t="s">
+        <v>630</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="433" spans="3:3" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="C433" s="151" t="s">
+        <v>665</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A81" r:id="rId1" xr:uid="{6A249A6A-F3CD-4844-A86C-4629577D6DE8}"/>
-    <hyperlink ref="H228" r:id="rId2" xr:uid="{2175C210-320A-4A9E-AC94-5F2484173428}"/>
+    <hyperlink ref="H231" r:id="rId2" xr:uid="{2175C210-320A-4A9E-AC94-5F2484173428}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -12768,7 +17007,7 @@
       <c r="A14" s="99" t="s">
         <v>351</v>
       </c>
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="143" t="s">
         <v>352</v>
       </c>
       <c r="C14" s="100" t="s">
@@ -12783,7 +17022,7 @@
       <c r="A15" s="101" t="s">
         <v>355</v>
       </c>
-      <c r="B15" s="124"/>
+      <c r="B15" s="144"/>
       <c r="C15" s="102"/>
       <c r="D15" s="100"/>
       <c r="E15" s="102"/>
@@ -12792,7 +17031,7 @@
       <c r="A16" s="103" t="s">
         <v>356</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="102"/>
       <c r="D16" s="100"/>
       <c r="E16" s="102"/>
@@ -12801,7 +17040,7 @@
       <c r="A17" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="102"/>
       <c r="D17" s="100"/>
       <c r="E17" s="102"/>
@@ -12810,7 +17049,7 @@
       <c r="A18" s="103" t="s">
         <v>358</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="100"/>
       <c r="D18" s="100"/>
       <c r="E18" s="100"/>
@@ -12836,7 +17075,7 @@
       <c r="A20" s="99" t="s">
         <v>359</v>
       </c>
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="143" t="s">
         <v>352</v>
       </c>
       <c r="C20" s="100" t="s">
@@ -12851,7 +17090,7 @@
       <c r="A21" s="101" t="s">
         <v>355</v>
       </c>
-      <c r="B21" s="124"/>
+      <c r="B21" s="144"/>
       <c r="C21" s="102"/>
       <c r="D21" s="100"/>
       <c r="E21" s="102"/>
@@ -12860,7 +17099,7 @@
       <c r="A22" s="103" t="s">
         <v>356</v>
       </c>
-      <c r="B22" s="124"/>
+      <c r="B22" s="144"/>
       <c r="C22" s="102"/>
       <c r="D22" s="100"/>
       <c r="E22" s="102"/>
@@ -12869,7 +17108,7 @@
       <c r="A23" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="B23" s="124"/>
+      <c r="B23" s="144"/>
       <c r="C23" s="102"/>
       <c r="D23" s="100"/>
       <c r="E23" s="102"/>
@@ -12878,7 +17117,7 @@
       <c r="A24" s="103" t="s">
         <v>361</v>
       </c>
-      <c r="B24" s="125"/>
+      <c r="B24" s="145"/>
       <c r="C24" s="100"/>
       <c r="D24" s="100"/>
       <c r="E24" s="100"/>
@@ -12904,7 +17143,7 @@
       <c r="A26" s="99" t="s">
         <v>362</v>
       </c>
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="143" t="s">
         <v>352</v>
       </c>
       <c r="C26" s="100" t="s">
@@ -12919,7 +17158,7 @@
       <c r="A27" s="101" t="s">
         <v>355</v>
       </c>
-      <c r="B27" s="124"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="102"/>
       <c r="D27" s="100"/>
       <c r="E27" s="102"/>
@@ -12928,7 +17167,7 @@
       <c r="A28" s="103" t="s">
         <v>356</v>
       </c>
-      <c r="B28" s="124"/>
+      <c r="B28" s="144"/>
       <c r="C28" s="102"/>
       <c r="D28" s="100"/>
       <c r="E28" s="102"/>
@@ -12937,7 +17176,7 @@
       <c r="A29" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="B29" s="124"/>
+      <c r="B29" s="144"/>
       <c r="C29" s="102"/>
       <c r="D29" s="100"/>
       <c r="E29" s="102"/>
@@ -12946,7 +17185,7 @@
       <c r="A30" s="103" t="s">
         <v>364</v>
       </c>
-      <c r="B30" s="125"/>
+      <c r="B30" s="145"/>
       <c r="C30" s="100"/>
       <c r="D30" s="100"/>
       <c r="E30" s="100"/>

--- a/2 четверть_5_Тестеровщик_Введение в тестирование.xlsx
+++ b/2 четверть_5_Тестеровщик_Введение в тестирование.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Desktop\Homework-repo\GB_Developer_Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31891442-584B-4BB4-A3B2-DE1591340EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F884411-A65A-45A7-9330-5495A5F4922F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="330" windowWidth="15980" windowHeight="7600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Введение в тестирование 1-6" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="664">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -9722,9 +9722,6 @@
     <t>00 02 30</t>
   </si>
   <si>
-    <t>Вопрос: а зачем тогда нам нужны тест-кейсы?</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">это отклонение фактического результата от ожидаемого.
 </t>
@@ -10196,9 +10193,6 @@
       </rPr>
       <t>Critical</t>
     </r>
-  </si>
-  <si>
-    <t>вопросы: какие дефекты набилоее часто встречающиеся? Нужно ли заводить малозначимые дефекты по полной форме?</t>
   </si>
   <si>
     <r>
@@ -10747,12 +10741,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11448,9 +11450,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -11461,56 +11463,56 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -11522,7 +11524,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11543,10 +11545,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -11555,7 +11557,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11570,22 +11572,22 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -11600,13 +11602,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -11615,16 +11617,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11651,62 +11653,62 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -11715,52 +11717,52 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -11769,40 +11771,40 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="38" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -11811,28 +11813,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11841,7 +11843,7 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11868,55 +11870,43 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13134,8 +13124,8 @@
   </sheetPr>
   <dimension ref="A2:V433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A423" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B433" sqref="B433"/>
+    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B412" sqref="B412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13299,7 +13289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>28</v>
       </c>
@@ -13341,7 +13331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>30</v>
       </c>
@@ -13435,7 +13425,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="36" t="s">
         <v>63</v>
       </c>
@@ -13467,7 +13457,7 @@
       </c>
       <c r="D25" s="27"/>
     </row>
-    <row r="26" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A26" s="36" t="s">
         <v>66</v>
       </c>
@@ -14340,7 +14330,7 @@
       </c>
       <c r="D110" s="27"/>
     </row>
-    <row r="111" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="38"/>
       <c r="C111" s="91" t="s">
         <v>309</v>
@@ -14486,7 +14476,7 @@
       </c>
       <c r="D130" s="77"/>
     </row>
-    <row r="131" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A131" s="38"/>
       <c r="C131" s="57" t="s">
         <v>327</v>
@@ -14802,7 +14792,7 @@
       <c r="C182" s="43"/>
       <c r="D182" s="35"/>
     </row>
-    <row r="183" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="38" t="s">
         <v>252</v>
       </c>
@@ -15426,7 +15416,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="253" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A253" s="108" t="s">
         <v>392</v>
       </c>
@@ -15885,7 +15875,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="313" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="C313" s="108" t="s">
         <v>421</v>
       </c>
@@ -16097,7 +16087,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="344" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:22" ht="145" x14ac:dyDescent="0.35">
       <c r="A344" s="54" t="s">
         <v>524</v>
       </c>
@@ -16169,7 +16159,7 @@
       </c>
       <c r="D350" s="31"/>
     </row>
-    <row r="351" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A351" s="130" t="s">
         <v>500</v>
       </c>
@@ -16307,13 +16297,13 @@
       <c r="D362" s="27"/>
     </row>
     <row r="363" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A363" s="150" t="s">
+      <c r="A363" s="144" t="s">
         <v>565</v>
       </c>
-      <c r="B363" s="146" t="s">
+      <c r="B363" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C363" s="148" t="s">
+      <c r="C363" s="129" t="s">
         <v>564</v>
       </c>
       <c r="D363" s="27"/>
@@ -16336,10 +16326,10 @@
       <c r="A365" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="B365" s="148" t="s">
+      <c r="B365" s="129" t="s">
         <v>568</v>
       </c>
-      <c r="C365" s="148" t="s">
+      <c r="C365" s="129" t="s">
         <v>507</v>
       </c>
       <c r="D365" s="27" t="s">
@@ -16350,16 +16340,14 @@
       <c r="A366" s="49" t="s">
         <v>569</v>
       </c>
-      <c r="B366" s="146"/>
-      <c r="C366" s="147"/>
       <c r="D366" s="27"/>
     </row>
-    <row r="367" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A367" s="38"/>
-      <c r="B367" s="148" t="s">
+      <c r="B367" s="129" t="s">
         <v>594</v>
       </c>
-      <c r="C367" s="148" t="s">
+      <c r="C367" s="129" t="s">
         <v>508</v>
       </c>
       <c r="D367" s="27"/>
@@ -16368,26 +16356,24 @@
       <c r="A368" s="49" t="s">
         <v>570</v>
       </c>
-      <c r="B368" s="146"/>
-      <c r="C368" s="147"/>
       <c r="D368" s="27"/>
     </row>
     <row r="369" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A369" s="38"/>
-      <c r="B369" s="148" t="s">
+      <c r="B369" s="129" t="s">
         <v>596</v>
       </c>
-      <c r="C369" s="148" t="s">
+      <c r="C369" s="129" t="s">
         <v>509</v>
       </c>
       <c r="D369" s="27"/>
     </row>
     <row r="370" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A370" s="38"/>
-      <c r="B370" s="146" t="s">
+      <c r="B370" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C370" s="148" t="s">
+      <c r="C370" s="129" t="s">
         <v>510</v>
       </c>
       <c r="D370" s="27"/>
@@ -16396,16 +16382,13 @@
       <c r="A371" s="49" t="s">
         <v>571</v>
       </c>
-      <c r="B371" s="146"/>
-      <c r="C371" s="147"/>
       <c r="D371" s="27" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A372" s="38"/>
-      <c r="B372" s="146"/>
-      <c r="C372" s="148" t="s">
+      <c r="C372" s="129" t="s">
         <v>511</v>
       </c>
       <c r="D372" s="27"/>
@@ -16414,26 +16397,23 @@
       <c r="A373" s="49" t="s">
         <v>572</v>
       </c>
-      <c r="B373" s="146"/>
-      <c r="C373" s="147"/>
       <c r="D373" s="27" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A374" s="38"/>
-      <c r="B374" s="148" t="s">
+      <c r="B374" s="129" t="s">
         <v>595</v>
       </c>
-      <c r="C374" s="148" t="s">
+      <c r="C374" s="129" t="s">
         <v>512</v>
       </c>
       <c r="D374" s="27"/>
     </row>
     <row r="375" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A375" s="38"/>
-      <c r="B375" s="146"/>
-      <c r="C375" s="148" t="s">
+      <c r="C375" s="129" t="s">
         <v>575</v>
       </c>
       <c r="D375" s="27"/>
@@ -16442,14 +16422,11 @@
       <c r="A376" s="49" t="s">
         <v>513</v>
       </c>
-      <c r="B376" s="146"/>
-      <c r="C376" s="147"/>
       <c r="D376" s="27"/>
     </row>
     <row r="377" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A377" s="38"/>
-      <c r="B377" s="146"/>
-      <c r="C377" s="148" t="s">
+      <c r="C377" s="129" t="s">
         <v>576</v>
       </c>
       <c r="D377" s="27"/>
@@ -16458,36 +16435,31 @@
       <c r="A378" s="49" t="s">
         <v>514</v>
       </c>
-      <c r="B378" s="146"/>
-      <c r="C378" s="147"/>
       <c r="D378" s="27" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A379" s="38"/>
-      <c r="B379" s="146"/>
-      <c r="C379" s="148" t="s">
+      <c r="C379" s="129" t="s">
         <v>517</v>
       </c>
       <c r="D379" s="27"/>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A380" s="149" t="s">
+      <c r="A380" s="143" t="s">
         <v>515</v>
       </c>
-      <c r="B380" s="146"/>
-      <c r="C380" s="147"/>
       <c r="D380" s="27" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A381" s="38"/>
-      <c r="B381" s="148" t="s">
+      <c r="B381" s="129" t="s">
         <v>579</v>
       </c>
-      <c r="C381" s="148" t="s">
+      <c r="C381" s="129" t="s">
         <v>516</v>
       </c>
       <c r="D381" s="27"/>
@@ -16496,8 +16468,7 @@
       <c r="A382" s="49" t="s">
         <v>580</v>
       </c>
-      <c r="B382" s="146"/>
-      <c r="C382" s="148" t="s">
+      <c r="C382" s="129" t="s">
         <v>581</v>
       </c>
       <c r="D382" s="27"/>
@@ -16506,14 +16477,11 @@
       <c r="A383" s="49" t="s">
         <v>518</v>
       </c>
-      <c r="B383" s="146"/>
-      <c r="C383" s="147"/>
       <c r="D383" s="27"/>
     </row>
     <row r="384" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A384" s="38"/>
-      <c r="B384" s="146"/>
-      <c r="C384" s="148" t="s">
+      <c r="C384" s="129" t="s">
         <v>519</v>
       </c>
       <c r="D384" s="27"/>
@@ -16522,8 +16490,6 @@
       <c r="A385" s="49" t="s">
         <v>520</v>
       </c>
-      <c r="B385" s="146"/>
-      <c r="C385" s="147"/>
       <c r="D385" s="27" t="s">
         <v>582</v>
       </c>
@@ -16561,7 +16527,7 @@
       <c r="A389" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C389" s="151" t="s">
+      <c r="C389" s="145" t="s">
         <v>605</v>
       </c>
       <c r="P389" s="1"/>
@@ -16577,7 +16543,7 @@
       </c>
     </row>
     <row r="391" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C391" s="151" t="s">
+      <c r="C391" s="145" t="s">
         <v>600</v>
       </c>
     </row>
@@ -16590,12 +16556,10 @@
       </c>
     </row>
     <row r="393" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A393" s="152" t="s">
+      <c r="A393" s="152"/>
+      <c r="B393" s="145"/>
+      <c r="C393" s="145" t="s">
         <v>633</v>
-      </c>
-      <c r="B393" s="151"/>
-      <c r="C393" s="151" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="394" spans="1:22" ht="29" x14ac:dyDescent="0.35">
@@ -16603,12 +16567,12 @@
         <v>602</v>
       </c>
       <c r="D394" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="395" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C395" s="145" t="s">
         <v>635</v>
-      </c>
-    </row>
-    <row r="395" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="C395" s="151" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="396" spans="1:22" x14ac:dyDescent="0.35">
@@ -16616,12 +16580,12 @@
         <v>603</v>
       </c>
       <c r="D396" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="397" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="C397" s="145" t="s">
         <v>637</v>
-      </c>
-    </row>
-    <row r="397" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="C397" s="151" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="398" spans="1:22" x14ac:dyDescent="0.35">
@@ -16629,7 +16593,7 @@
         <v>604</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="399" spans="1:22" ht="116" x14ac:dyDescent="0.35">
@@ -16660,7 +16624,7 @@
       <c r="A402" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C402" s="151" t="s">
+      <c r="C402" s="145" t="s">
         <v>623</v>
       </c>
       <c r="P402" s="1"/>
@@ -16679,11 +16643,11 @@
     </row>
     <row r="404" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A404" s="39"/>
-      <c r="B404" s="154" t="s">
+      <c r="B404" s="146" t="s">
+        <v>639</v>
+      </c>
+      <c r="C404" s="146" t="s">
         <v>640</v>
-      </c>
-      <c r="C404" s="154" t="s">
-        <v>641</v>
       </c>
       <c r="D404" s="31"/>
     </row>
@@ -16699,65 +16663,57 @@
     </row>
     <row r="406" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A406" s="38"/>
-      <c r="B406" s="146"/>
-      <c r="C406" s="153" t="s">
+      <c r="C406" s="145" t="s">
         <v>609</v>
       </c>
-      <c r="D406" s="155" t="s">
+      <c r="D406" s="147" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="407" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A407" s="38"/>
-      <c r="B407" s="146"/>
-      <c r="C407" s="153" t="s">
+      <c r="C407" s="145" t="s">
         <v>610</v>
       </c>
-      <c r="D407" s="156" t="s">
-        <v>644</v>
+      <c r="D407" s="148" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="408" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A408" s="38"/>
-      <c r="B408" s="146"/>
-      <c r="C408" s="153" t="s">
+      <c r="C408" s="145" t="s">
         <v>611</v>
       </c>
-      <c r="D408" s="156" t="s">
-        <v>646</v>
+      <c r="D408" s="148" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="409" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A409" s="38"/>
-      <c r="B409" s="146"/>
-      <c r="C409" s="153" t="s">
+      <c r="C409" s="145" t="s">
         <v>613</v>
       </c>
       <c r="D409" s="27"/>
     </row>
     <row r="410" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A410" s="38"/>
-      <c r="B410" s="146"/>
-      <c r="C410" s="153" t="s">
-        <v>642</v>
+      <c r="C410" s="145" t="s">
+        <v>641</v>
       </c>
       <c r="D410" s="27"/>
     </row>
     <row r="411" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A411" s="38"/>
-      <c r="B411" s="146"/>
-      <c r="C411" s="153" t="s">
+      <c r="C411" s="145" t="s">
         <v>612</v>
       </c>
       <c r="D411" s="27"/>
     </row>
     <row r="412" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A412" s="39"/>
-      <c r="B412" s="157" t="s">
-        <v>645</v>
-      </c>
-      <c r="C412" s="154" t="s">
-        <v>643</v>
+      <c r="B412" s="153"/>
+      <c r="C412" s="146" t="s">
+        <v>642</v>
       </c>
       <c r="D412" s="31"/>
     </row>
@@ -16768,65 +16724,65 @@
       <c r="B413" s="18"/>
       <c r="C413" s="43"/>
       <c r="D413" s="35" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="414" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A414" s="38"/>
-      <c r="B414" s="153" t="s">
-        <v>648</v>
-      </c>
-      <c r="C414" s="153" t="s">
-        <v>649</v>
+      <c r="B414" s="145" t="s">
+        <v>646</v>
+      </c>
+      <c r="C414" s="145" t="s">
+        <v>647</v>
       </c>
       <c r="D414" s="27"/>
     </row>
     <row r="415" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A415" s="38"/>
-      <c r="B415" s="153" t="s">
-        <v>652</v>
-      </c>
-      <c r="C415" s="153" t="s">
-        <v>651</v>
+      <c r="B415" s="145" t="s">
+        <v>650</v>
+      </c>
+      <c r="C415" s="145" t="s">
+        <v>649</v>
       </c>
       <c r="D415" s="27" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="416" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A416" s="38"/>
-      <c r="B416" s="153" t="s">
-        <v>655</v>
-      </c>
-      <c r="C416" s="153" t="s">
-        <v>654</v>
+      <c r="B416" s="145" t="s">
+        <v>653</v>
+      </c>
+      <c r="C416" s="145" t="s">
+        <v>652</v>
       </c>
       <c r="D416" s="27" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="417" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A417" s="38" t="s">
         <v>617</v>
       </c>
-      <c r="B417" s="153" t="s">
+      <c r="B417" s="145" t="s">
         <v>618</v>
       </c>
-      <c r="C417" s="153" t="s">
-        <v>657</v>
+      <c r="C417" s="145" t="s">
+        <v>655</v>
       </c>
       <c r="D417" s="27" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="418" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A418" s="39" t="s">
         <v>619</v>
       </c>
-      <c r="B418" s="154" t="s">
+      <c r="B418" s="146" t="s">
         <v>620</v>
       </c>
-      <c r="C418" s="154" t="s">
+      <c r="C418" s="146" t="s">
         <v>616</v>
       </c>
       <c r="D418" s="31"/>
@@ -16838,14 +16794,14 @@
       <c r="B419" s="18"/>
       <c r="C419" s="43"/>
       <c r="D419" s="35" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="420" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A420" s="39"/>
       <c r="B420" s="14"/>
-      <c r="C420" s="154" t="s">
-        <v>659</v>
+      <c r="C420" s="146" t="s">
+        <v>657</v>
       </c>
       <c r="D420" s="31"/>
     </row>
@@ -16856,13 +16812,13 @@
       <c r="B421" s="18"/>
       <c r="C421" s="43"/>
       <c r="D421" s="35" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="422" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A422" s="39"/>
       <c r="B422" s="14"/>
-      <c r="C422" s="154" t="s">
+      <c r="C422" s="146" t="s">
         <v>622</v>
       </c>
       <c r="D422" s="31"/>
@@ -16890,7 +16846,7 @@
       <c r="A425" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C425" s="151" t="s">
+      <c r="C425" s="145" t="s">
         <v>626</v>
       </c>
       <c r="P425" s="1"/>
@@ -16925,22 +16881,22 @@
       <c r="A430" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C430" s="151" t="s">
+      <c r="C430" s="145" t="s">
         <v>629</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="P430" s="1"/>
       <c r="U430" s="1"/>
       <c r="V430" s="2"/>
     </row>
     <row r="431" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="B431" s="151" t="s">
-        <v>663</v>
+      <c r="B431" s="145" t="s">
+        <v>661</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="P431" s="1"/>
       <c r="U431" s="1"/>
@@ -16951,16 +16907,16 @@
         <v>630</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="433" spans="3:3" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="C433" s="151" t="s">
-        <v>665</v>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="433" spans="3:3" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="C433" s="145" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A81" r:id="rId1" xr:uid="{6A249A6A-F3CD-4844-A86C-4629577D6DE8}"/>
     <hyperlink ref="H231" r:id="rId2" xr:uid="{2175C210-320A-4A9E-AC94-5F2484173428}"/>
@@ -17007,7 +16963,7 @@
       <c r="A14" s="99" t="s">
         <v>351</v>
       </c>
-      <c r="B14" s="143" t="s">
+      <c r="B14" s="149" t="s">
         <v>352</v>
       </c>
       <c r="C14" s="100" t="s">
@@ -17022,7 +16978,7 @@
       <c r="A15" s="101" t="s">
         <v>355</v>
       </c>
-      <c r="B15" s="144"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="102"/>
       <c r="D15" s="100"/>
       <c r="E15" s="102"/>
@@ -17031,7 +16987,7 @@
       <c r="A16" s="103" t="s">
         <v>356</v>
       </c>
-      <c r="B16" s="144"/>
+      <c r="B16" s="150"/>
       <c r="C16" s="102"/>
       <c r="D16" s="100"/>
       <c r="E16" s="102"/>
@@ -17040,7 +16996,7 @@
       <c r="A17" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="B17" s="144"/>
+      <c r="B17" s="150"/>
       <c r="C17" s="102"/>
       <c r="D17" s="100"/>
       <c r="E17" s="102"/>
@@ -17049,7 +17005,7 @@
       <c r="A18" s="103" t="s">
         <v>358</v>
       </c>
-      <c r="B18" s="145"/>
+      <c r="B18" s="151"/>
       <c r="C18" s="100"/>
       <c r="D18" s="100"/>
       <c r="E18" s="100"/>
@@ -17075,7 +17031,7 @@
       <c r="A20" s="99" t="s">
         <v>359</v>
       </c>
-      <c r="B20" s="143" t="s">
+      <c r="B20" s="149" t="s">
         <v>352</v>
       </c>
       <c r="C20" s="100" t="s">
@@ -17090,7 +17046,7 @@
       <c r="A21" s="101" t="s">
         <v>355</v>
       </c>
-      <c r="B21" s="144"/>
+      <c r="B21" s="150"/>
       <c r="C21" s="102"/>
       <c r="D21" s="100"/>
       <c r="E21" s="102"/>
@@ -17099,7 +17055,7 @@
       <c r="A22" s="103" t="s">
         <v>356</v>
       </c>
-      <c r="B22" s="144"/>
+      <c r="B22" s="150"/>
       <c r="C22" s="102"/>
       <c r="D22" s="100"/>
       <c r="E22" s="102"/>
@@ -17108,7 +17064,7 @@
       <c r="A23" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="B23" s="144"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="102"/>
       <c r="D23" s="100"/>
       <c r="E23" s="102"/>
@@ -17117,7 +17073,7 @@
       <c r="A24" s="103" t="s">
         <v>361</v>
       </c>
-      <c r="B24" s="145"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="100"/>
       <c r="D24" s="100"/>
       <c r="E24" s="100"/>
@@ -17143,7 +17099,7 @@
       <c r="A26" s="99" t="s">
         <v>362</v>
       </c>
-      <c r="B26" s="143" t="s">
+      <c r="B26" s="149" t="s">
         <v>352</v>
       </c>
       <c r="C26" s="100" t="s">
@@ -17158,7 +17114,7 @@
       <c r="A27" s="101" t="s">
         <v>355</v>
       </c>
-      <c r="B27" s="144"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="102"/>
       <c r="D27" s="100"/>
       <c r="E27" s="102"/>
@@ -17167,7 +17123,7 @@
       <c r="A28" s="103" t="s">
         <v>356</v>
       </c>
-      <c r="B28" s="144"/>
+      <c r="B28" s="150"/>
       <c r="C28" s="102"/>
       <c r="D28" s="100"/>
       <c r="E28" s="102"/>
@@ -17176,7 +17132,7 @@
       <c r="A29" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="B29" s="144"/>
+      <c r="B29" s="150"/>
       <c r="C29" s="102"/>
       <c r="D29" s="100"/>
       <c r="E29" s="102"/>
@@ -17185,7 +17141,7 @@
       <c r="A30" s="103" t="s">
         <v>364</v>
       </c>
-      <c r="B30" s="145"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="100"/>
       <c r="D30" s="100"/>
       <c r="E30" s="100"/>

--- a/2 четверть_5_Тестеровщик_Введение в тестирование.xlsx
+++ b/2 четверть_5_Тестеровщик_Введение в тестирование.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F884411-A65A-45A7-9330-5495A5F4922F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0CA86C-DEDA-49A0-B0FA-759C7644E814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Введение в тестирование 1-6" sheetId="12" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="13" r:id="rId2"/>
+    <sheet name="Пример чек-листа" sheetId="14" r:id="rId2"/>
+    <sheet name="Пример тест-кейса" sheetId="15" r:id="rId3"/>
+    <sheet name="Пример тест-кейса 2" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="826">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -4805,34 +4807,6 @@
   </si>
   <si>
     <r>
-      <t>Тестовые данные</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - это данные, которые используются для проведения тестирования. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Указываются либо в ЩАГАХ, либо вынесены в отдельный файл с указанием ссылок на них. Тестовые данные составляются исходя из ТЗ.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Предусловия </t>
     </r>
     <r>
@@ -5980,19 +5954,6 @@
     <t>Ожидаемый результат</t>
   </si>
   <si>
-    <t>1. Отображение блока "Контакты"</t>
-  </si>
-  <si>
-    <t>открыта страница https://limelab.tech/foodbuzz/index.html</t>
-  </si>
-  <si>
-    <t>1. Проскроллить страницу до футера</t>
-  </si>
-  <si>
-    <t>Слева в футере отображается блок "Контакты".
-Блок “Контакты” содержит адрес, номер телефона, email, контакт (skype) поддержки. Язык отображения совпадает с языком всего сайта. Возле каждого из контактов отображается иконка - у адреса домик, у телефона трубка, у сайта глобус и у поддержки наушники.</t>
-  </si>
-  <si>
     <t>Результат</t>
   </si>
   <si>
@@ -6000,47 +5961,6 @@
   </si>
   <si>
     <t>Комментарий</t>
-  </si>
-  <si>
-    <t>1 Адрес указан некорректно: 
--должен быть указан полный адрес на русском языке;
-2 Телефон указан некорректно:
--указано два телефона вместо одного; 
--телефон должен иметь формат либо 8 800, либо +7 код #######
-3 email указан некорректно
-email должен иметь формат имя_пользователя@имя_домена (somebody@example.com)
-4 Контакт (skype) указан некорректно
-skype должен иметь формат имя_пользователя (somebody)</t>
-  </si>
-  <si>
-    <t>2. Отображение блока "Часы работы"</t>
-  </si>
-  <si>
-    <t>В центре в футере отображается блок "Часы работы". "Часы работы" отображаются правее блока "Контакты"
-Блок “Часы работы” содержит часы работы в формате: 00:00 am - 00:00 pm для дней недели: Суббота, Воскресенье, Понедельник и Вторник.</t>
-  </si>
-  <si>
-    <t>1 Дни недели указаны некорректно:
--должны быть указаны на русском</t>
-  </si>
-  <si>
-    <t>3. Отображение блока "Подписка на рассылку"</t>
-  </si>
-  <si>
-    <t>Справа в футере отображается блок “Подписка на рассылку”.
-Блок “Подписка на рассылку” состоит из заголовка "Подпишитесь на рассылку", текста “Укажите email и получите 15% скидки”, поля “Введите email” с соответствующим плейсхолдером и кнопки "Подписаться".</t>
-  </si>
-  <si>
-    <t>1 Название заголовка блока “Подпишитесь на рассылку” указано некорректно
--"Подпишитесь На Рассылку" должно быть исправлено на “Подпишитесь на рассылку” 
-2 Текст “Укажите email и получите 15% скидки” указан некорректно
--"Подпишитесь на нашу рассылку! Обещаем, что спама не будет." должно быть исправлено на “Укажите email и получите 15% скидки”
-3 Поле “Введите email” указано некорректно
--Плейсхолдер "Your Email" должен быть исправлен на “Введите email”
--Кнопка "Subscribe" должна быть исправлена на "Подписаться"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вопрос: всегда ли тест-кейсах обязательно указывать раздел комментариев </t>
   </si>
   <si>
     <t>Урок 4 часть 1</t>
@@ -10736,12 +10656,624 @@
 ● Рекомендации. - давать рекомендации по улучшению ПО
 ● Приложения - заведенные тест-кейсы и баг-репорты, графикы и другая важная информация</t>
   </si>
+  <si>
+    <r>
+      <t>Тестовые данные</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - это данные, которые используются для проведения тестирования. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Указываются либо в ШАГАХ, либо вынесены в отдельный файл с указанием ссылок на них. Тестовые данные составляются исходя из ТЗ.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ручное тестирование в 99% случаях исполняется для приложений с gui/пользовательским интерфейсом.
+Приложения без пользовтельского интерфейса (приложения кнопки) тестируются другими видами проверок (нагрузочное тестирование итп)</t>
+  </si>
+  <si>
+    <t>Самообразование</t>
+  </si>
+  <si>
+    <t>Примечание: про ручное тестирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Примечание: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 Пункты чек-листов всегда начинаются с существительного или глагола
+2 Пункты чек-листов группируются в блоки (в описании блоков указывается состояние блока и предусловия для работы с ним - авторизация в качестве пользователя и тп)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Пункты чек-листа составляются строго в соотвествии с тз. Если в тз не указано то, что было дополнительно и качественно имплементировано в продукте, то данное дополнение </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>является багом</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Проверка</t>
+  </si>
+  <si>
+    <t>Результат
+Google Chrome 110.0.5481.178 (Официальная сборка), (64 бит)</t>
+  </si>
+  <si>
+    <t>Комментарий
+Google Chrome 110.0.5481.178 (Официальная сборка), (64 бит)</t>
+  </si>
+  <si>
+    <t>https://test-stand.gb.ru/seminar_stands/umeet/index.html имеет статус 200</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>Блок "Хедер"</t>
+  </si>
+  <si>
+    <t>Фоновое изображение отображается без ошибок</t>
+  </si>
+  <si>
+    <t>Логотип компании отображается без ошибок</t>
+  </si>
+  <si>
+    <t>Даты проведения отображается без ошибок</t>
+  </si>
+  <si>
+    <t>Заголовок конференции отображается без ошибок</t>
+  </si>
+  <si>
+    <t>Орфографические ошибки</t>
+  </si>
+  <si>
+    <t>Кнопка "Купить билеты" отображается без ошибок</t>
+  </si>
+  <si>
+    <t>Кнопка "Купить билеты" ведет на отдельную страницу покупки билетов</t>
+  </si>
+  <si>
+    <t>Кнопка "Купить билеты" ведет на https://dzen.ru/?yredirect=true</t>
+  </si>
+  <si>
+    <t>Блок "Описание конференции"</t>
+  </si>
+  <si>
+    <t>Описание конференции отображается без ошибок</t>
+  </si>
+  <si>
+    <t>Описание конференции расположено под блоком "Хедер"</t>
+  </si>
+  <si>
+    <t>Каунтер обратного отсчета до начала конференции отображается без ошибок</t>
+  </si>
+  <si>
+    <t>Каунтер содержит единицы времени на разных языках. Каунтер отображается на разных уровнях относительно горизонтали</t>
+  </si>
+  <si>
+    <t>"Даты проведения конференции" отображаются без ошибок</t>
+  </si>
+  <si>
+    <t>"Даты проведения конференции" расположены под каунтером</t>
+  </si>
+  <si>
+    <t>Кнопка отображается без бордера кнопки</t>
+  </si>
+  <si>
+    <t>Кнопка "Купить билеты" расположена под каунтером</t>
+  </si>
+  <si>
+    <t>Кнопка "Купить билеты" ведёт на отдельную страницу покупки билетов</t>
+  </si>
+  <si>
+    <t>Блок "Почему стоит посетить"</t>
+  </si>
+  <si>
+    <t>Блок "Почему стоит посетить" имеет заголовок "Почему стоит посетить"</t>
+  </si>
+  <si>
+    <t>Постороннее изображение кривой черты расположено рядом с заголовком "Почему стоит посетить"</t>
+  </si>
+  <si>
+    <t>Поинты содержат "Изображение", отображается без ошибок</t>
+  </si>
+  <si>
+    <t>Поинты содержат "Название", отображается без ошибок</t>
+  </si>
+  <si>
+    <t>Поинты содержат "Описание", отображается без ошибок</t>
+  </si>
+  <si>
+    <t>Отсутствует описание под каждым из поинтов</t>
+  </si>
+  <si>
+    <t>Кнопка "Подробнее" расположена под каждым поинтом</t>
+  </si>
+  <si>
+    <t>Отсутствует кнопка узнать больше под каждым из поинтов</t>
+  </si>
+  <si>
+    <t>Кнопка "Узнать больше" располагается под блоком</t>
+  </si>
+  <si>
+    <t>Кнопка "Узнать больше" отображается корректно</t>
+  </si>
+  <si>
+    <t>Проверить бордер кнопки</t>
+  </si>
+  <si>
+    <t>Кнопка "Узнать больше" ведет на ленинг с описанием важности конференции</t>
+  </si>
+  <si>
+    <t>Кнопка "Узнать больше" не активна</t>
+  </si>
+  <si>
+    <t>Кнопка "Купить билеты" располагается под блоком, справа от кнопки "Узнать больше"</t>
+  </si>
+  <si>
+    <t>Кнопка "Купить билеты" отображается корректно</t>
+  </si>
+  <si>
+    <t>Кнопка "Купить белеты" ведет на отдельную страницу покупки билетов</t>
+  </si>
+  <si>
+    <t>Кнопка "Купить белеты" не активна</t>
+  </si>
+  <si>
+    <t>Блок "Жюри"</t>
+  </si>
+  <si>
+    <t>Блок "Жюри" имеет заголовок "Жюри"</t>
+  </si>
+  <si>
+    <t>skipped</t>
+  </si>
+  <si>
+    <t>Уточнить тз - отсутствует точное требование</t>
+  </si>
+  <si>
+    <t>Галерея карточек членов жюри отображается в 4 столбца без ошибок</t>
+  </si>
+  <si>
+    <t>Галерея карточек членов жюри отображается в 3 столбца</t>
+  </si>
+  <si>
+    <t>Карточки членов жюри имеют синюю обводку</t>
+  </si>
+  <si>
+    <t>Карточки членов жюри имеют белую обводку</t>
+  </si>
+  <si>
+    <t>Изображение члена жюри расположено в каждой карточке</t>
+  </si>
+  <si>
+    <t>Изображение одного из членов жюри отсутствует</t>
+  </si>
+  <si>
+    <t>Прямоугольный блок находится в нижней части каждой карточки</t>
+  </si>
+  <si>
+    <t>Прямоугольный блок одного из членов жюри отсутствует</t>
+  </si>
+  <si>
+    <t>Прямоугольный блок содержит имя члена жюри</t>
+  </si>
+  <si>
+    <t>Прямоугольный блок содержит фамилию члена жюри</t>
+  </si>
+  <si>
+    <t>Прямоугольный блок содержит должность члена жюри</t>
+  </si>
+  <si>
+    <t>Карточка члена жюри (проверить каждую карточку) увеличивается в размере при наведении курсора мыши</t>
+  </si>
+  <si>
+    <t>Карточки членов жюри не увеличивается в размере</t>
+  </si>
+  <si>
+    <t>Фон затемняется при наведении курсора мыши на карточку члена жюри (проверить каждую карточку)</t>
+  </si>
+  <si>
+    <t>Блок "Расписание"</t>
+  </si>
+  <si>
+    <t>Блок "Расписание" имеет заголовок "Расписание"</t>
+  </si>
+  <si>
+    <t>Расписание конференции отображается без ошибок</t>
+  </si>
+  <si>
+    <t>Для разных дней указана дата одного дня</t>
+  </si>
+  <si>
+    <t>4 дня отображаются, в каждый из дней отображается описание докладов без ошибок</t>
+  </si>
+  <si>
+    <t>Дни 1, 3, 4 не содержат описание докладов</t>
+  </si>
+  <si>
+    <t>Описание каждого доклада представлено в виде карточек</t>
+  </si>
+  <si>
+    <t>День 3 не содержит карточек</t>
+  </si>
+  <si>
+    <t>Карточка доклада (проверить каждую) отображает фотографию спикера</t>
+  </si>
+  <si>
+    <t>Дни 1,3 не содержат фотографий</t>
+  </si>
+  <si>
+    <t>Карточка доклада (проверить каждую) отображает название компании, в которой работает спикер</t>
+  </si>
+  <si>
+    <t>Карточки докладов не отображаюет название компании, в которой работает спикер</t>
+  </si>
+  <si>
+    <t>Карточка доклада (проверить каждую) отображает, справа от фотографии, блок с датой</t>
+  </si>
+  <si>
+    <t>Дни 1,3 не содержат блок с датой</t>
+  </si>
+  <si>
+    <t>Карточка доклада (проверить каждую) отображает, справа от фотографии, описанием доклада</t>
+  </si>
+  <si>
+    <t>Дни 1,3 не содержат описанием доклада</t>
+  </si>
+  <si>
+    <t>Блок "Стоимость участия"</t>
+  </si>
+  <si>
+    <t>Блок "Стоимость участия" имеет заголовок "Стоимость участия"</t>
+  </si>
+  <si>
+    <t>Три цены: Normal, Advanced, Ultimate в виде карточек отображаются без ошибок</t>
+  </si>
+  <si>
+    <t>Три цены: Normal, Advanced, Ultimate в виде карточек отображаются с ошибками в верстке</t>
+  </si>
+  <si>
+    <t>Карточка цены (проверить каждую) отображает описание без ошибок</t>
+  </si>
+  <si>
+    <t>Карточка цены (проверить каждую) отображает цену без ошибок</t>
+  </si>
+  <si>
+    <t>Advanced отображает некорректную цену</t>
+  </si>
+  <si>
+    <t>Карточка Ultimate отображается между Normal и Advanced карточками</t>
+  </si>
+  <si>
+    <t>Карточка Ultimate отображается справа от Advanced</t>
+  </si>
+  <si>
+    <t>Кнопка "Купить билеты" отображается под карточкой Ultimate</t>
+  </si>
+  <si>
+    <t>Кнопка "Купить билеты" отображается только под карточкой Ultimate</t>
+  </si>
+  <si>
+    <t>Кнопка "Купить билеты" отображается только под всеми карточками</t>
+  </si>
+  <si>
+    <t>Кнопка "Купить билеты" ведет в блок Хедер</t>
+  </si>
+  <si>
+    <t>Блок "Карусель партнеров"</t>
+  </si>
+  <si>
+    <t>Блок "Карусель партнеров" имеет заголовок "Карусель партнеров"</t>
+  </si>
+  <si>
+    <t>Блок "Карусель партнеров" отображается под блоком "Стоимость участия"</t>
+  </si>
+  <si>
+    <t>Карточки с логотипами партнеров отображаются в карусели без ошибок</t>
+  </si>
+  <si>
+    <t>Часть карточек пустая - должны быть удалены, либо заполнены. Одна из карточек продублирована - необходимо удалить один из дублей</t>
+  </si>
+  <si>
+    <t>Блок "Галерея"</t>
+  </si>
+  <si>
+    <t>Блок "Галерея" имеет заголовок "Галерея"</t>
+  </si>
+  <si>
+    <t>Блок "Галерея" отображает фотогалерею с изображениями с предыдущих конференций</t>
+  </si>
+  <si>
+    <t>Блок "Карта"</t>
+  </si>
+  <si>
+    <t>Блок "Карта" отображает карту без ошибок</t>
+  </si>
+  <si>
+    <t>blocked</t>
+  </si>
+  <si>
+    <t>Вместо блока "Карта" опубликован блок Why Join Ummet. Требуется заменить на блок Карта</t>
+  </si>
+  <si>
+    <t>Карта содержит поинтер на место проведения</t>
+  </si>
+  <si>
+    <t>4. Подписка на рассылку</t>
+  </si>
+  <si>
+    <t>1. открыта страница https://limelab.tech/foodbuzz/index.html
+2. пользователь находится в футере страницы</t>
+  </si>
+  <si>
+    <t>1. Ввести валидный email в поле ввода “Введите email”</t>
+  </si>
+  <si>
+    <t>qa@foodbuzz.tech</t>
+  </si>
+  <si>
+    <t>email введен в поле</t>
+  </si>
+  <si>
+    <t>2. Клик "Подписаться"</t>
+  </si>
+  <si>
+    <t>Открывается модальное окно "Вы подписаны"</t>
+  </si>
+  <si>
+    <t>3. Клик на крестик</t>
+  </si>
+  <si>
+    <t>Модальное окно закрылось, пользователь остался в футере на той же странице</t>
+  </si>
+  <si>
+    <t>-Клик "Подписаться" возвращает страницу с ошибкой 404</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Статус Chrome</t>
+  </si>
+  <si>
+    <t>1 Открыт https://test-stand.gb.ru/seminar_stands/umeet/index.html
+2 Открыт блок "Хедер"</t>
+  </si>
+  <si>
+    <t>Проверить визуальные компоненты блока</t>
+  </si>
+  <si>
+    <t>Фоновое изображение отображается</t>
+  </si>
+  <si>
+    <t>Логотип компании отображается</t>
+  </si>
+  <si>
+    <t>Даты проведения отображается</t>
+  </si>
+  <si>
+    <t>Заголовок конференции отображается</t>
+  </si>
+  <si>
+    <t>Проверить кнопку "Купить билеты"</t>
+  </si>
+  <si>
+    <t>Отображается</t>
+  </si>
+  <si>
+    <t>Ведет на отдельную страницу покупки билетов</t>
+  </si>
+  <si>
+    <t>1 Открыт https://test-stand.gb.ru/seminar_stands/umeet/index.html
+2 Открыт блок "Описание конференции"</t>
+  </si>
+  <si>
+    <t>Проверить описание конференции</t>
+  </si>
+  <si>
+    <t>Расположено под блоком "Хедер"</t>
+  </si>
+  <si>
+    <t>Проверить каунтер обратного отсчета</t>
+  </si>
+  <si>
+    <t>Проверить даты проведения конференции</t>
+  </si>
+  <si>
+    <t>Расположены под каунтером</t>
+  </si>
+  <si>
+    <t>Расположена под каунтером</t>
+  </si>
+  <si>
+    <t>Ведёт на отдельную страницу покупки билетов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Открыт https://test-stand.gb.ru/seminar_stands/umeet/index.html
+2 Открыт блок </t>
+  </si>
+  <si>
+    <t>Проверить заголовок блока</t>
+  </si>
+  <si>
+    <t>Заголовок блока "Почему стоит посетить" отображается</t>
+  </si>
+  <si>
+    <t>Проверить поинты</t>
+  </si>
+  <si>
+    <t>Содержат изображение, отображается</t>
+  </si>
+  <si>
+    <t>Содержат название, отображается</t>
+  </si>
+  <si>
+    <t>Содержат описание, отображается</t>
+  </si>
+  <si>
+    <t>Проверить кнопку "Узнать больше"</t>
+  </si>
+  <si>
+    <t>Располагается под блоком</t>
+  </si>
+  <si>
+    <t>Ведет на ленинг с описанием важности конференции</t>
+  </si>
+  <si>
+    <t>Располагается под блоком, справа от кнопки "Узнать больше"</t>
+  </si>
+  <si>
+    <t>Проверить наличие галереи карточек</t>
+  </si>
+  <si>
+    <t>В блоке "Жюри" представлена галерея карточек членов жюри</t>
+  </si>
+  <si>
+    <t>Проверить расположение карточек блока</t>
+  </si>
+  <si>
+    <t>Проверить дизайн карточек блока</t>
+  </si>
+  <si>
+    <t>Проверить наполнение карточек блока</t>
+  </si>
+  <si>
+    <t>Проверить расписание конференции</t>
+  </si>
+  <si>
+    <t>Проверить карточки докладов</t>
+  </si>
+  <si>
+    <t>Отображает фотографию спикера</t>
+  </si>
+  <si>
+    <t>Отображает название компании, в которой работает спикер</t>
+  </si>
+  <si>
+    <t>Отображает, справа от фотографии, блок с датой</t>
+  </si>
+  <si>
+    <t>Отображает, справа от фотографии, описанием доклада</t>
+  </si>
+  <si>
+    <t>Проверить карточки цен</t>
+  </si>
+  <si>
+    <t>Отображают описание без ошибок</t>
+  </si>
+  <si>
+    <t>Отображают цену без ошибок</t>
+  </si>
+  <si>
+    <t>Центральная карточка - Ultimate</t>
+  </si>
+  <si>
+    <t>Отображается только под карточкой Ultimate</t>
+  </si>
+  <si>
+    <t>Проверить расположение блока</t>
+  </si>
+  <si>
+    <t>Под блоком "Стоимость участия"</t>
+  </si>
+  <si>
+    <t>Проверить карточки партнеров</t>
+  </si>
+  <si>
+    <t>Карточки содержат логотипы партнеров</t>
+  </si>
+  <si>
+    <t>Проверить наполнение блока</t>
+  </si>
+  <si>
+    <t>Отображает фотогалерею с изображениями с предыдущих конференций</t>
+  </si>
+  <si>
+    <t>Отображает карту без ошибок</t>
+  </si>
+  <si>
+    <t>Проверить содержание "Карты"</t>
+  </si>
+  <si>
+    <t>Cодержит поинтер на место проведения</t>
+  </si>
+  <si>
+    <t>1 В предусловиях указаны шаги, которые должны быть выполнены перед началом проверки тест-кейса (в них могут быть указаны и тестовые данные, если их немного)
+2 В тестовых данных указываются данные, которые необходиимо использовать при проверках
+3 В шагах указываются проверки (скорее обобщающие блоки тех проверок, которые указываются на каждой отдельной строчке чек-листа), чтобы в ожидаемых результататах указать конкретные результаты, которые ожидаются по итогу осуществленного блока проверки
+4 Желательно указывать версию тестового окружения - браузера в колонке статус
+5 Тест-кейсы должны быть атомарными, то есть их возможно разбить между тестировщиками или выполнять в любом порядке
+6 Тест-кейсы могут содержать постусловия. Например тестировщик обязан удалить внесенные в базы данных тестовые данные.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11077,8 +11609,42 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF11734B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFCFC9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="IBM Plex Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFE5CFF2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11157,8 +11723,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4EDBC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB10202"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5A3286"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -11447,12 +12037,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -11735,17 +12458,11 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11764,9 +12481,6 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11903,10 +12617,115 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12271,7 +13090,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22606000" y="40313428"/>
+          <a:off x="22751968" y="41428389"/>
           <a:ext cx="2721430" cy="1348186"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12285,13 +13104,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>173181</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>92363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3362390</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>348323</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12329,13 +13148,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>115454</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>150092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>646546</xdr:colOff>
-      <xdr:row>210</xdr:row>
+      <xdr:row>214</xdr:row>
       <xdr:rowOff>652020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12373,13 +13192,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>34635</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5137726</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>1162128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12417,13 +13236,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>103911</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>34637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4595092</xdr:colOff>
-      <xdr:row>236</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>1221240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12461,13 +13280,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>103909</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>588818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>5133468</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>260</xdr:row>
       <xdr:rowOff>1801091</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12505,13 +13324,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>785088</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>23090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2505363</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>1869983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12549,13 +13368,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>80818</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>92364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4130527</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>301</xdr:row>
       <xdr:rowOff>1385455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12593,13 +13412,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>46184</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>34635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4918364</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>322</xdr:row>
       <xdr:rowOff>1960946</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12637,13 +13456,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57728</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>46181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4925860</xdr:colOff>
-      <xdr:row>319</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>1905000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12681,13 +13500,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>147593</xdr:colOff>
-      <xdr:row>230</xdr:row>
+      <xdr:row>234</xdr:row>
       <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3371272</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>44518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12725,13 +13544,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>173181</xdr:colOff>
-      <xdr:row>339</xdr:row>
+      <xdr:row>343</xdr:row>
       <xdr:rowOff>76375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4637101</xdr:colOff>
-      <xdr:row>339</xdr:row>
+      <xdr:row>343</xdr:row>
       <xdr:rowOff>2061062</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12769,13 +13588,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>138545</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>198267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3740728</xdr:colOff>
-      <xdr:row>234</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>581953</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12813,13 +13632,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>23091</xdr:colOff>
-      <xdr:row>398</xdr:row>
+      <xdr:row>402</xdr:row>
       <xdr:rowOff>57730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3556000</xdr:colOff>
-      <xdr:row>398</xdr:row>
+      <xdr:row>402</xdr:row>
       <xdr:rowOff>1409347</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12845,6 +13664,50 @@
         <a:xfrm>
           <a:off x="6072909" y="233264366"/>
           <a:ext cx="3532909" cy="1351617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>395941</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>216594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3321279</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>488310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Рисунок 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5811ED1-EF53-3540-88A2-E626D02A2D5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11788588" y="77813594"/>
+          <a:ext cx="2925338" cy="1377364"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13122,10 +13985,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V433"/>
+  <dimension ref="A2:V437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A403" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B412" sqref="B412"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C65" sqref="A64:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13711,7 +14574,7 @@
       </c>
       <c r="D48" s="27"/>
     </row>
-    <row r="49" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A49" s="38" t="s">
         <v>114</v>
       </c>
@@ -13720,7 +14583,7 @@
       </c>
       <c r="D49" s="27"/>
     </row>
-    <row r="50" spans="1:22" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="45" t="s">
         <v>113</v>
       </c>
@@ -13732,7 +14595,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A51" s="62" t="s">
         <v>116</v>
       </c>
@@ -13742,7 +14605,7 @@
       </c>
       <c r="D51" s="69"/>
     </row>
-    <row r="52" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A52" s="38" t="s">
         <v>117</v>
       </c>
@@ -13756,7 +14619,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="39" t="s">
         <v>119</v>
       </c>
@@ -13770,7 +14633,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A54" s="62" t="s">
         <v>120</v>
       </c>
@@ -13785,7 +14648,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A55" s="54" t="s">
         <v>170</v>
       </c>
@@ -13797,7 +14660,7 @@
       </c>
       <c r="D55" s="27"/>
     </row>
-    <row r="56" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="145" x14ac:dyDescent="0.35">
       <c r="A56" s="54" t="s">
         <v>121</v>
       </c>
@@ -13811,7 +14674,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="55" t="s">
         <v>123</v>
       </c>
@@ -13825,7 +14688,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="37" t="s">
         <v>126</v>
       </c>
@@ -13833,7 +14696,7 @@
       <c r="C58" s="43"/>
       <c r="D58" s="35"/>
     </row>
-    <row r="59" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="38"/>
       <c r="C59" s="41" t="s">
         <v>128</v>
@@ -13842,13 +14705,13 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="49" t="s">
         <v>129</v>
       </c>
       <c r="D60" s="27"/>
     </row>
-    <row r="61" spans="1:22" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="39"/>
       <c r="B61" s="14"/>
       <c r="C61" s="44" t="s">
@@ -13858,3068 +14721,3088 @@
         <v>177</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A63" s="3"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="U63" s="5"/>
-    </row>
-    <row r="64" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="149" t="s">
+        <v>655</v>
+      </c>
+      <c r="B64" s="115" t="s">
+        <v>653</v>
+      </c>
+      <c r="C64" s="150" t="s">
+        <v>656</v>
+      </c>
+      <c r="D64" s="149"/>
+    </row>
+    <row r="65" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A65" s="149" t="s">
+        <v>654</v>
+      </c>
+      <c r="B65" s="115" t="s">
+        <v>653</v>
+      </c>
+      <c r="C65" s="150" t="s">
+        <v>652</v>
+      </c>
+      <c r="D65" s="149"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A67" s="3"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="U67" s="5"/>
+    </row>
+    <row r="68" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="9"/>
-      <c r="P64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="2"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A65" s="23" t="s">
+      <c r="C68" s="9"/>
+      <c r="P68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="2"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A69" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="35"/>
-    </row>
-    <row r="66" spans="1:22" ht="174" x14ac:dyDescent="0.35">
-      <c r="A66" s="38" t="s">
+      <c r="B69" s="18"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="35"/>
+    </row>
+    <row r="70" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+      <c r="A70" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="57" t="s">
+      <c r="B70" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C70" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="D66" s="27" t="s">
+      <c r="D70" s="27" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="C67" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="D67" s="31"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A68" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="67"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="69"/>
-    </row>
-    <row r="69" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A69" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C69" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="D69" s="27" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A70" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C70" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="D70" s="27"/>
     </row>
     <row r="71" spans="1:22" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71" s="31"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A72" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="67"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="69"/>
+    </row>
+    <row r="73" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A73" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A74" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" s="27"/>
+    </row>
+    <row r="75" spans="1:22" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B75" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="44" t="s">
+      <c r="C75" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="D71" s="31"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A73" s="3"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="U73" s="5"/>
-    </row>
-    <row r="74" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="1" t="s">
+      <c r="D75" s="31"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A77" s="3"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="U77" s="5"/>
+    </row>
+    <row r="78" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="P74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="2"/>
-    </row>
-    <row r="75" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A75" s="58" t="s">
+      <c r="C78" s="9"/>
+      <c r="P78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="2"/>
+    </row>
+    <row r="79" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B79" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C79" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="D75" s="35"/>
-    </row>
-    <row r="76" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="45" t="s">
+      <c r="D79" s="35"/>
+    </row>
+    <row r="80" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C76" s="41" t="s">
+      <c r="C80" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="D76" s="27" t="s">
+      <c r="D80" s="27" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="38" t="s">
+    <row r="81" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C77" s="41" t="s">
+      <c r="C81" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="D77" s="27"/>
-    </row>
-    <row r="78" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="55" t="s">
+      <c r="D81" s="27"/>
+    </row>
+    <row r="82" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B82" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C78" s="44" t="s">
+      <c r="C82" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="D78" s="31"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+      <c r="D82" s="31"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A81" s="59" t="s">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A85" s="59" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A83" s="3"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="U83" s="5"/>
-    </row>
-    <row r="84" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A87" s="3"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="U87" s="5"/>
+    </row>
+    <row r="88" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="P84" s="1"/>
-      <c r="U84" s="1"/>
-      <c r="V84" s="2"/>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A85" s="23" t="s">
+      <c r="C88" s="9"/>
+      <c r="P88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="2"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A89" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="35"/>
-    </row>
-    <row r="86" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="39"/>
-      <c r="B86" s="14" t="s">
+      <c r="B89" s="18"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="35"/>
+    </row>
+    <row r="90" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="39"/>
+      <c r="B90" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="C86" s="90" t="s">
+      <c r="C90" s="90" t="s">
         <v>282</v>
       </c>
-      <c r="D86" s="31" t="s">
+      <c r="D90" s="31" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A87" s="23" t="s">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A91" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="35" t="s">
+      <c r="B91" s="18"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="35" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A88" s="71" t="s">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A92" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="C88" s="57" t="s">
+      <c r="C92" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="D88" s="27"/>
-    </row>
-    <row r="89" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A89" s="71" t="s">
+      <c r="D92" s="27"/>
+    </row>
+    <row r="93" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C89" s="95" t="s">
-        <v>346</v>
-      </c>
-      <c r="D89" s="27"/>
-      <c r="F89" s="106" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A90" s="71" t="s">
+      <c r="B93" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C93" s="95" t="s">
+        <v>345</v>
+      </c>
+      <c r="D93" s="27"/>
+    </row>
+    <row r="94" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C90" s="57" t="s">
+      <c r="B94" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C94" s="57" t="s">
         <v>285</v>
       </c>
-      <c r="D90" s="27"/>
-    </row>
-    <row r="91" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A91" s="71" t="s">
+      <c r="D94" s="27"/>
+    </row>
+    <row r="95" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A95" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C91" s="57" t="s">
+      <c r="B95" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C95" s="57" t="s">
         <v>286</v>
       </c>
-      <c r="D91" s="27"/>
-    </row>
-    <row r="92" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A92" s="91" t="s">
-        <v>329</v>
-      </c>
-      <c r="C92" s="57" t="s">
+      <c r="D95" s="27"/>
+    </row>
+    <row r="96" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A96" s="91" t="s">
+        <v>328</v>
+      </c>
+      <c r="C96" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="D92" s="27"/>
-    </row>
-    <row r="93" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="71" t="s">
+      <c r="D96" s="27"/>
+    </row>
+    <row r="97" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="C93" s="57" t="s">
+      <c r="C97" s="57" t="s">
+        <v>651</v>
+      </c>
+      <c r="D97" s="27"/>
+    </row>
+    <row r="98" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A98" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C98" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="D93" s="27"/>
-    </row>
-    <row r="94" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A94" s="71" t="s">
-        <v>232</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C94" s="57" t="s">
+      <c r="D98" s="27"/>
+    </row>
+    <row r="99" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A99" s="73"/>
+      <c r="C99" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="D94" s="27"/>
-    </row>
-    <row r="95" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A95" s="73"/>
-      <c r="C95" s="57" t="s">
+      <c r="D99" s="27"/>
+    </row>
+    <row r="100" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="74"/>
+      <c r="B100" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C100" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="D100" s="27"/>
+    </row>
+    <row r="101" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="75"/>
+      <c r="B101" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D95" s="27"/>
-    </row>
-    <row r="96" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" s="74"/>
-      <c r="B96" s="2" t="s">
+      <c r="C101" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="D101" s="31"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" s="18"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="C96" s="57" t="s">
-        <v>292</v>
-      </c>
-      <c r="D96" s="27"/>
-    </row>
-    <row r="97" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="75"/>
-      <c r="B97" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C97" s="76" t="s">
-        <v>293</v>
-      </c>
-      <c r="D97" s="31"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="35" t="s">
+    </row>
+    <row r="103" spans="1:4" ht="276" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="39"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="90" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="276" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="39"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="90" t="s">
-        <v>296</v>
-      </c>
-      <c r="D99" s="31"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="23" t="s">
+      <c r="D103" s="31"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="35" t="s">
+      <c r="B104" s="18"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="38"/>
-      <c r="B101" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C101" s="91" t="s">
-        <v>297</v>
-      </c>
-      <c r="D101" s="27"/>
-    </row>
-    <row r="102" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="38"/>
-      <c r="B102" s="91" t="s">
-        <v>303</v>
-      </c>
-      <c r="C102" s="91" t="s">
-        <v>302</v>
-      </c>
-      <c r="D102" s="27"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="38"/>
-      <c r="C103" s="91" t="s">
-        <v>301</v>
-      </c>
-      <c r="D103" s="27"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="38"/>
-      <c r="C104" s="57" t="s">
-        <v>202</v>
-      </c>
-      <c r="D104" s="27"/>
     </row>
     <row r="105" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="38"/>
+      <c r="B105" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="C105" s="91" t="s">
+        <v>296</v>
+      </c>
+      <c r="D105" s="27"/>
+    </row>
+    <row r="106" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="38"/>
+      <c r="B106" s="91" t="s">
+        <v>302</v>
+      </c>
+      <c r="C106" s="91" t="s">
+        <v>301</v>
+      </c>
+      <c r="D106" s="27"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="38"/>
+      <c r="C107" s="91" t="s">
         <v>300</v>
       </c>
-      <c r="D105" s="27"/>
-    </row>
-    <row r="106" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="38"/>
-      <c r="C106" s="91" t="s">
+      <c r="D107" s="27"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="38"/>
+      <c r="C108" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="D108" s="27"/>
+    </row>
+    <row r="109" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A109" s="38"/>
+      <c r="C109" s="91" t="s">
         <v>299</v>
       </c>
-      <c r="D106" s="27"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="B107" s="67"/>
-      <c r="C107" s="70"/>
-      <c r="D107" s="69" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="54"/>
-      <c r="B108" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C108" s="91" t="s">
-        <v>304</v>
-      </c>
-      <c r="D108" s="27"/>
-    </row>
-    <row r="109" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="54"/>
-      <c r="B109" s="91"/>
-      <c r="C109" s="91" t="s">
-        <v>307</v>
-      </c>
-      <c r="D109" s="27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D109" s="27"/>
+    </row>
+    <row r="110" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="38"/>
       <c r="C110" s="91" t="s">
+        <v>298</v>
+      </c>
+      <c r="D110" s="27"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="B111" s="67"/>
+      <c r="C111" s="70"/>
+      <c r="D111" s="69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="54"/>
+      <c r="B112" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C112" s="91" t="s">
+        <v>303</v>
+      </c>
+      <c r="D112" s="27"/>
+    </row>
+    <row r="113" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="54"/>
+      <c r="B113" s="91"/>
+      <c r="C113" s="91" t="s">
+        <v>306</v>
+      </c>
+      <c r="D113" s="27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A114" s="38"/>
+      <c r="C114" s="91" t="s">
+        <v>307</v>
+      </c>
+      <c r="D114" s="27"/>
+    </row>
+    <row r="115" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A115" s="38"/>
+      <c r="C115" s="91" t="s">
         <v>308</v>
       </c>
-      <c r="D110" s="27"/>
-    </row>
-    <row r="111" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A111" s="38"/>
-      <c r="C111" s="91" t="s">
+      <c r="D115" s="27"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="38"/>
+      <c r="C116" s="91" t="s">
         <v>309</v>
       </c>
-      <c r="D111" s="27"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="38"/>
-      <c r="C112" s="91" t="s">
+      <c r="D116" s="77"/>
+    </row>
+    <row r="117" spans="1:4" ht="22" x14ac:dyDescent="0.35">
+      <c r="A117" s="38"/>
+      <c r="C117" s="91" t="s">
         <v>310</v>
       </c>
-      <c r="D112" s="77"/>
-    </row>
-    <row r="113" spans="1:4" ht="22" x14ac:dyDescent="0.35">
-      <c r="A113" s="38"/>
-      <c r="C113" s="91" t="s">
-        <v>311</v>
-      </c>
-      <c r="D113" s="78"/>
-    </row>
-    <row r="114" spans="1:4" ht="22.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="39"/>
-      <c r="B114" s="14"/>
-      <c r="C114" s="90" t="s">
+      <c r="D117" s="78"/>
+    </row>
+    <row r="118" spans="1:4" ht="22.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="39"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="90" t="s">
         <v>204</v>
       </c>
-      <c r="D114" s="79"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="49" t="s">
+      <c r="D118" s="79"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="D115" s="27" t="s">
+      <c r="D119" s="27" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A116" s="38"/>
-      <c r="C116" s="80" t="s">
-        <v>313</v>
-      </c>
-      <c r="D116" s="27"/>
-    </row>
-    <row r="117" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="38"/>
-      <c r="C117" s="80" t="s">
-        <v>314</v>
-      </c>
-      <c r="D117" s="27"/>
-    </row>
-    <row r="118" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A118" s="38"/>
-      <c r="C118" s="92" t="s">
-        <v>315</v>
-      </c>
-      <c r="D118" s="27"/>
-    </row>
-    <row r="119" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="38"/>
-      <c r="C119" s="80" t="s">
-        <v>316</v>
-      </c>
-      <c r="D119" s="27"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="38"/>
-      <c r="C120" s="92" t="s">
-        <v>317</v>
+      <c r="C120" s="80" t="s">
+        <v>312</v>
       </c>
       <c r="D120" s="27"/>
     </row>
     <row r="121" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A121" s="38"/>
       <c r="C121" s="80" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D121" s="27"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="38"/>
-      <c r="C122" s="80" t="s">
-        <v>320</v>
+      <c r="C122" s="92" t="s">
+        <v>314</v>
       </c>
       <c r="D122" s="27"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="38"/>
       <c r="C123" s="80" t="s">
+        <v>315</v>
+      </c>
+      <c r="D123" s="27"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="38"/>
+      <c r="C124" s="92" t="s">
+        <v>316</v>
+      </c>
+      <c r="D124" s="27"/>
+    </row>
+    <row r="125" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="38"/>
+      <c r="C125" s="80" t="s">
         <v>318</v>
       </c>
-      <c r="D123" s="27"/>
-    </row>
-    <row r="124" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="38"/>
-      <c r="C124" s="80" t="s">
-        <v>321</v>
-      </c>
-      <c r="D124" s="27"/>
-    </row>
-    <row r="125" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="39"/>
-      <c r="B125" s="14"/>
-      <c r="C125" s="90" t="s">
-        <v>322</v>
-      </c>
-      <c r="D125" s="31"/>
+      <c r="D125" s="27"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="B126" s="18"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="35" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="38"/>
+      <c r="C126" s="80" t="s">
+        <v>319</v>
+      </c>
+      <c r="D126" s="27"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="38"/>
       <c r="C127" s="80" t="s">
+        <v>317</v>
+      </c>
+      <c r="D127" s="27"/>
+    </row>
+    <row r="128" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="38"/>
+      <c r="C128" s="80" t="s">
+        <v>320</v>
+      </c>
+      <c r="D128" s="27"/>
+    </row>
+    <row r="129" spans="1:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="39"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="90" t="s">
+        <v>321</v>
+      </c>
+      <c r="D129" s="31"/>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A130" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B130" s="18"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="35" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A131" s="38"/>
+      <c r="C131" s="80" t="s">
+        <v>323</v>
+      </c>
+      <c r="D131" s="77"/>
+    </row>
+    <row r="132" spans="1:22" ht="22" x14ac:dyDescent="0.35">
+      <c r="A132" s="38"/>
+      <c r="C132" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="D132" s="81"/>
+    </row>
+    <row r="133" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A133" s="38"/>
+      <c r="C133" s="80" t="s">
         <v>324</v>
       </c>
-      <c r="D127" s="77"/>
-    </row>
-    <row r="128" spans="1:4" ht="22" x14ac:dyDescent="0.35">
-      <c r="A128" s="38"/>
-      <c r="C128" s="92" t="s">
-        <v>207</v>
-      </c>
-      <c r="D128" s="81"/>
-    </row>
-    <row r="129" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A129" s="38"/>
-      <c r="C129" s="80" t="s">
+      <c r="D133" s="82"/>
+    </row>
+    <row r="134" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A134" s="38"/>
+      <c r="C134" s="80" t="s">
         <v>325</v>
       </c>
-      <c r="D129" s="82"/>
-    </row>
-    <row r="130" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A130" s="38"/>
-      <c r="C130" s="80" t="s">
+      <c r="D134" s="77"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A135" s="38"/>
+      <c r="C135" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="D130" s="77"/>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A131" s="38"/>
-      <c r="C131" s="57" t="s">
+      <c r="D135" s="27"/>
+    </row>
+    <row r="136" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="39"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="76" t="s">
         <v>327</v>
       </c>
-      <c r="D131" s="27"/>
-    </row>
-    <row r="132" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="39"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="76" t="s">
-        <v>328</v>
-      </c>
-      <c r="D132" s="31"/>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A134" s="3"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="3"/>
-      <c r="K134" s="3"/>
-      <c r="L134" s="3"/>
-      <c r="M134" s="3"/>
-      <c r="N134" s="3"/>
-      <c r="P134" s="5"/>
-      <c r="Q134" s="5"/>
-      <c r="R134" s="5"/>
-      <c r="S134" s="5"/>
-      <c r="U134" s="5"/>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A135" s="1" t="s">
+      <c r="D136" s="31"/>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A138" s="3"/>
+      <c r="B138" s="5"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+      <c r="P138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="R138" s="5"/>
+      <c r="S138" s="5"/>
+      <c r="U138" s="5"/>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="1" t="s">
+      <c r="C139" s="9"/>
+      <c r="D139" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P135" s="1"/>
-      <c r="U135" s="1"/>
-      <c r="V135" s="2"/>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A136" s="1" t="s">
+      <c r="P139" s="1"/>
+      <c r="U139" s="1"/>
+      <c r="V139" s="2"/>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A137" s="42" t="s">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A141" s="42" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C138" s="71" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C139" s="71" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C140" s="71" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C141" s="71" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="142" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C142" s="71" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="143" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C143" s="71" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="144" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="C144" s="71" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C145" s="71" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C146" s="71" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C147" s="71" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C148" s="71" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C149" s="71" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C150" s="71" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C151" s="71" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C153" s="71" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C154" s="71" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C151" s="71" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C152" s="71" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="C153" s="71" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C155" s="71" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C156" s="71" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C157" s="71" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C158" s="71" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="C159" s="91" t="s">
-        <v>329</v>
+      <c r="A158" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C159" s="71" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C160" s="71" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C161" s="71" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C163" s="71" t="s">
-        <v>234</v>
+      <c r="C162" s="71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="C163" s="91" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C164" s="71" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C165" s="71" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C166" s="71" t="s">
-        <v>236</v>
+      <c r="A166" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C167" s="71" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C168" s="71" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C169" s="71" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" s="1" t="s">
-        <v>240</v>
+      <c r="C170" s="71" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C171" s="71" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C172" s="71" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C173" s="71" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C175" s="71" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C176" s="71" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C177" s="71" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C174" s="71" t="s">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C178" s="71" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="C175" s="71" t="s">
+    <row r="179" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C179" s="71" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A177" s="3"/>
-      <c r="B177" s="5"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="5"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
-      <c r="K177" s="3"/>
-      <c r="L177" s="3"/>
-      <c r="M177" s="3"/>
-      <c r="N177" s="3"/>
-      <c r="P177" s="5"/>
-      <c r="Q177" s="5"/>
-      <c r="R177" s="5"/>
-      <c r="S177" s="5"/>
-      <c r="U177" s="5"/>
-    </row>
-    <row r="178" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="1" t="s">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A181" s="3"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
+      <c r="M181" s="3"/>
+      <c r="N181" s="3"/>
+      <c r="P181" s="5"/>
+      <c r="Q181" s="5"/>
+      <c r="R181" s="5"/>
+      <c r="S181" s="5"/>
+      <c r="U181" s="5"/>
+    </row>
+    <row r="182" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A182" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C178" s="9"/>
-      <c r="P178" s="1"/>
-      <c r="U178" s="1"/>
-      <c r="V178" s="2"/>
-    </row>
-    <row r="179" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A179" s="84" t="s">
+      <c r="C182" s="9"/>
+      <c r="P182" s="1"/>
+      <c r="U182" s="1"/>
+      <c r="V182" s="2"/>
+    </row>
+    <row r="183" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A183" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="B179" s="18" t="s">
+      <c r="B183" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C179" s="85" t="s">
+      <c r="C183" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="D179" s="35" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="180" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A180" s="38"/>
-      <c r="B180" s="2" t="s">
+      <c r="D183" s="35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A184" s="38"/>
+      <c r="B184" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C180" s="93" t="s">
+      <c r="C184" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="D180" s="27"/>
-    </row>
-    <row r="181" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="39"/>
-      <c r="B181" s="14" t="s">
+      <c r="D184" s="27"/>
+    </row>
+    <row r="185" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A185" s="39"/>
+      <c r="B185" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="C181" s="72" t="s">
+      <c r="C185" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="D181" s="31"/>
-    </row>
-    <row r="182" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A182" s="37" t="s">
+      <c r="D185" s="31"/>
+    </row>
+    <row r="186" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A186" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="B182" s="18"/>
-      <c r="C182" s="43"/>
-      <c r="D182" s="35"/>
-    </row>
-    <row r="183" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A183" s="38" t="s">
+      <c r="B186" s="18"/>
+      <c r="C186" s="43"/>
+      <c r="D186" s="35"/>
+    </row>
+    <row r="187" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A187" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="C183" s="71" t="s">
+      <c r="C187" s="71" t="s">
         <v>253</v>
-      </c>
-      <c r="D183" s="27"/>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A184" s="38"/>
-      <c r="C184" s="71" t="s">
-        <v>254</v>
-      </c>
-      <c r="D184" s="27"/>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A185" s="38"/>
-      <c r="C185" s="71" t="s">
-        <v>255</v>
-      </c>
-      <c r="D185" s="27"/>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A186" s="38"/>
-      <c r="C186" s="71" t="s">
-        <v>256</v>
-      </c>
-      <c r="D186" s="27"/>
-    </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A187" s="38"/>
-      <c r="C187" s="71" t="s">
-        <v>257</v>
       </c>
       <c r="D187" s="27"/>
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A188" s="38"/>
       <c r="C188" s="71" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D188" s="27"/>
     </row>
-    <row r="189" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="39"/>
-      <c r="B189" s="14"/>
-      <c r="C189" s="72" t="s">
-        <v>259</v>
-      </c>
-      <c r="D189" s="31"/>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A189" s="38"/>
+      <c r="C189" s="71" t="s">
+        <v>255</v>
+      </c>
+      <c r="D189" s="27"/>
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A190" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B190" s="18"/>
-      <c r="C190" s="43"/>
-      <c r="D190" s="35" t="s">
-        <v>331</v>
-      </c>
+      <c r="A190" s="38"/>
+      <c r="C190" s="71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D190" s="27"/>
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A191" s="38"/>
-      <c r="C191" s="80" t="s">
+      <c r="C191" s="71" t="s">
+        <v>257</v>
+      </c>
+      <c r="D191" s="27"/>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A192" s="38"/>
+      <c r="C192" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="D192" s="27"/>
+    </row>
+    <row r="193" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A193" s="39"/>
+      <c r="B193" s="14"/>
+      <c r="C193" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="D193" s="31"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B194" s="18"/>
+      <c r="C194" s="43"/>
+      <c r="D194" s="35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="38"/>
+      <c r="C195" s="80" t="s">
+        <v>331</v>
+      </c>
+      <c r="D195" s="27"/>
+    </row>
+    <row r="196" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A196" s="38"/>
+      <c r="C196" s="80" t="s">
         <v>332</v>
       </c>
-      <c r="D191" s="27"/>
-    </row>
-    <row r="192" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A192" s="38"/>
-      <c r="C192" s="80" t="s">
+      <c r="D196" s="27"/>
+    </row>
+    <row r="197" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A197" s="38"/>
+      <c r="C197" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D192" s="27"/>
-    </row>
-    <row r="193" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A193" s="38"/>
-      <c r="C193" s="80" t="s">
+      <c r="D197" s="27"/>
+    </row>
+    <row r="198" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A198" s="38"/>
+      <c r="C198" s="80" t="s">
         <v>334</v>
       </c>
-      <c r="D193" s="27"/>
-    </row>
-    <row r="194" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A194" s="38"/>
-      <c r="C194" s="80" t="s">
+      <c r="D198" s="27"/>
+    </row>
+    <row r="199" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A199" s="39"/>
+      <c r="B199" s="14"/>
+      <c r="C199" s="83" t="s">
         <v>335</v>
       </c>
-      <c r="D194" s="27"/>
-    </row>
-    <row r="195" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="39"/>
-      <c r="B195" s="14"/>
-      <c r="C195" s="83" t="s">
+      <c r="D199" s="31"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="B200" s="94" t="s">
+        <v>337</v>
+      </c>
+      <c r="C200" s="43"/>
+      <c r="D200" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="D195" s="31"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="B196" s="94" t="s">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" s="38"/>
+      <c r="B201" s="86" t="s">
+        <v>198</v>
+      </c>
+      <c r="C201" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="D201" s="27"/>
+    </row>
+    <row r="202" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A202" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C202" s="93" t="s">
         <v>338</v>
       </c>
-      <c r="C196" s="43"/>
-      <c r="D196" s="35" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="38"/>
-      <c r="B197" s="86" t="s">
-        <v>198</v>
-      </c>
-      <c r="C197" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="D197" s="27"/>
-    </row>
-    <row r="198" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A198" s="88" t="s">
-        <v>262</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C198" s="93" t="s">
+      <c r="D202" s="27"/>
+    </row>
+    <row r="203" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A203" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C203" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="D203" s="27"/>
+    </row>
+    <row r="204" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A204" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C204" s="93" t="s">
         <v>339</v>
       </c>
-      <c r="D198" s="27"/>
-    </row>
-    <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A199" s="88" t="s">
-        <v>263</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C199" s="71" t="s">
-        <v>270</v>
-      </c>
-      <c r="D199" s="27"/>
-    </row>
-    <row r="200" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A200" s="88" t="s">
-        <v>264</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C200" s="93" t="s">
+      <c r="D204" s="27"/>
+    </row>
+    <row r="205" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A205" s="89" t="s">
+        <v>265</v>
+      </c>
+      <c r="B205" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C205" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="D205" s="31"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A206" s="42" t="s">
+        <v>272</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D200" s="27"/>
-    </row>
-    <row r="201" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="89" t="s">
-        <v>265</v>
-      </c>
-      <c r="B201" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C201" s="72" t="s">
-        <v>271</v>
-      </c>
-      <c r="D201" s="31"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A202" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="D202" s="1" t="s">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C207" s="80" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C208" s="80" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="209" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C209" s="80" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C203" s="80" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C204" s="80" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C205" s="80" t="s">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C210" s="80" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="211" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C211" s="80" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C206" s="80" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C207" s="80" t="s">
+    <row r="212" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C212" s="80" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="C208" s="80" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="209" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C209" s="80" t="s">
+    <row r="213" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C213" s="80" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="210" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A210" s="84" t="s">
+    <row r="214" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A214" s="84" t="s">
         <v>277</v>
       </c>
-      <c r="B210" s="18"/>
-      <c r="C210" s="43"/>
-      <c r="D210" s="35"/>
-    </row>
-    <row r="211" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="39"/>
-      <c r="B211" s="14"/>
-      <c r="C211" s="72" t="s">
+      <c r="B214" s="18"/>
+      <c r="C214" s="43"/>
+      <c r="D214" s="35"/>
+    </row>
+    <row r="215" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A215" s="39"/>
+      <c r="B215" s="14"/>
+      <c r="C215" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="D211" s="31"/>
-    </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A212" s="23" t="s">
+      <c r="D215" s="31"/>
+    </row>
+    <row r="216" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A216" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="B212" s="18"/>
-      <c r="C212" s="43"/>
-      <c r="D212" s="35"/>
-    </row>
-    <row r="213" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A213" s="39"/>
-      <c r="B213" s="14"/>
-      <c r="C213" s="72" t="s">
+      <c r="B216" s="18"/>
+      <c r="C216" s="43"/>
+      <c r="D216" s="35"/>
+    </row>
+    <row r="217" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A217" s="39"/>
+      <c r="B217" s="14"/>
+      <c r="C217" s="72" t="s">
         <v>280</v>
       </c>
-      <c r="D213" s="31"/>
-    </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A215" s="3"/>
-      <c r="B215" s="5"/>
-      <c r="C215" s="6"/>
-      <c r="D215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="5"/>
-      <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
-      <c r="K215" s="3"/>
-      <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
-      <c r="P215" s="5"/>
-      <c r="Q215" s="5"/>
-      <c r="R215" s="5"/>
-      <c r="S215" s="5"/>
-      <c r="U215" s="5"/>
-    </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A216" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C216" s="9"/>
-      <c r="P216" s="1"/>
-      <c r="U216" s="1"/>
-      <c r="V216" s="2"/>
-    </row>
-    <row r="217" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A217" s="107" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A218" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="B218" s="125"/>
-      <c r="C218" s="126" t="s">
-        <v>487</v>
-      </c>
-      <c r="D218" s="127"/>
-    </row>
-    <row r="219" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A219" s="38" t="s">
-        <v>586</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="C219" s="129" t="s">
-        <v>587</v>
-      </c>
-      <c r="D219" s="27"/>
-    </row>
-    <row r="220" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A220" s="38" t="s">
-        <v>588</v>
-      </c>
-      <c r="C220" s="129" t="s">
-        <v>589</v>
-      </c>
-      <c r="D220" s="27"/>
-    </row>
-    <row r="221" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A221" s="38"/>
-      <c r="C221" s="129" t="s">
-        <v>591</v>
-      </c>
-      <c r="D221" s="27"/>
-    </row>
-    <row r="222" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A222" s="39"/>
-      <c r="B222" s="128" t="s">
-        <v>486</v>
-      </c>
-      <c r="C222" s="124" t="s">
-        <v>443</v>
-      </c>
-      <c r="D222" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="F222" s="118" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A223" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="B223" s="18"/>
-      <c r="C223" s="109"/>
-      <c r="D223" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="224" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A224" s="39"/>
-      <c r="B224" s="128" t="s">
-        <v>488</v>
-      </c>
-      <c r="C224" s="110" t="s">
-        <v>370</v>
-      </c>
-      <c r="D224" s="31"/>
-    </row>
-    <row r="225" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A225" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="B225" s="18"/>
-      <c r="C225" s="43"/>
-      <c r="D225" s="35" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="226" spans="1:22" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D217" s="31"/>
+    </row>
+    <row r="219" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A219" s="3"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+      <c r="K219" s="3"/>
+      <c r="L219" s="3"/>
+      <c r="M219" s="3"/>
+      <c r="N219" s="3"/>
+      <c r="P219" s="5"/>
+      <c r="Q219" s="5"/>
+      <c r="R219" s="5"/>
+      <c r="S219" s="5"/>
+      <c r="U219" s="5"/>
+    </row>
+    <row r="220" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A220" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C220" s="9"/>
+      <c r="P220" s="1"/>
+      <c r="U220" s="1"/>
+      <c r="V220" s="2"/>
+    </row>
+    <row r="221" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A221" s="104" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A222" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="B222" s="122"/>
+      <c r="C222" s="123" t="s">
+        <v>474</v>
+      </c>
+      <c r="D222" s="124"/>
+    </row>
+    <row r="223" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A223" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C223" s="126" t="s">
+        <v>574</v>
+      </c>
+      <c r="D223" s="27"/>
+    </row>
+    <row r="224" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A224" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="C224" s="126" t="s">
+        <v>576</v>
+      </c>
+      <c r="D224" s="27"/>
+    </row>
+    <row r="225" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A225" s="38"/>
+      <c r="C225" s="126" t="s">
+        <v>578</v>
+      </c>
+      <c r="D225" s="27"/>
+    </row>
+    <row r="226" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="39"/>
-      <c r="B226" s="128" t="s">
-        <v>489</v>
-      </c>
-      <c r="C226" s="110" t="s">
-        <v>372</v>
-      </c>
-      <c r="D226" s="31"/>
-    </row>
-    <row r="228" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A228" s="3"/>
-      <c r="B228" s="5"/>
-      <c r="C228" s="6"/>
-      <c r="D228" s="3"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="5"/>
-      <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
-      <c r="K228" s="3"/>
-      <c r="L228" s="3"/>
-      <c r="M228" s="3"/>
-      <c r="N228" s="3"/>
-      <c r="P228" s="5"/>
-      <c r="Q228" s="5"/>
-      <c r="R228" s="5"/>
-      <c r="S228" s="5"/>
-      <c r="U228" s="5"/>
-    </row>
-    <row r="229" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A229" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C229" s="9"/>
-      <c r="P229" s="1"/>
-      <c r="U229" s="1"/>
-      <c r="V229" s="2"/>
-    </row>
-    <row r="230" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A230" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="B230" s="18"/>
-      <c r="C230" s="43"/>
-      <c r="D230" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="231" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A231" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="B231" s="108" t="s">
-        <v>447</v>
-      </c>
-      <c r="C231" s="123" t="s">
-        <v>484</v>
-      </c>
-      <c r="D231" s="27"/>
-      <c r="F231" s="111" t="s">
-        <v>464</v>
-      </c>
-      <c r="H231" s="119" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="232" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A232" s="113" t="s">
-        <v>376</v>
-      </c>
-      <c r="B232" s="108" t="s">
-        <v>449</v>
-      </c>
-      <c r="C232" s="108" t="s">
-        <v>377</v>
-      </c>
-      <c r="D232" s="27" t="s">
-        <v>448</v>
-      </c>
-      <c r="F232" s="108" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="233" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A233" s="114" t="s">
-        <v>378</v>
-      </c>
-      <c r="B233" s="115" t="s">
+      <c r="B226" s="125" t="s">
+        <v>473</v>
+      </c>
+      <c r="C226" s="121" t="s">
+        <v>430</v>
+      </c>
+      <c r="D226" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="F226" s="115" t="s">
         <v>450</v>
       </c>
-      <c r="C233" s="115" t="s">
-        <v>379</v>
-      </c>
-      <c r="D233" s="66"/>
+    </row>
+    <row r="227" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A227" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B227" s="18"/>
+      <c r="C227" s="106"/>
+      <c r="D227" s="35" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A228" s="39"/>
+      <c r="B228" s="125" t="s">
+        <v>475</v>
+      </c>
+      <c r="C228" s="107" t="s">
+        <v>357</v>
+      </c>
+      <c r="D228" s="31"/>
+    </row>
+    <row r="229" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A229" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B229" s="18"/>
+      <c r="C229" s="43"/>
+      <c r="D229" s="35" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A230" s="39"/>
+      <c r="B230" s="125" t="s">
+        <v>476</v>
+      </c>
+      <c r="C230" s="107" t="s">
+        <v>359</v>
+      </c>
+      <c r="D230" s="31"/>
+    </row>
+    <row r="232" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A232" s="3"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="3"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="3"/>
+      <c r="I232" s="3"/>
+      <c r="K232" s="3"/>
+      <c r="L232" s="3"/>
+      <c r="M232" s="3"/>
+      <c r="N232" s="3"/>
+      <c r="P232" s="5"/>
+      <c r="Q232" s="5"/>
+      <c r="R232" s="5"/>
+      <c r="S232" s="5"/>
+      <c r="U232" s="5"/>
+    </row>
+    <row r="233" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A233" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C233" s="9"/>
+      <c r="P233" s="1"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="2"/>
     </row>
     <row r="234" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A234" s="112" t="s">
-        <v>380</v>
+      <c r="A234" s="23" t="s">
+        <v>361</v>
       </c>
       <c r="B234" s="18"/>
       <c r="C234" s="43"/>
-      <c r="D234" s="35"/>
+      <c r="D234" s="35" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="235" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A235" s="108"/>
-      <c r="B235" s="108" t="s">
-        <v>381</v>
-      </c>
-      <c r="C235" s="108" t="s">
-        <v>446</v>
+      <c r="A235" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="B235" s="105" t="s">
+        <v>434</v>
+      </c>
+      <c r="C235" s="120" t="s">
+        <v>471</v>
       </c>
       <c r="D235" s="27"/>
-    </row>
-    <row r="236" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A236" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="D236" s="27"/>
-    </row>
-    <row r="237" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A237" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B237" s="110" t="s">
+      <c r="F235" s="108" t="s">
         <v>451</v>
       </c>
-      <c r="C237" s="46"/>
-      <c r="D237" s="31"/>
-    </row>
-    <row r="238" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A238" s="112" t="s">
-        <v>382</v>
+      <c r="H235" s="116" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="236" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A236" s="110" t="s">
+        <v>363</v>
+      </c>
+      <c r="B236" s="105" t="s">
+        <v>436</v>
+      </c>
+      <c r="C236" s="105" t="s">
+        <v>364</v>
+      </c>
+      <c r="D236" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="F236" s="105" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="237" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A237" s="111" t="s">
+        <v>365</v>
+      </c>
+      <c r="B237" s="112" t="s">
+        <v>437</v>
+      </c>
+      <c r="C237" s="112" t="s">
+        <v>366</v>
+      </c>
+      <c r="D237" s="66"/>
+    </row>
+    <row r="238" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A238" s="109" t="s">
+        <v>367</v>
       </c>
       <c r="B238" s="18"/>
       <c r="C238" s="43"/>
-      <c r="D238" s="35" t="s">
+      <c r="D238" s="35"/>
+    </row>
+    <row r="239" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A239" s="105"/>
+      <c r="B239" s="105" t="s">
+        <v>368</v>
+      </c>
+      <c r="C239" s="105" t="s">
+        <v>433</v>
+      </c>
+      <c r="D239" s="27"/>
+    </row>
+    <row r="240" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A240" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="D240" s="27"/>
+    </row>
+    <row r="241" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A241" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B241" s="107" t="s">
+        <v>438</v>
+      </c>
+      <c r="C241" s="46"/>
+      <c r="D241" s="31"/>
+    </row>
+    <row r="242" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A242" s="109" t="s">
+        <v>369</v>
+      </c>
+      <c r="B242" s="18"/>
+      <c r="C242" s="43"/>
+      <c r="D242" s="35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="239" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="39"/>
-      <c r="B239" s="14"/>
-      <c r="C239" s="110" t="s">
-        <v>383</v>
-      </c>
-      <c r="D239" s="31"/>
-    </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A241" s="3"/>
-      <c r="B241" s="5"/>
-      <c r="C241" s="6"/>
-      <c r="D241" s="3"/>
-      <c r="F241" s="3"/>
-      <c r="G241" s="5"/>
-      <c r="H241" s="3"/>
-      <c r="I241" s="3"/>
-      <c r="K241" s="3"/>
-      <c r="L241" s="3"/>
-      <c r="M241" s="3"/>
-      <c r="N241" s="3"/>
-      <c r="P241" s="5"/>
-      <c r="Q241" s="5"/>
-      <c r="R241" s="5"/>
-      <c r="S241" s="5"/>
-      <c r="U241" s="5"/>
-    </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A242" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C242" s="9"/>
-      <c r="P242" s="1"/>
-      <c r="U242" s="1"/>
-      <c r="V242" s="2"/>
-    </row>
-    <row r="243" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A243" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="B243" s="123" t="s">
-        <v>485</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="244" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A244" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C244" s="108" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="245" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A245" s="111" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="246" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C246" s="108" t="s">
-        <v>388</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A243" s="39"/>
+      <c r="B243" s="14"/>
+      <c r="C243" s="107" t="s">
+        <v>370</v>
+      </c>
+      <c r="D243" s="31"/>
+    </row>
+    <row r="245" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A245" s="3"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="3"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="3"/>
+      <c r="I245" s="3"/>
+      <c r="K245" s="3"/>
+      <c r="L245" s="3"/>
+      <c r="M245" s="3"/>
+      <c r="N245" s="3"/>
+      <c r="P245" s="5"/>
+      <c r="Q245" s="5"/>
+      <c r="R245" s="5"/>
+      <c r="S245" s="5"/>
+      <c r="U245" s="5"/>
+    </row>
+    <row r="246" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C246" s="9"/>
+      <c r="P246" s="1"/>
+      <c r="U246" s="1"/>
+      <c r="V246" s="2"/>
+    </row>
+    <row r="247" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A247" s="42" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="248" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A248" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B247" s="120" t="s">
+        <v>472</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="248" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C248" s="105" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A249" s="108" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C250" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A251" s="42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A252" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B252" s="105" t="s">
+        <v>368</v>
+      </c>
+      <c r="C252" s="105" t="s">
+        <v>433</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A254" s="3"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="3"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="5"/>
+      <c r="H254" s="3"/>
+      <c r="I254" s="3"/>
+      <c r="K254" s="3"/>
+      <c r="L254" s="3"/>
+      <c r="M254" s="3"/>
+      <c r="N254" s="3"/>
+      <c r="P254" s="5"/>
+      <c r="Q254" s="5"/>
+      <c r="R254" s="5"/>
+      <c r="S254" s="5"/>
+      <c r="U254" s="5"/>
+    </row>
+    <row r="255" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C255" s="9"/>
+      <c r="P255" s="1"/>
+      <c r="U255" s="1"/>
+      <c r="V255" s="2"/>
+    </row>
+    <row r="256" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A256" s="108" t="s">
+        <v>380</v>
+      </c>
+      <c r="B256" s="105" t="s">
         <v>455</v>
       </c>
-      <c r="B248" s="108" t="s">
+      <c r="D256" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A257" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="B257" s="105"/>
+      <c r="C257" s="105" t="s">
         <v>381</v>
-      </c>
-      <c r="C248" s="108" t="s">
-        <v>446</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A250" s="3"/>
-      <c r="B250" s="5"/>
-      <c r="C250" s="6"/>
-      <c r="D250" s="3"/>
-      <c r="F250" s="3"/>
-      <c r="G250" s="5"/>
-      <c r="H250" s="3"/>
-      <c r="I250" s="3"/>
-      <c r="K250" s="3"/>
-      <c r="L250" s="3"/>
-      <c r="M250" s="3"/>
-      <c r="N250" s="3"/>
-      <c r="P250" s="5"/>
-      <c r="Q250" s="5"/>
-      <c r="R250" s="5"/>
-      <c r="S250" s="5"/>
-      <c r="U250" s="5"/>
-    </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A251" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C251" s="9"/>
-      <c r="P251" s="1"/>
-      <c r="U251" s="1"/>
-      <c r="V251" s="2"/>
-    </row>
-    <row r="252" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A252" s="111" t="s">
-        <v>393</v>
-      </c>
-      <c r="B252" s="108" t="s">
-        <v>468</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="253" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A253" s="108" t="s">
-        <v>392</v>
-      </c>
-      <c r="B253" s="108"/>
-      <c r="C253" s="108" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A254" s="42" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="255" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="B255" s="108" t="s">
-        <v>397</v>
-      </c>
-      <c r="C255" s="108" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A256" s="42" t="s">
-        <v>399</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A257" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C257" s="108" t="s">
-        <v>400</v>
-      </c>
-      <c r="D257" s="120" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="42" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="C259" s="108" t="s">
-        <v>403</v>
+      <c r="B259" s="105" t="s">
+        <v>384</v>
+      </c>
+      <c r="C259" s="105" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="42" t="s">
+        <v>386</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A261" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C261" s="105" t="s">
+        <v>387</v>
+      </c>
+      <c r="D261" s="117" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262" s="42" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="C263" s="105" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264" s="42" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A261" s="121" t="s">
-        <v>469</v>
-      </c>
-      <c r="B261" s="86" t="s">
-        <v>473</v>
-      </c>
-      <c r="C261" s="122" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262" s="121" t="s">
-        <v>470</v>
-      </c>
-      <c r="B262" s="86" t="s">
-        <v>474</v>
-      </c>
-      <c r="C262" s="122" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263" s="121" t="s">
-        <v>471</v>
-      </c>
-      <c r="B263" s="86" t="s">
-        <v>475</v>
-      </c>
-      <c r="C263" s="122" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A264" s="121" t="s">
-        <v>472</v>
-      </c>
-      <c r="B264" s="86"/>
-      <c r="C264" s="122" t="s">
-        <v>479</v>
-      </c>
-    </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A265" s="1" t="s">
-        <v>480</v>
+      <c r="A265" s="118" t="s">
+        <v>456</v>
+      </c>
+      <c r="B265" s="86" t="s">
+        <v>460</v>
+      </c>
+      <c r="C265" s="119" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266" s="118" t="s">
+        <v>457</v>
+      </c>
+      <c r="B266" s="86" t="s">
+        <v>461</v>
+      </c>
+      <c r="C266" s="119" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A267" s="121" t="s">
-        <v>469</v>
-      </c>
-      <c r="B267" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="C267" s="86" t="s">
-        <v>473</v>
+      <c r="A267" s="118" t="s">
+        <v>458</v>
+      </c>
+      <c r="B267" s="86" t="s">
+        <v>462</v>
+      </c>
+      <c r="C267" s="119" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A268" s="121" t="s">
-        <v>470</v>
-      </c>
-      <c r="B268" s="122" t="s">
-        <v>477</v>
+      <c r="A268" s="118" t="s">
+        <v>459</v>
+      </c>
+      <c r="B268" s="86"/>
+      <c r="C268" s="119" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A269" s="121" t="s">
-        <v>470</v>
-      </c>
-      <c r="B269" s="122" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A270" s="121" t="s">
-        <v>470</v>
-      </c>
-      <c r="B270" s="122" t="s">
-        <v>479</v>
+      <c r="A269" s="1" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271" s="121" t="s">
-        <v>471</v>
-      </c>
-      <c r="B271" s="122" t="s">
-        <v>477</v>
+      <c r="A271" s="118" t="s">
+        <v>456</v>
+      </c>
+      <c r="B271" s="119" t="s">
+        <v>463</v>
+      </c>
+      <c r="C271" s="86" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272" s="121" t="s">
-        <v>471</v>
-      </c>
-      <c r="B272" s="122" t="s">
-        <v>478</v>
+      <c r="A272" s="118" t="s">
+        <v>457</v>
+      </c>
+      <c r="B272" s="119" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A273" s="121" t="s">
-        <v>471</v>
-      </c>
-      <c r="B273" s="122" t="s">
-        <v>479</v>
+      <c r="A273" s="118" t="s">
+        <v>457</v>
+      </c>
+      <c r="B273" s="119" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A274" s="121" t="s">
-        <v>472</v>
-      </c>
-      <c r="B274" s="122" t="s">
-        <v>477</v>
+      <c r="A274" s="118" t="s">
+        <v>457</v>
+      </c>
+      <c r="B274" s="119" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A275" s="121" t="s">
-        <v>472</v>
-      </c>
-      <c r="B275" s="122" t="s">
-        <v>478</v>
+      <c r="A275" s="118" t="s">
+        <v>458</v>
+      </c>
+      <c r="B275" s="119" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A276" s="121" t="s">
-        <v>472</v>
-      </c>
-      <c r="B276" s="122" t="s">
-        <v>479</v>
+      <c r="A276" s="118" t="s">
+        <v>458</v>
+      </c>
+      <c r="B276" s="119" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A277" s="1" t="s">
-        <v>481</v>
+      <c r="A277" s="118" t="s">
+        <v>458</v>
+      </c>
+      <c r="B277" s="119" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A278" s="118" t="s">
+        <v>459</v>
+      </c>
+      <c r="B278" s="119" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A279" s="121" t="s">
-        <v>469</v>
-      </c>
-      <c r="B279" s="122" t="s">
-        <v>476</v>
-      </c>
-      <c r="C279" s="86" t="s">
-        <v>473</v>
+      <c r="A279" s="118" t="s">
+        <v>459</v>
+      </c>
+      <c r="B279" s="119" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A280" s="121" t="s">
-        <v>470</v>
-      </c>
-      <c r="B280" s="122" t="s">
-        <v>477</v>
-      </c>
-      <c r="C280" s="122" t="s">
-        <v>474</v>
+      <c r="A280" s="118" t="s">
+        <v>459</v>
+      </c>
+      <c r="B280" s="119" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A281" s="121" t="s">
-        <v>470</v>
-      </c>
-      <c r="B281" s="122" t="s">
-        <v>478</v>
-      </c>
-      <c r="C281" s="122" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A282" s="121" t="s">
-        <v>470</v>
-      </c>
-      <c r="B282" s="122" t="s">
-        <v>479</v>
-      </c>
-      <c r="C282" s="122" t="s">
-        <v>474</v>
+      <c r="A281" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A283" s="121" t="s">
-        <v>471</v>
-      </c>
-      <c r="B283" s="122" t="s">
-        <v>477</v>
-      </c>
-      <c r="C283" s="122" t="s">
-        <v>475</v>
+      <c r="A283" s="118" t="s">
+        <v>456</v>
+      </c>
+      <c r="B283" s="119" t="s">
+        <v>463</v>
+      </c>
+      <c r="C283" s="86" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A284" s="121" t="s">
-        <v>471</v>
-      </c>
-      <c r="B284" s="122" t="s">
-        <v>478</v>
-      </c>
-      <c r="C284" s="122" t="s">
-        <v>475</v>
+      <c r="A284" s="118" t="s">
+        <v>457</v>
+      </c>
+      <c r="B284" s="119" t="s">
+        <v>464</v>
+      </c>
+      <c r="C284" s="119" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A285" s="121" t="s">
-        <v>471</v>
-      </c>
-      <c r="B285" s="122" t="s">
-        <v>479</v>
-      </c>
-      <c r="C285" s="122" t="s">
-        <v>475</v>
+      <c r="A285" s="118" t="s">
+        <v>457</v>
+      </c>
+      <c r="B285" s="119" t="s">
+        <v>465</v>
+      </c>
+      <c r="C285" s="119" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A286" s="121" t="s">
-        <v>472</v>
-      </c>
-      <c r="B286" s="122" t="s">
-        <v>477</v>
+      <c r="A286" s="118" t="s">
+        <v>457</v>
+      </c>
+      <c r="B286" s="119" t="s">
+        <v>466</v>
+      </c>
+      <c r="C286" s="119" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A287" s="121" t="s">
-        <v>472</v>
-      </c>
-      <c r="B287" s="122" t="s">
-        <v>478</v>
+      <c r="A287" s="118" t="s">
+        <v>458</v>
+      </c>
+      <c r="B287" s="119" t="s">
+        <v>464</v>
+      </c>
+      <c r="C287" s="119" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A288" s="121" t="s">
-        <v>472</v>
-      </c>
-      <c r="B288" s="122" t="s">
-        <v>479</v>
+      <c r="A288" s="118" t="s">
+        <v>458</v>
+      </c>
+      <c r="B288" s="119" t="s">
+        <v>465</v>
+      </c>
+      <c r="C288" s="119" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="289" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A289" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="290" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A290" s="108" t="s">
-        <v>483</v>
+      <c r="A289" s="118" t="s">
+        <v>458</v>
+      </c>
+      <c r="B289" s="119" t="s">
+        <v>466</v>
+      </c>
+      <c r="C289" s="119" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="290" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A290" s="118" t="s">
+        <v>459</v>
+      </c>
+      <c r="B290" s="119" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="291" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A291" s="118" t="s">
+        <v>459</v>
+      </c>
+      <c r="B291" s="119" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="292" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A292" s="3"/>
-      <c r="B292" s="5"/>
-      <c r="C292" s="6"/>
-      <c r="D292" s="3"/>
-      <c r="F292" s="3"/>
-      <c r="G292" s="5"/>
-      <c r="H292" s="3"/>
-      <c r="I292" s="3"/>
-      <c r="K292" s="3"/>
-      <c r="L292" s="3"/>
-      <c r="M292" s="3"/>
-      <c r="N292" s="3"/>
-      <c r="P292" s="5"/>
-      <c r="Q292" s="5"/>
-      <c r="R292" s="5"/>
-      <c r="S292" s="5"/>
-      <c r="U292" s="5"/>
+      <c r="A292" s="118" t="s">
+        <v>459</v>
+      </c>
+      <c r="B292" s="119" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="293" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C293" s="9"/>
-      <c r="P293" s="1"/>
-      <c r="U293" s="1"/>
-      <c r="V293" s="2"/>
-    </row>
-    <row r="294" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A294" s="111" t="s">
-        <v>405</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="295" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A295" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C295" s="108" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="296" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="C296" s="108" t="s">
-        <v>408</v>
-      </c>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="294" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A294" s="105" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="296" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A296" s="3"/>
+      <c r="B296" s="5"/>
+      <c r="C296" s="6"/>
+      <c r="D296" s="3"/>
+      <c r="F296" s="3"/>
+      <c r="G296" s="5"/>
+      <c r="H296" s="3"/>
+      <c r="I296" s="3"/>
+      <c r="K296" s="3"/>
+      <c r="L296" s="3"/>
+      <c r="M296" s="3"/>
+      <c r="N296" s="3"/>
+      <c r="P296" s="5"/>
+      <c r="Q296" s="5"/>
+      <c r="R296" s="5"/>
+      <c r="S296" s="5"/>
+      <c r="U296" s="5"/>
     </row>
     <row r="297" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A297" s="42" t="s">
+      <c r="A297" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C297" s="9"/>
+      <c r="P297" s="1"/>
+      <c r="U297" s="1"/>
+      <c r="V297" s="2"/>
+    </row>
+    <row r="298" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A298" s="108" t="s">
+        <v>392</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="299" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A299" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C299" s="105" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="300" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C300" s="105" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="301" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A301" s="42" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="298" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A298" s="2" t="s">
+    <row r="302" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A302" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="299" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A299" s="116" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="300" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="C300" s="108" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="301" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A301" s="117" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="302" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C302" s="108" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="304" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A304" s="3"/>
-      <c r="B304" s="5"/>
-      <c r="C304" s="6"/>
-      <c r="D304" s="3"/>
-      <c r="F304" s="3"/>
-      <c r="G304" s="5"/>
-      <c r="H304" s="3"/>
-      <c r="I304" s="3"/>
-      <c r="K304" s="3"/>
-      <c r="L304" s="3"/>
-      <c r="M304" s="3"/>
-      <c r="N304" s="3"/>
-      <c r="P304" s="5"/>
-      <c r="Q304" s="5"/>
-      <c r="R304" s="5"/>
-      <c r="S304" s="5"/>
-      <c r="U304" s="5"/>
-    </row>
-    <row r="305" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A305" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C305" s="9"/>
-      <c r="P305" s="1"/>
-      <c r="U305" s="1"/>
-      <c r="V305" s="2"/>
-    </row>
-    <row r="306" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A306" s="42" t="s">
-        <v>414</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="307" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A307" s="108" t="s">
-        <v>415</v>
-      </c>
-      <c r="B307" s="108" t="s">
-        <v>449</v>
-      </c>
-      <c r="C307" s="108" t="s">
-        <v>459</v>
+    <row r="303" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A303" s="113" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="304" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C304" s="105" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="305" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A305" s="114" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="306" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C306" s="105" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="308" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A308" s="42" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="309" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="B309" s="108" t="s">
-        <v>460</v>
-      </c>
-      <c r="C309" s="108" t="s">
-        <v>417</v>
-      </c>
+      <c r="A308" s="3"/>
+      <c r="B308" s="5"/>
+      <c r="C308" s="6"/>
+      <c r="D308" s="3"/>
+      <c r="F308" s="3"/>
+      <c r="G308" s="5"/>
+      <c r="H308" s="3"/>
+      <c r="I308" s="3"/>
+      <c r="K308" s="3"/>
+      <c r="L308" s="3"/>
+      <c r="M308" s="3"/>
+      <c r="N308" s="3"/>
+      <c r="P308" s="5"/>
+      <c r="Q308" s="5"/>
+      <c r="R308" s="5"/>
+      <c r="S308" s="5"/>
+      <c r="U308" s="5"/>
+    </row>
+    <row r="309" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A309" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C309" s="9"/>
+      <c r="P309" s="1"/>
+      <c r="U309" s="1"/>
+      <c r="V309" s="2"/>
     </row>
     <row r="310" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A310" s="42" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="311" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C311" s="108" t="s">
-        <v>419</v>
+        <v>401</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="311" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="A311" s="105" t="s">
+        <v>402</v>
+      </c>
+      <c r="B311" s="105" t="s">
+        <v>436</v>
+      </c>
+      <c r="C311" s="105" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="312" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A312" s="42" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="313" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="C313" s="108" t="s">
-        <v>421</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="313" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="B313" s="105" t="s">
+        <v>447</v>
+      </c>
+      <c r="C313" s="105" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="314" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A314" s="42" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="315" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C315" s="108" t="s">
-        <v>423</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="315" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C315" s="105" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="316" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A316" s="42" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="317" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="C317" s="108" t="s">
-        <v>425</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="317" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="C317" s="105" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="318" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A318" s="42" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="319" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C319" s="105" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="320" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A320" s="42" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="321" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C321" s="105" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="322" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A322" s="42" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="323" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A323" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="324" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A324" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="325" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A325" s="113" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="326" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C326" s="105" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="327" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A327" s="114" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="328" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C328" s="105" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="330" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A330" s="3"/>
+      <c r="B330" s="5"/>
+      <c r="C330" s="6"/>
+      <c r="D330" s="3"/>
+      <c r="F330" s="3"/>
+      <c r="G330" s="5"/>
+      <c r="H330" s="3"/>
+      <c r="I330" s="3"/>
+      <c r="K330" s="3"/>
+      <c r="L330" s="3"/>
+      <c r="M330" s="3"/>
+      <c r="N330" s="3"/>
+      <c r="P330" s="5"/>
+      <c r="Q330" s="5"/>
+      <c r="R330" s="5"/>
+      <c r="S330" s="5"/>
+      <c r="U330" s="5"/>
+    </row>
+    <row r="331" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A331" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C331" s="9"/>
+      <c r="P331" s="1"/>
+      <c r="U331" s="1"/>
+      <c r="V331" s="2"/>
+    </row>
+    <row r="332" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A332" s="42" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="333" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A333" s="105" t="s">
+        <v>421</v>
+      </c>
+      <c r="C333" s="105" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="334" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A334" s="108" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="335" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B335" s="105" t="s">
+        <v>449</v>
+      </c>
+      <c r="C335" s="105" t="s">
+        <v>424</v>
+      </c>
+      <c r="D335" s="2"/>
+    </row>
+    <row r="336" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A336" s="113" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="337" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="C337" s="105" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="338" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A338" s="114" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="319" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A319" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="320" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A320" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="321" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A321" s="116" t="s">
+    <row r="339" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C339" s="105" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="322" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C322" s="108" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="323" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A323" s="117" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="324" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="C324" s="108" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="326" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A326" s="3"/>
-      <c r="B326" s="5"/>
-      <c r="C326" s="6"/>
-      <c r="D326" s="3"/>
-      <c r="F326" s="3"/>
-      <c r="G326" s="5"/>
-      <c r="H326" s="3"/>
-      <c r="I326" s="3"/>
-      <c r="K326" s="3"/>
-      <c r="L326" s="3"/>
-      <c r="M326" s="3"/>
-      <c r="N326" s="3"/>
-      <c r="P326" s="5"/>
-      <c r="Q326" s="5"/>
-      <c r="R326" s="5"/>
-      <c r="S326" s="5"/>
-      <c r="U326" s="5"/>
-    </row>
-    <row r="327" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A327" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C327" s="9"/>
-      <c r="P327" s="1"/>
-      <c r="U327" s="1"/>
-      <c r="V327" s="2"/>
-    </row>
-    <row r="328" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A328" s="42" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="329" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A329" s="108" t="s">
-        <v>434</v>
-      </c>
-      <c r="C329" s="108" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="330" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A330" s="111" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="331" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="B331" s="108" t="s">
-        <v>462</v>
-      </c>
-      <c r="C331" s="108" t="s">
-        <v>437</v>
-      </c>
-      <c r="D331" s="2"/>
-    </row>
-    <row r="332" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A332" s="116" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="333" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="C333" s="108" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="334" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A334" s="117" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="335" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="C335" s="108" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="337" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A337" s="3"/>
-      <c r="B337" s="5"/>
-      <c r="C337" s="6"/>
-      <c r="D337" s="3"/>
-      <c r="F337" s="3"/>
-      <c r="G337" s="5"/>
-      <c r="H337" s="3"/>
-      <c r="I337" s="3"/>
-      <c r="K337" s="3"/>
-      <c r="L337" s="3"/>
-      <c r="M337" s="3"/>
-      <c r="N337" s="3"/>
-      <c r="P337" s="5"/>
-      <c r="Q337" s="5"/>
-      <c r="R337" s="5"/>
-      <c r="S337" s="5"/>
-      <c r="U337" s="5"/>
-    </row>
-    <row r="338" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A338" s="1" t="s">
+    <row r="341" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A341" s="3"/>
+      <c r="B341" s="5"/>
+      <c r="C341" s="6"/>
+      <c r="D341" s="3"/>
+      <c r="F341" s="3"/>
+      <c r="G341" s="5"/>
+      <c r="H341" s="3"/>
+      <c r="I341" s="3"/>
+      <c r="K341" s="3"/>
+      <c r="L341" s="3"/>
+      <c r="M341" s="3"/>
+      <c r="N341" s="3"/>
+      <c r="P341" s="5"/>
+      <c r="Q341" s="5"/>
+      <c r="R341" s="5"/>
+      <c r="S341" s="5"/>
+      <c r="U341" s="5"/>
+    </row>
+    <row r="342" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A342" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C342" s="9"/>
+      <c r="P342" s="1"/>
+      <c r="U342" s="1"/>
+      <c r="V342" s="2"/>
+    </row>
+    <row r="343" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A343" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="B343" s="18"/>
+      <c r="C343" s="43"/>
+      <c r="D343" s="35"/>
+    </row>
+    <row r="344" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A344" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B344" s="14"/>
+      <c r="C344" s="46"/>
+      <c r="D344" s="31"/>
+    </row>
+    <row r="345" spans="1:22" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A345" s="133" t="s">
+        <v>479</v>
+      </c>
+      <c r="B345" s="134" t="s">
+        <v>585</v>
+      </c>
+      <c r="C345" s="138" t="s">
+        <v>572</v>
+      </c>
+      <c r="D345" s="135"/>
+    </row>
+    <row r="346" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A346" s="127" t="s">
+        <v>482</v>
+      </c>
+      <c r="B346" s="128"/>
+      <c r="C346" s="129" t="s">
+        <v>481</v>
+      </c>
+      <c r="D346" s="130"/>
+    </row>
+    <row r="347" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A347" s="49" t="s">
+        <v>483</v>
+      </c>
+      <c r="D347" s="27" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="348" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="A348" s="54" t="s">
+        <v>511</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C348" s="126" t="s">
+        <v>571</v>
+      </c>
+      <c r="D348" s="27"/>
+    </row>
+    <row r="349" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A349" s="38"/>
+      <c r="B349" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D349" s="27" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="350" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A350" s="49" t="s">
+        <v>484</v>
+      </c>
+      <c r="D350" s="27" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="351" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A351" s="126" t="s">
+        <v>519</v>
+      </c>
+      <c r="B351" s="126" t="s">
+        <v>516</v>
+      </c>
+      <c r="C351" s="126" t="s">
+        <v>517</v>
+      </c>
+      <c r="D351" s="27"/>
+    </row>
+    <row r="352" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A352" s="38"/>
+      <c r="B352" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C352" s="126" t="s">
+        <v>485</v>
+      </c>
+      <c r="D352" s="27"/>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A353" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="D353" s="27" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A354" s="125"/>
+      <c r="B354" s="125" t="s">
+        <v>521</v>
+      </c>
+      <c r="C354" s="125" t="s">
+        <v>522</v>
+      </c>
+      <c r="D354" s="31"/>
+    </row>
+    <row r="355" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A355" s="127" t="s">
+        <v>487</v>
+      </c>
+      <c r="B355" s="128"/>
+      <c r="C355" s="129" t="s">
+        <v>525</v>
+      </c>
+      <c r="D355" s="130" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A356" s="127" t="s">
+        <v>488</v>
+      </c>
+      <c r="B356" s="128"/>
+      <c r="C356" s="128"/>
+      <c r="D356" s="131" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A357" s="49" t="s">
+        <v>526</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C357" s="126" t="s">
+        <v>529</v>
+      </c>
+      <c r="D357" s="27"/>
+    </row>
+    <row r="358" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A358" s="132" t="s">
+        <v>528</v>
+      </c>
+      <c r="B358" s="14" t="s">
+        <v>531</v>
+      </c>
+      <c r="C358" s="125" t="s">
+        <v>532</v>
+      </c>
+      <c r="D358" s="31" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A359" s="136" t="s">
+        <v>489</v>
+      </c>
+      <c r="B359" s="128"/>
+      <c r="C359" s="129"/>
+      <c r="D359" s="130" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A360" s="49" t="s">
+        <v>535</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C360" s="126" t="s">
+        <v>536</v>
+      </c>
+      <c r="D360" s="27"/>
+    </row>
+    <row r="361" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A361" s="132" t="s">
+        <v>534</v>
+      </c>
+      <c r="B361" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="C361" s="125" t="s">
+        <v>537</v>
+      </c>
+      <c r="D361" s="31"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A362" s="136" t="s">
         <v>490</v>
       </c>
-      <c r="C338" s="9"/>
-      <c r="P338" s="1"/>
-      <c r="U338" s="1"/>
-      <c r="V338" s="2"/>
-    </row>
-    <row r="339" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A339" s="37" t="s">
+      <c r="B362" s="128"/>
+      <c r="C362" s="129"/>
+      <c r="D362" s="130" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A363" s="49" t="s">
+        <v>540</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C363" s="126" t="s">
+        <v>542</v>
+      </c>
+      <c r="D363" s="27"/>
+    </row>
+    <row r="364" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A364" s="137" t="s">
+        <v>544</v>
+      </c>
+      <c r="B364" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="C364" s="125" t="s">
+        <v>546</v>
+      </c>
+      <c r="D364" s="31" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A365" s="136" t="s">
         <v>491</v>
       </c>
-      <c r="B339" s="18"/>
-      <c r="C339" s="43"/>
-      <c r="D339" s="35"/>
-    </row>
-    <row r="340" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A340" s="55" t="s">
-        <v>493</v>
-      </c>
-      <c r="B340" s="14"/>
-      <c r="C340" s="46"/>
-      <c r="D340" s="31"/>
-    </row>
-    <row r="341" spans="1:22" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A341" s="136" t="s">
-        <v>492</v>
-      </c>
-      <c r="B341" s="137" t="s">
-        <v>598</v>
-      </c>
-      <c r="C341" s="141" t="s">
-        <v>585</v>
-      </c>
-      <c r="D341" s="138"/>
-    </row>
-    <row r="342" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A342" s="130" t="s">
-        <v>495</v>
-      </c>
-      <c r="B342" s="131"/>
-      <c r="C342" s="132" t="s">
-        <v>494</v>
-      </c>
-      <c r="D342" s="133"/>
-    </row>
-    <row r="343" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A343" s="49" t="s">
-        <v>496</v>
-      </c>
-      <c r="D343" s="27" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="344" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="A344" s="54" t="s">
-        <v>524</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C344" s="129" t="s">
-        <v>584</v>
-      </c>
-      <c r="D344" s="27"/>
-    </row>
-    <row r="345" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A345" s="38"/>
-      <c r="B345" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D345" s="27" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="346" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A346" s="49" t="s">
-        <v>497</v>
-      </c>
-      <c r="D346" s="27" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="347" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A347" s="129" t="s">
-        <v>532</v>
-      </c>
-      <c r="B347" s="129" t="s">
-        <v>529</v>
-      </c>
-      <c r="C347" s="129" t="s">
-        <v>530</v>
-      </c>
-      <c r="D347" s="27"/>
-    </row>
-    <row r="348" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A348" s="38"/>
-      <c r="B348" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C348" s="129" t="s">
-        <v>498</v>
-      </c>
-      <c r="D348" s="27"/>
-    </row>
-    <row r="349" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A349" s="49" t="s">
-        <v>499</v>
-      </c>
-      <c r="D349" s="27" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="350" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A350" s="128"/>
-      <c r="B350" s="128" t="s">
-        <v>534</v>
-      </c>
-      <c r="C350" s="128" t="s">
-        <v>535</v>
-      </c>
-      <c r="D350" s="31"/>
-    </row>
-    <row r="351" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A351" s="130" t="s">
-        <v>500</v>
-      </c>
-      <c r="B351" s="131"/>
-      <c r="C351" s="132" t="s">
-        <v>538</v>
-      </c>
-      <c r="D351" s="133" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="352" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A352" s="130" t="s">
-        <v>501</v>
-      </c>
-      <c r="B352" s="131"/>
-      <c r="C352" s="131"/>
-      <c r="D352" s="134" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A353" s="49" t="s">
-        <v>539</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C353" s="129" t="s">
-        <v>542</v>
-      </c>
-      <c r="D353" s="27"/>
-    </row>
-    <row r="354" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A354" s="135" t="s">
-        <v>541</v>
-      </c>
-      <c r="B354" s="14" t="s">
-        <v>544</v>
-      </c>
-      <c r="C354" s="128" t="s">
-        <v>545</v>
-      </c>
-      <c r="D354" s="31" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A355" s="139" t="s">
-        <v>502</v>
-      </c>
-      <c r="B355" s="131"/>
-      <c r="C355" s="132"/>
-      <c r="D355" s="133" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A356" s="49" t="s">
-        <v>548</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C356" s="129" t="s">
+      <c r="B365" s="128"/>
+      <c r="C365" s="129" t="s">
         <v>549</v>
       </c>
-      <c r="D356" s="27"/>
-    </row>
-    <row r="357" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A357" s="135" t="s">
+      <c r="D365" s="130" t="s">
         <v>547</v>
-      </c>
-      <c r="B357" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="C357" s="128" t="s">
-        <v>550</v>
-      </c>
-      <c r="D357" s="31"/>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A358" s="139" t="s">
-        <v>503</v>
-      </c>
-      <c r="B358" s="131"/>
-      <c r="C358" s="132"/>
-      <c r="D358" s="133" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A359" s="49" t="s">
-        <v>553</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C359" s="129" t="s">
-        <v>555</v>
-      </c>
-      <c r="D359" s="27"/>
-    </row>
-    <row r="360" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A360" s="140" t="s">
-        <v>557</v>
-      </c>
-      <c r="B360" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="C360" s="128" t="s">
-        <v>559</v>
-      </c>
-      <c r="D360" s="31" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A361" s="139" t="s">
-        <v>504</v>
-      </c>
-      <c r="B361" s="131"/>
-      <c r="C361" s="132" t="s">
-        <v>562</v>
-      </c>
-      <c r="D361" s="133" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A362" s="49" t="s">
-        <v>563</v>
-      </c>
-      <c r="C362" s="129"/>
-      <c r="D362" s="27"/>
-    </row>
-    <row r="363" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A363" s="144" t="s">
-        <v>565</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C363" s="129" t="s">
-        <v>564</v>
-      </c>
-      <c r="D363" s="27"/>
-    </row>
-    <row r="364" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A364" s="62" t="s">
-        <v>505</v>
-      </c>
-      <c r="B364" s="67" t="s">
-        <v>597</v>
-      </c>
-      <c r="C364" s="142" t="s">
-        <v>592</v>
-      </c>
-      <c r="D364" s="69" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A365" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="B365" s="129" t="s">
-        <v>568</v>
-      </c>
-      <c r="C365" s="129" t="s">
-        <v>507</v>
-      </c>
-      <c r="D365" s="27" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" s="49" t="s">
-        <v>569</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="C366" s="126"/>
       <c r="D366" s="27"/>
     </row>
-    <row r="367" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A367" s="38"/>
-      <c r="B367" s="129" t="s">
-        <v>594</v>
-      </c>
-      <c r="C367" s="129" t="s">
-        <v>508</v>
+    <row r="367" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A367" s="141" t="s">
+        <v>552</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C367" s="126" t="s">
+        <v>551</v>
       </c>
       <c r="D367" s="27"/>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A368" s="49" t="s">
-        <v>570</v>
-      </c>
-      <c r="D368" s="27"/>
-    </row>
-    <row r="369" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A369" s="38"/>
-      <c r="B369" s="129" t="s">
-        <v>596</v>
-      </c>
-      <c r="C369" s="129" t="s">
-        <v>509</v>
-      </c>
-      <c r="D369" s="27"/>
-    </row>
-    <row r="370" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A370" s="38"/>
-      <c r="B370" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="C370" s="129" t="s">
-        <v>510</v>
+    <row r="368" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A368" s="62" t="s">
+        <v>492</v>
+      </c>
+      <c r="B368" s="67" t="s">
+        <v>584</v>
+      </c>
+      <c r="C368" s="139" t="s">
+        <v>579</v>
+      </c>
+      <c r="D368" s="69" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A369" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="B369" s="126" t="s">
+        <v>555</v>
+      </c>
+      <c r="C369" s="126" t="s">
+        <v>494</v>
+      </c>
+      <c r="D369" s="27" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A370" s="49" t="s">
+        <v>556</v>
       </c>
       <c r="D370" s="27"/>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A371" s="49" t="s">
-        <v>571</v>
-      </c>
-      <c r="D371" s="27" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A372" s="38"/>
-      <c r="C372" s="129" t="s">
-        <v>511</v>
+    <row r="371" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A371" s="38"/>
+      <c r="B371" s="126" t="s">
+        <v>581</v>
+      </c>
+      <c r="C371" s="126" t="s">
+        <v>495</v>
+      </c>
+      <c r="D371" s="27"/>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A372" s="49" t="s">
+        <v>557</v>
       </c>
       <c r="D372" s="27"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A373" s="49" t="s">
-        <v>572</v>
-      </c>
-      <c r="D373" s="27" t="s">
-        <v>574</v>
-      </c>
+    <row r="373" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A373" s="38"/>
+      <c r="B373" s="126" t="s">
+        <v>583</v>
+      </c>
+      <c r="C373" s="126" t="s">
+        <v>496</v>
+      </c>
+      <c r="D373" s="27"/>
     </row>
     <row r="374" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A374" s="38"/>
-      <c r="B374" s="129" t="s">
-        <v>595</v>
-      </c>
-      <c r="C374" s="129" t="s">
-        <v>512</v>
+      <c r="B374" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C374" s="126" t="s">
+        <v>497</v>
       </c>
       <c r="D374" s="27"/>
     </row>
-    <row r="375" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A375" s="38"/>
-      <c r="C375" s="129" t="s">
-        <v>575</v>
-      </c>
-      <c r="D375" s="27"/>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A376" s="49" t="s">
-        <v>513</v>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A375" s="49" t="s">
+        <v>558</v>
+      </c>
+      <c r="D375" s="27" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A376" s="38"/>
+      <c r="C376" s="126" t="s">
+        <v>498</v>
       </c>
       <c r="D376" s="27"/>
     </row>
-    <row r="377" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A377" s="38"/>
-      <c r="C377" s="129" t="s">
-        <v>576</v>
-      </c>
-      <c r="D377" s="27"/>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A378" s="49" t="s">
-        <v>514</v>
-      </c>
-      <c r="D378" s="27" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A377" s="49" t="s">
+        <v>559</v>
+      </c>
+      <c r="D377" s="27" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A378" s="38"/>
+      <c r="B378" s="126" t="s">
+        <v>582</v>
+      </c>
+      <c r="C378" s="126" t="s">
+        <v>499</v>
+      </c>
+      <c r="D378" s="27"/>
+    </row>
+    <row r="379" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A379" s="38"/>
-      <c r="C379" s="129" t="s">
-        <v>517</v>
+      <c r="C379" s="126" t="s">
+        <v>562</v>
       </c>
       <c r="D379" s="27"/>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A380" s="143" t="s">
-        <v>515</v>
-      </c>
-      <c r="D380" s="27" t="s">
-        <v>578</v>
-      </c>
+      <c r="A380" s="49" t="s">
+        <v>500</v>
+      </c>
+      <c r="D380" s="27"/>
     </row>
     <row r="381" spans="1:4" ht="116" x14ac:dyDescent="0.35">
       <c r="A381" s="38"/>
-      <c r="B381" s="129" t="s">
-        <v>579</v>
-      </c>
-      <c r="C381" s="129" t="s">
-        <v>516</v>
+      <c r="C381" s="126" t="s">
+        <v>563</v>
       </c>
       <c r="D381" s="27"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" s="49" t="s">
-        <v>580</v>
-      </c>
-      <c r="C382" s="129" t="s">
-        <v>581</v>
-      </c>
-      <c r="D382" s="27"/>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A383" s="49" t="s">
-        <v>518</v>
+        <v>501</v>
+      </c>
+      <c r="D382" s="27" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A383" s="38"/>
+      <c r="C383" s="126" t="s">
+        <v>504</v>
       </c>
       <c r="D383" s="27"/>
     </row>
-    <row r="384" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A384" s="38"/>
-      <c r="C384" s="129" t="s">
-        <v>519</v>
-      </c>
-      <c r="D384" s="27"/>
-    </row>
-    <row r="385" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A385" s="49" t="s">
-        <v>520</v>
-      </c>
-      <c r="D385" s="27" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="386" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A386" s="39"/>
-      <c r="B386" s="128" t="s">
-        <v>583</v>
-      </c>
-      <c r="C386" s="128" t="s">
-        <v>521</v>
-      </c>
-      <c r="D386" s="31"/>
-    </row>
-    <row r="388" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A388" s="3"/>
-      <c r="B388" s="5"/>
-      <c r="C388" s="6"/>
-      <c r="D388" s="3"/>
-      <c r="F388" s="3"/>
-      <c r="G388" s="5"/>
-      <c r="H388" s="3"/>
-      <c r="I388" s="3"/>
-      <c r="K388" s="3"/>
-      <c r="L388" s="3"/>
-      <c r="M388" s="3"/>
-      <c r="N388" s="3"/>
-      <c r="P388" s="5"/>
-      <c r="Q388" s="5"/>
-      <c r="R388" s="5"/>
-      <c r="S388" s="5"/>
-      <c r="U388" s="5"/>
-    </row>
-    <row r="389" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A389" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C389" s="145" t="s">
-        <v>605</v>
-      </c>
-      <c r="P389" s="1"/>
-      <c r="U389" s="1"/>
-      <c r="V389" s="2"/>
-    </row>
-    <row r="390" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A390" s="107" t="s">
-        <v>606</v>
-      </c>
-      <c r="D390" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="391" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C391" s="145" t="s">
-        <v>600</v>
-      </c>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A384" s="140" t="s">
+        <v>502</v>
+      </c>
+      <c r="D384" s="27" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="385" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A385" s="38"/>
+      <c r="B385" s="126" t="s">
+        <v>566</v>
+      </c>
+      <c r="C385" s="126" t="s">
+        <v>503</v>
+      </c>
+      <c r="D385" s="27"/>
+    </row>
+    <row r="386" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A386" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="C386" s="126" t="s">
+        <v>568</v>
+      </c>
+      <c r="D386" s="27"/>
+    </row>
+    <row r="387" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A387" s="49" t="s">
+        <v>505</v>
+      </c>
+      <c r="D387" s="27"/>
+    </row>
+    <row r="388" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A388" s="38"/>
+      <c r="C388" s="126" t="s">
+        <v>506</v>
+      </c>
+      <c r="D388" s="27"/>
+    </row>
+    <row r="389" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A389" s="49" t="s">
+        <v>507</v>
+      </c>
+      <c r="D389" s="27" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="390" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A390" s="39"/>
+      <c r="B390" s="125" t="s">
+        <v>570</v>
+      </c>
+      <c r="C390" s="125" t="s">
+        <v>508</v>
+      </c>
+      <c r="D390" s="31"/>
     </row>
     <row r="392" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A392" s="42" t="s">
-        <v>601</v>
-      </c>
-      <c r="D392" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="393" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A393" s="152"/>
-      <c r="B393" s="145"/>
-      <c r="C393" s="145" t="s">
-        <v>633</v>
-      </c>
+      <c r="A392" s="3"/>
+      <c r="B392" s="5"/>
+      <c r="C392" s="6"/>
+      <c r="D392" s="3"/>
+      <c r="F392" s="3"/>
+      <c r="G392" s="5"/>
+      <c r="H392" s="3"/>
+      <c r="I392" s="3"/>
+      <c r="K392" s="3"/>
+      <c r="L392" s="3"/>
+      <c r="M392" s="3"/>
+      <c r="N392" s="3"/>
+      <c r="P392" s="5"/>
+      <c r="Q392" s="5"/>
+      <c r="R392" s="5"/>
+      <c r="S392" s="5"/>
+      <c r="U392" s="5"/>
+    </row>
+    <row r="393" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A393" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C393" s="142" t="s">
+        <v>592</v>
+      </c>
+      <c r="P393" s="1"/>
+      <c r="U393" s="1"/>
+      <c r="V393" s="2"/>
     </row>
     <row r="394" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A394" s="107" t="s">
-        <v>602</v>
+      <c r="A394" s="104" t="s">
+        <v>593</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="395" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="C395" s="145" t="s">
-        <v>635</v>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="395" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C395" s="142" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="396" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A396" s="42" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="397" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="C397" s="145" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="398" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A398" s="42" t="s">
-        <v>604</v>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="397" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="B397" s="142"/>
+      <c r="C397" s="142" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="398" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A398" s="104" t="s">
+        <v>589</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="399" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A399" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="399" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="C399" s="142" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="400" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A400" s="42" t="s">
+        <v>590</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="401" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+      <c r="C401" s="142" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="402" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A402" s="42" t="s">
+        <v>591</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="403" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A403" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="401" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A401" s="3"/>
-      <c r="B401" s="5"/>
-      <c r="C401" s="6"/>
-      <c r="D401" s="3"/>
-      <c r="F401" s="3"/>
-      <c r="G401" s="5"/>
-      <c r="H401" s="3"/>
-      <c r="I401" s="3"/>
-      <c r="K401" s="3"/>
-      <c r="L401" s="3"/>
-      <c r="M401" s="3"/>
-      <c r="N401" s="3"/>
-      <c r="P401" s="5"/>
-      <c r="Q401" s="5"/>
-      <c r="R401" s="5"/>
-      <c r="S401" s="5"/>
-      <c r="U401" s="5"/>
-    </row>
-    <row r="402" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A402" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C402" s="145" t="s">
-        <v>623</v>
-      </c>
-      <c r="P402" s="1"/>
-      <c r="U402" s="1"/>
-      <c r="V402" s="2"/>
-    </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A403" s="23" t="s">
-        <v>607</v>
-      </c>
-      <c r="B403" s="18"/>
-      <c r="C403" s="47"/>
-      <c r="D403" s="35" t="s">
+    <row r="405" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A405" s="3"/>
+      <c r="B405" s="5"/>
+      <c r="C405" s="6"/>
+      <c r="D405" s="3"/>
+      <c r="F405" s="3"/>
+      <c r="G405" s="5"/>
+      <c r="H405" s="3"/>
+      <c r="I405" s="3"/>
+      <c r="K405" s="3"/>
+      <c r="L405" s="3"/>
+      <c r="M405" s="3"/>
+      <c r="N405" s="3"/>
+      <c r="P405" s="5"/>
+      <c r="Q405" s="5"/>
+      <c r="R405" s="5"/>
+      <c r="S405" s="5"/>
+      <c r="U405" s="5"/>
+    </row>
+    <row r="406" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A406" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C406" s="142" t="s">
+        <v>610</v>
+      </c>
+      <c r="P406" s="1"/>
+      <c r="U406" s="1"/>
+      <c r="V406" s="2"/>
+    </row>
+    <row r="407" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A407" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="B407" s="18"/>
+      <c r="C407" s="47"/>
+      <c r="D407" s="35" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="404" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A404" s="39"/>
-      <c r="B404" s="146" t="s">
-        <v>639</v>
-      </c>
-      <c r="C404" s="146" t="s">
-        <v>640</v>
-      </c>
-      <c r="D404" s="31"/>
-    </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A405" s="23" t="s">
-        <v>608</v>
-      </c>
-      <c r="B405" s="18"/>
-      <c r="C405" s="43"/>
-      <c r="D405" s="35" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="406" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A406" s="38"/>
-      <c r="C406" s="145" t="s">
-        <v>609</v>
-      </c>
-      <c r="D406" s="147" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="407" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A407" s="38"/>
-      <c r="C407" s="145" t="s">
-        <v>610</v>
-      </c>
-      <c r="D407" s="148" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="408" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A408" s="38"/>
-      <c r="C408" s="145" t="s">
-        <v>611</v>
-      </c>
-      <c r="D408" s="148" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="409" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A409" s="38"/>
-      <c r="C409" s="145" t="s">
-        <v>613</v>
-      </c>
-      <c r="D409" s="27"/>
+    <row r="408" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A408" s="39"/>
+      <c r="B408" s="143" t="s">
+        <v>626</v>
+      </c>
+      <c r="C408" s="143" t="s">
+        <v>627</v>
+      </c>
+      <c r="D408" s="31"/>
+    </row>
+    <row r="409" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A409" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="B409" s="18"/>
+      <c r="C409" s="43"/>
+      <c r="D409" s="35" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="410" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A410" s="38"/>
-      <c r="C410" s="145" t="s">
+      <c r="C410" s="142" t="s">
+        <v>596</v>
+      </c>
+      <c r="D410" s="144" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="411" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A411" s="38"/>
+      <c r="C411" s="142" t="s">
+        <v>597</v>
+      </c>
+      <c r="D411" s="145" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="412" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A412" s="38"/>
+      <c r="C412" s="142" t="s">
+        <v>598</v>
+      </c>
+      <c r="D412" s="145" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="413" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A413" s="38"/>
+      <c r="C413" s="142" t="s">
+        <v>600</v>
+      </c>
+      <c r="D413" s="27"/>
+    </row>
+    <row r="414" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A414" s="38"/>
+      <c r="C414" s="142" t="s">
+        <v>628</v>
+      </c>
+      <c r="D414" s="27"/>
+    </row>
+    <row r="415" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A415" s="38"/>
+      <c r="C415" s="142" t="s">
+        <v>599</v>
+      </c>
+      <c r="D415" s="27"/>
+    </row>
+    <row r="416" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A416" s="39"/>
+      <c r="B416" s="14"/>
+      <c r="C416" s="143" t="s">
+        <v>629</v>
+      </c>
+      <c r="D416" s="31"/>
+    </row>
+    <row r="417" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A417" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="B417" s="18"/>
+      <c r="C417" s="43"/>
+      <c r="D417" s="35" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="418" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A418" s="38"/>
+      <c r="B418" s="142" t="s">
+        <v>633</v>
+      </c>
+      <c r="C418" s="142" t="s">
+        <v>634</v>
+      </c>
+      <c r="D418" s="27"/>
+    </row>
+    <row r="419" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="A419" s="38"/>
+      <c r="B419" s="142" t="s">
+        <v>637</v>
+      </c>
+      <c r="C419" s="142" t="s">
+        <v>636</v>
+      </c>
+      <c r="D419" s="27" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="420" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A420" s="38"/>
+      <c r="B420" s="142" t="s">
+        <v>640</v>
+      </c>
+      <c r="C420" s="142" t="s">
+        <v>639</v>
+      </c>
+      <c r="D420" s="27" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="421" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A421" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="B421" s="142" t="s">
+        <v>605</v>
+      </c>
+      <c r="C421" s="142" t="s">
+        <v>642</v>
+      </c>
+      <c r="D421" s="27" t="s">
         <v>641</v>
       </c>
-      <c r="D410" s="27"/>
-    </row>
-    <row r="411" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A411" s="38"/>
-      <c r="C411" s="145" t="s">
+    </row>
+    <row r="422" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A422" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="B422" s="143" t="s">
+        <v>607</v>
+      </c>
+      <c r="C422" s="143" t="s">
+        <v>603</v>
+      </c>
+      <c r="D422" s="31"/>
+    </row>
+    <row r="423" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A423" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="B423" s="18"/>
+      <c r="C423" s="43"/>
+      <c r="D423" s="35" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="424" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A424" s="39"/>
+      <c r="B424" s="14"/>
+      <c r="C424" s="143" t="s">
+        <v>644</v>
+      </c>
+      <c r="D424" s="31"/>
+    </row>
+    <row r="425" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A425" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="B425" s="18"/>
+      <c r="C425" s="43"/>
+      <c r="D425" s="35" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="426" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A426" s="39"/>
+      <c r="B426" s="14"/>
+      <c r="C426" s="143" t="s">
+        <v>609</v>
+      </c>
+      <c r="D426" s="31"/>
+    </row>
+    <row r="428" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A428" s="3"/>
+      <c r="B428" s="5"/>
+      <c r="C428" s="6"/>
+      <c r="D428" s="3"/>
+      <c r="F428" s="3"/>
+      <c r="G428" s="5"/>
+      <c r="H428" s="3"/>
+      <c r="I428" s="3"/>
+      <c r="K428" s="3"/>
+      <c r="L428" s="3"/>
+      <c r="M428" s="3"/>
+      <c r="N428" s="3"/>
+      <c r="P428" s="5"/>
+      <c r="Q428" s="5"/>
+      <c r="R428" s="5"/>
+      <c r="S428" s="5"/>
+      <c r="U428" s="5"/>
+    </row>
+    <row r="429" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A429" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="D411" s="27"/>
-    </row>
-    <row r="412" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A412" s="39"/>
-      <c r="B412" s="153"/>
-      <c r="C412" s="146" t="s">
-        <v>642</v>
-      </c>
-      <c r="D412" s="31"/>
-    </row>
-    <row r="413" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A413" s="23" t="s">
+      <c r="C429" s="142" t="s">
+        <v>613</v>
+      </c>
+      <c r="P429" s="1"/>
+      <c r="U429" s="1"/>
+      <c r="V429" s="2"/>
+    </row>
+    <row r="431" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A431" s="42" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="433" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A433" s="3"/>
+      <c r="B433" s="5"/>
+      <c r="C433" s="6"/>
+      <c r="D433" s="3"/>
+      <c r="F433" s="3"/>
+      <c r="G433" s="5"/>
+      <c r="H433" s="3"/>
+      <c r="I433" s="3"/>
+      <c r="K433" s="3"/>
+      <c r="L433" s="3"/>
+      <c r="M433" s="3"/>
+      <c r="N433" s="3"/>
+      <c r="P433" s="5"/>
+      <c r="Q433" s="5"/>
+      <c r="R433" s="5"/>
+      <c r="S433" s="5"/>
+      <c r="U433" s="5"/>
+    </row>
+    <row r="434" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A434" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B413" s="18"/>
-      <c r="C413" s="43"/>
-      <c r="D413" s="35" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="414" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A414" s="38"/>
-      <c r="B414" s="145" t="s">
+      <c r="C434" s="142" t="s">
+        <v>616</v>
+      </c>
+      <c r="D434" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C414" s="145" t="s">
+      <c r="P434" s="1"/>
+      <c r="U434" s="1"/>
+      <c r="V434" s="2"/>
+    </row>
+    <row r="435" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="B435" s="142" t="s">
+        <v>648</v>
+      </c>
+      <c r="C435" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D414" s="27"/>
-    </row>
-    <row r="415" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A415" s="38"/>
-      <c r="B415" s="145" t="s">
+      <c r="P435" s="1"/>
+      <c r="U435" s="1"/>
+      <c r="V435" s="2"/>
+    </row>
+    <row r="436" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A436" s="104" t="s">
+        <v>617</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="437" spans="1:22" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="C437" s="142" t="s">
         <v>650</v>
-      </c>
-      <c r="C415" s="145" t="s">
-        <v>649</v>
-      </c>
-      <c r="D415" s="27" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="416" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A416" s="38"/>
-      <c r="B416" s="145" t="s">
-        <v>653</v>
-      </c>
-      <c r="C416" s="145" t="s">
-        <v>652</v>
-      </c>
-      <c r="D416" s="27" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="417" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A417" s="38" t="s">
-        <v>617</v>
-      </c>
-      <c r="B417" s="145" t="s">
-        <v>618</v>
-      </c>
-      <c r="C417" s="145" t="s">
-        <v>655</v>
-      </c>
-      <c r="D417" s="27" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="418" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A418" s="39" t="s">
-        <v>619</v>
-      </c>
-      <c r="B418" s="146" t="s">
-        <v>620</v>
-      </c>
-      <c r="C418" s="146" t="s">
-        <v>616</v>
-      </c>
-      <c r="D418" s="31"/>
-    </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A419" s="23" t="s">
-        <v>615</v>
-      </c>
-      <c r="B419" s="18"/>
-      <c r="C419" s="43"/>
-      <c r="D419" s="35" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="420" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A420" s="39"/>
-      <c r="B420" s="14"/>
-      <c r="C420" s="146" t="s">
-        <v>657</v>
-      </c>
-      <c r="D420" s="31"/>
-    </row>
-    <row r="421" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A421" s="23" t="s">
-        <v>621</v>
-      </c>
-      <c r="B421" s="18"/>
-      <c r="C421" s="43"/>
-      <c r="D421" s="35" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="422" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A422" s="39"/>
-      <c r="B422" s="14"/>
-      <c r="C422" s="146" t="s">
-        <v>622</v>
-      </c>
-      <c r="D422" s="31"/>
-    </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A424" s="3"/>
-      <c r="B424" s="5"/>
-      <c r="C424" s="6"/>
-      <c r="D424" s="3"/>
-      <c r="F424" s="3"/>
-      <c r="G424" s="5"/>
-      <c r="H424" s="3"/>
-      <c r="I424" s="3"/>
-      <c r="K424" s="3"/>
-      <c r="L424" s="3"/>
-      <c r="M424" s="3"/>
-      <c r="N424" s="3"/>
-      <c r="P424" s="5"/>
-      <c r="Q424" s="5"/>
-      <c r="R424" s="5"/>
-      <c r="S424" s="5"/>
-      <c r="U424" s="5"/>
-    </row>
-    <row r="425" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A425" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="C425" s="145" t="s">
-        <v>626</v>
-      </c>
-      <c r="P425" s="1"/>
-      <c r="U425" s="1"/>
-      <c r="V425" s="2"/>
-    </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A427" s="42" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="429" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A429" s="3"/>
-      <c r="B429" s="5"/>
-      <c r="C429" s="6"/>
-      <c r="D429" s="3"/>
-      <c r="F429" s="3"/>
-      <c r="G429" s="5"/>
-      <c r="H429" s="3"/>
-      <c r="I429" s="3"/>
-      <c r="K429" s="3"/>
-      <c r="L429" s="3"/>
-      <c r="M429" s="3"/>
-      <c r="N429" s="3"/>
-      <c r="P429" s="5"/>
-      <c r="Q429" s="5"/>
-      <c r="R429" s="5"/>
-      <c r="S429" s="5"/>
-      <c r="U429" s="5"/>
-    </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A430" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C430" s="145" t="s">
-        <v>629</v>
-      </c>
-      <c r="D430" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="P430" s="1"/>
-      <c r="U430" s="1"/>
-      <c r="V430" s="2"/>
-    </row>
-    <row r="431" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="B431" s="145" t="s">
-        <v>661</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="P431" s="1"/>
-      <c r="U431" s="1"/>
-      <c r="V431" s="2"/>
-    </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A432" s="107" t="s">
-        <v>630</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="433" spans="3:3" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="C433" s="145" t="s">
-        <v>663</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A81" r:id="rId1" xr:uid="{6A249A6A-F3CD-4844-A86C-4629577D6DE8}"/>
-    <hyperlink ref="H231" r:id="rId2" xr:uid="{2175C210-320A-4A9E-AC94-5F2484173428}"/>
+    <hyperlink ref="A85" r:id="rId1" xr:uid="{6A249A6A-F3CD-4844-A86C-4629577D6DE8}"/>
+    <hyperlink ref="H235" r:id="rId2" xr:uid="{2175C210-320A-4A9E-AC94-5F2484173428}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -16928,11 +17811,1775 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548EC0D8-9417-479F-A0F3-98B3874639D3}">
+  <dimension ref="A2:C76"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="93" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="80.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A2" s="149" t="s">
+        <v>655</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>653</v>
+      </c>
+      <c r="C2" s="150" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="149" t="s">
+        <v>654</v>
+      </c>
+      <c r="B3" s="115" t="s">
+        <v>653</v>
+      </c>
+      <c r="C3" s="150" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:3" ht="92" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="151" t="s">
+        <v>657</v>
+      </c>
+      <c r="B8" s="151" t="s">
+        <v>658</v>
+      </c>
+      <c r="C8" s="151" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="152" t="s">
+        <v>660</v>
+      </c>
+      <c r="B9" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C9" s="154"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="151" t="s">
+        <v>662</v>
+      </c>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="154" t="s">
+        <v>663</v>
+      </c>
+      <c r="B11" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C11" s="154"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="154" t="s">
+        <v>664</v>
+      </c>
+      <c r="B12" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" s="157"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="154" t="s">
+        <v>665</v>
+      </c>
+      <c r="B13" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C13" s="157"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="154" t="s">
+        <v>666</v>
+      </c>
+      <c r="B14" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C14" s="157" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="154" t="s">
+        <v>668</v>
+      </c>
+      <c r="B15" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C15" s="157"/>
+    </row>
+    <row r="16" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="154" t="s">
+        <v>669</v>
+      </c>
+      <c r="B16" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" s="157" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="151" t="s">
+        <v>671</v>
+      </c>
+      <c r="B17" s="155"/>
+      <c r="C17" s="155"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="154" t="s">
+        <v>672</v>
+      </c>
+      <c r="B18" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C18" s="157"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="154" t="s">
+        <v>673</v>
+      </c>
+      <c r="B19" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C19" s="157"/>
+    </row>
+    <row r="20" spans="1:3" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="154" t="s">
+        <v>674</v>
+      </c>
+      <c r="B20" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" s="157" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="154" t="s">
+        <v>676</v>
+      </c>
+      <c r="B21" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C21" s="157"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="154" t="s">
+        <v>677</v>
+      </c>
+      <c r="B22" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C22" s="157"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="154" t="s">
+        <v>668</v>
+      </c>
+      <c r="B23" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" s="157" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="154" t="s">
+        <v>679</v>
+      </c>
+      <c r="B24" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C24" s="157"/>
+    </row>
+    <row r="25" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="157" t="s">
+        <v>680</v>
+      </c>
+      <c r="B25" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C25" s="157" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="151" t="s">
+        <v>681</v>
+      </c>
+      <c r="B26" s="155"/>
+      <c r="C26" s="155"/>
+    </row>
+    <row r="27" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="157" t="s">
+        <v>682</v>
+      </c>
+      <c r="B27" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C27" s="157" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="157" t="s">
+        <v>684</v>
+      </c>
+      <c r="B28" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C28" s="157"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="157" t="s">
+        <v>685</v>
+      </c>
+      <c r="B29" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C29" s="154"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="157" t="s">
+        <v>686</v>
+      </c>
+      <c r="B30" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C30" s="158" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="157" t="s">
+        <v>688</v>
+      </c>
+      <c r="B31" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C31" s="158" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="157" t="s">
+        <v>690</v>
+      </c>
+      <c r="B32" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C32" s="154"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="158" t="s">
+        <v>691</v>
+      </c>
+      <c r="B33" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C33" s="157" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="157" t="s">
+        <v>693</v>
+      </c>
+      <c r="B34" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C34" s="158" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="158" t="s">
+        <v>695</v>
+      </c>
+      <c r="B35" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C35" s="154"/>
+    </row>
+    <row r="36" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="158" t="s">
+        <v>696</v>
+      </c>
+      <c r="B36" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C36" s="157" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="158" t="s">
+        <v>697</v>
+      </c>
+      <c r="B37" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C37" s="158" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="151" t="s">
+        <v>699</v>
+      </c>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="154" t="s">
+        <v>700</v>
+      </c>
+      <c r="B39" s="159" t="s">
+        <v>701</v>
+      </c>
+      <c r="C39" s="158" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="154" t="s">
+        <v>703</v>
+      </c>
+      <c r="B40" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C40" s="158" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="154" t="s">
+        <v>705</v>
+      </c>
+      <c r="B41" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C41" s="154" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="154" t="s">
+        <v>707</v>
+      </c>
+      <c r="B42" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C42" s="154" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="154" t="s">
+        <v>709</v>
+      </c>
+      <c r="B43" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C43" s="154" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="154" t="s">
+        <v>711</v>
+      </c>
+      <c r="B44" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C44" s="154" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="154" t="s">
+        <v>712</v>
+      </c>
+      <c r="B45" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C45" s="154" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="154" t="s">
+        <v>713</v>
+      </c>
+      <c r="B46" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C46" s="154" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="154" t="s">
+        <v>714</v>
+      </c>
+      <c r="B47" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C47" s="154" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="154" t="s">
+        <v>716</v>
+      </c>
+      <c r="B48" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C48" s="154"/>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="151" t="s">
+        <v>717</v>
+      </c>
+      <c r="B49" s="155"/>
+      <c r="C49" s="155"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="154" t="s">
+        <v>718</v>
+      </c>
+      <c r="B50" s="159" t="s">
+        <v>701</v>
+      </c>
+      <c r="C50" s="158" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="154" t="s">
+        <v>719</v>
+      </c>
+      <c r="B51" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C51" s="154" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="154" t="s">
+        <v>721</v>
+      </c>
+      <c r="B52" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C52" s="154" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="154" t="s">
+        <v>723</v>
+      </c>
+      <c r="B53" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C53" s="154" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="154" t="s">
+        <v>725</v>
+      </c>
+      <c r="B54" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C54" s="154" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="154" t="s">
+        <v>727</v>
+      </c>
+      <c r="B55" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C55" s="160" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="154" t="s">
+        <v>729</v>
+      </c>
+      <c r="B56" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C56" s="154" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="154" t="s">
+        <v>731</v>
+      </c>
+      <c r="B57" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C57" s="154" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="151" t="s">
+        <v>733</v>
+      </c>
+      <c r="B58" s="155"/>
+      <c r="C58" s="155"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="154" t="s">
+        <v>734</v>
+      </c>
+      <c r="B59" s="159" t="s">
+        <v>701</v>
+      </c>
+      <c r="C59" s="158" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="154" t="s">
+        <v>735</v>
+      </c>
+      <c r="B60" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C60" s="160" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="154" t="s">
+        <v>737</v>
+      </c>
+      <c r="B61" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C61" s="154"/>
+    </row>
+    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="154" t="s">
+        <v>738</v>
+      </c>
+      <c r="B62" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C62" s="154" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="154" t="s">
+        <v>740</v>
+      </c>
+      <c r="B63" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C63" s="154" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="154" t="s">
+        <v>742</v>
+      </c>
+      <c r="B64" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C64" s="154"/>
+    </row>
+    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="154" t="s">
+        <v>743</v>
+      </c>
+      <c r="B65" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C65" s="160" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="154" t="s">
+        <v>669</v>
+      </c>
+      <c r="B66" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C66" s="154" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="151" t="s">
+        <v>746</v>
+      </c>
+      <c r="B67" s="155"/>
+      <c r="C67" s="155"/>
+    </row>
+    <row r="68" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="154" t="s">
+        <v>747</v>
+      </c>
+      <c r="B68" s="159" t="s">
+        <v>701</v>
+      </c>
+      <c r="C68" s="158" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="154" t="s">
+        <v>748</v>
+      </c>
+      <c r="B69" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C69" s="154"/>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="154" t="s">
+        <v>749</v>
+      </c>
+      <c r="B70" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C70" s="160" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="151" t="s">
+        <v>751</v>
+      </c>
+      <c r="B71" s="155"/>
+      <c r="C71" s="155"/>
+    </row>
+    <row r="72" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="154" t="s">
+        <v>752</v>
+      </c>
+      <c r="B72" s="159" t="s">
+        <v>701</v>
+      </c>
+      <c r="C72" s="158" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="154" t="s">
+        <v>753</v>
+      </c>
+      <c r="B73" s="153" t="s">
+        <v>661</v>
+      </c>
+      <c r="C73" s="154"/>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="151" t="s">
+        <v>754</v>
+      </c>
+      <c r="B74" s="155"/>
+      <c r="C74" s="155"/>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="154" t="s">
+        <v>755</v>
+      </c>
+      <c r="B75" s="156" t="s">
+        <v>351</v>
+      </c>
+      <c r="C75" s="160" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="154" t="s">
+        <v>758</v>
+      </c>
+      <c r="B76" s="161" t="s">
+        <v>756</v>
+      </c>
+      <c r="C76" s="154"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" display="https://test-stand.gb.ru/seminar_stands/umeet/index.html" xr:uid="{452E3B19-D2FA-4F1D-8228-011DB5F0AEDF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637F915B-E609-4753-8FA7-216C540E76D8}">
+  <dimension ref="A2:G63"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="32.54296875" customWidth="1"/>
+    <col min="3" max="3" width="36.90625" customWidth="1"/>
+    <col min="4" max="4" width="38.08984375" customWidth="1"/>
+    <col min="5" max="5" width="72.6328125" customWidth="1"/>
+    <col min="6" max="6" width="78.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="B2" s="149" t="s">
+        <v>655</v>
+      </c>
+      <c r="C2" s="115" t="s">
+        <v>653</v>
+      </c>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="166" t="s">
+        <v>769</v>
+      </c>
+      <c r="B5" s="173" t="s">
+        <v>770</v>
+      </c>
+      <c r="C5" s="174"/>
+      <c r="D5" s="96" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5" s="96" t="s">
+        <v>349</v>
+      </c>
+      <c r="G5" s="96" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="175">
+        <v>1</v>
+      </c>
+      <c r="B6" s="178" t="s">
+        <v>662</v>
+      </c>
+      <c r="C6" s="179"/>
+      <c r="D6" s="146" t="s">
+        <v>772</v>
+      </c>
+      <c r="E6" s="163" t="s">
+        <v>773</v>
+      </c>
+      <c r="F6" s="100" t="s">
+        <v>774</v>
+      </c>
+      <c r="G6" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="176"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="100" t="s">
+        <v>775</v>
+      </c>
+      <c r="G7" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="176"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="100" t="s">
+        <v>776</v>
+      </c>
+      <c r="G8" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="176"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="100" t="s">
+        <v>777</v>
+      </c>
+      <c r="G9" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="176"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="163" t="s">
+        <v>778</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>779</v>
+      </c>
+      <c r="G10" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="177"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="100" t="s">
+        <v>780</v>
+      </c>
+      <c r="G11" s="167" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="168" t="s">
+        <v>769</v>
+      </c>
+      <c r="B12" s="173" t="s">
+        <v>770</v>
+      </c>
+      <c r="C12" s="174"/>
+      <c r="D12" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>348</v>
+      </c>
+      <c r="F12" s="103" t="s">
+        <v>349</v>
+      </c>
+      <c r="G12" s="103" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="175">
+        <v>2</v>
+      </c>
+      <c r="B13" s="178" t="s">
+        <v>671</v>
+      </c>
+      <c r="C13" s="179"/>
+      <c r="D13" s="146" t="s">
+        <v>781</v>
+      </c>
+      <c r="E13" s="163" t="s">
+        <v>782</v>
+      </c>
+      <c r="F13" s="100" t="s">
+        <v>779</v>
+      </c>
+      <c r="G13" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="176"/>
+      <c r="B14" s="180"/>
+      <c r="C14" s="181"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="100" t="s">
+        <v>783</v>
+      </c>
+      <c r="G14" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="176"/>
+      <c r="B15" s="180"/>
+      <c r="C15" s="181"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="100" t="s">
+        <v>784</v>
+      </c>
+      <c r="F15" s="100" t="s">
+        <v>779</v>
+      </c>
+      <c r="G15" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="176"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="181"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="163" t="s">
+        <v>785</v>
+      </c>
+      <c r="F16" s="169" t="s">
+        <v>779</v>
+      </c>
+      <c r="G16" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="176"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="100" t="s">
+        <v>786</v>
+      </c>
+      <c r="G17" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="176"/>
+      <c r="B18" s="180"/>
+      <c r="C18" s="181"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="163" t="s">
+        <v>778</v>
+      </c>
+      <c r="F18" s="169" t="s">
+        <v>779</v>
+      </c>
+      <c r="G18" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="176"/>
+      <c r="B19" s="180"/>
+      <c r="C19" s="181"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="100" t="s">
+        <v>787</v>
+      </c>
+      <c r="G19" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="177"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="100" t="s">
+        <v>788</v>
+      </c>
+      <c r="G20" s="167" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="168" t="s">
+        <v>769</v>
+      </c>
+      <c r="B21" s="173" t="s">
+        <v>770</v>
+      </c>
+      <c r="C21" s="174"/>
+      <c r="D21" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>348</v>
+      </c>
+      <c r="F21" s="103" t="s">
+        <v>349</v>
+      </c>
+      <c r="G21" s="103" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="175">
+        <v>3</v>
+      </c>
+      <c r="B22" s="178" t="s">
+        <v>681</v>
+      </c>
+      <c r="C22" s="179"/>
+      <c r="D22" s="146" t="s">
+        <v>789</v>
+      </c>
+      <c r="E22" s="100" t="s">
+        <v>790</v>
+      </c>
+      <c r="F22" s="100" t="s">
+        <v>791</v>
+      </c>
+      <c r="G22" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="176"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="163" t="s">
+        <v>792</v>
+      </c>
+      <c r="F23" s="100" t="s">
+        <v>793</v>
+      </c>
+      <c r="G23" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="176"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="181"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="100" t="s">
+        <v>794</v>
+      </c>
+      <c r="G24" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="176"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="100" t="s">
+        <v>795</v>
+      </c>
+      <c r="G25" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="176"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="181"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="100" t="s">
+        <v>688</v>
+      </c>
+      <c r="G26" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="176"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="181"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="163" t="s">
+        <v>796</v>
+      </c>
+      <c r="F27" s="100" t="s">
+        <v>797</v>
+      </c>
+      <c r="G27" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="176"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="181"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="165"/>
+      <c r="F28" s="100" t="s">
+        <v>798</v>
+      </c>
+      <c r="G28" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="176"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="163" t="s">
+        <v>778</v>
+      </c>
+      <c r="F29" s="100" t="s">
+        <v>799</v>
+      </c>
+      <c r="G29" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="177"/>
+      <c r="B30" s="182"/>
+      <c r="C30" s="183"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="100" t="s">
+        <v>780</v>
+      </c>
+      <c r="G30" s="167" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="168" t="s">
+        <v>769</v>
+      </c>
+      <c r="B31" s="173" t="s">
+        <v>770</v>
+      </c>
+      <c r="C31" s="174"/>
+      <c r="D31" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="E31" s="103" t="s">
+        <v>348</v>
+      </c>
+      <c r="F31" s="103" t="s">
+        <v>349</v>
+      </c>
+      <c r="G31" s="103" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="175">
+        <v>4</v>
+      </c>
+      <c r="B32" s="178" t="s">
+        <v>699</v>
+      </c>
+      <c r="C32" s="179"/>
+      <c r="D32" s="146" t="s">
+        <v>789</v>
+      </c>
+      <c r="E32" s="100" t="s">
+        <v>800</v>
+      </c>
+      <c r="F32" s="100" t="s">
+        <v>801</v>
+      </c>
+      <c r="G32" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="176"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="100" t="s">
+        <v>802</v>
+      </c>
+      <c r="F33" s="100" t="s">
+        <v>703</v>
+      </c>
+      <c r="G33" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="176"/>
+      <c r="B34" s="180"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="163" t="s">
+        <v>803</v>
+      </c>
+      <c r="F34" s="100" t="s">
+        <v>705</v>
+      </c>
+      <c r="G34" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="176"/>
+      <c r="B35" s="180"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="100" t="s">
+        <v>709</v>
+      </c>
+      <c r="G35" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="176"/>
+      <c r="B36" s="180"/>
+      <c r="C36" s="181"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="100" t="s">
+        <v>714</v>
+      </c>
+      <c r="G36" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="176"/>
+      <c r="B37" s="180"/>
+      <c r="C37" s="181"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="100" t="s">
+        <v>716</v>
+      </c>
+      <c r="G37" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="176"/>
+      <c r="B38" s="180"/>
+      <c r="C38" s="181"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="163" t="s">
+        <v>804</v>
+      </c>
+      <c r="F38" s="100" t="s">
+        <v>711</v>
+      </c>
+      <c r="G38" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="176"/>
+      <c r="B39" s="180"/>
+      <c r="C39" s="181"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="164"/>
+      <c r="F39" s="100" t="s">
+        <v>712</v>
+      </c>
+      <c r="G39" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="177"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="100" t="s">
+        <v>713</v>
+      </c>
+      <c r="G40" s="167" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="168" t="s">
+        <v>769</v>
+      </c>
+      <c r="B41" s="173" t="s">
+        <v>770</v>
+      </c>
+      <c r="C41" s="174"/>
+      <c r="D41" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="E41" s="103" t="s">
+        <v>348</v>
+      </c>
+      <c r="F41" s="103" t="s">
+        <v>349</v>
+      </c>
+      <c r="G41" s="103" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="175">
+        <v>5</v>
+      </c>
+      <c r="B42" s="178" t="s">
+        <v>717</v>
+      </c>
+      <c r="C42" s="179"/>
+      <c r="D42" s="146" t="s">
+        <v>789</v>
+      </c>
+      <c r="E42" s="163" t="s">
+        <v>805</v>
+      </c>
+      <c r="F42" s="100" t="s">
+        <v>719</v>
+      </c>
+      <c r="G42" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="176"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="181"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="164"/>
+      <c r="F43" s="100" t="s">
+        <v>721</v>
+      </c>
+      <c r="G43" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="176"/>
+      <c r="B44" s="180"/>
+      <c r="C44" s="181"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="100" t="s">
+        <v>723</v>
+      </c>
+      <c r="G44" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="176"/>
+      <c r="B45" s="180"/>
+      <c r="C45" s="181"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="163" t="s">
+        <v>806</v>
+      </c>
+      <c r="F45" s="100" t="s">
+        <v>807</v>
+      </c>
+      <c r="G45" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="176"/>
+      <c r="B46" s="180"/>
+      <c r="C46" s="181"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="164"/>
+      <c r="F46" s="100" t="s">
+        <v>808</v>
+      </c>
+      <c r="G46" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="176"/>
+      <c r="B47" s="180"/>
+      <c r="C47" s="181"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="100" t="s">
+        <v>809</v>
+      </c>
+      <c r="G47" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="177"/>
+      <c r="B48" s="182"/>
+      <c r="C48" s="183"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="165"/>
+      <c r="F48" s="100" t="s">
+        <v>810</v>
+      </c>
+      <c r="G48" s="167" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="168" t="s">
+        <v>769</v>
+      </c>
+      <c r="B49" s="173" t="s">
+        <v>770</v>
+      </c>
+      <c r="C49" s="174"/>
+      <c r="D49" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="E49" s="103" t="s">
+        <v>348</v>
+      </c>
+      <c r="F49" s="103" t="s">
+        <v>349</v>
+      </c>
+      <c r="G49" s="103" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="175">
+        <v>6</v>
+      </c>
+      <c r="B50" s="178" t="s">
+        <v>733</v>
+      </c>
+      <c r="C50" s="179"/>
+      <c r="D50" s="146" t="s">
+        <v>789</v>
+      </c>
+      <c r="E50" s="163" t="s">
+        <v>811</v>
+      </c>
+      <c r="F50" s="100" t="s">
+        <v>735</v>
+      </c>
+      <c r="G50" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="176"/>
+      <c r="B51" s="180"/>
+      <c r="C51" s="181"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="100" t="s">
+        <v>812</v>
+      </c>
+      <c r="G51" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="176"/>
+      <c r="B52" s="180"/>
+      <c r="C52" s="181"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="100" t="s">
+        <v>813</v>
+      </c>
+      <c r="G52" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="176"/>
+      <c r="B53" s="180"/>
+      <c r="C53" s="181"/>
+      <c r="D53" s="147"/>
+      <c r="E53" s="165"/>
+      <c r="F53" s="100" t="s">
+        <v>814</v>
+      </c>
+      <c r="G53" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="176"/>
+      <c r="B54" s="180"/>
+      <c r="C54" s="181"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="163" t="s">
+        <v>778</v>
+      </c>
+      <c r="F54" s="100" t="s">
+        <v>815</v>
+      </c>
+      <c r="G54" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="177"/>
+      <c r="B55" s="182"/>
+      <c r="C55" s="183"/>
+      <c r="D55" s="148"/>
+      <c r="E55" s="165"/>
+      <c r="F55" s="100" t="s">
+        <v>780</v>
+      </c>
+      <c r="G55" s="167" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="168" t="s">
+        <v>769</v>
+      </c>
+      <c r="B56" s="173" t="s">
+        <v>770</v>
+      </c>
+      <c r="C56" s="174"/>
+      <c r="D56" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" s="103" t="s">
+        <v>348</v>
+      </c>
+      <c r="F56" s="103" t="s">
+        <v>349</v>
+      </c>
+      <c r="G56" s="103" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="175">
+        <v>7</v>
+      </c>
+      <c r="B57" s="178" t="s">
+        <v>746</v>
+      </c>
+      <c r="C57" s="179"/>
+      <c r="D57" s="146" t="s">
+        <v>789</v>
+      </c>
+      <c r="E57" s="100" t="s">
+        <v>816</v>
+      </c>
+      <c r="F57" s="100" t="s">
+        <v>817</v>
+      </c>
+      <c r="G57" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="177"/>
+      <c r="B58" s="182"/>
+      <c r="C58" s="183"/>
+      <c r="D58" s="148"/>
+      <c r="E58" s="100" t="s">
+        <v>818</v>
+      </c>
+      <c r="F58" s="169" t="s">
+        <v>819</v>
+      </c>
+      <c r="G58" s="167" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="168" t="s">
+        <v>769</v>
+      </c>
+      <c r="B59" s="173" t="s">
+        <v>770</v>
+      </c>
+      <c r="C59" s="174"/>
+      <c r="D59" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="E59" s="103" t="s">
+        <v>348</v>
+      </c>
+      <c r="F59" s="103" t="s">
+        <v>349</v>
+      </c>
+      <c r="G59" s="103" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="170">
+        <v>8</v>
+      </c>
+      <c r="B60" s="184" t="s">
+        <v>751</v>
+      </c>
+      <c r="C60" s="185"/>
+      <c r="D60" s="171" t="s">
+        <v>789</v>
+      </c>
+      <c r="E60" s="100" t="s">
+        <v>820</v>
+      </c>
+      <c r="F60" s="100" t="s">
+        <v>821</v>
+      </c>
+      <c r="G60" s="172" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="168" t="s">
+        <v>769</v>
+      </c>
+      <c r="B61" s="173" t="s">
+        <v>770</v>
+      </c>
+      <c r="C61" s="174"/>
+      <c r="D61" s="103" t="s">
+        <v>347</v>
+      </c>
+      <c r="E61" s="103" t="s">
+        <v>348</v>
+      </c>
+      <c r="F61" s="103" t="s">
+        <v>349</v>
+      </c>
+      <c r="G61" s="103" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="175">
+        <v>9</v>
+      </c>
+      <c r="B62" s="178" t="s">
+        <v>754</v>
+      </c>
+      <c r="C62" s="179"/>
+      <c r="D62" s="146" t="s">
+        <v>789</v>
+      </c>
+      <c r="E62" s="100" t="s">
+        <v>820</v>
+      </c>
+      <c r="F62" s="100" t="s">
+        <v>822</v>
+      </c>
+      <c r="G62" s="156" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="177"/>
+      <c r="B63" s="182"/>
+      <c r="C63" s="183"/>
+      <c r="D63" s="148"/>
+      <c r="E63" s="100" t="s">
+        <v>823</v>
+      </c>
+      <c r="F63" s="100" t="s">
+        <v>824</v>
+      </c>
+      <c r="G63" s="153" t="s">
+        <v>661</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:C55"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B42:C48"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:C40"/>
+    <mergeCell ref="D32:D40"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B22:C30"/>
+    <mergeCell ref="D22:D30"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B13:C20"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B6:C11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" display="https://test-stand.gb.ru/seminar_stands/umeet/index.html" xr:uid="{23CCB47D-531F-4D8D-B678-A0B3880FAAC2}"/>
+    <hyperlink ref="D13" r:id="rId2" display="https://test-stand.gb.ru/seminar_stands/umeet/index.html" xr:uid="{EF777A89-358E-44FA-976D-85B5FCB8CDFC}"/>
+    <hyperlink ref="D22" r:id="rId3" display="https://test-stand.gb.ru/seminar_stands/umeet/index.html" xr:uid="{8BCF028B-EF01-4595-B3C9-212A8C34F54C}"/>
+    <hyperlink ref="D32" r:id="rId4" display="https://test-stand.gb.ru/seminar_stands/umeet/index.html" xr:uid="{C90BC715-C7B3-439A-AC66-66F154B224EF}"/>
+    <hyperlink ref="D42" r:id="rId5" display="https://test-stand.gb.ru/seminar_stands/umeet/index.html" xr:uid="{D1113BAE-F6A4-4D2A-BF7C-8FC520EC68B6}"/>
+    <hyperlink ref="D50" r:id="rId6" display="https://test-stand.gb.ru/seminar_stands/umeet/index.html" xr:uid="{39CCCA6F-9796-49D4-B437-0F0E754A813A}"/>
+    <hyperlink ref="D57" r:id="rId7" display="https://test-stand.gb.ru/seminar_stands/umeet/index.html" xr:uid="{1FC615F4-02C9-4A03-BC9D-D5F5D0C0B2CB}"/>
+    <hyperlink ref="D60" r:id="rId8" display="https://test-stand.gb.ru/seminar_stands/umeet/index.html" xr:uid="{821B962D-F5E3-4F59-AD5D-B37283D59B95}"/>
+    <hyperlink ref="D62" r:id="rId9" display="https://test-stand.gb.ru/seminar_stands/umeet/index.html" xr:uid="{65E9F155-7D02-4F16-B0AF-6BFCDB32A6EC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47C9201-531A-431F-9481-350C818765C6}">
-  <dimension ref="A12:E30"/>
+  <dimension ref="A5:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16941,222 +19588,98 @@
     <col min="5" max="5" width="50.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="96" t="s">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="97" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="96" t="s">
         <v>347</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="C6" s="97" t="s">
         <v>348</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="D6" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="97" t="s">
         <v>349</v>
       </c>
-      <c r="D13" s="98" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="98" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="162" t="s">
+        <v>759</v>
+      </c>
+      <c r="B7" s="163" t="s">
+        <v>760</v>
+      </c>
+      <c r="C7" s="100" t="s">
+        <v>761</v>
+      </c>
+      <c r="D7" s="98" t="s">
+        <v>762</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="99" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="89" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="99" t="s">
+      <c r="B8" s="164"/>
+      <c r="C8" s="100" t="s">
+        <v>764</v>
+      </c>
+      <c r="D8" s="98"/>
+      <c r="E8" s="100" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="101" t="s">
         <v>351</v>
       </c>
-      <c r="B14" s="149" t="s">
+      <c r="B9" s="164"/>
+      <c r="C9" s="100" t="s">
+        <v>766</v>
+      </c>
+      <c r="D9" s="98"/>
+      <c r="E9" s="100" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="101"/>
+      <c r="B10" s="164"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="100"/>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="102" t="s">
         <v>352</v>
       </c>
-      <c r="C14" s="100" t="s">
-        <v>353</v>
-      </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="101" t="s">
-        <v>355</v>
-      </c>
-      <c r="B15" s="150"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="102"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="B16" s="150"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="102"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="B17" s="150"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="102"/>
-    </row>
-    <row r="18" spans="1:5" ht="126.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="103" t="s">
-        <v>358</v>
-      </c>
-      <c r="B18" s="151"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-    </row>
-    <row r="19" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="96" t="s">
-        <v>347</v>
-      </c>
-      <c r="B19" s="105" t="s">
-        <v>348</v>
-      </c>
-      <c r="C19" s="96" t="s">
-        <v>349</v>
-      </c>
-      <c r="D19" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="96" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="76.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="99" t="s">
-        <v>359</v>
-      </c>
-      <c r="B20" s="149" t="s">
-        <v>352</v>
-      </c>
-      <c r="C20" s="100" t="s">
-        <v>353</v>
-      </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="101" t="s">
-        <v>355</v>
-      </c>
-      <c r="B21" s="150"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="102"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="B22" s="150"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="102"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="B23" s="150"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="102"/>
-    </row>
-    <row r="24" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="103" t="s">
-        <v>361</v>
-      </c>
-      <c r="B24" s="151"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-    </row>
-    <row r="25" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="96" t="s">
-        <v>347</v>
-      </c>
-      <c r="B25" s="105" t="s">
-        <v>348</v>
-      </c>
-      <c r="C25" s="96" t="s">
-        <v>349</v>
-      </c>
-      <c r="D25" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="96" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="89" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="99" t="s">
-        <v>362</v>
-      </c>
-      <c r="B26" s="149" t="s">
-        <v>352</v>
-      </c>
-      <c r="C26" s="100" t="s">
-        <v>353</v>
-      </c>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="101" t="s">
-        <v>355</v>
-      </c>
-      <c r="B27" s="150"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="102"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="103" t="s">
-        <v>356</v>
-      </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="102"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="104" t="s">
-        <v>357</v>
-      </c>
-      <c r="B29" s="150"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="102"/>
-    </row>
-    <row r="30" spans="1:5" ht="114" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="103" t="s">
-        <v>364</v>
-      </c>
-      <c r="B30" s="151"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-    </row>
+      <c r="B11" s="164"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="100"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="101" t="s">
+        <v>768</v>
+      </c>
+      <c r="B12" s="165"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+    </row>
+    <row r="19" ht="63" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B26:B30"/>
+  <mergeCells count="1">
+    <mergeCell ref="B7:B12"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" display="https://limelab.tech/foodbuzz/index.html" xr:uid="{6690FC4F-3347-4B06-9D0C-86C536B48E75}"/>
-    <hyperlink ref="B20" r:id="rId2" display="https://limelab.tech/foodbuzz/index.html" xr:uid="{34EBBEFD-03D3-472D-9A98-85D85C5D9558}"/>
-    <hyperlink ref="B26" r:id="rId3" display="https://limelab.tech/foodbuzz/index.html" xr:uid="{CF277C14-7189-443D-A040-CD48B58B5B11}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2 четверть_5_Тестеровщик_Введение в тестирование.xlsx
+++ b/2 четверть_5_Тестеровщик_Введение в тестирование.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0CA86C-DEDA-49A0-B0FA-759C7644E814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC78335C-7A32-4B06-BAB8-3F9C2B64791C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13875" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Введение в тестирование 1-6" sheetId="12" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -11273,12 +11276,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -12173,7 +12184,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -12186,56 +12197,56 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12247,7 +12258,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12268,10 +12279,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12280,7 +12291,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12295,22 +12306,22 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12325,13 +12336,13 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12340,16 +12351,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12376,62 +12387,62 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -12440,85 +12451,85 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="38" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -12527,28 +12538,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12557,7 +12568,7 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12584,154 +12595,154 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12751,15 +12762,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>25564</xdr:colOff>
+      <xdr:colOff>21754</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>58239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3434115</xdr:colOff>
+      <xdr:colOff>3436020</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>1200727</xdr:rowOff>
+      <xdr:rowOff>1196917</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12782,8 +12793,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2542473" y="41964429"/>
-          <a:ext cx="3408551" cy="1146298"/>
+          <a:off x="2489971" y="41164826"/>
+          <a:ext cx="3414266" cy="1138678"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13987,42 +13998,42 @@
   </sheetPr>
   <dimension ref="A2:V437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C65" sqref="A64:C65"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="76.453125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="8"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="76.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="8"/>
+    <col min="21" max="21" width="67.77734375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -14041,7 +14052,7 @@
       <c r="S2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -14050,13 +14061,13 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="9"/>
       <c r="P4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
@@ -14068,7 +14079,7 @@
       </c>
       <c r="D5" s="22"/>
     </row>
-    <row r="6" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
@@ -14078,7 +14089,7 @@
       </c>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
@@ -14088,7 +14099,7 @@
       </c>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
@@ -14098,7 +14109,7 @@
       </c>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
@@ -14110,7 +14121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="62" t="s">
         <v>15</v>
       </c>
@@ -14124,7 +14135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>25</v>
       </c>
@@ -14138,7 +14149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>27</v>
       </c>
@@ -14152,7 +14163,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>28</v>
       </c>
@@ -14166,7 +14177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>26</v>
       </c>
@@ -14180,7 +14191,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>29</v>
       </c>
@@ -14194,7 +14205,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>30</v>
       </c>
@@ -14208,7 +14219,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
         <v>32</v>
       </c>
@@ -14222,7 +14233,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="s">
         <v>31</v>
       </c>
@@ -14236,7 +14247,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>53</v>
       </c>
@@ -14248,7 +14259,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>52</v>
       </c>
@@ -14260,7 +14271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
         <v>4</v>
       </c>
@@ -14274,7 +14285,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>60</v>
       </c>
@@ -14288,7 +14299,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
         <v>63</v>
       </c>
@@ -14297,7 +14308,7 @@
       </c>
       <c r="D23" s="27"/>
     </row>
-    <row r="24" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
         <v>64</v>
       </c>
@@ -14308,7 +14319,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="36" t="s">
         <v>65</v>
       </c>
@@ -14320,7 +14331,7 @@
       </c>
       <c r="D25" s="27"/>
     </row>
-    <row r="26" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="36" t="s">
         <v>66</v>
       </c>
@@ -14331,7 +14342,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" s="36" t="s">
         <v>67</v>
       </c>
@@ -14342,7 +14353,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="36" t="s">
         <v>68</v>
       </c>
@@ -14353,7 +14364,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>69</v>
       </c>
@@ -14363,7 +14374,7 @@
       </c>
       <c r="D29" s="31"/>
     </row>
-    <row r="30" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="23" t="s">
         <v>77</v>
       </c>
@@ -14377,7 +14388,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="s">
         <v>86</v>
       </c>
@@ -14389,7 +14400,7 @@
       </c>
       <c r="D31" s="27"/>
     </row>
-    <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>87</v>
       </c>
@@ -14398,7 +14409,7 @@
       </c>
       <c r="D32" s="27"/>
     </row>
-    <row r="33" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="s">
         <v>88</v>
       </c>
@@ -14407,7 +14418,7 @@
       </c>
       <c r="D33" s="27"/>
     </row>
-    <row r="34" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="39" t="s">
         <v>89</v>
       </c>
@@ -14417,7 +14428,7 @@
       </c>
       <c r="D34" s="31"/>
     </row>
-    <row r="35" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:22" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="40" t="s">
         <v>95</v>
       </c>
@@ -14429,7 +14440,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:22" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="40" t="s">
         <v>98</v>
       </c>
@@ -14443,7 +14454,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
@@ -14462,7 +14473,7 @@
       <c r="S38" s="5"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>102</v>
       </c>
@@ -14471,7 +14482,7 @@
       <c r="U39" s="1"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="42" t="s">
         <v>103</v>
       </c>
@@ -14479,7 +14490,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="23" t="s">
         <v>105</v>
       </c>
@@ -14487,7 +14498,7 @@
       <c r="C41" s="43"/>
       <c r="D41" s="35"/>
     </row>
-    <row r="42" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
         <v>106</v>
       </c>
@@ -14501,7 +14512,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="50" t="s">
         <v>152</v>
       </c>
@@ -14511,7 +14522,7 @@
       </c>
       <c r="D43" s="52"/>
     </row>
-    <row r="44" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:22" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="39" t="s">
         <v>107</v>
       </c>
@@ -14525,7 +14536,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="23" t="s">
         <v>108</v>
       </c>
@@ -14539,7 +14550,7 @@
       <c r="H45" s="47"/>
       <c r="I45" s="35"/>
     </row>
-    <row r="46" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:22" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="38" t="s">
         <v>110</v>
       </c>
@@ -14554,7 +14565,7 @@
       <c r="H46" s="48"/>
       <c r="I46" s="31"/>
     </row>
-    <row r="47" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
         <v>109</v>
       </c>
@@ -14565,7 +14576,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A48" s="45" t="s">
         <v>115</v>
       </c>
@@ -14574,7 +14585,7 @@
       </c>
       <c r="D48" s="27"/>
     </row>
-    <row r="49" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
         <v>114</v>
       </c>
@@ -14583,7 +14594,7 @@
       </c>
       <c r="D49" s="27"/>
     </row>
-    <row r="50" spans="1:6" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="45" t="s">
         <v>113</v>
       </c>
@@ -14595,7 +14606,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A51" s="62" t="s">
         <v>116</v>
       </c>
@@ -14605,7 +14616,7 @@
       </c>
       <c r="D51" s="69"/>
     </row>
-    <row r="52" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A52" s="38" t="s">
         <v>117</v>
       </c>
@@ -14619,7 +14630,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="39" t="s">
         <v>119</v>
       </c>
@@ -14633,7 +14644,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A54" s="62" t="s">
         <v>120</v>
       </c>
@@ -14648,7 +14659,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="216" x14ac:dyDescent="0.3">
       <c r="A55" s="54" t="s">
         <v>170</v>
       </c>
@@ -14660,7 +14671,7 @@
       </c>
       <c r="D55" s="27"/>
     </row>
-    <row r="56" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A56" s="54" t="s">
         <v>121</v>
       </c>
@@ -14674,7 +14685,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="55" t="s">
         <v>123</v>
       </c>
@@ -14688,7 +14699,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="37" t="s">
         <v>126</v>
       </c>
@@ -14696,7 +14707,7 @@
       <c r="C58" s="43"/>
       <c r="D58" s="35"/>
     </row>
-    <row r="59" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="38"/>
       <c r="C59" s="41" t="s">
         <v>128</v>
@@ -14705,13 +14716,13 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="49" t="s">
         <v>129</v>
       </c>
       <c r="D60" s="27"/>
     </row>
-    <row r="61" spans="1:6" ht="232.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" ht="231" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="39"/>
       <c r="B61" s="14"/>
       <c r="C61" s="44" t="s">
@@ -14721,31 +14732,31 @@
         <v>177</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="149" t="s">
+    <row r="64" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="146" t="s">
         <v>655</v>
       </c>
       <c r="B64" s="115" t="s">
         <v>653</v>
       </c>
-      <c r="C64" s="150" t="s">
+      <c r="C64" s="147" t="s">
         <v>656</v>
       </c>
-      <c r="D64" s="149"/>
-    </row>
-    <row r="65" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A65" s="149" t="s">
+      <c r="D64" s="146"/>
+    </row>
+    <row r="65" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="146" t="s">
         <v>654</v>
       </c>
       <c r="B65" s="115" t="s">
         <v>653</v>
       </c>
-      <c r="C65" s="150" t="s">
+      <c r="C65" s="147" t="s">
         <v>652</v>
       </c>
-      <c r="D65" s="149"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="D65" s="146"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
@@ -14764,7 +14775,7 @@
       <c r="S67" s="5"/>
       <c r="U67" s="5"/>
     </row>
-    <row r="68" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>130</v>
       </c>
@@ -14773,7 +14784,7 @@
       <c r="U68" s="1"/>
       <c r="V68" s="2"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="23" t="s">
         <v>131</v>
       </c>
@@ -14781,7 +14792,7 @@
       <c r="C69" s="43"/>
       <c r="D69" s="35"/>
     </row>
-    <row r="70" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A70" s="38" t="s">
         <v>132</v>
       </c>
@@ -14795,7 +14806,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:22" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="39" t="s">
         <v>133</v>
       </c>
@@ -14807,7 +14818,7 @@
       </c>
       <c r="D71" s="31"/>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="62" t="s">
         <v>134</v>
       </c>
@@ -14815,7 +14826,7 @@
       <c r="C72" s="70"/>
       <c r="D72" s="69"/>
     </row>
-    <row r="73" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A73" s="38" t="s">
         <v>137</v>
       </c>
@@ -14829,7 +14840,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A74" s="38" t="s">
         <v>136</v>
       </c>
@@ -14841,7 +14852,7 @@
       </c>
       <c r="D74" s="27"/>
     </row>
-    <row r="75" spans="1:22" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:22" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="39" t="s">
         <v>138</v>
       </c>
@@ -14853,7 +14864,7 @@
       </c>
       <c r="D75" s="31"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
@@ -14872,7 +14883,7 @@
       <c r="S77" s="5"/>
       <c r="U77" s="5"/>
     </row>
-    <row r="78" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>140</v>
       </c>
@@ -14881,7 +14892,7 @@
       <c r="U78" s="1"/>
       <c r="V78" s="2"/>
     </row>
-    <row r="79" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="58" t="s">
         <v>141</v>
       </c>
@@ -14893,7 +14904,7 @@
       </c>
       <c r="D79" s="35"/>
     </row>
-    <row r="80" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="45" t="s">
         <v>191</v>
       </c>
@@ -14907,7 +14918,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="38" t="s">
         <v>146</v>
       </c>
@@ -14919,7 +14930,7 @@
       </c>
       <c r="D81" s="27"/>
     </row>
-    <row r="82" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:22" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="55" t="s">
         <v>192</v>
       </c>
@@ -14931,17 +14942,17 @@
       </c>
       <c r="D82" s="31"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="59" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
@@ -14960,7 +14971,7 @@
       <c r="S87" s="5"/>
       <c r="U87" s="5"/>
     </row>
-    <row r="88" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>197</v>
       </c>
@@ -14969,7 +14980,7 @@
       <c r="U88" s="1"/>
       <c r="V88" s="2"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A89" s="23" t="s">
         <v>198</v>
       </c>
@@ -14977,7 +14988,7 @@
       <c r="C89" s="53"/>
       <c r="D89" s="35"/>
     </row>
-    <row r="90" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:22" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="39"/>
       <c r="B90" s="14" t="s">
         <v>283</v>
@@ -14989,7 +15000,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A91" s="23" t="s">
         <v>199</v>
       </c>
@@ -14999,7 +15010,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A92" s="71" t="s">
         <v>228</v>
       </c>
@@ -15008,7 +15019,7 @@
       </c>
       <c r="D92" s="27"/>
     </row>
-    <row r="93" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="71" t="s">
         <v>229</v>
       </c>
@@ -15020,7 +15031,7 @@
       </c>
       <c r="D93" s="27"/>
     </row>
-    <row r="94" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="71" t="s">
         <v>223</v>
       </c>
@@ -15032,7 +15043,7 @@
       </c>
       <c r="D94" s="27"/>
     </row>
-    <row r="95" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="71" t="s">
         <v>230</v>
       </c>
@@ -15044,7 +15055,7 @@
       </c>
       <c r="D95" s="27"/>
     </row>
-    <row r="96" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A96" s="91" t="s">
         <v>328</v>
       </c>
@@ -15053,7 +15064,7 @@
       </c>
       <c r="D96" s="27"/>
     </row>
-    <row r="97" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="71" t="s">
         <v>231</v>
       </c>
@@ -15062,7 +15073,7 @@
       </c>
       <c r="D97" s="27"/>
     </row>
-    <row r="98" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A98" s="71" t="s">
         <v>232</v>
       </c>
@@ -15074,14 +15085,14 @@
       </c>
       <c r="D98" s="27"/>
     </row>
-    <row r="99" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="73"/>
       <c r="C99" s="57" t="s">
         <v>289</v>
       </c>
       <c r="D99" s="27"/>
     </row>
-    <row r="100" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="74"/>
       <c r="B100" s="2" t="s">
         <v>293</v>
@@ -15091,7 +15102,7 @@
       </c>
       <c r="D100" s="27"/>
     </row>
-    <row r="101" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="75"/>
       <c r="B101" s="2" t="s">
         <v>290</v>
@@ -15101,7 +15112,7 @@
       </c>
       <c r="D101" s="31"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="23" t="s">
         <v>129</v>
       </c>
@@ -15111,7 +15122,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="276" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4" ht="274.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="39"/>
       <c r="B103" s="14"/>
       <c r="C103" s="90" t="s">
@@ -15119,7 +15130,7 @@
       </c>
       <c r="D103" s="31"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="23" t="s">
         <v>201</v>
       </c>
@@ -15129,7 +15140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="38"/>
       <c r="B105" s="2" t="s">
         <v>297</v>
@@ -15139,7 +15150,7 @@
       </c>
       <c r="D105" s="27"/>
     </row>
-    <row r="106" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="38"/>
       <c r="B106" s="91" t="s">
         <v>302</v>
@@ -15149,35 +15160,35 @@
       </c>
       <c r="D106" s="27"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="38"/>
       <c r="C107" s="91" t="s">
         <v>300</v>
       </c>
       <c r="D107" s="27"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="38"/>
       <c r="C108" s="57" t="s">
         <v>202</v>
       </c>
       <c r="D108" s="27"/>
     </row>
-    <row r="109" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="38"/>
       <c r="C109" s="91" t="s">
         <v>299</v>
       </c>
       <c r="D109" s="27"/>
     </row>
-    <row r="110" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="38"/>
       <c r="C110" s="91" t="s">
         <v>298</v>
       </c>
       <c r="D110" s="27"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="62" t="s">
         <v>203</v>
       </c>
@@ -15187,7 +15198,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A112" s="54"/>
       <c r="B112" s="2" t="s">
         <v>304</v>
@@ -15197,7 +15208,7 @@
       </c>
       <c r="D112" s="27"/>
     </row>
-    <row r="113" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="54"/>
       <c r="B113" s="91"/>
       <c r="C113" s="91" t="s">
@@ -15207,35 +15218,35 @@
         <v>305</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="38"/>
       <c r="C114" s="91" t="s">
         <v>307</v>
       </c>
       <c r="D114" s="27"/>
     </row>
-    <row r="115" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="38"/>
       <c r="C115" s="91" t="s">
         <v>308</v>
       </c>
       <c r="D115" s="27"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="38"/>
       <c r="C116" s="91" t="s">
         <v>309</v>
       </c>
       <c r="D116" s="77"/>
     </row>
-    <row r="117" spans="1:4" ht="22" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A117" s="38"/>
       <c r="C117" s="91" t="s">
         <v>310</v>
       </c>
       <c r="D117" s="78"/>
     </row>
-    <row r="118" spans="1:4" ht="22.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="39"/>
       <c r="B118" s="14"/>
       <c r="C118" s="90" t="s">
@@ -15243,7 +15254,7 @@
       </c>
       <c r="D118" s="79"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="49" t="s">
         <v>205</v>
       </c>
@@ -15251,70 +15262,70 @@
         <v>159</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="38"/>
       <c r="C120" s="80" t="s">
         <v>312</v>
       </c>
       <c r="D120" s="27"/>
     </row>
-    <row r="121" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="38"/>
       <c r="C121" s="80" t="s">
         <v>313</v>
       </c>
       <c r="D121" s="27"/>
     </row>
-    <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="38"/>
       <c r="C122" s="92" t="s">
         <v>314</v>
       </c>
       <c r="D122" s="27"/>
     </row>
-    <row r="123" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="38"/>
       <c r="C123" s="80" t="s">
         <v>315</v>
       </c>
       <c r="D123" s="27"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="38"/>
       <c r="C124" s="92" t="s">
         <v>316</v>
       </c>
       <c r="D124" s="27"/>
     </row>
-    <row r="125" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="38"/>
       <c r="C125" s="80" t="s">
         <v>318</v>
       </c>
       <c r="D125" s="27"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="38"/>
       <c r="C126" s="80" t="s">
         <v>319</v>
       </c>
       <c r="D126" s="27"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="38"/>
       <c r="C127" s="80" t="s">
         <v>317</v>
       </c>
       <c r="D127" s="27"/>
     </row>
-    <row r="128" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="38"/>
       <c r="C128" s="80" t="s">
         <v>320</v>
       </c>
       <c r="D128" s="27"/>
     </row>
-    <row r="129" spans="1:22" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="39"/>
       <c r="B129" s="14"/>
       <c r="C129" s="90" t="s">
@@ -15322,7 +15333,7 @@
       </c>
       <c r="D129" s="31"/>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A130" s="23" t="s">
         <v>206</v>
       </c>
@@ -15332,42 +15343,42 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A131" s="38"/>
       <c r="C131" s="80" t="s">
         <v>323</v>
       </c>
       <c r="D131" s="77"/>
     </row>
-    <row r="132" spans="1:22" ht="22" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:22" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A132" s="38"/>
       <c r="C132" s="92" t="s">
         <v>207</v>
       </c>
       <c r="D132" s="81"/>
     </row>
-    <row r="133" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="38"/>
       <c r="C133" s="80" t="s">
         <v>324</v>
       </c>
       <c r="D133" s="82"/>
     </row>
-    <row r="134" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="38"/>
       <c r="C134" s="80" t="s">
         <v>325</v>
       </c>
       <c r="D134" s="77"/>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A135" s="38"/>
       <c r="C135" s="57" t="s">
         <v>326</v>
       </c>
       <c r="D135" s="27"/>
     </row>
-    <row r="136" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="39"/>
       <c r="B136" s="14"/>
       <c r="C136" s="76" t="s">
@@ -15375,7 +15386,7 @@
       </c>
       <c r="D136" s="31"/>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="5"/>
       <c r="C138" s="6"/>
@@ -15394,7 +15405,7 @@
       <c r="S138" s="5"/>
       <c r="U138" s="5"/>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>208</v>
       </c>
@@ -15406,207 +15417,207 @@
       <c r="U139" s="1"/>
       <c r="V139" s="2"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A141" s="42" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C142" s="71" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="143" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C143" s="71" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C144" s="71" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C145" s="71" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C146" s="71" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C147" s="71" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="C148" s="71" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C149" s="71" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C150" s="71" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C151" s="71" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C153" s="71" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C154" s="71" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C155" s="71" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C156" s="71" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C157" s="71" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C159" s="71" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C160" s="71" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C161" s="71" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C162" s="71" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C163" s="91" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C164" s="71" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C165" s="71" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C167" s="71" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C168" s="71" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C169" s="71" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C170" s="71" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C171" s="71" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C172" s="71" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C173" s="71" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C175" s="71" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C176" s="71" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C177" s="71" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C178" s="71" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="179" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C179" s="71" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="5"/>
       <c r="C181" s="6"/>
@@ -15625,7 +15636,7 @@
       <c r="S181" s="5"/>
       <c r="U181" s="5"/>
     </row>
-    <row r="182" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>246</v>
       </c>
@@ -15634,7 +15645,7 @@
       <c r="U182" s="1"/>
       <c r="V182" s="2"/>
     </row>
-    <row r="183" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="84" t="s">
         <v>245</v>
       </c>
@@ -15648,7 +15659,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="38"/>
       <c r="B184" s="2" t="s">
         <v>248</v>
@@ -15658,7 +15669,7 @@
       </c>
       <c r="D184" s="27"/>
     </row>
-    <row r="185" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="39"/>
       <c r="B185" s="14" t="s">
         <v>247</v>
@@ -15668,7 +15679,7 @@
       </c>
       <c r="D185" s="31"/>
     </row>
-    <row r="186" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="37" t="s">
         <v>251</v>
       </c>
@@ -15676,7 +15687,7 @@
       <c r="C186" s="43"/>
       <c r="D186" s="35"/>
     </row>
-    <row r="187" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="38" t="s">
         <v>252</v>
       </c>
@@ -15685,42 +15696,42 @@
       </c>
       <c r="D187" s="27"/>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A188" s="38"/>
       <c r="C188" s="71" t="s">
         <v>254</v>
       </c>
       <c r="D188" s="27"/>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A189" s="38"/>
       <c r="C189" s="71" t="s">
         <v>255</v>
       </c>
       <c r="D189" s="27"/>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A190" s="38"/>
       <c r="C190" s="71" t="s">
         <v>256</v>
       </c>
       <c r="D190" s="27"/>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A191" s="38"/>
       <c r="C191" s="71" t="s">
         <v>257</v>
       </c>
       <c r="D191" s="27"/>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A192" s="38"/>
       <c r="C192" s="71" t="s">
         <v>258</v>
       </c>
       <c r="D192" s="27"/>
     </row>
-    <row r="193" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="39"/>
       <c r="B193" s="14"/>
       <c r="C193" s="72" t="s">
@@ -15728,7 +15739,7 @@
       </c>
       <c r="D193" s="31"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="23" t="s">
         <v>260</v>
       </c>
@@ -15738,35 +15749,35 @@
         <v>330</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="38"/>
       <c r="C195" s="80" t="s">
         <v>331</v>
       </c>
       <c r="D195" s="27"/>
     </row>
-    <row r="196" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="38"/>
       <c r="C196" s="80" t="s">
         <v>332</v>
       </c>
       <c r="D196" s="27"/>
     </row>
-    <row r="197" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="38"/>
       <c r="C197" s="80" t="s">
         <v>333</v>
       </c>
       <c r="D197" s="27"/>
     </row>
-    <row r="198" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="38"/>
       <c r="C198" s="80" t="s">
         <v>334</v>
       </c>
       <c r="D198" s="27"/>
     </row>
-    <row r="199" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="39"/>
       <c r="B199" s="14"/>
       <c r="C199" s="83" t="s">
@@ -15774,7 +15785,7 @@
       </c>
       <c r="D199" s="31"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="23" t="s">
         <v>261</v>
       </c>
@@ -15786,7 +15797,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="38"/>
       <c r="B201" s="86" t="s">
         <v>198</v>
@@ -15796,7 +15807,7 @@
       </c>
       <c r="D201" s="27"/>
     </row>
-    <row r="202" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="88" t="s">
         <v>262</v>
       </c>
@@ -15808,7 +15819,7 @@
       </c>
       <c r="D202" s="27"/>
     </row>
-    <row r="203" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A203" s="88" t="s">
         <v>263</v>
       </c>
@@ -15820,7 +15831,7 @@
       </c>
       <c r="D203" s="27"/>
     </row>
-    <row r="204" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="88" t="s">
         <v>264</v>
       </c>
@@ -15832,7 +15843,7 @@
       </c>
       <c r="D204" s="27"/>
     </row>
-    <row r="205" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="89" t="s">
         <v>265</v>
       </c>
@@ -15844,7 +15855,7 @@
       </c>
       <c r="D205" s="31"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="42" t="s">
         <v>272</v>
       </c>
@@ -15852,42 +15863,42 @@
         <v>340</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C207" s="80" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C208" s="80" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C209" s="80" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C210" s="80" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="211" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C211" s="80" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="212" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C212" s="80" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="213" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C213" s="80" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="214" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="84" t="s">
         <v>277</v>
       </c>
@@ -15895,7 +15906,7 @@
       <c r="C214" s="43"/>
       <c r="D214" s="35"/>
     </row>
-    <row r="215" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A215" s="39"/>
       <c r="B215" s="14"/>
       <c r="C215" s="72" t="s">
@@ -15903,7 +15914,7 @@
       </c>
       <c r="D215" s="31"/>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A216" s="23" t="s">
         <v>279</v>
       </c>
@@ -15911,7 +15922,7 @@
       <c r="C216" s="43"/>
       <c r="D216" s="35"/>
     </row>
-    <row r="217" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A217" s="39"/>
       <c r="B217" s="14"/>
       <c r="C217" s="72" t="s">
@@ -15919,7 +15930,7 @@
       </c>
       <c r="D217" s="31"/>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
       <c r="B219" s="5"/>
       <c r="C219" s="6"/>
@@ -15938,7 +15949,7 @@
       <c r="S219" s="5"/>
       <c r="U219" s="5"/>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>353</v>
       </c>
@@ -15947,12 +15958,12 @@
       <c r="U220" s="1"/>
       <c r="V220" s="2"/>
     </row>
-    <row r="221" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221" s="104" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A222" s="23" t="s">
         <v>355</v>
       </c>
@@ -15962,7 +15973,7 @@
       </c>
       <c r="D222" s="124"/>
     </row>
-    <row r="223" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A223" s="38" t="s">
         <v>573</v>
       </c>
@@ -15974,7 +15985,7 @@
       </c>
       <c r="D223" s="27"/>
     </row>
-    <row r="224" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="38" t="s">
         <v>575</v>
       </c>
@@ -15983,14 +15994,14 @@
       </c>
       <c r="D224" s="27"/>
     </row>
-    <row r="225" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A225" s="38"/>
       <c r="C225" s="126" t="s">
         <v>578</v>
       </c>
       <c r="D225" s="27"/>
     </row>
-    <row r="226" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:22" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A226" s="39"/>
       <c r="B226" s="125" t="s">
         <v>473</v>
@@ -16005,7 +16016,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="227" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A227" s="23" t="s">
         <v>356</v>
       </c>
@@ -16015,7 +16026,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="228" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:22" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A228" s="39"/>
       <c r="B228" s="125" t="s">
         <v>475</v>
@@ -16025,7 +16036,7 @@
       </c>
       <c r="D228" s="31"/>
     </row>
-    <row r="229" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A229" s="23" t="s">
         <v>358</v>
       </c>
@@ -16035,7 +16046,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="230" spans="1:22" ht="189" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:22" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A230" s="39"/>
       <c r="B230" s="125" t="s">
         <v>476</v>
@@ -16045,7 +16056,7 @@
       </c>
       <c r="D230" s="31"/>
     </row>
-    <row r="232" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A232" s="3"/>
       <c r="B232" s="5"/>
       <c r="C232" s="6"/>
@@ -16064,7 +16075,7 @@
       <c r="S232" s="5"/>
       <c r="U232" s="5"/>
     </row>
-    <row r="233" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>360</v>
       </c>
@@ -16073,7 +16084,7 @@
       <c r="U233" s="1"/>
       <c r="V233" s="2"/>
     </row>
-    <row r="234" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A234" s="23" t="s">
         <v>361</v>
       </c>
@@ -16083,7 +16094,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="235" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A235" s="38" t="s">
         <v>362</v>
       </c>
@@ -16101,7 +16112,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="236" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A236" s="110" t="s">
         <v>363</v>
       </c>
@@ -16118,7 +16129,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="237" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A237" s="111" t="s">
         <v>365</v>
       </c>
@@ -16130,7 +16141,7 @@
       </c>
       <c r="D237" s="66"/>
     </row>
-    <row r="238" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A238" s="109" t="s">
         <v>367</v>
       </c>
@@ -16138,7 +16149,7 @@
       <c r="C238" s="43"/>
       <c r="D238" s="35"/>
     </row>
-    <row r="239" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A239" s="105"/>
       <c r="B239" s="105" t="s">
         <v>368</v>
@@ -16148,13 +16159,13 @@
       </c>
       <c r="D239" s="27"/>
     </row>
-    <row r="240" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A240" s="54" t="s">
         <v>112</v>
       </c>
       <c r="D240" s="27"/>
     </row>
-    <row r="241" spans="1:22" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:22" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="55" t="s">
         <v>112</v>
       </c>
@@ -16164,7 +16175,7 @@
       <c r="C241" s="46"/>
       <c r="D241" s="31"/>
     </row>
-    <row r="242" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A242" s="109" t="s">
         <v>369</v>
       </c>
@@ -16174,7 +16185,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="243" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:22" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A243" s="39"/>
       <c r="B243" s="14"/>
       <c r="C243" s="107" t="s">
@@ -16182,7 +16193,7 @@
       </c>
       <c r="D243" s="31"/>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
       <c r="B245" s="5"/>
       <c r="C245" s="6"/>
@@ -16201,7 +16212,7 @@
       <c r="S245" s="5"/>
       <c r="U245" s="5"/>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>377</v>
       </c>
@@ -16210,7 +16221,7 @@
       <c r="U246" s="1"/>
       <c r="V246" s="2"/>
     </row>
-    <row r="247" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A247" s="42" t="s">
         <v>371</v>
       </c>
@@ -16221,7 +16232,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="248" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>372</v>
       </c>
@@ -16229,12 +16240,12 @@
         <v>373</v>
       </c>
     </row>
-    <row r="249" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="108" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="250" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="C250" s="105" t="s">
         <v>375</v>
       </c>
@@ -16242,12 +16253,12 @@
         <v>440</v>
       </c>
     </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A251" s="42" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="252" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>442</v>
       </c>
@@ -16261,7 +16272,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A254" s="3"/>
       <c r="B254" s="5"/>
       <c r="C254" s="6"/>
@@ -16280,7 +16291,7 @@
       <c r="S254" s="5"/>
       <c r="U254" s="5"/>
     </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>378</v>
       </c>
@@ -16289,7 +16300,7 @@
       <c r="U255" s="1"/>
       <c r="V255" s="2"/>
     </row>
-    <row r="256" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A256" s="108" t="s">
         <v>380</v>
       </c>
@@ -16300,7 +16311,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A257" s="105" t="s">
         <v>379</v>
       </c>
@@ -16309,12 +16320,12 @@
         <v>381</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="42" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B259" s="105" t="s">
         <v>384</v>
       </c>
@@ -16322,7 +16333,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="42" t="s">
         <v>386</v>
       </c>
@@ -16330,7 +16341,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>388</v>
       </c>
@@ -16344,22 +16355,22 @@
         <v>454</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="42" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C263" s="105" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="42" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="118" t="s">
         <v>456</v>
       </c>
@@ -16370,7 +16381,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="118" t="s">
         <v>457</v>
       </c>
@@ -16381,7 +16392,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="118" t="s">
         <v>458</v>
       </c>
@@ -16392,7 +16403,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="118" t="s">
         <v>459</v>
       </c>
@@ -16401,12 +16412,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="118" t="s">
         <v>456</v>
       </c>
@@ -16417,7 +16428,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="118" t="s">
         <v>457</v>
       </c>
@@ -16425,7 +16436,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="118" t="s">
         <v>457</v>
       </c>
@@ -16433,7 +16444,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="118" t="s">
         <v>457</v>
       </c>
@@ -16441,7 +16452,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="118" t="s">
         <v>458</v>
       </c>
@@ -16449,7 +16460,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="118" t="s">
         <v>458</v>
       </c>
@@ -16457,7 +16468,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="118" t="s">
         <v>458</v>
       </c>
@@ -16465,7 +16476,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="118" t="s">
         <v>459</v>
       </c>
@@ -16473,7 +16484,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="118" t="s">
         <v>459</v>
       </c>
@@ -16481,7 +16492,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="118" t="s">
         <v>459</v>
       </c>
@@ -16489,12 +16500,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="118" t="s">
         <v>456</v>
       </c>
@@ -16505,7 +16516,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="118" t="s">
         <v>457</v>
       </c>
@@ -16516,7 +16527,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="118" t="s">
         <v>457</v>
       </c>
@@ -16527,7 +16538,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="118" t="s">
         <v>457</v>
       </c>
@@ -16538,7 +16549,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="118" t="s">
         <v>458</v>
       </c>
@@ -16549,7 +16560,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="118" t="s">
         <v>458</v>
       </c>
@@ -16560,7 +16571,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="289" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A289" s="118" t="s">
         <v>458</v>
       </c>
@@ -16571,7 +16582,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="290" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A290" s="118" t="s">
         <v>459</v>
       </c>
@@ -16579,7 +16590,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="291" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A291" s="118" t="s">
         <v>459</v>
       </c>
@@ -16587,7 +16598,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="292" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A292" s="118" t="s">
         <v>459</v>
       </c>
@@ -16595,17 +16606,17 @@
         <v>466</v>
       </c>
     </row>
-    <row r="293" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="294" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A294" s="105" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="296" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A296" s="3"/>
       <c r="B296" s="5"/>
       <c r="C296" s="6"/>
@@ -16624,7 +16635,7 @@
       <c r="S296" s="5"/>
       <c r="U296" s="5"/>
     </row>
-    <row r="297" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>391</v>
       </c>
@@ -16633,7 +16644,7 @@
       <c r="U297" s="1"/>
       <c r="V297" s="2"/>
     </row>
-    <row r="298" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="108" t="s">
         <v>392</v>
       </c>
@@ -16641,7 +16652,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="299" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>393</v>
       </c>
@@ -16649,42 +16660,42 @@
         <v>394</v>
       </c>
     </row>
-    <row r="300" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="C300" s="105" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="301" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A301" s="42" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="302" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="303" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A303" s="113" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="304" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C304" s="105" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="305" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A305" s="114" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="306" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="C306" s="105" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="308" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A308" s="3"/>
       <c r="B308" s="5"/>
       <c r="C308" s="6"/>
@@ -16703,7 +16714,7 @@
       <c r="S308" s="5"/>
       <c r="U308" s="5"/>
     </row>
-    <row r="309" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>400</v>
       </c>
@@ -16712,7 +16723,7 @@
       <c r="U309" s="1"/>
       <c r="V309" s="2"/>
     </row>
-    <row r="310" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A310" s="42" t="s">
         <v>401</v>
       </c>
@@ -16720,7 +16731,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="311" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A311" s="105" t="s">
         <v>402</v>
       </c>
@@ -16731,12 +16742,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="312" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A312" s="42" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="313" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B313" s="105" t="s">
         <v>447</v>
       </c>
@@ -16744,52 +16755,52 @@
         <v>404</v>
       </c>
     </row>
-    <row r="314" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A314" s="42" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="315" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C315" s="105" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="316" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A316" s="42" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="317" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C317" s="105" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="318" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A318" s="42" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="319" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="C319" s="105" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="320" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A320" s="42" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="321" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="C321" s="105" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="322" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A322" s="42" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="323" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>414</v>
       </c>
@@ -16797,32 +16808,32 @@
         <v>448</v>
       </c>
     </row>
-    <row r="324" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="325" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A325" s="113" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="326" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="C326" s="105" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="327" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A327" s="114" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="328" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C328" s="105" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="330" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A330" s="3"/>
       <c r="B330" s="5"/>
       <c r="C330" s="6"/>
@@ -16841,7 +16852,7 @@
       <c r="S330" s="5"/>
       <c r="U330" s="5"/>
     </row>
-    <row r="331" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>419</v>
       </c>
@@ -16850,12 +16861,12 @@
       <c r="U331" s="1"/>
       <c r="V331" s="2"/>
     </row>
-    <row r="332" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A332" s="42" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="333" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A333" s="105" t="s">
         <v>421</v>
       </c>
@@ -16863,12 +16874,12 @@
         <v>422</v>
       </c>
     </row>
-    <row r="334" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A334" s="108" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="335" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B335" s="105" t="s">
         <v>449</v>
       </c>
@@ -16877,27 +16888,27 @@
       </c>
       <c r="D335" s="2"/>
     </row>
-    <row r="336" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A336" s="113" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="337" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="C337" s="105" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="338" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A338" s="114" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="339" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C339" s="105" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="341" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A341" s="3"/>
       <c r="B341" s="5"/>
       <c r="C341" s="6"/>
@@ -16916,7 +16927,7 @@
       <c r="S341" s="5"/>
       <c r="U341" s="5"/>
     </row>
-    <row r="342" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="1" t="s">
         <v>477</v>
       </c>
@@ -16925,7 +16936,7 @@
       <c r="U342" s="1"/>
       <c r="V342" s="2"/>
     </row>
-    <row r="343" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A343" s="37" t="s">
         <v>478</v>
       </c>
@@ -16933,7 +16944,7 @@
       <c r="C343" s="43"/>
       <c r="D343" s="35"/>
     </row>
-    <row r="344" spans="1:22" ht="174.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:22" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A344" s="55" t="s">
         <v>480</v>
       </c>
@@ -16941,7 +16952,7 @@
       <c r="C344" s="46"/>
       <c r="D344" s="31"/>
     </row>
-    <row r="345" spans="1:22" ht="145.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:22" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A345" s="133" t="s">
         <v>479</v>
       </c>
@@ -16953,7 +16964,7 @@
       </c>
       <c r="D345" s="135"/>
     </row>
-    <row r="346" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A346" s="127" t="s">
         <v>482</v>
       </c>
@@ -16963,7 +16974,7 @@
       </c>
       <c r="D346" s="130"/>
     </row>
-    <row r="347" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A347" s="49" t="s">
         <v>483</v>
       </c>
@@ -16971,7 +16982,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="348" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="A348" s="54" t="s">
         <v>511</v>
       </c>
@@ -16983,7 +16994,7 @@
       </c>
       <c r="D348" s="27"/>
     </row>
-    <row r="349" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A349" s="38"/>
       <c r="B349" s="2" t="s">
         <v>513</v>
@@ -16995,7 +17006,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="350" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A350" s="49" t="s">
         <v>484</v>
       </c>
@@ -17003,7 +17014,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="351" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A351" s="126" t="s">
         <v>519</v>
       </c>
@@ -17015,7 +17026,7 @@
       </c>
       <c r="D351" s="27"/>
     </row>
-    <row r="352" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A352" s="38"/>
       <c r="B352" s="2" t="s">
         <v>518</v>
@@ -17025,7 +17036,7 @@
       </c>
       <c r="D352" s="27"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="49" t="s">
         <v>486</v>
       </c>
@@ -17033,7 +17044,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="102" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:4" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A354" s="125"/>
       <c r="B354" s="125" t="s">
         <v>521</v>
@@ -17043,7 +17054,7 @@
       </c>
       <c r="D354" s="31"/>
     </row>
-    <row r="355" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="127" t="s">
         <v>487</v>
       </c>
@@ -17055,7 +17066,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="127" t="s">
         <v>488</v>
       </c>
@@ -17065,7 +17076,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A357" s="49" t="s">
         <v>526</v>
       </c>
@@ -17077,7 +17088,7 @@
       </c>
       <c r="D357" s="27"/>
     </row>
-    <row r="358" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A358" s="132" t="s">
         <v>528</v>
       </c>
@@ -17091,7 +17102,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="136" t="s">
         <v>489</v>
       </c>
@@ -17101,7 +17112,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A360" s="49" t="s">
         <v>535</v>
       </c>
@@ -17113,7 +17124,7 @@
       </c>
       <c r="D360" s="27"/>
     </row>
-    <row r="361" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:4" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="132" t="s">
         <v>534</v>
       </c>
@@ -17125,7 +17136,7 @@
       </c>
       <c r="D361" s="31"/>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="136" t="s">
         <v>490</v>
       </c>
@@ -17135,7 +17146,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A363" s="49" t="s">
         <v>540</v>
       </c>
@@ -17147,7 +17158,7 @@
       </c>
       <c r="D363" s="27"/>
     </row>
-    <row r="364" spans="1:4" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A364" s="137" t="s">
         <v>544</v>
       </c>
@@ -17161,7 +17172,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A365" s="136" t="s">
         <v>491</v>
       </c>
@@ -17173,14 +17184,14 @@
         <v>547</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="49" t="s">
         <v>550</v>
       </c>
       <c r="C366" s="126"/>
       <c r="D366" s="27"/>
     </row>
-    <row r="367" spans="1:4" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:4" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A367" s="141" t="s">
         <v>552</v>
       </c>
@@ -17192,7 +17203,7 @@
       </c>
       <c r="D367" s="27"/>
     </row>
-    <row r="368" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A368" s="62" t="s">
         <v>492</v>
       </c>
@@ -17206,7 +17217,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A369" s="38" t="s">
         <v>493</v>
       </c>
@@ -17220,13 +17231,13 @@
         <v>554</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="49" t="s">
         <v>556</v>
       </c>
       <c r="D370" s="27"/>
     </row>
-    <row r="371" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A371" s="38"/>
       <c r="B371" s="126" t="s">
         <v>581</v>
@@ -17236,13 +17247,13 @@
       </c>
       <c r="D371" s="27"/>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="49" t="s">
         <v>557</v>
       </c>
       <c r="D372" s="27"/>
     </row>
-    <row r="373" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A373" s="38"/>
       <c r="B373" s="126" t="s">
         <v>583</v>
@@ -17252,7 +17263,7 @@
       </c>
       <c r="D373" s="27"/>
     </row>
-    <row r="374" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A374" s="38"/>
       <c r="B374" s="2" t="s">
         <v>580</v>
@@ -17262,7 +17273,7 @@
       </c>
       <c r="D374" s="27"/>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="49" t="s">
         <v>558</v>
       </c>
@@ -17270,14 +17281,14 @@
         <v>560</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A376" s="38"/>
       <c r="C376" s="126" t="s">
         <v>498</v>
       </c>
       <c r="D376" s="27"/>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="49" t="s">
         <v>559</v>
       </c>
@@ -17285,7 +17296,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A378" s="38"/>
       <c r="B378" s="126" t="s">
         <v>582</v>
@@ -17295,27 +17306,27 @@
       </c>
       <c r="D378" s="27"/>
     </row>
-    <row r="379" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A379" s="38"/>
       <c r="C379" s="126" t="s">
         <v>562</v>
       </c>
       <c r="D379" s="27"/>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="49" t="s">
         <v>500</v>
       </c>
       <c r="D380" s="27"/>
     </row>
-    <row r="381" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A381" s="38"/>
       <c r="C381" s="126" t="s">
         <v>563</v>
       </c>
       <c r="D381" s="27"/>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="49" t="s">
         <v>501</v>
       </c>
@@ -17323,14 +17334,14 @@
         <v>564</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A383" s="38"/>
       <c r="C383" s="126" t="s">
         <v>504</v>
       </c>
       <c r="D383" s="27"/>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="140" t="s">
         <v>502</v>
       </c>
@@ -17338,7 +17349,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="385" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A385" s="38"/>
       <c r="B385" s="126" t="s">
         <v>566</v>
@@ -17348,7 +17359,7 @@
       </c>
       <c r="D385" s="27"/>
     </row>
-    <row r="386" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A386" s="49" t="s">
         <v>567</v>
       </c>
@@ -17357,20 +17368,20 @@
       </c>
       <c r="D386" s="27"/>
     </row>
-    <row r="387" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A387" s="49" t="s">
         <v>505</v>
       </c>
       <c r="D387" s="27"/>
     </row>
-    <row r="388" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A388" s="38"/>
       <c r="C388" s="126" t="s">
         <v>506</v>
       </c>
       <c r="D388" s="27"/>
     </row>
-    <row r="389" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A389" s="49" t="s">
         <v>507</v>
       </c>
@@ -17378,7 +17389,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="390" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A390" s="39"/>
       <c r="B390" s="125" t="s">
         <v>570</v>
@@ -17388,7 +17399,7 @@
       </c>
       <c r="D390" s="31"/>
     </row>
-    <row r="392" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A392" s="3"/>
       <c r="B392" s="5"/>
       <c r="C392" s="6"/>
@@ -17407,7 +17418,7 @@
       <c r="S392" s="5"/>
       <c r="U392" s="5"/>
     </row>
-    <row r="393" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>586</v>
       </c>
@@ -17418,7 +17429,7 @@
       <c r="U393" s="1"/>
       <c r="V393" s="2"/>
     </row>
-    <row r="394" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A394" s="104" t="s">
         <v>593</v>
       </c>
@@ -17426,12 +17437,12 @@
         <v>618</v>
       </c>
     </row>
-    <row r="395" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C395" s="142" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="396" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A396" s="42" t="s">
         <v>588</v>
       </c>
@@ -17439,13 +17450,13 @@
         <v>619</v>
       </c>
     </row>
-    <row r="397" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B397" s="142"/>
       <c r="C397" s="142" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="398" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A398" s="104" t="s">
         <v>589</v>
       </c>
@@ -17453,12 +17464,12 @@
         <v>621</v>
       </c>
     </row>
-    <row r="399" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C399" s="142" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="400" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A400" s="42" t="s">
         <v>590</v>
       </c>
@@ -17466,12 +17477,12 @@
         <v>623</v>
       </c>
     </row>
-    <row r="401" spans="1:22" ht="145" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:22" ht="144" x14ac:dyDescent="0.3">
       <c r="C401" s="142" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A402" s="42" t="s">
         <v>591</v>
       </c>
@@ -17479,12 +17490,12 @@
         <v>625</v>
       </c>
     </row>
-    <row r="403" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A405" s="3"/>
       <c r="B405" s="5"/>
       <c r="C405" s="6"/>
@@ -17503,7 +17514,7 @@
       <c r="S405" s="5"/>
       <c r="U405" s="5"/>
     </row>
-    <row r="406" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A406" s="1" t="s">
         <v>611</v>
       </c>
@@ -17514,7 +17525,7 @@
       <c r="U406" s="1"/>
       <c r="V406" s="2"/>
     </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A407" s="23" t="s">
         <v>594</v>
       </c>
@@ -17524,7 +17535,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="408" spans="1:22" ht="116.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:22" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A408" s="39"/>
       <c r="B408" s="143" t="s">
         <v>626</v>
@@ -17534,7 +17545,7 @@
       </c>
       <c r="D408" s="31"/>
     </row>
-    <row r="409" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A409" s="23" t="s">
         <v>595</v>
       </c>
@@ -17544,7 +17555,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="410" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A410" s="38"/>
       <c r="C410" s="142" t="s">
         <v>596</v>
@@ -17553,7 +17564,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="411" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A411" s="38"/>
       <c r="C411" s="142" t="s">
         <v>597</v>
@@ -17562,7 +17573,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="412" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A412" s="38"/>
       <c r="C412" s="142" t="s">
         <v>598</v>
@@ -17571,28 +17582,28 @@
         <v>631</v>
       </c>
     </row>
-    <row r="413" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A413" s="38"/>
       <c r="C413" s="142" t="s">
         <v>600</v>
       </c>
       <c r="D413" s="27"/>
     </row>
-    <row r="414" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A414" s="38"/>
       <c r="C414" s="142" t="s">
         <v>628</v>
       </c>
       <c r="D414" s="27"/>
     </row>
-    <row r="415" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A415" s="38"/>
       <c r="C415" s="142" t="s">
         <v>599</v>
       </c>
       <c r="D415" s="27"/>
     </row>
-    <row r="416" spans="1:22" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:22" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A416" s="39"/>
       <c r="B416" s="14"/>
       <c r="C416" s="143" t="s">
@@ -17600,7 +17611,7 @@
       </c>
       <c r="D416" s="31"/>
     </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A417" s="23" t="s">
         <v>602</v>
       </c>
@@ -17610,7 +17621,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="418" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A418" s="38"/>
       <c r="B418" s="142" t="s">
         <v>633</v>
@@ -17620,7 +17631,7 @@
       </c>
       <c r="D418" s="27"/>
     </row>
-    <row r="419" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A419" s="38"/>
       <c r="B419" s="142" t="s">
         <v>637</v>
@@ -17632,7 +17643,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="420" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:22" ht="72" x14ac:dyDescent="0.3">
       <c r="A420" s="38"/>
       <c r="B420" s="142" t="s">
         <v>640</v>
@@ -17644,7 +17655,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="421" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A421" s="38" t="s">
         <v>604</v>
       </c>
@@ -17658,7 +17669,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="422" spans="1:22" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:22" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A422" s="39" t="s">
         <v>606</v>
       </c>
@@ -17670,7 +17681,7 @@
       </c>
       <c r="D422" s="31"/>
     </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A423" s="23" t="s">
         <v>602</v>
       </c>
@@ -17680,7 +17691,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="424" spans="1:22" ht="131" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:22" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A424" s="39"/>
       <c r="B424" s="14"/>
       <c r="C424" s="143" t="s">
@@ -17688,7 +17699,7 @@
       </c>
       <c r="D424" s="31"/>
     </row>
-    <row r="425" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A425" s="23" t="s">
         <v>608</v>
       </c>
@@ -17698,7 +17709,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="426" spans="1:22" ht="73" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:22" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A426" s="39"/>
       <c r="B426" s="14"/>
       <c r="C426" s="143" t="s">
@@ -17706,7 +17717,7 @@
       </c>
       <c r="D426" s="31"/>
     </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A428" s="3"/>
       <c r="B428" s="5"/>
       <c r="C428" s="6"/>
@@ -17725,7 +17736,7 @@
       <c r="S428" s="5"/>
       <c r="U428" s="5"/>
     </row>
-    <row r="429" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>612</v>
       </c>
@@ -17736,12 +17747,12 @@
       <c r="U429" s="1"/>
       <c r="V429" s="2"/>
     </row>
-    <row r="431" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A431" s="42" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="433" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A433" s="3"/>
       <c r="B433" s="5"/>
       <c r="C433" s="6"/>
@@ -17760,7 +17771,7 @@
       <c r="S433" s="5"/>
       <c r="U433" s="5"/>
     </row>
-    <row r="434" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>615</v>
       </c>
@@ -17774,7 +17785,7 @@
       <c r="U434" s="1"/>
       <c r="V434" s="2"/>
     </row>
-    <row r="435" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:22" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B435" s="142" t="s">
         <v>648</v>
       </c>
@@ -17785,7 +17796,7 @@
       <c r="U435" s="1"/>
       <c r="V435" s="2"/>
     </row>
-    <row r="436" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A436" s="104" t="s">
         <v>617</v>
       </c>
@@ -17793,13 +17804,13 @@
         <v>649</v>
       </c>
     </row>
-    <row r="437" spans="1:22" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:22" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="C437" s="142" t="s">
         <v>650</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A85" r:id="rId1" xr:uid="{6A249A6A-F3CD-4844-A86C-4629577D6DE8}"/>
     <hyperlink ref="H235" r:id="rId2" xr:uid="{2175C210-320A-4A9E-AC94-5F2484173428}"/>
@@ -17818,718 +17829,718 @@
       <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="93" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="80.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="80.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" s="149" t="s">
+    <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="146" t="s">
         <v>655</v>
       </c>
       <c r="B2" s="115" t="s">
         <v>653</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="147" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="149" t="s">
+    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="146" t="s">
         <v>654</v>
       </c>
       <c r="B3" s="115" t="s">
         <v>653</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="147" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="1:3" ht="92" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="151" t="s">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:3" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="148" t="s">
         <v>657</v>
       </c>
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="148" t="s">
         <v>658</v>
       </c>
-      <c r="C8" s="151" t="s">
+      <c r="C8" s="148" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="152" t="s">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="149" t="s">
         <v>660</v>
       </c>
-      <c r="B9" s="153" t="s">
+      <c r="B9" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C9" s="154"/>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="151" t="s">
+      <c r="C9" s="151"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="148" t="s">
         <v>662</v>
       </c>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="154" t="s">
+      <c r="B10" s="152"/>
+      <c r="C10" s="152"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="151" t="s">
         <v>663</v>
       </c>
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C11" s="154"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="154" t="s">
+      <c r="C11" s="151"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="151" t="s">
         <v>664</v>
       </c>
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C12" s="157"/>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="154" t="s">
+      <c r="C12" s="154"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="151" t="s">
         <v>665</v>
       </c>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C13" s="157"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="154" t="s">
+      <c r="C13" s="154"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="151" t="s">
         <v>666</v>
       </c>
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C14" s="157" t="s">
+      <c r="C14" s="154" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="154" t="s">
+    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="151" t="s">
         <v>668</v>
       </c>
-      <c r="B15" s="153" t="s">
+      <c r="B15" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C15" s="157"/>
-    </row>
-    <row r="16" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="154" t="s">
+      <c r="C15" s="154"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="151" t="s">
         <v>669</v>
       </c>
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C16" s="157" t="s">
+      <c r="C16" s="154" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="151" t="s">
+    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="148" t="s">
         <v>671</v>
       </c>
-      <c r="B17" s="155"/>
-      <c r="C17" s="155"/>
-    </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="154" t="s">
+      <c r="B17" s="152"/>
+      <c r="C17" s="152"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="151" t="s">
         <v>672</v>
       </c>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C18" s="157"/>
-    </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="154" t="s">
+      <c r="C18" s="154"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="151" t="s">
         <v>673</v>
       </c>
-      <c r="B19" s="153" t="s">
+      <c r="B19" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C19" s="157"/>
-    </row>
-    <row r="20" spans="1:3" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="154" t="s">
+      <c r="C19" s="154"/>
+    </row>
+    <row r="20" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="151" t="s">
         <v>674</v>
       </c>
-      <c r="B20" s="156" t="s">
+      <c r="B20" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C20" s="157" t="s">
+      <c r="C20" s="154" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="154" t="s">
+    <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="151" t="s">
         <v>676</v>
       </c>
-      <c r="B21" s="153" t="s">
+      <c r="B21" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C21" s="157"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="154" t="s">
+      <c r="C21" s="154"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="151" t="s">
         <v>677</v>
       </c>
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C22" s="157"/>
-    </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="154" t="s">
+      <c r="C22" s="154"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="151" t="s">
         <v>668</v>
       </c>
-      <c r="B23" s="156" t="s">
+      <c r="B23" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C23" s="157" t="s">
+      <c r="C23" s="154" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="154" t="s">
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="151" t="s">
         <v>679</v>
       </c>
-      <c r="B24" s="153" t="s">
+      <c r="B24" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C24" s="157"/>
-    </row>
-    <row r="25" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="157" t="s">
+      <c r="C24" s="154"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="154" t="s">
         <v>680</v>
       </c>
-      <c r="B25" s="156" t="s">
+      <c r="B25" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C25" s="157" t="s">
+      <c r="C25" s="154" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="151" t="s">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="148" t="s">
         <v>681</v>
       </c>
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-    </row>
-    <row r="27" spans="1:3" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="157" t="s">
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+    </row>
+    <row r="27" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="154" t="s">
         <v>682</v>
       </c>
-      <c r="B27" s="156" t="s">
+      <c r="B27" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C27" s="157" t="s">
+      <c r="C27" s="154" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="157" t="s">
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="154" t="s">
         <v>684</v>
       </c>
-      <c r="B28" s="153" t="s">
+      <c r="B28" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C28" s="157"/>
-    </row>
-    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="157" t="s">
+      <c r="C28" s="154"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="154" t="s">
         <v>685</v>
       </c>
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C29" s="154"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="157" t="s">
+      <c r="C29" s="151"/>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="154" t="s">
         <v>686</v>
       </c>
-      <c r="B30" s="156" t="s">
+      <c r="B30" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C30" s="158" t="s">
+      <c r="C30" s="155" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="157" t="s">
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="154" t="s">
         <v>688</v>
       </c>
-      <c r="B31" s="156" t="s">
+      <c r="B31" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C31" s="158" t="s">
+      <c r="C31" s="155" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="157" t="s">
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="154" t="s">
         <v>690</v>
       </c>
-      <c r="B32" s="153" t="s">
+      <c r="B32" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C32" s="154"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="158" t="s">
+      <c r="C32" s="151"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="155" t="s">
         <v>691</v>
       </c>
-      <c r="B33" s="156" t="s">
+      <c r="B33" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C33" s="157" t="s">
+      <c r="C33" s="154" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="157" t="s">
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="154" t="s">
         <v>693</v>
       </c>
-      <c r="B34" s="156" t="s">
+      <c r="B34" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C34" s="158" t="s">
+      <c r="C34" s="155" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="158" t="s">
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="155" t="s">
         <v>695</v>
       </c>
-      <c r="B35" s="153" t="s">
+      <c r="B35" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C35" s="154"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="158" t="s">
+      <c r="C35" s="151"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="155" t="s">
         <v>696</v>
       </c>
-      <c r="B36" s="156" t="s">
+      <c r="B36" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C36" s="157" t="s">
+      <c r="C36" s="154" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="158" t="s">
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="155" t="s">
         <v>697</v>
       </c>
-      <c r="B37" s="156" t="s">
+      <c r="B37" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C37" s="158" t="s">
+      <c r="C37" s="155" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="151" t="s">
+    <row r="38" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="148" t="s">
         <v>699</v>
       </c>
-      <c r="B38" s="155"/>
-      <c r="C38" s="155"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="154" t="s">
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="151" t="s">
         <v>700</v>
       </c>
-      <c r="B39" s="159" t="s">
+      <c r="B39" s="156" t="s">
         <v>701</v>
       </c>
-      <c r="C39" s="158" t="s">
+      <c r="C39" s="155" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="154" t="s">
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="151" t="s">
         <v>703</v>
       </c>
-      <c r="B40" s="156" t="s">
+      <c r="B40" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C40" s="158" t="s">
+      <c r="C40" s="155" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="154" t="s">
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="151" t="s">
         <v>705</v>
       </c>
-      <c r="B41" s="156" t="s">
+      <c r="B41" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C41" s="154" t="s">
+      <c r="C41" s="151" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="154" t="s">
+    <row r="42" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="151" t="s">
         <v>707</v>
       </c>
-      <c r="B42" s="156" t="s">
+      <c r="B42" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C42" s="154" t="s">
+      <c r="C42" s="151" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="154" t="s">
+    <row r="43" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="151" t="s">
         <v>709</v>
       </c>
-      <c r="B43" s="156" t="s">
+      <c r="B43" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C43" s="154" t="s">
+      <c r="C43" s="151" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="154" t="s">
+    <row r="44" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="151" t="s">
         <v>711</v>
       </c>
-      <c r="B44" s="156" t="s">
+      <c r="B44" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C44" s="154" t="s">
+      <c r="C44" s="151" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="154" t="s">
+    <row r="45" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="151" t="s">
         <v>712</v>
       </c>
-      <c r="B45" s="156" t="s">
+      <c r="B45" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C45" s="154" t="s">
+      <c r="C45" s="151" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="154" t="s">
+    <row r="46" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="151" t="s">
         <v>713</v>
       </c>
-      <c r="B46" s="156" t="s">
+      <c r="B46" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C46" s="154" t="s">
+      <c r="C46" s="151" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="154" t="s">
+    <row r="47" spans="1:3" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="151" t="s">
         <v>714</v>
       </c>
-      <c r="B47" s="156" t="s">
+      <c r="B47" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C47" s="154" t="s">
+      <c r="C47" s="151" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="154" t="s">
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="151" t="s">
         <v>716</v>
       </c>
-      <c r="B48" s="153" t="s">
+      <c r="B48" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C48" s="154"/>
-    </row>
-    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="151" t="s">
+      <c r="C48" s="151"/>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="148" t="s">
         <v>717</v>
       </c>
-      <c r="B49" s="155"/>
-      <c r="C49" s="155"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="154" t="s">
+      <c r="B49" s="152"/>
+      <c r="C49" s="152"/>
+    </row>
+    <row r="50" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="151" t="s">
         <v>718</v>
       </c>
-      <c r="B50" s="159" t="s">
+      <c r="B50" s="156" t="s">
         <v>701</v>
       </c>
-      <c r="C50" s="158" t="s">
+      <c r="C50" s="155" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="154" t="s">
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="151" t="s">
         <v>719</v>
       </c>
-      <c r="B51" s="156" t="s">
+      <c r="B51" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C51" s="154" t="s">
+      <c r="C51" s="151" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="154" t="s">
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="151" t="s">
         <v>721</v>
       </c>
-      <c r="B52" s="156" t="s">
+      <c r="B52" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C52" s="154" t="s">
+      <c r="C52" s="151" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="154" t="s">
+    <row r="53" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="151" t="s">
         <v>723</v>
       </c>
-      <c r="B53" s="156" t="s">
+      <c r="B53" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C53" s="154" t="s">
+      <c r="C53" s="151" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="154" t="s">
+    <row r="54" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="151" t="s">
         <v>725</v>
       </c>
-      <c r="B54" s="156" t="s">
+      <c r="B54" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C54" s="154" t="s">
+      <c r="C54" s="151" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="154" t="s">
+    <row r="55" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="151" t="s">
         <v>727</v>
       </c>
-      <c r="B55" s="156" t="s">
+      <c r="B55" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C55" s="160" t="s">
+      <c r="C55" s="157" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="154" t="s">
+    <row r="56" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="151" t="s">
         <v>729</v>
       </c>
-      <c r="B56" s="156" t="s">
+      <c r="B56" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C56" s="154" t="s">
+      <c r="C56" s="151" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="154" t="s">
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="151" t="s">
         <v>731</v>
       </c>
-      <c r="B57" s="156" t="s">
+      <c r="B57" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C57" s="154" t="s">
+      <c r="C57" s="151" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="151" t="s">
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="148" t="s">
         <v>733</v>
       </c>
-      <c r="B58" s="155"/>
-      <c r="C58" s="155"/>
-    </row>
-    <row r="59" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="154" t="s">
+      <c r="B58" s="152"/>
+      <c r="C58" s="152"/>
+    </row>
+    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="151" t="s">
         <v>734</v>
       </c>
-      <c r="B59" s="159" t="s">
+      <c r="B59" s="156" t="s">
         <v>701</v>
       </c>
-      <c r="C59" s="158" t="s">
+      <c r="C59" s="155" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="154" t="s">
+    <row r="60" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="151" t="s">
         <v>735</v>
       </c>
-      <c r="B60" s="156" t="s">
+      <c r="B60" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C60" s="160" t="s">
+      <c r="C60" s="157" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="154" t="s">
+    <row r="61" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="151" t="s">
         <v>737</v>
       </c>
-      <c r="B61" s="153" t="s">
+      <c r="B61" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C61" s="154"/>
-    </row>
-    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="154" t="s">
+      <c r="C61" s="151"/>
+    </row>
+    <row r="62" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="151" t="s">
         <v>738</v>
       </c>
-      <c r="B62" s="156" t="s">
+      <c r="B62" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C62" s="154" t="s">
+      <c r="C62" s="151" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="154" t="s">
+    <row r="63" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="151" t="s">
         <v>740</v>
       </c>
-      <c r="B63" s="156" t="s">
+      <c r="B63" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C63" s="154" t="s">
+      <c r="C63" s="151" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="154" t="s">
+    <row r="64" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="151" t="s">
         <v>742</v>
       </c>
-      <c r="B64" s="153" t="s">
+      <c r="B64" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C64" s="154"/>
-    </row>
-    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="154" t="s">
+      <c r="C64" s="151"/>
+    </row>
+    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="151" t="s">
         <v>743</v>
       </c>
-      <c r="B65" s="156" t="s">
+      <c r="B65" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C65" s="160" t="s">
+      <c r="C65" s="157" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="154" t="s">
+    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="151" t="s">
         <v>669</v>
       </c>
-      <c r="B66" s="156" t="s">
+      <c r="B66" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C66" s="154" t="s">
+      <c r="C66" s="151" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="151" t="s">
+    <row r="67" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="148" t="s">
         <v>746</v>
       </c>
-      <c r="B67" s="155"/>
-      <c r="C67" s="155"/>
-    </row>
-    <row r="68" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A68" s="154" t="s">
+      <c r="B67" s="152"/>
+      <c r="C67" s="152"/>
+    </row>
+    <row r="68" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="151" t="s">
         <v>747</v>
       </c>
-      <c r="B68" s="159" t="s">
+      <c r="B68" s="156" t="s">
         <v>701</v>
       </c>
-      <c r="C68" s="158" t="s">
+      <c r="C68" s="155" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="154" t="s">
+    <row r="69" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="151" t="s">
         <v>748</v>
       </c>
-      <c r="B69" s="153" t="s">
+      <c r="B69" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C69" s="154"/>
-    </row>
-    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="154" t="s">
+      <c r="C69" s="151"/>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="151" t="s">
         <v>749</v>
       </c>
-      <c r="B70" s="156" t="s">
+      <c r="B70" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C70" s="160" t="s">
+      <c r="C70" s="157" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="151" t="s">
+    <row r="71" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="148" t="s">
         <v>751</v>
       </c>
-      <c r="B71" s="155"/>
-      <c r="C71" s="155"/>
-    </row>
-    <row r="72" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="154" t="s">
+      <c r="B71" s="152"/>
+      <c r="C71" s="152"/>
+    </row>
+    <row r="72" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="151" t="s">
         <v>752</v>
       </c>
-      <c r="B72" s="159" t="s">
+      <c r="B72" s="156" t="s">
         <v>701</v>
       </c>
-      <c r="C72" s="158" t="s">
+      <c r="C72" s="155" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="154" t="s">
+    <row r="73" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="151" t="s">
         <v>753</v>
       </c>
-      <c r="B73" s="153" t="s">
+      <c r="B73" s="150" t="s">
         <v>661</v>
       </c>
-      <c r="C73" s="154"/>
-    </row>
-    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="151" t="s">
+      <c r="C73" s="151"/>
+    </row>
+    <row r="74" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="148" t="s">
         <v>754</v>
       </c>
-      <c r="B74" s="155"/>
-      <c r="C74" s="155"/>
-    </row>
-    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="154" t="s">
+      <c r="B74" s="152"/>
+      <c r="C74" s="152"/>
+    </row>
+    <row r="75" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="151" t="s">
         <v>755</v>
       </c>
-      <c r="B75" s="156" t="s">
+      <c r="B75" s="153" t="s">
         <v>351</v>
       </c>
-      <c r="C75" s="160" t="s">
+      <c r="C75" s="157" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="154" t="s">
+    <row r="76" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="151" t="s">
         <v>758</v>
       </c>
-      <c r="B76" s="161" t="s">
+      <c r="B76" s="158" t="s">
         <v>756</v>
       </c>
-      <c r="C76" s="154"/>
+      <c r="C76" s="151"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -18544,39 +18555,39 @@
   <dimension ref="A2:G63"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B13" sqref="B13:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.54296875" customWidth="1"/>
-    <col min="3" max="3" width="36.90625" customWidth="1"/>
-    <col min="4" max="4" width="38.08984375" customWidth="1"/>
-    <col min="5" max="5" width="72.6328125" customWidth="1"/>
-    <col min="6" max="6" width="78.453125" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="36.88671875" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" customWidth="1"/>
+    <col min="5" max="5" width="72.6640625" customWidth="1"/>
+    <col min="6" max="6" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="149" t="s">
+    <row r="2" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+      <c r="B2" s="146" t="s">
         <v>655</v>
       </c>
       <c r="C2" s="115" t="s">
         <v>653</v>
       </c>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150" t="s">
+      <c r="D2" s="147"/>
+      <c r="E2" s="147" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="166" t="s">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="160" t="s">
         <v>769</v>
       </c>
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="167" t="s">
         <v>770</v>
       </c>
-      <c r="C5" s="174"/>
+      <c r="C5" s="168"/>
       <c r="D5" s="96" t="s">
         <v>347</v>
       </c>
@@ -18590,102 +18601,102 @@
         <v>771</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="175">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="169">
         <v>1</v>
       </c>
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="171" t="s">
         <v>662</v>
       </c>
-      <c r="C6" s="179"/>
-      <c r="D6" s="146" t="s">
+      <c r="C6" s="172"/>
+      <c r="D6" s="175" t="s">
         <v>772</v>
       </c>
-      <c r="E6" s="163" t="s">
+      <c r="E6" s="183" t="s">
         <v>773</v>
       </c>
       <c r="F6" s="100" t="s">
         <v>774</v>
       </c>
-      <c r="G6" s="153" t="s">
+      <c r="G6" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="176"/>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="179"/>
       <c r="B7" s="180"/>
       <c r="C7" s="181"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="164"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="184"/>
       <c r="F7" s="100" t="s">
         <v>775</v>
       </c>
-      <c r="G7" s="156" t="s">
+      <c r="G7" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="176"/>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="179"/>
       <c r="B8" s="180"/>
       <c r="C8" s="181"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="164"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="184"/>
       <c r="F8" s="100" t="s">
         <v>776</v>
       </c>
-      <c r="G8" s="153" t="s">
+      <c r="G8" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="176"/>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="179"/>
       <c r="B9" s="180"/>
       <c r="C9" s="181"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="165"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="185"/>
       <c r="F9" s="100" t="s">
         <v>777</v>
       </c>
-      <c r="G9" s="156" t="s">
+      <c r="G9" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="176"/>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="179"/>
       <c r="B10" s="180"/>
       <c r="C10" s="181"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="163" t="s">
+      <c r="D10" s="182"/>
+      <c r="E10" s="183" t="s">
         <v>778</v>
       </c>
       <c r="F10" s="100" t="s">
         <v>779</v>
       </c>
-      <c r="G10" s="153" t="s">
+      <c r="G10" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="177"/>
-      <c r="B11" s="182"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="165"/>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="170"/>
+      <c r="B11" s="173"/>
+      <c r="C11" s="174"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="185"/>
       <c r="F11" s="100" t="s">
         <v>780</v>
       </c>
-      <c r="G11" s="167" t="s">
+      <c r="G11" s="161" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="168" t="s">
+    <row r="12" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="162" t="s">
         <v>769</v>
       </c>
-      <c r="B12" s="173" t="s">
+      <c r="B12" s="167" t="s">
         <v>770</v>
       </c>
-      <c r="C12" s="174"/>
+      <c r="C12" s="168"/>
       <c r="D12" s="103" t="s">
         <v>347</v>
       </c>
@@ -18699,132 +18710,132 @@
         <v>771</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="175">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="169">
         <v>2</v>
       </c>
-      <c r="B13" s="178" t="s">
+      <c r="B13" s="171" t="s">
         <v>671</v>
       </c>
-      <c r="C13" s="179"/>
-      <c r="D13" s="146" t="s">
+      <c r="C13" s="172"/>
+      <c r="D13" s="175" t="s">
         <v>781</v>
       </c>
-      <c r="E13" s="163" t="s">
+      <c r="E13" s="183" t="s">
         <v>782</v>
       </c>
       <c r="F13" s="100" t="s">
         <v>779</v>
       </c>
-      <c r="G13" s="153" t="s">
+      <c r="G13" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="176"/>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="179"/>
       <c r="B14" s="180"/>
       <c r="C14" s="181"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="165"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="185"/>
       <c r="F14" s="100" t="s">
         <v>783</v>
       </c>
-      <c r="G14" s="153" t="s">
+      <c r="G14" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="176"/>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="179"/>
       <c r="B15" s="180"/>
       <c r="C15" s="181"/>
-      <c r="D15" s="147"/>
+      <c r="D15" s="182"/>
       <c r="E15" s="100" t="s">
         <v>784</v>
       </c>
       <c r="F15" s="100" t="s">
         <v>779</v>
       </c>
-      <c r="G15" s="156" t="s">
+      <c r="G15" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="176"/>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="179"/>
       <c r="B16" s="180"/>
       <c r="C16" s="181"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="163" t="s">
+      <c r="D16" s="182"/>
+      <c r="E16" s="183" t="s">
         <v>785</v>
       </c>
-      <c r="F16" s="169" t="s">
+      <c r="F16" s="163" t="s">
         <v>779</v>
       </c>
-      <c r="G16" s="153" t="s">
+      <c r="G16" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="176"/>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="179"/>
       <c r="B17" s="180"/>
       <c r="C17" s="181"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="165"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="185"/>
       <c r="F17" s="100" t="s">
         <v>786</v>
       </c>
-      <c r="G17" s="153" t="s">
+      <c r="G17" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="176"/>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="179"/>
       <c r="B18" s="180"/>
       <c r="C18" s="181"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="163" t="s">
+      <c r="D18" s="182"/>
+      <c r="E18" s="183" t="s">
         <v>778</v>
       </c>
-      <c r="F18" s="169" t="s">
+      <c r="F18" s="163" t="s">
         <v>779</v>
       </c>
-      <c r="G18" s="153" t="s">
+      <c r="G18" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="176"/>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="179"/>
       <c r="B19" s="180"/>
       <c r="C19" s="181"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="164"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="184"/>
       <c r="F19" s="100" t="s">
         <v>787</v>
       </c>
-      <c r="G19" s="153" t="s">
+      <c r="G19" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="177"/>
-      <c r="B20" s="182"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="165"/>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="170"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="185"/>
       <c r="F20" s="100" t="s">
         <v>788</v>
       </c>
-      <c r="G20" s="167" t="s">
+      <c r="G20" s="161" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="168" t="s">
+    <row r="21" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="162" t="s">
         <v>769</v>
       </c>
-      <c r="B21" s="173" t="s">
+      <c r="B21" s="167" t="s">
         <v>770</v>
       </c>
-      <c r="C21" s="174"/>
+      <c r="C21" s="168"/>
       <c r="D21" s="103" t="s">
         <v>347</v>
       </c>
@@ -18838,15 +18849,15 @@
         <v>771</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="175">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="169">
         <v>3</v>
       </c>
-      <c r="B22" s="178" t="s">
+      <c r="B22" s="171" t="s">
         <v>681</v>
       </c>
-      <c r="C22" s="179"/>
-      <c r="D22" s="146" t="s">
+      <c r="C22" s="172"/>
+      <c r="D22" s="175" t="s">
         <v>789</v>
       </c>
       <c r="E22" s="100" t="s">
@@ -18855,128 +18866,128 @@
       <c r="F22" s="100" t="s">
         <v>791</v>
       </c>
-      <c r="G22" s="153" t="s">
+      <c r="G22" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="176"/>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="179"/>
       <c r="B23" s="180"/>
       <c r="C23" s="181"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="163" t="s">
+      <c r="D23" s="182"/>
+      <c r="E23" s="183" t="s">
         <v>792</v>
       </c>
       <c r="F23" s="100" t="s">
         <v>793</v>
       </c>
-      <c r="G23" s="153" t="s">
+      <c r="G23" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="176"/>
+    <row r="24" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="179"/>
       <c r="B24" s="180"/>
       <c r="C24" s="181"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="164"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="184"/>
       <c r="F24" s="100" t="s">
         <v>794</v>
       </c>
-      <c r="G24" s="153" t="s">
+      <c r="G24" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="176"/>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="179"/>
       <c r="B25" s="180"/>
       <c r="C25" s="181"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="164"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="184"/>
       <c r="F25" s="100" t="s">
         <v>795</v>
       </c>
-      <c r="G25" s="156" t="s">
+      <c r="G25" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="176"/>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="179"/>
       <c r="B26" s="180"/>
       <c r="C26" s="181"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="165"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="185"/>
       <c r="F26" s="100" t="s">
         <v>688</v>
       </c>
-      <c r="G26" s="156" t="s">
+      <c r="G26" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="176"/>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="179"/>
       <c r="B27" s="180"/>
       <c r="C27" s="181"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="163" t="s">
+      <c r="D27" s="182"/>
+      <c r="E27" s="183" t="s">
         <v>796</v>
       </c>
       <c r="F27" s="100" t="s">
         <v>797</v>
       </c>
-      <c r="G27" s="153" t="s">
+      <c r="G27" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="176"/>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="179"/>
       <c r="B28" s="180"/>
       <c r="C28" s="181"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="165"/>
+      <c r="D28" s="182"/>
+      <c r="E28" s="185"/>
       <c r="F28" s="100" t="s">
         <v>798</v>
       </c>
-      <c r="G28" s="156" t="s">
+      <c r="G28" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="176"/>
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="179"/>
       <c r="B29" s="180"/>
       <c r="C29" s="181"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="163" t="s">
+      <c r="D29" s="182"/>
+      <c r="E29" s="183" t="s">
         <v>778</v>
       </c>
       <c r="F29" s="100" t="s">
         <v>799</v>
       </c>
-      <c r="G29" s="153" t="s">
+      <c r="G29" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="177"/>
-      <c r="B30" s="182"/>
-      <c r="C30" s="183"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="165"/>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="170"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="185"/>
       <c r="F30" s="100" t="s">
         <v>780</v>
       </c>
-      <c r="G30" s="167" t="s">
+      <c r="G30" s="161" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="168" t="s">
+    <row r="31" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="162" t="s">
         <v>769</v>
       </c>
-      <c r="B31" s="173" t="s">
+      <c r="B31" s="167" t="s">
         <v>770</v>
       </c>
-      <c r="C31" s="174"/>
+      <c r="C31" s="168"/>
       <c r="D31" s="103" t="s">
         <v>347</v>
       </c>
@@ -18990,15 +19001,15 @@
         <v>771</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="175">
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="169">
         <v>4</v>
       </c>
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="171" t="s">
         <v>699</v>
       </c>
-      <c r="C32" s="179"/>
-      <c r="D32" s="146" t="s">
+      <c r="C32" s="172"/>
+      <c r="D32" s="175" t="s">
         <v>789</v>
       </c>
       <c r="E32" s="100" t="s">
@@ -19007,128 +19018,128 @@
       <c r="F32" s="100" t="s">
         <v>801</v>
       </c>
-      <c r="G32" s="153" t="s">
+      <c r="G32" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="176"/>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="179"/>
       <c r="B33" s="180"/>
       <c r="C33" s="181"/>
-      <c r="D33" s="147"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="100" t="s">
         <v>802</v>
       </c>
       <c r="F33" s="100" t="s">
         <v>703</v>
       </c>
-      <c r="G33" s="156" t="s">
+      <c r="G33" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="176"/>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="179"/>
       <c r="B34" s="180"/>
       <c r="C34" s="181"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="163" t="s">
+      <c r="D34" s="182"/>
+      <c r="E34" s="183" t="s">
         <v>803</v>
       </c>
       <c r="F34" s="100" t="s">
         <v>705</v>
       </c>
-      <c r="G34" s="156" t="s">
+      <c r="G34" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="176"/>
+    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="179"/>
       <c r="B35" s="180"/>
       <c r="C35" s="181"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="164"/>
+      <c r="D35" s="182"/>
+      <c r="E35" s="184"/>
       <c r="F35" s="100" t="s">
         <v>709</v>
       </c>
-      <c r="G35" s="156" t="s">
+      <c r="G35" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="176"/>
+    <row r="36" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="179"/>
       <c r="B36" s="180"/>
       <c r="C36" s="181"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="164"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="184"/>
       <c r="F36" s="100" t="s">
         <v>714</v>
       </c>
-      <c r="G36" s="156" t="s">
+      <c r="G36" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="176"/>
+    <row r="37" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="179"/>
       <c r="B37" s="180"/>
       <c r="C37" s="181"/>
-      <c r="D37" s="147"/>
-      <c r="E37" s="165"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="185"/>
       <c r="F37" s="100" t="s">
         <v>716</v>
       </c>
-      <c r="G37" s="153" t="s">
+      <c r="G37" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="176"/>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="179"/>
       <c r="B38" s="180"/>
       <c r="C38" s="181"/>
-      <c r="D38" s="147"/>
-      <c r="E38" s="163" t="s">
+      <c r="D38" s="182"/>
+      <c r="E38" s="183" t="s">
         <v>804</v>
       </c>
       <c r="F38" s="100" t="s">
         <v>711</v>
       </c>
-      <c r="G38" s="156" t="s">
+      <c r="G38" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="176"/>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="179"/>
       <c r="B39" s="180"/>
       <c r="C39" s="181"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="164"/>
+      <c r="D39" s="182"/>
+      <c r="E39" s="184"/>
       <c r="F39" s="100" t="s">
         <v>712</v>
       </c>
-      <c r="G39" s="156" t="s">
+      <c r="G39" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="177"/>
-      <c r="B40" s="182"/>
-      <c r="C40" s="183"/>
-      <c r="D40" s="148"/>
-      <c r="E40" s="165"/>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="170"/>
+      <c r="B40" s="173"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="185"/>
       <c r="F40" s="100" t="s">
         <v>713</v>
       </c>
-      <c r="G40" s="167" t="s">
+      <c r="G40" s="161" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="168" t="s">
+    <row r="41" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="162" t="s">
         <v>769</v>
       </c>
-      <c r="B41" s="173" t="s">
+      <c r="B41" s="167" t="s">
         <v>770</v>
       </c>
-      <c r="C41" s="174"/>
+      <c r="C41" s="168"/>
       <c r="D41" s="103" t="s">
         <v>347</v>
       </c>
@@ -19142,115 +19153,115 @@
         <v>771</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="175">
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="169">
         <v>5</v>
       </c>
-      <c r="B42" s="178" t="s">
+      <c r="B42" s="171" t="s">
         <v>717</v>
       </c>
-      <c r="C42" s="179"/>
-      <c r="D42" s="146" t="s">
+      <c r="C42" s="172"/>
+      <c r="D42" s="175" t="s">
         <v>789</v>
       </c>
-      <c r="E42" s="163" t="s">
+      <c r="E42" s="183" t="s">
         <v>805</v>
       </c>
       <c r="F42" s="100" t="s">
         <v>719</v>
       </c>
-      <c r="G42" s="156" t="s">
+      <c r="G42" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="176"/>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="179"/>
       <c r="B43" s="180"/>
       <c r="C43" s="181"/>
-      <c r="D43" s="147"/>
-      <c r="E43" s="164"/>
+      <c r="D43" s="182"/>
+      <c r="E43" s="184"/>
       <c r="F43" s="100" t="s">
         <v>721</v>
       </c>
-      <c r="G43" s="156" t="s">
+      <c r="G43" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="176"/>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="179"/>
       <c r="B44" s="180"/>
       <c r="C44" s="181"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="165"/>
+      <c r="D44" s="182"/>
+      <c r="E44" s="185"/>
       <c r="F44" s="100" t="s">
         <v>723</v>
       </c>
-      <c r="G44" s="156" t="s">
+      <c r="G44" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="176"/>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="179"/>
       <c r="B45" s="180"/>
       <c r="C45" s="181"/>
-      <c r="D45" s="147"/>
-      <c r="E45" s="163" t="s">
+      <c r="D45" s="182"/>
+      <c r="E45" s="183" t="s">
         <v>806</v>
       </c>
       <c r="F45" s="100" t="s">
         <v>807</v>
       </c>
-      <c r="G45" s="156" t="s">
+      <c r="G45" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="176"/>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="179"/>
       <c r="B46" s="180"/>
       <c r="C46" s="181"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="164"/>
+      <c r="D46" s="182"/>
+      <c r="E46" s="184"/>
       <c r="F46" s="100" t="s">
         <v>808</v>
       </c>
-      <c r="G46" s="156" t="s">
+      <c r="G46" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="176"/>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="179"/>
       <c r="B47" s="180"/>
       <c r="C47" s="181"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="164"/>
+      <c r="D47" s="182"/>
+      <c r="E47" s="184"/>
       <c r="F47" s="100" t="s">
         <v>809</v>
       </c>
-      <c r="G47" s="156" t="s">
+      <c r="G47" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="177"/>
-      <c r="B48" s="182"/>
-      <c r="C48" s="183"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="165"/>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="170"/>
+      <c r="B48" s="173"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="176"/>
+      <c r="E48" s="185"/>
       <c r="F48" s="100" t="s">
         <v>810</v>
       </c>
-      <c r="G48" s="167" t="s">
+      <c r="G48" s="161" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="168" t="s">
+    <row r="49" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="162" t="s">
         <v>769</v>
       </c>
-      <c r="B49" s="173" t="s">
+      <c r="B49" s="167" t="s">
         <v>770</v>
       </c>
-      <c r="C49" s="174"/>
+      <c r="C49" s="168"/>
       <c r="D49" s="103" t="s">
         <v>347</v>
       </c>
@@ -19264,102 +19275,102 @@
         <v>771</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="175">
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="169">
         <v>6</v>
       </c>
-      <c r="B50" s="178" t="s">
+      <c r="B50" s="171" t="s">
         <v>733</v>
       </c>
-      <c r="C50" s="179"/>
-      <c r="D50" s="146" t="s">
+      <c r="C50" s="172"/>
+      <c r="D50" s="175" t="s">
         <v>789</v>
       </c>
-      <c r="E50" s="163" t="s">
+      <c r="E50" s="183" t="s">
         <v>811</v>
       </c>
       <c r="F50" s="100" t="s">
         <v>735</v>
       </c>
-      <c r="G50" s="156" t="s">
+      <c r="G50" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="176"/>
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="179"/>
       <c r="B51" s="180"/>
       <c r="C51" s="181"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="164"/>
+      <c r="D51" s="182"/>
+      <c r="E51" s="184"/>
       <c r="F51" s="100" t="s">
         <v>812</v>
       </c>
-      <c r="G51" s="153" t="s">
+      <c r="G51" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="176"/>
+    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="179"/>
       <c r="B52" s="180"/>
       <c r="C52" s="181"/>
-      <c r="D52" s="147"/>
-      <c r="E52" s="164"/>
+      <c r="D52" s="182"/>
+      <c r="E52" s="184"/>
       <c r="F52" s="100" t="s">
         <v>813</v>
       </c>
-      <c r="G52" s="156" t="s">
+      <c r="G52" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="176"/>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="179"/>
       <c r="B53" s="180"/>
       <c r="C53" s="181"/>
-      <c r="D53" s="147"/>
-      <c r="E53" s="165"/>
+      <c r="D53" s="182"/>
+      <c r="E53" s="185"/>
       <c r="F53" s="100" t="s">
         <v>814</v>
       </c>
-      <c r="G53" s="156" t="s">
+      <c r="G53" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="176"/>
+    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="179"/>
       <c r="B54" s="180"/>
       <c r="C54" s="181"/>
-      <c r="D54" s="147"/>
-      <c r="E54" s="163" t="s">
+      <c r="D54" s="182"/>
+      <c r="E54" s="183" t="s">
         <v>778</v>
       </c>
       <c r="F54" s="100" t="s">
         <v>815</v>
       </c>
-      <c r="G54" s="156" t="s">
+      <c r="G54" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="177"/>
-      <c r="B55" s="182"/>
-      <c r="C55" s="183"/>
-      <c r="D55" s="148"/>
-      <c r="E55" s="165"/>
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="170"/>
+      <c r="B55" s="173"/>
+      <c r="C55" s="174"/>
+      <c r="D55" s="176"/>
+      <c r="E55" s="185"/>
       <c r="F55" s="100" t="s">
         <v>780</v>
       </c>
-      <c r="G55" s="167" t="s">
+      <c r="G55" s="161" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="168" t="s">
+    <row r="56" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="162" t="s">
         <v>769</v>
       </c>
-      <c r="B56" s="173" t="s">
+      <c r="B56" s="167" t="s">
         <v>770</v>
       </c>
-      <c r="C56" s="174"/>
+      <c r="C56" s="168"/>
       <c r="D56" s="103" t="s">
         <v>347</v>
       </c>
@@ -19373,15 +19384,15 @@
         <v>771</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="175">
+    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="169">
         <v>7</v>
       </c>
-      <c r="B57" s="178" t="s">
+      <c r="B57" s="171" t="s">
         <v>746</v>
       </c>
-      <c r="C57" s="179"/>
-      <c r="D57" s="146" t="s">
+      <c r="C57" s="172"/>
+      <c r="D57" s="175" t="s">
         <v>789</v>
       </c>
       <c r="E57" s="100" t="s">
@@ -19390,33 +19401,33 @@
       <c r="F57" s="100" t="s">
         <v>817</v>
       </c>
-      <c r="G57" s="153" t="s">
+      <c r="G57" s="150" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="177"/>
-      <c r="B58" s="182"/>
-      <c r="C58" s="183"/>
-      <c r="D58" s="148"/>
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="170"/>
+      <c r="B58" s="173"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="176"/>
       <c r="E58" s="100" t="s">
         <v>818</v>
       </c>
-      <c r="F58" s="169" t="s">
+      <c r="F58" s="163" t="s">
         <v>819</v>
       </c>
-      <c r="G58" s="167" t="s">
+      <c r="G58" s="161" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="168" t="s">
+    <row r="59" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="162" t="s">
         <v>769</v>
       </c>
-      <c r="B59" s="173" t="s">
+      <c r="B59" s="167" t="s">
         <v>770</v>
       </c>
-      <c r="C59" s="174"/>
+      <c r="C59" s="168"/>
       <c r="D59" s="103" t="s">
         <v>347</v>
       </c>
@@ -19430,15 +19441,15 @@
         <v>771</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="170">
+    <row r="60" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="164">
         <v>8</v>
       </c>
-      <c r="B60" s="184" t="s">
+      <c r="B60" s="177" t="s">
         <v>751</v>
       </c>
-      <c r="C60" s="185"/>
-      <c r="D60" s="171" t="s">
+      <c r="C60" s="178"/>
+      <c r="D60" s="165" t="s">
         <v>789</v>
       </c>
       <c r="E60" s="100" t="s">
@@ -19447,18 +19458,18 @@
       <c r="F60" s="100" t="s">
         <v>821</v>
       </c>
-      <c r="G60" s="172" t="s">
+      <c r="G60" s="166" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="168" t="s">
+    <row r="61" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="162" t="s">
         <v>769</v>
       </c>
-      <c r="B61" s="173" t="s">
+      <c r="B61" s="167" t="s">
         <v>770</v>
       </c>
-      <c r="C61" s="174"/>
+      <c r="C61" s="168"/>
       <c r="D61" s="103" t="s">
         <v>347</v>
       </c>
@@ -19472,15 +19483,15 @@
         <v>771</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="175">
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="169">
         <v>9</v>
       </c>
-      <c r="B62" s="178" t="s">
+      <c r="B62" s="171" t="s">
         <v>754</v>
       </c>
-      <c r="C62" s="179"/>
-      <c r="D62" s="146" t="s">
+      <c r="C62" s="172"/>
+      <c r="D62" s="175" t="s">
         <v>789</v>
       </c>
       <c r="E62" s="100" t="s">
@@ -19489,27 +19500,65 @@
       <c r="F62" s="100" t="s">
         <v>822</v>
       </c>
-      <c r="G62" s="156" t="s">
+      <c r="G62" s="153" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="177"/>
-      <c r="B63" s="182"/>
-      <c r="C63" s="183"/>
-      <c r="D63" s="148"/>
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="170"/>
+      <c r="B63" s="173"/>
+      <c r="C63" s="174"/>
+      <c r="D63" s="176"/>
       <c r="E63" s="100" t="s">
         <v>823</v>
       </c>
       <c r="F63" s="100" t="s">
         <v>824</v>
       </c>
-      <c r="G63" s="153" t="s">
+      <c r="G63" s="150" t="s">
         <v>661</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B6:C11"/>
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="B13:C20"/>
+    <mergeCell ref="D13:D20"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B22:C30"/>
+    <mergeCell ref="D22:D30"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="B32:C40"/>
+    <mergeCell ref="D32:D40"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B42:C48"/>
+    <mergeCell ref="D42:D48"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="B50:C55"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E54:E55"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="B62:C63"/>
@@ -19520,44 +19569,6 @@
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="B50:C55"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B42:C48"/>
-    <mergeCell ref="D42:D48"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A32:A40"/>
-    <mergeCell ref="B32:C40"/>
-    <mergeCell ref="D32:D40"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="B22:C30"/>
-    <mergeCell ref="D22:D30"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="B13:C20"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B6:C11"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" display="https://test-stand.gb.ru/seminar_stands/umeet/index.html" xr:uid="{23CCB47D-531F-4D8D-B678-A0B3880FAAC2}"/>
@@ -19582,14 +19593,14 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="74.26953125" customWidth="1"/>
-    <col min="5" max="5" width="50.1796875" customWidth="1"/>
+    <col min="1" max="1" width="74.21875" customWidth="1"/>
+    <col min="5" max="5" width="50.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:5" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="97" t="s">
         <v>346</v>
       </c>
@@ -19606,11 +19617,11 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="100.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="162" t="s">
+    <row r="7" spans="1:5" ht="106.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="159" t="s">
         <v>759</v>
       </c>
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="183" t="s">
         <v>760</v>
       </c>
       <c r="C7" s="100" t="s">
@@ -19623,11 +19634,11 @@
         <v>763</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="99" t="s">
         <v>350</v>
       </c>
-      <c r="B8" s="164"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="100" t="s">
         <v>764</v>
       </c>
@@ -19636,11 +19647,11 @@
         <v>765</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="101" t="s">
         <v>351</v>
       </c>
-      <c r="B9" s="164"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="100" t="s">
         <v>766</v>
       </c>
@@ -19649,33 +19660,33 @@
         <v>767</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="101"/>
-      <c r="B10" s="164"/>
+      <c r="B10" s="184"/>
       <c r="C10" s="100"/>
       <c r="D10" s="98"/>
       <c r="E10" s="100"/>
     </row>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="102" t="s">
         <v>352</v>
       </c>
-      <c r="B11" s="164"/>
+      <c r="B11" s="184"/>
       <c r="C11" s="100"/>
       <c r="D11" s="98"/>
       <c r="E11" s="100"/>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="101" t="s">
         <v>768</v>
       </c>
-      <c r="B12" s="165"/>
+      <c r="B12" s="185"/>
       <c r="C12" s="98"/>
       <c r="D12" s="98"/>
       <c r="E12" s="98"/>
     </row>
-    <row r="19" ht="63" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="63" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B7:B12"/>
